--- a/BackTest/2020-01-26 BackTest ADA.xlsx
+++ b/BackTest/2020-01-26 BackTest ADA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M213"/>
+  <dimension ref="A1:M214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>51.59</v>
+        <v>51.6</v>
       </c>
       <c r="C2" t="n">
-        <v>51.59</v>
+        <v>51.6</v>
       </c>
       <c r="D2" t="n">
-        <v>51.59</v>
+        <v>51.6</v>
       </c>
       <c r="E2" t="n">
-        <v>51.59</v>
+        <v>51.6</v>
       </c>
       <c r="F2" t="n">
-        <v>9858.401</v>
+        <v>19278.3754</v>
       </c>
       <c r="G2" t="n">
-        <v>51.99683333333336</v>
+        <v>52.00933333333337</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>51.6</v>
+        <v>51.59</v>
       </c>
       <c r="C3" t="n">
-        <v>51.5</v>
+        <v>51.59</v>
       </c>
       <c r="D3" t="n">
-        <v>51.6</v>
+        <v>51.59</v>
       </c>
       <c r="E3" t="n">
-        <v>51.5</v>
+        <v>51.59</v>
       </c>
       <c r="F3" t="n">
-        <v>8782.7845</v>
+        <v>9858.401</v>
       </c>
       <c r="G3" t="n">
-        <v>51.98200000000003</v>
+        <v>51.99683333333336</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>51.64</v>
+        <v>51.6</v>
       </c>
       <c r="C4" t="n">
-        <v>51.64</v>
+        <v>51.5</v>
       </c>
       <c r="D4" t="n">
-        <v>51.64</v>
+        <v>51.6</v>
       </c>
       <c r="E4" t="n">
-        <v>51.64</v>
+        <v>51.5</v>
       </c>
       <c r="F4" t="n">
-        <v>25.3199</v>
+        <v>8782.7845</v>
       </c>
       <c r="G4" t="n">
-        <v>51.96950000000003</v>
+        <v>51.98200000000003</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51.5</v>
+        <v>51.64</v>
       </c>
       <c r="C5" t="n">
-        <v>51.41</v>
+        <v>51.64</v>
       </c>
       <c r="D5" t="n">
-        <v>51.5</v>
+        <v>51.64</v>
       </c>
       <c r="E5" t="n">
-        <v>51.41</v>
+        <v>51.64</v>
       </c>
       <c r="F5" t="n">
-        <v>28250</v>
+        <v>25.3199</v>
       </c>
       <c r="G5" t="n">
-        <v>51.95500000000003</v>
+        <v>51.96950000000003</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51.42</v>
+        <v>51.5</v>
       </c>
       <c r="C6" t="n">
-        <v>51.42</v>
+        <v>51.41</v>
       </c>
       <c r="D6" t="n">
-        <v>51.42</v>
+        <v>51.5</v>
       </c>
       <c r="E6" t="n">
-        <v>51.42</v>
+        <v>51.41</v>
       </c>
       <c r="F6" t="n">
-        <v>500</v>
+        <v>28250</v>
       </c>
       <c r="G6" t="n">
-        <v>51.93750000000003</v>
+        <v>51.95500000000003</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51.48</v>
+        <v>51.42</v>
       </c>
       <c r="C7" t="n">
-        <v>51.49</v>
+        <v>51.42</v>
       </c>
       <c r="D7" t="n">
-        <v>51.49</v>
+        <v>51.42</v>
       </c>
       <c r="E7" t="n">
-        <v>51.48</v>
+        <v>51.42</v>
       </c>
       <c r="F7" t="n">
-        <v>4264.6446</v>
+        <v>500</v>
       </c>
       <c r="G7" t="n">
-        <v>51.92450000000003</v>
+        <v>51.93750000000003</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>51.46</v>
+        <v>51.48</v>
       </c>
       <c r="C8" t="n">
-        <v>51.46</v>
+        <v>51.49</v>
       </c>
       <c r="D8" t="n">
-        <v>51.46</v>
+        <v>51.49</v>
       </c>
       <c r="E8" t="n">
-        <v>51.46</v>
+        <v>51.48</v>
       </c>
       <c r="F8" t="n">
-        <v>6191.8085</v>
+        <v>4264.6446</v>
       </c>
       <c r="G8" t="n">
-        <v>51.91416666666669</v>
+        <v>51.92450000000003</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>51.46</v>
       </c>
       <c r="C9" t="n">
-        <v>51.49</v>
+        <v>51.46</v>
       </c>
       <c r="D9" t="n">
-        <v>51.49</v>
+        <v>51.46</v>
       </c>
       <c r="E9" t="n">
         <v>51.46</v>
       </c>
       <c r="F9" t="n">
-        <v>12782.219</v>
+        <v>6191.8085</v>
       </c>
       <c r="G9" t="n">
-        <v>51.90566666666669</v>
+        <v>51.91416666666669</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>51.79</v>
+        <v>51.46</v>
       </c>
       <c r="C10" t="n">
-        <v>51.79</v>
+        <v>51.49</v>
       </c>
       <c r="D10" t="n">
-        <v>51.79</v>
+        <v>51.49</v>
       </c>
       <c r="E10" t="n">
-        <v>51.79</v>
+        <v>51.46</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>12782.219</v>
       </c>
       <c r="G10" t="n">
-        <v>51.89583333333336</v>
+        <v>51.90566666666669</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>51.79</v>
       </c>
       <c r="F11" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>51.88733333333335</v>
+        <v>51.89583333333336</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>51.76</v>
+        <v>51.79</v>
       </c>
       <c r="C12" t="n">
         <v>51.79</v>
@@ -792,13 +792,13 @@
         <v>51.79</v>
       </c>
       <c r="E12" t="n">
-        <v>51.76</v>
+        <v>51.79</v>
       </c>
       <c r="F12" t="n">
-        <v>16973.8482</v>
+        <v>59</v>
       </c>
       <c r="G12" t="n">
-        <v>51.87866666666669</v>
+        <v>51.88733333333335</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>51.78</v>
+        <v>51.76</v>
       </c>
       <c r="C13" t="n">
-        <v>51.78</v>
+        <v>51.79</v>
       </c>
       <c r="D13" t="n">
-        <v>51.78</v>
+        <v>51.79</v>
       </c>
       <c r="E13" t="n">
-        <v>51.78</v>
+        <v>51.76</v>
       </c>
       <c r="F13" t="n">
-        <v>241.333</v>
+        <v>16973.8482</v>
       </c>
       <c r="G13" t="n">
-        <v>51.86716666666669</v>
+        <v>51.87866666666669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>51.78</v>
       </c>
       <c r="C14" t="n">
-        <v>52</v>
+        <v>51.78</v>
       </c>
       <c r="D14" t="n">
-        <v>52</v>
+        <v>51.78</v>
       </c>
       <c r="E14" t="n">
         <v>51.78</v>
       </c>
       <c r="F14" t="n">
-        <v>22712.163</v>
+        <v>241.333</v>
       </c>
       <c r="G14" t="n">
-        <v>51.86266666666669</v>
+        <v>51.86716666666669</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>52</v>
+        <v>51.78</v>
       </c>
       <c r="C15" t="n">
         <v>52</v>
@@ -897,13 +897,13 @@
         <v>52</v>
       </c>
       <c r="E15" t="n">
-        <v>52</v>
+        <v>51.78</v>
       </c>
       <c r="F15" t="n">
-        <v>9939.158299999999</v>
+        <v>22712.163</v>
       </c>
       <c r="G15" t="n">
-        <v>51.85266666666669</v>
+        <v>51.86266666666669</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>52</v>
       </c>
       <c r="F16" t="n">
-        <v>38766.5166</v>
+        <v>9939.158299999999</v>
       </c>
       <c r="G16" t="n">
-        <v>51.84833333333336</v>
+        <v>51.85266666666669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>52</v>
       </c>
       <c r="F17" t="n">
-        <v>364800.1907</v>
+        <v>38766.5166</v>
       </c>
       <c r="G17" t="n">
-        <v>51.84400000000002</v>
+        <v>51.84833333333336</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>52</v>
       </c>
       <c r="C18" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="D18" t="n">
         <v>52</v>
       </c>
       <c r="E18" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="F18" t="n">
-        <v>20492.6753</v>
+        <v>364800.1907</v>
       </c>
       <c r="G18" t="n">
-        <v>51.83783333333336</v>
+        <v>51.84400000000002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="C19" t="n">
         <v>51.9</v>
       </c>
       <c r="D19" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="E19" t="n">
         <v>51.9</v>
       </c>
       <c r="F19" t="n">
-        <v>1957.1837</v>
+        <v>20492.6753</v>
       </c>
       <c r="G19" t="n">
-        <v>51.83233333333336</v>
+        <v>51.83783333333336</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>51.9</v>
       </c>
       <c r="C20" t="n">
-        <v>52</v>
+        <v>51.9</v>
       </c>
       <c r="D20" t="n">
-        <v>52</v>
+        <v>51.9</v>
       </c>
       <c r="E20" t="n">
         <v>51.9</v>
       </c>
       <c r="F20" t="n">
-        <v>82088.26420000001</v>
+        <v>1957.1837</v>
       </c>
       <c r="G20" t="n">
-        <v>51.82850000000003</v>
+        <v>51.83233333333336</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>52</v>
+        <v>51.9</v>
       </c>
       <c r="C21" t="n">
         <v>52</v>
@@ -1107,13 +1107,13 @@
         <v>52</v>
       </c>
       <c r="E21" t="n">
-        <v>52</v>
+        <v>51.9</v>
       </c>
       <c r="F21" t="n">
-        <v>43953.1973</v>
+        <v>82088.26420000001</v>
       </c>
       <c r="G21" t="n">
-        <v>51.83116666666669</v>
+        <v>51.82850000000003</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>52</v>
       </c>
       <c r="F22" t="n">
-        <v>27787.5999</v>
+        <v>43953.1973</v>
       </c>
       <c r="G22" t="n">
-        <v>51.83300000000002</v>
+        <v>51.83116666666669</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>52</v>
       </c>
       <c r="F23" t="n">
-        <v>4713.2999</v>
+        <v>27787.5999</v>
       </c>
       <c r="G23" t="n">
-        <v>51.83766666666669</v>
+        <v>51.83300000000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>52.16</v>
+        <v>52</v>
       </c>
       <c r="C24" t="n">
-        <v>52.27</v>
+        <v>52</v>
       </c>
       <c r="D24" t="n">
-        <v>52.27</v>
+        <v>52</v>
       </c>
       <c r="E24" t="n">
-        <v>52.16</v>
+        <v>52</v>
       </c>
       <c r="F24" t="n">
-        <v>16000</v>
+        <v>4713.2999</v>
       </c>
       <c r="G24" t="n">
-        <v>51.84883333333336</v>
+        <v>51.83766666666669</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>52.27</v>
+        <v>52.16</v>
       </c>
       <c r="C25" t="n">
         <v>52.27</v>
@@ -1247,13 +1247,13 @@
         <v>52.27</v>
       </c>
       <c r="E25" t="n">
-        <v>52.27</v>
+        <v>52.16</v>
       </c>
       <c r="F25" t="n">
-        <v>6341.8913</v>
+        <v>16000</v>
       </c>
       <c r="G25" t="n">
-        <v>51.86000000000003</v>
+        <v>51.84883333333336</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>52.29</v>
+        <v>52.27</v>
       </c>
       <c r="C26" t="n">
-        <v>52.49</v>
+        <v>52.27</v>
       </c>
       <c r="D26" t="n">
-        <v>52.49</v>
+        <v>52.27</v>
       </c>
       <c r="E26" t="n">
-        <v>52.29</v>
+        <v>52.27</v>
       </c>
       <c r="F26" t="n">
-        <v>12906.5693</v>
+        <v>6341.8913</v>
       </c>
       <c r="G26" t="n">
-        <v>51.87650000000003</v>
+        <v>51.86000000000003</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>52.32</v>
+        <v>52.29</v>
       </c>
       <c r="C27" t="n">
-        <v>52.39</v>
+        <v>52.49</v>
       </c>
       <c r="D27" t="n">
-        <v>52.39</v>
+        <v>52.49</v>
       </c>
       <c r="E27" t="n">
-        <v>52.31</v>
+        <v>52.29</v>
       </c>
       <c r="F27" t="n">
-        <v>22402.8574</v>
+        <v>12906.5693</v>
       </c>
       <c r="G27" t="n">
-        <v>51.89133333333336</v>
+        <v>51.87650000000003</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,28 +1343,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>52.32</v>
+      </c>
+      <c r="C28" t="n">
+        <v>52.39</v>
+      </c>
+      <c r="D28" t="n">
+        <v>52.39</v>
+      </c>
+      <c r="E28" t="n">
         <v>52.31</v>
       </c>
-      <c r="C28" t="n">
-        <v>52.18</v>
-      </c>
-      <c r="D28" t="n">
-        <v>52.31</v>
-      </c>
-      <c r="E28" t="n">
-        <v>52.18</v>
-      </c>
       <c r="F28" t="n">
-        <v>28230</v>
+        <v>22402.8574</v>
       </c>
       <c r="G28" t="n">
-        <v>51.90233333333335</v>
+        <v>51.89133333333336</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1378,28 +1378,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>52.24</v>
+        <v>52.31</v>
       </c>
       <c r="C29" t="n">
-        <v>52.24</v>
+        <v>52.18</v>
       </c>
       <c r="D29" t="n">
-        <v>52.24</v>
+        <v>52.31</v>
       </c>
       <c r="E29" t="n">
-        <v>52.24</v>
+        <v>52.18</v>
       </c>
       <c r="F29" t="n">
-        <v>485.43261868</v>
+        <v>28230</v>
       </c>
       <c r="G29" t="n">
-        <v>51.91133333333335</v>
+        <v>51.90233333333335</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1425,10 +1425,10 @@
         <v>52.24</v>
       </c>
       <c r="F30" t="n">
-        <v>10000</v>
+        <v>485.43261868</v>
       </c>
       <c r="G30" t="n">
-        <v>51.91050000000002</v>
+        <v>51.91133333333335</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>52.03</v>
+        <v>52.24</v>
       </c>
       <c r="C31" t="n">
-        <v>52.03</v>
+        <v>52.24</v>
       </c>
       <c r="D31" t="n">
-        <v>52.03</v>
+        <v>52.24</v>
       </c>
       <c r="E31" t="n">
-        <v>52.03</v>
+        <v>52.24</v>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="G31" t="n">
-        <v>51.90733333333336</v>
+        <v>51.91050000000002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>52.12</v>
+        <v>52.03</v>
       </c>
       <c r="C32" t="n">
-        <v>52.12</v>
+        <v>52.03</v>
       </c>
       <c r="D32" t="n">
-        <v>52.12</v>
+        <v>52.03</v>
       </c>
       <c r="E32" t="n">
-        <v>52.12</v>
+        <v>52.03</v>
       </c>
       <c r="F32" t="n">
-        <v>20287.7366</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>51.90800000000002</v>
+        <v>51.90733333333336</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>52.24</v>
+        <v>52.12</v>
       </c>
       <c r="C33" t="n">
-        <v>52.24</v>
+        <v>52.12</v>
       </c>
       <c r="D33" t="n">
-        <v>52.24</v>
+        <v>52.12</v>
       </c>
       <c r="E33" t="n">
-        <v>52.24</v>
+        <v>52.12</v>
       </c>
       <c r="F33" t="n">
-        <v>5107.0601</v>
+        <v>20287.7366</v>
       </c>
       <c r="G33" t="n">
-        <v>51.91233333333335</v>
+        <v>51.90800000000002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>52.27</v>
+        <v>52.24</v>
       </c>
       <c r="C34" t="n">
-        <v>52.26</v>
+        <v>52.24</v>
       </c>
       <c r="D34" t="n">
-        <v>52.28</v>
+        <v>52.24</v>
       </c>
       <c r="E34" t="n">
-        <v>52.18</v>
+        <v>52.24</v>
       </c>
       <c r="F34" t="n">
-        <v>208757.737</v>
+        <v>5107.0601</v>
       </c>
       <c r="G34" t="n">
-        <v>51.9171666666667</v>
+        <v>51.91233333333335</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>52.3</v>
+        <v>52.27</v>
       </c>
       <c r="C35" t="n">
-        <v>52.3</v>
+        <v>52.26</v>
       </c>
       <c r="D35" t="n">
-        <v>52.3</v>
+        <v>52.28</v>
       </c>
       <c r="E35" t="n">
-        <v>52.3</v>
+        <v>52.18</v>
       </c>
       <c r="F35" t="n">
-        <v>33.00191204</v>
+        <v>208757.737</v>
       </c>
       <c r="G35" t="n">
-        <v>51.92550000000003</v>
+        <v>51.9171666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,28 +1623,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>52.2</v>
+        <v>52.3</v>
       </c>
       <c r="C36" t="n">
-        <v>52.2</v>
+        <v>52.3</v>
       </c>
       <c r="D36" t="n">
-        <v>52.2</v>
+        <v>52.3</v>
       </c>
       <c r="E36" t="n">
-        <v>52.2</v>
+        <v>52.3</v>
       </c>
       <c r="F36" t="n">
-        <v>18292.1382</v>
+        <v>33.00191204</v>
       </c>
       <c r="G36" t="n">
-        <v>51.93166666666669</v>
+        <v>51.92550000000003</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1661,19 +1661,19 @@
         <v>52.2</v>
       </c>
       <c r="C37" t="n">
-        <v>52.1</v>
+        <v>52.2</v>
       </c>
       <c r="D37" t="n">
         <v>52.2</v>
       </c>
       <c r="E37" t="n">
-        <v>52.1</v>
+        <v>52.2</v>
       </c>
       <c r="F37" t="n">
-        <v>131337.6773</v>
+        <v>18292.1382</v>
       </c>
       <c r="G37" t="n">
-        <v>51.93950000000002</v>
+        <v>51.93166666666669</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>52.12</v>
+        <v>52.2</v>
       </c>
       <c r="C38" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="D38" t="n">
         <v>52.2</v>
       </c>
       <c r="E38" t="n">
-        <v>52.12</v>
+        <v>52.1</v>
       </c>
       <c r="F38" t="n">
-        <v>1939.5804</v>
+        <v>131337.6773</v>
       </c>
       <c r="G38" t="n">
-        <v>51.94416666666668</v>
+        <v>51.93950000000002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>52.2</v>
+        <v>52.12</v>
       </c>
       <c r="C39" t="n">
         <v>52.2</v>
@@ -1737,13 +1737,13 @@
         <v>52.2</v>
       </c>
       <c r="E39" t="n">
-        <v>52.2</v>
+        <v>52.12</v>
       </c>
       <c r="F39" t="n">
-        <v>26249.7848</v>
+        <v>1939.5804</v>
       </c>
       <c r="G39" t="n">
-        <v>51.94850000000001</v>
+        <v>51.94416666666668</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>52.2</v>
       </c>
       <c r="C40" t="n">
-        <v>52.44</v>
+        <v>52.2</v>
       </c>
       <c r="D40" t="n">
-        <v>52.44</v>
+        <v>52.2</v>
       </c>
       <c r="E40" t="n">
         <v>52.2</v>
       </c>
       <c r="F40" t="n">
-        <v>15963.8404</v>
+        <v>26249.7848</v>
       </c>
       <c r="G40" t="n">
-        <v>51.95583333333335</v>
+        <v>51.94850000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>52.49</v>
+        <v>52.2</v>
       </c>
       <c r="C41" t="n">
-        <v>52.49</v>
+        <v>52.44</v>
       </c>
       <c r="D41" t="n">
-        <v>52.49</v>
+        <v>52.44</v>
       </c>
       <c r="E41" t="n">
-        <v>52.49</v>
+        <v>52.2</v>
       </c>
       <c r="F41" t="n">
-        <v>3532.4922</v>
+        <v>15963.8404</v>
       </c>
       <c r="G41" t="n">
-        <v>51.96150000000001</v>
+        <v>51.95583333333335</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>52.49</v>
       </c>
       <c r="F42" t="n">
-        <v>1093.351</v>
+        <v>3532.4922</v>
       </c>
       <c r="G42" t="n">
-        <v>51.97066666666667</v>
+        <v>51.96150000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>52.33</v>
+        <v>52.49</v>
       </c>
       <c r="C43" t="n">
-        <v>52.19</v>
+        <v>52.49</v>
       </c>
       <c r="D43" t="n">
-        <v>52.33</v>
+        <v>52.49</v>
       </c>
       <c r="E43" t="n">
-        <v>52.19</v>
+        <v>52.49</v>
       </c>
       <c r="F43" t="n">
-        <v>4770.533</v>
+        <v>1093.351</v>
       </c>
       <c r="G43" t="n">
-        <v>51.97483333333334</v>
+        <v>51.97066666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,19 +1903,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>52.03</v>
+        <v>52.33</v>
       </c>
       <c r="C44" t="n">
-        <v>52.03</v>
+        <v>52.19</v>
       </c>
       <c r="D44" t="n">
-        <v>52.03</v>
+        <v>52.33</v>
       </c>
       <c r="E44" t="n">
-        <v>52.03</v>
+        <v>52.19</v>
       </c>
       <c r="F44" t="n">
-        <v>48556.9808</v>
+        <v>4770.533</v>
       </c>
       <c r="G44" t="n">
         <v>51.97483333333334</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>52.09</v>
+        <v>52.03</v>
       </c>
       <c r="C45" t="n">
-        <v>52.2</v>
+        <v>52.03</v>
       </c>
       <c r="D45" t="n">
-        <v>52.2</v>
+        <v>52.03</v>
       </c>
       <c r="E45" t="n">
-        <v>52.09</v>
+        <v>52.03</v>
       </c>
       <c r="F45" t="n">
-        <v>122433.7707</v>
+        <v>48556.9808</v>
       </c>
       <c r="G45" t="n">
-        <v>51.97766666666666</v>
+        <v>51.97483333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>51.99</v>
+        <v>52.09</v>
       </c>
       <c r="C46" t="n">
-        <v>51.75</v>
+        <v>52.2</v>
       </c>
       <c r="D46" t="n">
-        <v>51.99</v>
+        <v>52.2</v>
       </c>
       <c r="E46" t="n">
-        <v>51.75</v>
+        <v>52.09</v>
       </c>
       <c r="F46" t="n">
-        <v>141838.144</v>
+        <v>122433.7707</v>
       </c>
       <c r="G46" t="n">
-        <v>51.97066666666667</v>
+        <v>51.97766666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>51.65</v>
+        <v>51.99</v>
       </c>
       <c r="C47" t="n">
-        <v>51.64</v>
+        <v>51.75</v>
       </c>
       <c r="D47" t="n">
-        <v>51.65</v>
+        <v>51.99</v>
       </c>
       <c r="E47" t="n">
-        <v>51.64</v>
+        <v>51.75</v>
       </c>
       <c r="F47" t="n">
-        <v>45762.7485</v>
+        <v>141838.144</v>
       </c>
       <c r="G47" t="n">
-        <v>51.96799999999999</v>
+        <v>51.97066666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>51.61</v>
+        <v>51.65</v>
       </c>
       <c r="C48" t="n">
-        <v>51.61</v>
+        <v>51.64</v>
       </c>
       <c r="D48" t="n">
-        <v>51.61</v>
+        <v>51.65</v>
       </c>
       <c r="E48" t="n">
-        <v>51.61</v>
+        <v>51.64</v>
       </c>
       <c r="F48" t="n">
-        <v>150288.5839</v>
+        <v>45762.7485</v>
       </c>
       <c r="G48" t="n">
-        <v>51.96333333333333</v>
+        <v>51.96799999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>51.76</v>
+        <v>51.61</v>
       </c>
       <c r="C49" t="n">
-        <v>51.76</v>
+        <v>51.61</v>
       </c>
       <c r="D49" t="n">
-        <v>51.76</v>
+        <v>51.61</v>
       </c>
       <c r="E49" t="n">
-        <v>51.76</v>
+        <v>51.61</v>
       </c>
       <c r="F49" t="n">
-        <v>4199.9999</v>
+        <v>150288.5839</v>
       </c>
       <c r="G49" t="n">
-        <v>51.95683333333333</v>
+        <v>51.96333333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>51.75</v>
+        <v>51.76</v>
       </c>
       <c r="C50" t="n">
-        <v>51.83</v>
+        <v>51.76</v>
       </c>
       <c r="D50" t="n">
-        <v>51.83</v>
+        <v>51.76</v>
       </c>
       <c r="E50" t="n">
-        <v>51.74</v>
+        <v>51.76</v>
       </c>
       <c r="F50" t="n">
-        <v>21745.8889</v>
+        <v>4199.9999</v>
       </c>
       <c r="G50" t="n">
-        <v>51.95249999999999</v>
+        <v>51.95683333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>51.79</v>
+        <v>51.75</v>
       </c>
       <c r="C51" t="n">
-        <v>51.43</v>
+        <v>51.83</v>
       </c>
       <c r="D51" t="n">
-        <v>51.79</v>
+        <v>51.83</v>
       </c>
       <c r="E51" t="n">
-        <v>51.43</v>
+        <v>51.74</v>
       </c>
       <c r="F51" t="n">
-        <v>60089.9624</v>
+        <v>21745.8889</v>
       </c>
       <c r="G51" t="n">
-        <v>51.94149999999999</v>
+        <v>51.95249999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>51.68</v>
+        <v>51.79</v>
       </c>
       <c r="C52" t="n">
-        <v>51.68</v>
+        <v>51.43</v>
       </c>
       <c r="D52" t="n">
-        <v>51.68</v>
+        <v>51.79</v>
       </c>
       <c r="E52" t="n">
-        <v>51.68</v>
+        <v>51.43</v>
       </c>
       <c r="F52" t="n">
-        <v>18.29</v>
+        <v>60089.9624</v>
       </c>
       <c r="G52" t="n">
-        <v>51.93549999999998</v>
+        <v>51.94149999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>51.59</v>
+        <v>51.68</v>
       </c>
       <c r="C53" t="n">
-        <v>51.6</v>
+        <v>51.68</v>
       </c>
       <c r="D53" t="n">
-        <v>51.6</v>
+        <v>51.68</v>
       </c>
       <c r="E53" t="n">
-        <v>51.59</v>
+        <v>51.68</v>
       </c>
       <c r="F53" t="n">
-        <v>100000</v>
+        <v>18.29</v>
       </c>
       <c r="G53" t="n">
-        <v>51.92799999999998</v>
+        <v>51.93549999999998</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>51.55</v>
+        <v>51.59</v>
       </c>
       <c r="C54" t="n">
-        <v>51.55</v>
+        <v>51.6</v>
       </c>
       <c r="D54" t="n">
-        <v>51.55</v>
+        <v>51.6</v>
       </c>
       <c r="E54" t="n">
-        <v>51.55</v>
+        <v>51.59</v>
       </c>
       <c r="F54" t="n">
-        <v>41000</v>
+        <v>100000</v>
       </c>
       <c r="G54" t="n">
-        <v>51.92183333333332</v>
+        <v>51.92799999999998</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>51.42</v>
+        <v>51.55</v>
       </c>
       <c r="C55" t="n">
-        <v>51.41</v>
+        <v>51.55</v>
       </c>
       <c r="D55" t="n">
-        <v>51.42</v>
+        <v>51.55</v>
       </c>
       <c r="E55" t="n">
-        <v>51.41</v>
+        <v>51.55</v>
       </c>
       <c r="F55" t="n">
-        <v>26409.2587</v>
+        <v>41000</v>
       </c>
       <c r="G55" t="n">
-        <v>51.91466666666665</v>
+        <v>51.92183333333332</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>51.27</v>
+        <v>51.42</v>
       </c>
       <c r="C56" t="n">
-        <v>51.27</v>
+        <v>51.41</v>
       </c>
       <c r="D56" t="n">
-        <v>51.27</v>
+        <v>51.42</v>
       </c>
       <c r="E56" t="n">
-        <v>51.27</v>
+        <v>51.41</v>
       </c>
       <c r="F56" t="n">
-        <v>6833.4257</v>
+        <v>26409.2587</v>
       </c>
       <c r="G56" t="n">
-        <v>51.90549999999998</v>
+        <v>51.91466666666665</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>51.27</v>
       </c>
       <c r="F57" t="n">
-        <v>44455.9446</v>
+        <v>6833.4257</v>
       </c>
       <c r="G57" t="n">
-        <v>51.89883333333331</v>
+        <v>51.90549999999998</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         <v>51.27</v>
       </c>
       <c r="C58" t="n">
-        <v>51.07</v>
+        <v>51.27</v>
       </c>
       <c r="D58" t="n">
         <v>51.27</v>
       </c>
       <c r="E58" t="n">
-        <v>51.07</v>
+        <v>51.27</v>
       </c>
       <c r="F58" t="n">
-        <v>9553.5226</v>
+        <v>44455.9446</v>
       </c>
       <c r="G58" t="n">
-        <v>51.88883333333331</v>
+        <v>51.89883333333331</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>51.31</v>
+        <v>51.27</v>
       </c>
       <c r="C59" t="n">
-        <v>51.31</v>
+        <v>51.07</v>
       </c>
       <c r="D59" t="n">
-        <v>51.31</v>
+        <v>51.27</v>
       </c>
       <c r="E59" t="n">
-        <v>51.31</v>
+        <v>51.07</v>
       </c>
       <c r="F59" t="n">
-        <v>50000</v>
+        <v>9553.5226</v>
       </c>
       <c r="G59" t="n">
-        <v>51.88283333333331</v>
+        <v>51.88883333333331</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>51.15</v>
+        <v>51.31</v>
       </c>
       <c r="C60" t="n">
-        <v>51.04</v>
+        <v>51.31</v>
       </c>
       <c r="D60" t="n">
-        <v>51.15</v>
+        <v>51.31</v>
       </c>
       <c r="E60" t="n">
-        <v>50.91</v>
+        <v>51.31</v>
       </c>
       <c r="F60" t="n">
-        <v>131805.7015</v>
+        <v>50000</v>
       </c>
       <c r="G60" t="n">
-        <v>51.87233333333331</v>
+        <v>51.88283333333331</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>50.93</v>
+        <v>51.15</v>
       </c>
       <c r="C61" t="n">
-        <v>51.09</v>
+        <v>51.04</v>
       </c>
       <c r="D61" t="n">
-        <v>51.09</v>
+        <v>51.15</v>
       </c>
       <c r="E61" t="n">
-        <v>50.93</v>
+        <v>50.91</v>
       </c>
       <c r="F61" t="n">
-        <v>88438.5148</v>
+        <v>131805.7015</v>
       </c>
       <c r="G61" t="n">
-        <v>51.86383333333331</v>
+        <v>51.87233333333331</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>51.2</v>
+        <v>50.93</v>
       </c>
       <c r="C62" t="n">
-        <v>51.3</v>
+        <v>51.09</v>
       </c>
       <c r="D62" t="n">
-        <v>51.3</v>
+        <v>51.09</v>
       </c>
       <c r="E62" t="n">
-        <v>51.2</v>
+        <v>50.93</v>
       </c>
       <c r="F62" t="n">
-        <v>50000</v>
+        <v>88438.5148</v>
       </c>
       <c r="G62" t="n">
-        <v>51.85899999999997</v>
+        <v>51.86383333333331</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>51.08</v>
+        <v>51.2</v>
       </c>
       <c r="C63" t="n">
-        <v>51.27</v>
+        <v>51.3</v>
       </c>
       <c r="D63" t="n">
-        <v>51.27</v>
+        <v>51.3</v>
       </c>
       <c r="E63" t="n">
-        <v>51.07</v>
+        <v>51.2</v>
       </c>
       <c r="F63" t="n">
-        <v>6001.1487</v>
+        <v>50000</v>
       </c>
       <c r="G63" t="n">
-        <v>51.85516666666664</v>
+        <v>51.85899999999997</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>50.99</v>
+        <v>51.08</v>
       </c>
       <c r="C64" t="n">
-        <v>50.99</v>
+        <v>51.27</v>
       </c>
       <c r="D64" t="n">
-        <v>50.99</v>
+        <v>51.27</v>
       </c>
       <c r="E64" t="n">
-        <v>50.99</v>
+        <v>51.07</v>
       </c>
       <c r="F64" t="n">
-        <v>334.5094</v>
+        <v>6001.1487</v>
       </c>
       <c r="G64" t="n">
-        <v>51.84433333333331</v>
+        <v>51.85516666666664</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>50.98</v>
+        <v>50.99</v>
       </c>
       <c r="C65" t="n">
-        <v>50.98</v>
+        <v>50.99</v>
       </c>
       <c r="D65" t="n">
-        <v>50.98</v>
+        <v>50.99</v>
       </c>
       <c r="E65" t="n">
-        <v>50.98</v>
+        <v>50.99</v>
       </c>
       <c r="F65" t="n">
-        <v>40000</v>
+        <v>334.5094</v>
       </c>
       <c r="G65" t="n">
-        <v>51.83716666666665</v>
+        <v>51.84433333333331</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>50.93</v>
+        <v>50.98</v>
       </c>
       <c r="C66" t="n">
-        <v>50.93</v>
+        <v>50.98</v>
       </c>
       <c r="D66" t="n">
-        <v>50.93</v>
+        <v>50.98</v>
       </c>
       <c r="E66" t="n">
-        <v>50.93</v>
+        <v>50.98</v>
       </c>
       <c r="F66" t="n">
-        <v>16347.6794</v>
+        <v>40000</v>
       </c>
       <c r="G66" t="n">
-        <v>51.82899999999997</v>
+        <v>51.83716666666665</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>50.99</v>
+        <v>50.93</v>
       </c>
       <c r="C67" t="n">
-        <v>50.97</v>
+        <v>50.93</v>
       </c>
       <c r="D67" t="n">
-        <v>51</v>
+        <v>50.93</v>
       </c>
       <c r="E67" t="n">
-        <v>50.97</v>
+        <v>50.93</v>
       </c>
       <c r="F67" t="n">
-        <v>15259.6504</v>
+        <v>16347.6794</v>
       </c>
       <c r="G67" t="n">
-        <v>51.82033333333331</v>
+        <v>51.82899999999997</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>51.24</v>
+        <v>50.99</v>
       </c>
       <c r="C68" t="n">
-        <v>51.24</v>
+        <v>50.97</v>
       </c>
       <c r="D68" t="n">
-        <v>51.24</v>
+        <v>51</v>
       </c>
       <c r="E68" t="n">
-        <v>51.24</v>
+        <v>50.97</v>
       </c>
       <c r="F68" t="n">
-        <v>4974.3005</v>
+        <v>15259.6504</v>
       </c>
       <c r="G68" t="n">
-        <v>51.81666666666663</v>
+        <v>51.82033333333331</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>51.25</v>
+        <v>51.24</v>
       </c>
       <c r="C69" t="n">
-        <v>51.33</v>
+        <v>51.24</v>
       </c>
       <c r="D69" t="n">
-        <v>51.33</v>
+        <v>51.24</v>
       </c>
       <c r="E69" t="n">
-        <v>51.25</v>
+        <v>51.24</v>
       </c>
       <c r="F69" t="n">
-        <v>22997.6185</v>
+        <v>4974.3005</v>
       </c>
       <c r="G69" t="n">
-        <v>51.81399999999997</v>
+        <v>51.81666666666663</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>51.4</v>
+        <v>51.25</v>
       </c>
       <c r="C70" t="n">
-        <v>51.4</v>
+        <v>51.33</v>
       </c>
       <c r="D70" t="n">
-        <v>51.4</v>
+        <v>51.33</v>
       </c>
       <c r="E70" t="n">
-        <v>51.4</v>
+        <v>51.25</v>
       </c>
       <c r="F70" t="n">
-        <v>42.7933</v>
+        <v>22997.6185</v>
       </c>
       <c r="G70" t="n">
-        <v>51.80749999999998</v>
+        <v>51.81399999999997</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>51.19</v>
+        <v>51.4</v>
       </c>
       <c r="C71" t="n">
-        <v>51.3</v>
+        <v>51.4</v>
       </c>
       <c r="D71" t="n">
-        <v>51.3</v>
+        <v>51.4</v>
       </c>
       <c r="E71" t="n">
-        <v>51.18</v>
+        <v>51.4</v>
       </c>
       <c r="F71" t="n">
-        <v>234113.943</v>
+        <v>42.7933</v>
       </c>
       <c r="G71" t="n">
-        <v>51.79933333333331</v>
+        <v>51.80749999999998</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>51.33</v>
+        <v>51.19</v>
       </c>
       <c r="C72" t="n">
-        <v>51.33</v>
+        <v>51.3</v>
       </c>
       <c r="D72" t="n">
-        <v>51.33</v>
+        <v>51.3</v>
       </c>
       <c r="E72" t="n">
-        <v>51.33</v>
+        <v>51.18</v>
       </c>
       <c r="F72" t="n">
-        <v>1420</v>
+        <v>234113.943</v>
       </c>
       <c r="G72" t="n">
-        <v>51.79166666666664</v>
+        <v>51.79933333333331</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>51.31</v>
+        <v>51.33</v>
       </c>
       <c r="C73" t="n">
-        <v>51.31</v>
+        <v>51.33</v>
       </c>
       <c r="D73" t="n">
-        <v>51.31</v>
+        <v>51.33</v>
       </c>
       <c r="E73" t="n">
-        <v>51.31</v>
+        <v>51.33</v>
       </c>
       <c r="F73" t="n">
-        <v>184.682</v>
+        <v>1420</v>
       </c>
       <c r="G73" t="n">
-        <v>51.78383333333331</v>
+        <v>51.79166666666664</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>51.31</v>
       </c>
       <c r="F74" t="n">
-        <v>7745.818</v>
+        <v>184.682</v>
       </c>
       <c r="G74" t="n">
-        <v>51.77233333333331</v>
+        <v>51.78383333333331</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>51.31</v>
       </c>
       <c r="F75" t="n">
-        <v>7822.5265</v>
+        <v>7745.818</v>
       </c>
       <c r="G75" t="n">
-        <v>51.7608333333333</v>
+        <v>51.77233333333331</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>51.31</v>
       </c>
       <c r="F76" t="n">
-        <v>4186.8863</v>
+        <v>7822.5265</v>
       </c>
       <c r="G76" t="n">
-        <v>51.7493333333333</v>
+        <v>51.7608333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3061,19 +3061,19 @@
         <v>51.31</v>
       </c>
       <c r="C77" t="n">
-        <v>51.39</v>
+        <v>51.31</v>
       </c>
       <c r="D77" t="n">
-        <v>51.39</v>
+        <v>51.31</v>
       </c>
       <c r="E77" t="n">
         <v>51.31</v>
       </c>
       <c r="F77" t="n">
-        <v>17083.171</v>
+        <v>4186.8863</v>
       </c>
       <c r="G77" t="n">
-        <v>51.73916666666663</v>
+        <v>51.7493333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>51.35</v>
+        <v>51.31</v>
       </c>
       <c r="C78" t="n">
-        <v>51.2</v>
+        <v>51.39</v>
       </c>
       <c r="D78" t="n">
-        <v>51.35</v>
+        <v>51.39</v>
       </c>
       <c r="E78" t="n">
-        <v>51.2</v>
+        <v>51.31</v>
       </c>
       <c r="F78" t="n">
-        <v>79800</v>
+        <v>17083.171</v>
       </c>
       <c r="G78" t="n">
-        <v>51.72749999999996</v>
+        <v>51.73916666666663</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>51.22</v>
+        <v>51.35</v>
       </c>
       <c r="C79" t="n">
-        <v>51.22</v>
+        <v>51.2</v>
       </c>
       <c r="D79" t="n">
-        <v>51.22</v>
+        <v>51.35</v>
       </c>
       <c r="E79" t="n">
-        <v>51.22</v>
+        <v>51.2</v>
       </c>
       <c r="F79" t="n">
-        <v>300</v>
+        <v>79800</v>
       </c>
       <c r="G79" t="n">
-        <v>51.71616666666662</v>
+        <v>51.72749999999996</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>51.28</v>
+        <v>51.22</v>
       </c>
       <c r="C80" t="n">
-        <v>50.99</v>
+        <v>51.22</v>
       </c>
       <c r="D80" t="n">
-        <v>51.28</v>
+        <v>51.22</v>
       </c>
       <c r="E80" t="n">
-        <v>50.81</v>
+        <v>51.22</v>
       </c>
       <c r="F80" t="n">
-        <v>213094.5171</v>
+        <v>300</v>
       </c>
       <c r="G80" t="n">
-        <v>51.69933333333329</v>
+        <v>51.71616666666662</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>50.98</v>
+        <v>51.28</v>
       </c>
       <c r="C81" t="n">
-        <v>51.15</v>
+        <v>50.99</v>
       </c>
       <c r="D81" t="n">
-        <v>51.15</v>
+        <v>51.28</v>
       </c>
       <c r="E81" t="n">
-        <v>50.97</v>
+        <v>50.81</v>
       </c>
       <c r="F81" t="n">
-        <v>3620.5019</v>
+        <v>213094.5171</v>
       </c>
       <c r="G81" t="n">
-        <v>51.68516666666662</v>
+        <v>51.69933333333329</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>51.14</v>
+        <v>50.98</v>
       </c>
       <c r="C82" t="n">
-        <v>50.84</v>
+        <v>51.15</v>
       </c>
       <c r="D82" t="n">
-        <v>51.14</v>
+        <v>51.15</v>
       </c>
       <c r="E82" t="n">
-        <v>50.84</v>
+        <v>50.97</v>
       </c>
       <c r="F82" t="n">
-        <v>24060.61791161</v>
+        <v>3620.5019</v>
       </c>
       <c r="G82" t="n">
-        <v>51.66583333333329</v>
+        <v>51.68516666666662</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>50.79</v>
+        <v>51.14</v>
       </c>
       <c r="C83" t="n">
-        <v>50.68</v>
+        <v>50.84</v>
       </c>
       <c r="D83" t="n">
-        <v>50.79</v>
+        <v>51.14</v>
       </c>
       <c r="E83" t="n">
-        <v>50.68</v>
+        <v>50.84</v>
       </c>
       <c r="F83" t="n">
-        <v>40000</v>
+        <v>24060.61791161</v>
       </c>
       <c r="G83" t="n">
-        <v>51.64383333333329</v>
+        <v>51.66583333333329</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>50.95</v>
+        <v>50.79</v>
       </c>
       <c r="C84" t="n">
-        <v>50.95</v>
+        <v>50.68</v>
       </c>
       <c r="D84" t="n">
-        <v>50.95</v>
+        <v>50.79</v>
       </c>
       <c r="E84" t="n">
-        <v>50.95</v>
+        <v>50.68</v>
       </c>
       <c r="F84" t="n">
-        <v>24123.8056</v>
+        <v>40000</v>
       </c>
       <c r="G84" t="n">
-        <v>51.62183333333329</v>
+        <v>51.64383333333329</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3350,10 @@
         <v>50.95</v>
       </c>
       <c r="F85" t="n">
-        <v>35423.5654</v>
+        <v>24123.8056</v>
       </c>
       <c r="G85" t="n">
-        <v>51.59983333333329</v>
+        <v>51.62183333333329</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3376,19 +3376,19 @@
         <v>50.95</v>
       </c>
       <c r="C86" t="n">
-        <v>51.18</v>
+        <v>50.95</v>
       </c>
       <c r="D86" t="n">
-        <v>51.18</v>
+        <v>50.95</v>
       </c>
       <c r="E86" t="n">
         <v>50.95</v>
       </c>
       <c r="F86" t="n">
-        <v>908.7651</v>
+        <v>35423.5654</v>
       </c>
       <c r="G86" t="n">
-        <v>51.57799999999995</v>
+        <v>51.59983333333329</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>51.18</v>
+        <v>50.95</v>
       </c>
       <c r="C87" t="n">
         <v>51.18</v>
@@ -3417,13 +3417,13 @@
         <v>51.18</v>
       </c>
       <c r="E87" t="n">
-        <v>51.18</v>
+        <v>50.95</v>
       </c>
       <c r="F87" t="n">
-        <v>1741.0158</v>
+        <v>908.7651</v>
       </c>
       <c r="G87" t="n">
-        <v>51.55783333333328</v>
+        <v>51.57799999999995</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>51.03</v>
+        <v>51.18</v>
       </c>
       <c r="C88" t="n">
-        <v>51.03</v>
+        <v>51.18</v>
       </c>
       <c r="D88" t="n">
-        <v>51.03</v>
+        <v>51.18</v>
       </c>
       <c r="E88" t="n">
-        <v>51.03</v>
+        <v>51.18</v>
       </c>
       <c r="F88" t="n">
-        <v>4249.8317</v>
+        <v>1741.0158</v>
       </c>
       <c r="G88" t="n">
-        <v>51.53866666666662</v>
+        <v>51.55783333333328</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>51.03</v>
       </c>
       <c r="F89" t="n">
-        <v>277.2444</v>
+        <v>4249.8317</v>
       </c>
       <c r="G89" t="n">
-        <v>51.51849999999997</v>
+        <v>51.53866666666662</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>51.03</v>
       </c>
       <c r="F90" t="n">
-        <v>6153.1428</v>
+        <v>277.2444</v>
       </c>
       <c r="G90" t="n">
-        <v>51.49833333333331</v>
+        <v>51.51849999999997</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>51.03</v>
       </c>
       <c r="F91" t="n">
-        <v>1099.5554</v>
+        <v>6153.1428</v>
       </c>
       <c r="G91" t="n">
-        <v>51.48166666666664</v>
+        <v>51.49833333333331</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>51.03</v>
       </c>
       <c r="F92" t="n">
-        <v>60.6179</v>
+        <v>1099.5554</v>
       </c>
       <c r="G92" t="n">
-        <v>51.46349999999997</v>
+        <v>51.48166666666664</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>51.03</v>
       </c>
       <c r="F93" t="n">
-        <v>30000</v>
+        <v>60.6179</v>
       </c>
       <c r="G93" t="n">
-        <v>51.44333333333331</v>
+        <v>51.46349999999997</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>51.11</v>
+        <v>51.03</v>
       </c>
       <c r="C94" t="n">
-        <v>51.11</v>
+        <v>51.03</v>
       </c>
       <c r="D94" t="n">
-        <v>51.11</v>
+        <v>51.03</v>
       </c>
       <c r="E94" t="n">
-        <v>51.11</v>
+        <v>51.03</v>
       </c>
       <c r="F94" t="n">
-        <v>14.283</v>
+        <v>30000</v>
       </c>
       <c r="G94" t="n">
-        <v>51.42416666666665</v>
+        <v>51.44333333333331</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +3700,10 @@
         <v>51.11</v>
       </c>
       <c r="F95" t="n">
-        <v>731.9299999999999</v>
+        <v>14.283</v>
       </c>
       <c r="G95" t="n">
-        <v>51.40433333333331</v>
+        <v>51.42416666666665</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>50.79</v>
+        <v>51.11</v>
       </c>
       <c r="C96" t="n">
-        <v>50.95</v>
+        <v>51.11</v>
       </c>
       <c r="D96" t="n">
-        <v>50.95</v>
+        <v>51.11</v>
       </c>
       <c r="E96" t="n">
-        <v>50.79</v>
+        <v>51.11</v>
       </c>
       <c r="F96" t="n">
-        <v>64327.6797</v>
+        <v>731.9299999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>51.38349999999998</v>
+        <v>51.40433333333331</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>51</v>
+        <v>50.79</v>
       </c>
       <c r="C97" t="n">
-        <v>51</v>
+        <v>50.95</v>
       </c>
       <c r="D97" t="n">
-        <v>51</v>
+        <v>50.95</v>
       </c>
       <c r="E97" t="n">
-        <v>51</v>
+        <v>50.79</v>
       </c>
       <c r="F97" t="n">
-        <v>220.8019</v>
+        <v>64327.6797</v>
       </c>
       <c r="G97" t="n">
-        <v>51.36516666666665</v>
+        <v>51.38349999999998</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>51</v>
       </c>
       <c r="F98" t="n">
-        <v>209.7618</v>
+        <v>220.8019</v>
       </c>
       <c r="G98" t="n">
-        <v>51.34516666666665</v>
+        <v>51.36516666666665</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>50.87</v>
+        <v>51</v>
       </c>
       <c r="C99" t="n">
         <v>51</v>
@@ -3837,13 +3837,13 @@
         <v>51</v>
       </c>
       <c r="E99" t="n">
-        <v>50.86</v>
+        <v>51</v>
       </c>
       <c r="F99" t="n">
-        <v>57992.7802</v>
+        <v>209.7618</v>
       </c>
       <c r="G99" t="n">
-        <v>51.32516666666665</v>
+        <v>51.34516666666665</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>51.21</v>
+        <v>50.87</v>
       </c>
       <c r="C100" t="n">
-        <v>51.21</v>
+        <v>51</v>
       </c>
       <c r="D100" t="n">
-        <v>51.21</v>
+        <v>51</v>
       </c>
       <c r="E100" t="n">
-        <v>51.21</v>
+        <v>50.86</v>
       </c>
       <c r="F100" t="n">
-        <v>100.24793634</v>
+        <v>57992.7802</v>
       </c>
       <c r="G100" t="n">
-        <v>51.30466666666666</v>
+        <v>51.32516666666665</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>51.43</v>
+        <v>51.21</v>
       </c>
       <c r="C101" t="n">
-        <v>51.43</v>
+        <v>51.21</v>
       </c>
       <c r="D101" t="n">
-        <v>51.43</v>
+        <v>51.21</v>
       </c>
       <c r="E101" t="n">
-        <v>51.43</v>
+        <v>51.21</v>
       </c>
       <c r="F101" t="n">
-        <v>1000</v>
+        <v>100.24793634</v>
       </c>
       <c r="G101" t="n">
-        <v>51.28699999999999</v>
+        <v>51.30466666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>51.25</v>
+        <v>51.43</v>
       </c>
       <c r="C102" t="n">
-        <v>51.25</v>
+        <v>51.43</v>
       </c>
       <c r="D102" t="n">
-        <v>51.25</v>
+        <v>51.43</v>
       </c>
       <c r="E102" t="n">
-        <v>51.25</v>
+        <v>51.43</v>
       </c>
       <c r="F102" t="n">
-        <v>8400</v>
+        <v>1000</v>
       </c>
       <c r="G102" t="n">
-        <v>51.26633333333333</v>
+        <v>51.28699999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>51.31</v>
+        <v>51.25</v>
       </c>
       <c r="C103" t="n">
-        <v>51.31</v>
+        <v>51.25</v>
       </c>
       <c r="D103" t="n">
-        <v>51.31</v>
+        <v>51.25</v>
       </c>
       <c r="E103" t="n">
-        <v>51.31</v>
+        <v>51.25</v>
       </c>
       <c r="F103" t="n">
-        <v>400</v>
+        <v>8400</v>
       </c>
       <c r="G103" t="n">
-        <v>51.25166666666666</v>
+        <v>51.26633333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>51.27</v>
+        <v>51.31</v>
       </c>
       <c r="C104" t="n">
-        <v>51.27</v>
+        <v>51.31</v>
       </c>
       <c r="D104" t="n">
-        <v>51.27</v>
+        <v>51.31</v>
       </c>
       <c r="E104" t="n">
-        <v>51.27</v>
+        <v>51.31</v>
       </c>
       <c r="F104" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="G104" t="n">
-        <v>51.23899999999999</v>
+        <v>51.25166666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>51.43</v>
+        <v>51.27</v>
       </c>
       <c r="C105" t="n">
-        <v>51.56</v>
+        <v>51.27</v>
       </c>
       <c r="D105" t="n">
-        <v>51.56</v>
+        <v>51.27</v>
       </c>
       <c r="E105" t="n">
-        <v>51.43</v>
+        <v>51.27</v>
       </c>
       <c r="F105" t="n">
-        <v>22308.1535</v>
+        <v>40</v>
       </c>
       <c r="G105" t="n">
-        <v>51.22833333333332</v>
+        <v>51.23899999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>51.32</v>
+        <v>51.43</v>
       </c>
       <c r="C106" t="n">
-        <v>51.3</v>
+        <v>51.56</v>
       </c>
       <c r="D106" t="n">
-        <v>51.32</v>
+        <v>51.56</v>
       </c>
       <c r="E106" t="n">
-        <v>51.3</v>
+        <v>51.43</v>
       </c>
       <c r="F106" t="n">
-        <v>2436.0786</v>
+        <v>22308.1535</v>
       </c>
       <c r="G106" t="n">
-        <v>51.22083333333332</v>
+        <v>51.22833333333332</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>51.3</v>
+        <v>51.32</v>
       </c>
       <c r="C107" t="n">
         <v>51.3</v>
       </c>
       <c r="D107" t="n">
-        <v>51.3</v>
+        <v>51.32</v>
       </c>
       <c r="E107" t="n">
         <v>51.3</v>
       </c>
       <c r="F107" t="n">
-        <v>20.2076</v>
+        <v>2436.0786</v>
       </c>
       <c r="G107" t="n">
-        <v>51.21516666666666</v>
+        <v>51.22083333333332</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>51.1</v>
+        <v>51.3</v>
       </c>
       <c r="C108" t="n">
-        <v>51.1</v>
+        <v>51.3</v>
       </c>
       <c r="D108" t="n">
-        <v>51.1</v>
+        <v>51.3</v>
       </c>
       <c r="E108" t="n">
-        <v>51.1</v>
+        <v>51.3</v>
       </c>
       <c r="F108" t="n">
-        <v>24856.4109</v>
+        <v>20.2076</v>
       </c>
       <c r="G108" t="n">
-        <v>51.20666666666666</v>
+        <v>51.21516666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4181,19 +4181,19 @@
         <v>51.1</v>
       </c>
       <c r="C109" t="n">
-        <v>50.8</v>
+        <v>51.1</v>
       </c>
       <c r="D109" t="n">
         <v>51.1</v>
       </c>
       <c r="E109" t="n">
-        <v>50.8</v>
+        <v>51.1</v>
       </c>
       <c r="F109" t="n">
-        <v>50000</v>
+        <v>24856.4109</v>
       </c>
       <c r="G109" t="n">
-        <v>51.19066666666666</v>
+        <v>51.20666666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>50.82</v>
+        <v>51.1</v>
       </c>
       <c r="C110" t="n">
-        <v>50.81</v>
+        <v>50.8</v>
       </c>
       <c r="D110" t="n">
-        <v>50.82</v>
+        <v>51.1</v>
       </c>
       <c r="E110" t="n">
-        <v>50.81</v>
+        <v>50.8</v>
       </c>
       <c r="F110" t="n">
         <v>50000</v>
       </c>
       <c r="G110" t="n">
-        <v>51.17366666666666</v>
+        <v>51.19066666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>51.06</v>
+        <v>50.82</v>
       </c>
       <c r="C111" t="n">
-        <v>51.06</v>
+        <v>50.81</v>
       </c>
       <c r="D111" t="n">
-        <v>51.06</v>
+        <v>50.82</v>
       </c>
       <c r="E111" t="n">
-        <v>51.06</v>
+        <v>50.81</v>
       </c>
       <c r="F111" t="n">
-        <v>8987.5</v>
+        <v>50000</v>
       </c>
       <c r="G111" t="n">
-        <v>51.1675</v>
+        <v>51.17366666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>51.09</v>
+        <v>51.06</v>
       </c>
       <c r="C112" t="n">
-        <v>51.09</v>
+        <v>51.06</v>
       </c>
       <c r="D112" t="n">
-        <v>51.09</v>
+        <v>51.06</v>
       </c>
       <c r="E112" t="n">
-        <v>51.09</v>
+        <v>51.06</v>
       </c>
       <c r="F112" t="n">
-        <v>91060.4719</v>
+        <v>8987.5</v>
       </c>
       <c r="G112" t="n">
-        <v>51.15766666666666</v>
+        <v>51.1675</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4330,10 @@
         <v>51.09</v>
       </c>
       <c r="F113" t="n">
-        <v>50000</v>
+        <v>91060.4719</v>
       </c>
       <c r="G113" t="n">
-        <v>51.14916666666667</v>
+        <v>51.15766666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4356,19 +4356,19 @@
         <v>51.09</v>
       </c>
       <c r="C114" t="n">
-        <v>51.15</v>
+        <v>51.09</v>
       </c>
       <c r="D114" t="n">
-        <v>51.15</v>
+        <v>51.09</v>
       </c>
       <c r="E114" t="n">
         <v>51.09</v>
       </c>
       <c r="F114" t="n">
-        <v>9409.7276</v>
+        <v>50000</v>
       </c>
       <c r="G114" t="n">
-        <v>51.14250000000001</v>
+        <v>51.14916666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,7 +4388,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>51.15</v>
+        <v>51.09</v>
       </c>
       <c r="C115" t="n">
         <v>51.15</v>
@@ -4397,13 +4397,13 @@
         <v>51.15</v>
       </c>
       <c r="E115" t="n">
-        <v>51.15</v>
+        <v>51.09</v>
       </c>
       <c r="F115" t="n">
-        <v>1326.9</v>
+        <v>9409.7276</v>
       </c>
       <c r="G115" t="n">
-        <v>51.13816666666667</v>
+        <v>51.14250000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4426,19 +4426,19 @@
         <v>51.15</v>
       </c>
       <c r="C116" t="n">
-        <v>51.01</v>
+        <v>51.15</v>
       </c>
       <c r="D116" t="n">
-        <v>51.18</v>
+        <v>51.15</v>
       </c>
       <c r="E116" t="n">
-        <v>51.01</v>
+        <v>51.15</v>
       </c>
       <c r="F116" t="n">
-        <v>22699.7134</v>
+        <v>1326.9</v>
       </c>
       <c r="G116" t="n">
-        <v>51.13383333333334</v>
+        <v>51.13816666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>51</v>
+        <v>51.15</v>
       </c>
       <c r="C117" t="n">
-        <v>51</v>
+        <v>51.01</v>
       </c>
       <c r="D117" t="n">
-        <v>51</v>
+        <v>51.18</v>
       </c>
       <c r="E117" t="n">
-        <v>51</v>
+        <v>51.01</v>
       </c>
       <c r="F117" t="n">
-        <v>24000</v>
+        <v>22699.7134</v>
       </c>
       <c r="G117" t="n">
-        <v>51.12933333333334</v>
+        <v>51.13383333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,10 +4505,10 @@
         <v>51</v>
       </c>
       <c r="F118" t="n">
-        <v>409.4</v>
+        <v>24000</v>
       </c>
       <c r="G118" t="n">
-        <v>51.12816666666667</v>
+        <v>51.12933333333334</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,10 +4540,10 @@
         <v>51</v>
       </c>
       <c r="F119" t="n">
-        <v>18853.6861</v>
+        <v>409.4</v>
       </c>
       <c r="G119" t="n">
-        <v>51.12300000000001</v>
+        <v>51.12816666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4575,10 @@
         <v>51</v>
       </c>
       <c r="F120" t="n">
-        <v>57749.7744</v>
+        <v>18853.6861</v>
       </c>
       <c r="G120" t="n">
-        <v>51.12233333333334</v>
+        <v>51.12300000000001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4610,10 +4610,10 @@
         <v>51</v>
       </c>
       <c r="F121" t="n">
-        <v>43770.475</v>
+        <v>57749.7744</v>
       </c>
       <c r="G121" t="n">
-        <v>51.12083333333334</v>
+        <v>51.12233333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4636,19 +4636,19 @@
         <v>51</v>
       </c>
       <c r="C122" t="n">
-        <v>50.86</v>
+        <v>51</v>
       </c>
       <c r="D122" t="n">
-        <v>51.06</v>
+        <v>51</v>
       </c>
       <c r="E122" t="n">
-        <v>50.86</v>
+        <v>51</v>
       </c>
       <c r="F122" t="n">
-        <v>97766.5325</v>
+        <v>43770.475</v>
       </c>
       <c r="G122" t="n">
-        <v>51.11350000000001</v>
+        <v>51.12083333333334</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>50.89</v>
+        <v>51</v>
       </c>
       <c r="C123" t="n">
-        <v>50.99</v>
+        <v>50.86</v>
       </c>
       <c r="D123" t="n">
-        <v>50.99</v>
+        <v>51.06</v>
       </c>
       <c r="E123" t="n">
-        <v>50.89</v>
+        <v>50.86</v>
       </c>
       <c r="F123" t="n">
-        <v>18066.2975</v>
+        <v>97766.5325</v>
       </c>
       <c r="G123" t="n">
-        <v>51.10883333333334</v>
+        <v>51.11350000000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>50.99</v>
+        <v>50.89</v>
       </c>
       <c r="C124" t="n">
         <v>50.99</v>
@@ -4712,10 +4712,10 @@
         <v>50.99</v>
       </c>
       <c r="E124" t="n">
-        <v>50.99</v>
+        <v>50.89</v>
       </c>
       <c r="F124" t="n">
-        <v>4695.5191</v>
+        <v>18066.2975</v>
       </c>
       <c r="G124" t="n">
         <v>51.10883333333334</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>50.89</v>
+        <v>50.99</v>
       </c>
       <c r="C125" t="n">
-        <v>50.88</v>
+        <v>50.99</v>
       </c>
       <c r="D125" t="n">
-        <v>50.89</v>
+        <v>50.99</v>
       </c>
       <c r="E125" t="n">
-        <v>50.88</v>
+        <v>50.99</v>
       </c>
       <c r="F125" t="n">
-        <v>10760.5415</v>
+        <v>4695.5191</v>
       </c>
       <c r="G125" t="n">
-        <v>51.10716666666667</v>
+        <v>51.10883333333334</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>50.99</v>
+        <v>50.89</v>
       </c>
       <c r="C126" t="n">
-        <v>50.99</v>
+        <v>50.88</v>
       </c>
       <c r="D126" t="n">
-        <v>50.99</v>
+        <v>50.89</v>
       </c>
       <c r="E126" t="n">
-        <v>50.99</v>
+        <v>50.88</v>
       </c>
       <c r="F126" t="n">
-        <v>30437.706</v>
+        <v>10760.5415</v>
       </c>
       <c r="G126" t="n">
-        <v>51.10816666666667</v>
+        <v>51.10716666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>50.84</v>
+        <v>50.99</v>
       </c>
       <c r="C127" t="n">
-        <v>50.84</v>
+        <v>50.99</v>
       </c>
       <c r="D127" t="n">
-        <v>50.84</v>
+        <v>50.99</v>
       </c>
       <c r="E127" t="n">
-        <v>50.84</v>
+        <v>50.99</v>
       </c>
       <c r="F127" t="n">
-        <v>1240.7988</v>
+        <v>30437.706</v>
       </c>
       <c r="G127" t="n">
-        <v>51.10600000000001</v>
+        <v>51.10816666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>51</v>
+        <v>50.84</v>
       </c>
       <c r="C128" t="n">
-        <v>51</v>
+        <v>50.84</v>
       </c>
       <c r="D128" t="n">
-        <v>51</v>
+        <v>50.84</v>
       </c>
       <c r="E128" t="n">
-        <v>51</v>
+        <v>50.84</v>
       </c>
       <c r="F128" t="n">
-        <v>17008.0096</v>
+        <v>1240.7988</v>
       </c>
       <c r="G128" t="n">
-        <v>51.10200000000001</v>
+        <v>51.10600000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>51.12</v>
+        <v>51</v>
       </c>
       <c r="C129" t="n">
-        <v>51.18</v>
+        <v>51</v>
       </c>
       <c r="D129" t="n">
-        <v>51.18</v>
+        <v>51</v>
       </c>
       <c r="E129" t="n">
-        <v>51.12</v>
+        <v>51</v>
       </c>
       <c r="F129" t="n">
-        <v>28395.151</v>
+        <v>17008.0096</v>
       </c>
       <c r="G129" t="n">
-        <v>51.09950000000001</v>
+        <v>51.10200000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>51.12</v>
+      </c>
+      <c r="C130" t="n">
         <v>51.18</v>
       </c>
-      <c r="C130" t="n">
-        <v>51.23</v>
-      </c>
       <c r="D130" t="n">
-        <v>51.23</v>
+        <v>51.18</v>
       </c>
       <c r="E130" t="n">
-        <v>51.18</v>
+        <v>51.12</v>
       </c>
       <c r="F130" t="n">
-        <v>50000</v>
+        <v>28395.151</v>
       </c>
       <c r="G130" t="n">
-        <v>51.09666666666668</v>
+        <v>51.09950000000001</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>51.03</v>
+        <v>51.18</v>
       </c>
       <c r="C131" t="n">
-        <v>51.03</v>
+        <v>51.23</v>
       </c>
       <c r="D131" t="n">
-        <v>51.03</v>
+        <v>51.23</v>
       </c>
       <c r="E131" t="n">
-        <v>51.03</v>
+        <v>51.18</v>
       </c>
       <c r="F131" t="n">
-        <v>104.5952</v>
+        <v>50000</v>
       </c>
       <c r="G131" t="n">
-        <v>51.09216666666668</v>
+        <v>51.09666666666668</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>51.17</v>
+        <v>51.03</v>
       </c>
       <c r="C132" t="n">
-        <v>51.24</v>
+        <v>51.03</v>
       </c>
       <c r="D132" t="n">
-        <v>51.24</v>
+        <v>51.03</v>
       </c>
       <c r="E132" t="n">
-        <v>51.17</v>
+        <v>51.03</v>
       </c>
       <c r="F132" t="n">
-        <v>8590.4954</v>
+        <v>104.5952</v>
       </c>
       <c r="G132" t="n">
-        <v>51.09066666666668</v>
+        <v>51.09216666666668</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>51.1</v>
+        <v>51.17</v>
       </c>
       <c r="C133" t="n">
-        <v>51.09</v>
+        <v>51.24</v>
       </c>
       <c r="D133" t="n">
-        <v>51.1</v>
+        <v>51.24</v>
       </c>
       <c r="E133" t="n">
-        <v>51.09</v>
+        <v>51.17</v>
       </c>
       <c r="F133" t="n">
-        <v>51400</v>
+        <v>8590.4954</v>
       </c>
       <c r="G133" t="n">
-        <v>51.08700000000001</v>
+        <v>51.09066666666668</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>51.22</v>
+        <v>51.1</v>
       </c>
       <c r="C134" t="n">
-        <v>51.22</v>
+        <v>51.09</v>
       </c>
       <c r="D134" t="n">
-        <v>51.22</v>
+        <v>51.1</v>
       </c>
       <c r="E134" t="n">
-        <v>51.22</v>
+        <v>51.09</v>
       </c>
       <c r="F134" t="n">
-        <v>1437.1304</v>
+        <v>51400</v>
       </c>
       <c r="G134" t="n">
-        <v>51.08550000000001</v>
+        <v>51.08700000000001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>51.09</v>
+        <v>51.22</v>
       </c>
       <c r="C135" t="n">
-        <v>51.09</v>
+        <v>51.22</v>
       </c>
       <c r="D135" t="n">
-        <v>51.09</v>
+        <v>51.22</v>
       </c>
       <c r="E135" t="n">
-        <v>51.09</v>
+        <v>51.22</v>
       </c>
       <c r="F135" t="n">
-        <v>7256.6317</v>
+        <v>1437.1304</v>
       </c>
       <c r="G135" t="n">
-        <v>51.08183333333334</v>
+        <v>51.08550000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5135,10 +5135,10 @@
         <v>51.09</v>
       </c>
       <c r="F136" t="n">
-        <v>1138.9287</v>
+        <v>7256.6317</v>
       </c>
       <c r="G136" t="n">
-        <v>51.07816666666668</v>
+        <v>51.08183333333334</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5161,19 +5161,19 @@
         <v>51.09</v>
       </c>
       <c r="C137" t="n">
-        <v>51.03</v>
+        <v>51.09</v>
       </c>
       <c r="D137" t="n">
         <v>51.09</v>
       </c>
       <c r="E137" t="n">
-        <v>51.03</v>
+        <v>51.09</v>
       </c>
       <c r="F137" t="n">
-        <v>49857.0256</v>
+        <v>1138.9287</v>
       </c>
       <c r="G137" t="n">
-        <v>51.07216666666669</v>
+        <v>51.07816666666668</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>51.03</v>
+        <v>51.09</v>
       </c>
       <c r="C138" t="n">
         <v>51.03</v>
       </c>
       <c r="D138" t="n">
-        <v>51.03</v>
+        <v>51.09</v>
       </c>
       <c r="E138" t="n">
         <v>51.03</v>
       </c>
       <c r="F138" t="n">
-        <v>20000</v>
+        <v>49857.0256</v>
       </c>
       <c r="G138" t="n">
-        <v>51.06933333333336</v>
+        <v>51.07216666666669</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5231,19 +5231,19 @@
         <v>51.03</v>
       </c>
       <c r="C139" t="n">
-        <v>50.86</v>
+        <v>51.03</v>
       </c>
       <c r="D139" t="n">
         <v>51.03</v>
       </c>
       <c r="E139" t="n">
-        <v>50.86</v>
+        <v>51.03</v>
       </c>
       <c r="F139" t="n">
-        <v>5876.4122</v>
+        <v>20000</v>
       </c>
       <c r="G139" t="n">
-        <v>51.06333333333337</v>
+        <v>51.06933333333336</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>50.9</v>
+        <v>51.03</v>
       </c>
       <c r="C140" t="n">
-        <v>50.9</v>
+        <v>50.86</v>
       </c>
       <c r="D140" t="n">
-        <v>50.9</v>
+        <v>51.03</v>
       </c>
       <c r="E140" t="n">
-        <v>50.9</v>
+        <v>50.86</v>
       </c>
       <c r="F140" t="n">
-        <v>30000</v>
+        <v>5876.4122</v>
       </c>
       <c r="G140" t="n">
-        <v>51.06183333333338</v>
+        <v>51.06333333333337</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>50.97</v>
+        <v>50.9</v>
       </c>
       <c r="C141" t="n">
-        <v>50.97</v>
+        <v>50.9</v>
       </c>
       <c r="D141" t="n">
-        <v>50.97</v>
+        <v>50.9</v>
       </c>
       <c r="E141" t="n">
-        <v>50.97</v>
+        <v>50.9</v>
       </c>
       <c r="F141" t="n">
-        <v>200</v>
+        <v>30000</v>
       </c>
       <c r="G141" t="n">
-        <v>51.05883333333337</v>
+        <v>51.06183333333338</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>51</v>
+        <v>50.97</v>
       </c>
       <c r="C142" t="n">
-        <v>51</v>
+        <v>50.97</v>
       </c>
       <c r="D142" t="n">
-        <v>51</v>
+        <v>50.97</v>
       </c>
       <c r="E142" t="n">
-        <v>51</v>
+        <v>50.97</v>
       </c>
       <c r="F142" t="n">
-        <v>67047.4387</v>
+        <v>200</v>
       </c>
       <c r="G142" t="n">
-        <v>51.06150000000003</v>
+        <v>51.05883333333337</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         <v>51</v>
       </c>
       <c r="F143" t="n">
-        <v>28174.9156</v>
+        <v>67047.4387</v>
       </c>
       <c r="G143" t="n">
-        <v>51.06683333333337</v>
+        <v>51.06150000000003</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5415,10 +5415,10 @@
         <v>51</v>
       </c>
       <c r="F144" t="n">
-        <v>56734.9978</v>
+        <v>28174.9156</v>
       </c>
       <c r="G144" t="n">
-        <v>51.0676666666667</v>
+        <v>51.06683333333337</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5450,10 +5450,10 @@
         <v>51</v>
       </c>
       <c r="F145" t="n">
-        <v>10980.4941</v>
+        <v>56734.9978</v>
       </c>
       <c r="G145" t="n">
-        <v>51.06850000000004</v>
+        <v>51.0676666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5485,10 +5485,10 @@
         <v>51</v>
       </c>
       <c r="F146" t="n">
-        <v>10100</v>
+        <v>10980.4941</v>
       </c>
       <c r="G146" t="n">
-        <v>51.06550000000004</v>
+        <v>51.06850000000004</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5520,10 +5520,10 @@
         <v>51</v>
       </c>
       <c r="F147" t="n">
-        <v>2754.838</v>
+        <v>10100</v>
       </c>
       <c r="G147" t="n">
-        <v>51.06250000000004</v>
+        <v>51.06550000000004</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5555,10 +5555,10 @@
         <v>51</v>
       </c>
       <c r="F148" t="n">
-        <v>2193.3769</v>
+        <v>2754.838</v>
       </c>
       <c r="G148" t="n">
-        <v>51.06200000000004</v>
+        <v>51.06250000000004</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5590,10 +5590,10 @@
         <v>51</v>
       </c>
       <c r="F149" t="n">
-        <v>2430.8336</v>
+        <v>2193.3769</v>
       </c>
       <c r="G149" t="n">
-        <v>51.06150000000004</v>
+        <v>51.06200000000004</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5625,10 +5625,10 @@
         <v>51</v>
       </c>
       <c r="F150" t="n">
-        <v>6843.8585</v>
+        <v>2430.8336</v>
       </c>
       <c r="G150" t="n">
-        <v>51.06100000000004</v>
+        <v>51.06150000000004</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5660,10 +5660,10 @@
         <v>51</v>
       </c>
       <c r="F151" t="n">
-        <v>5446.1859</v>
+        <v>6843.8585</v>
       </c>
       <c r="G151" t="n">
-        <v>51.06050000000003</v>
+        <v>51.06100000000004</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5695,10 +5695,10 @@
         <v>51</v>
       </c>
       <c r="F152" t="n">
-        <v>10227.2959</v>
+        <v>5446.1859</v>
       </c>
       <c r="G152" t="n">
-        <v>51.06000000000003</v>
+        <v>51.06050000000003</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5730,10 +5730,10 @@
         <v>51</v>
       </c>
       <c r="F153" t="n">
-        <v>17000</v>
+        <v>10227.2959</v>
       </c>
       <c r="G153" t="n">
-        <v>51.05950000000003</v>
+        <v>51.06000000000003</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5765,10 +5765,10 @@
         <v>51</v>
       </c>
       <c r="F154" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="G154" t="n">
-        <v>51.05766666666669</v>
+        <v>51.05950000000003</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>50.98</v>
+        <v>51</v>
       </c>
       <c r="C155" t="n">
-        <v>50.98</v>
+        <v>51</v>
       </c>
       <c r="D155" t="n">
-        <v>50.98</v>
+        <v>51</v>
       </c>
       <c r="E155" t="n">
-        <v>50.98</v>
+        <v>51</v>
       </c>
       <c r="F155" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G155" t="n">
-        <v>51.05550000000002</v>
+        <v>51.05766666666669</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>50.78</v>
+        <v>50.98</v>
       </c>
       <c r="C156" t="n">
-        <v>50.78</v>
+        <v>50.98</v>
       </c>
       <c r="D156" t="n">
-        <v>50.78</v>
+        <v>50.98</v>
       </c>
       <c r="E156" t="n">
-        <v>50.78</v>
+        <v>50.98</v>
       </c>
       <c r="F156" t="n">
-        <v>17250.216</v>
+        <v>10</v>
       </c>
       <c r="G156" t="n">
-        <v>51.0526666666667</v>
+        <v>51.05550000000002</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,19 +5858,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>51</v>
+        <v>50.78</v>
       </c>
       <c r="C157" t="n">
-        <v>51</v>
+        <v>50.78</v>
       </c>
       <c r="D157" t="n">
-        <v>51</v>
+        <v>50.78</v>
       </c>
       <c r="E157" t="n">
-        <v>51</v>
+        <v>50.78</v>
       </c>
       <c r="F157" t="n">
-        <v>11899.722</v>
+        <v>17250.216</v>
       </c>
       <c r="G157" t="n">
         <v>51.0526666666667</v>
@@ -5905,7 +5905,7 @@
         <v>51</v>
       </c>
       <c r="F158" t="n">
-        <v>39703.4264</v>
+        <v>11899.722</v>
       </c>
       <c r="G158" t="n">
         <v>51.0526666666667</v>
@@ -5940,7 +5940,7 @@
         <v>51</v>
       </c>
       <c r="F159" t="n">
-        <v>53777.8185</v>
+        <v>39703.4264</v>
       </c>
       <c r="G159" t="n">
         <v>51.0526666666667</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>51.14</v>
+        <v>51</v>
       </c>
       <c r="C160" t="n">
-        <v>51.14</v>
+        <v>51</v>
       </c>
       <c r="D160" t="n">
-        <v>51.14</v>
+        <v>51</v>
       </c>
       <c r="E160" t="n">
-        <v>51.14</v>
+        <v>51</v>
       </c>
       <c r="F160" t="n">
-        <v>5297.5878</v>
+        <v>53777.8185</v>
       </c>
       <c r="G160" t="n">
-        <v>51.05150000000003</v>
+        <v>51.0526666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6001,19 +6001,19 @@
         <v>51.14</v>
       </c>
       <c r="C161" t="n">
-        <v>51.2</v>
+        <v>51.14</v>
       </c>
       <c r="D161" t="n">
-        <v>51.23</v>
+        <v>51.14</v>
       </c>
       <c r="E161" t="n">
         <v>51.14</v>
       </c>
       <c r="F161" t="n">
-        <v>32615.7836</v>
+        <v>5297.5878</v>
       </c>
       <c r="G161" t="n">
-        <v>51.04766666666669</v>
+        <v>51.05150000000003</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>51.2</v>
+        <v>51.14</v>
       </c>
       <c r="C162" t="n">
         <v>51.2</v>
       </c>
       <c r="D162" t="n">
-        <v>51.2</v>
+        <v>51.23</v>
       </c>
       <c r="E162" t="n">
-        <v>51.2</v>
+        <v>51.14</v>
       </c>
       <c r="F162" t="n">
-        <v>8535.8339</v>
+        <v>32615.7836</v>
       </c>
       <c r="G162" t="n">
-        <v>51.04683333333335</v>
+        <v>51.04766666666669</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6080,10 +6080,10 @@
         <v>51.2</v>
       </c>
       <c r="F163" t="n">
-        <v>143.2745</v>
+        <v>8535.8339</v>
       </c>
       <c r="G163" t="n">
-        <v>51.04500000000002</v>
+        <v>51.04683333333335</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6106,19 +6106,19 @@
         <v>51.2</v>
       </c>
       <c r="C164" t="n">
-        <v>51.12</v>
+        <v>51.2</v>
       </c>
       <c r="D164" t="n">
         <v>51.2</v>
       </c>
       <c r="E164" t="n">
-        <v>51.12</v>
+        <v>51.2</v>
       </c>
       <c r="F164" t="n">
-        <v>3078.3309</v>
+        <v>143.2745</v>
       </c>
       <c r="G164" t="n">
-        <v>51.04250000000002</v>
+        <v>51.04500000000002</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>51.24</v>
+        <v>51.2</v>
       </c>
       <c r="C165" t="n">
-        <v>51.25</v>
+        <v>51.12</v>
       </c>
       <c r="D165" t="n">
-        <v>51.25</v>
+        <v>51.2</v>
       </c>
       <c r="E165" t="n">
-        <v>51.24</v>
+        <v>51.12</v>
       </c>
       <c r="F165" t="n">
-        <v>5098.9208</v>
+        <v>3078.3309</v>
       </c>
       <c r="G165" t="n">
-        <v>51.03733333333335</v>
+        <v>51.04250000000002</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,7 +6173,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>51.25</v>
+        <v>51.24</v>
       </c>
       <c r="C166" t="n">
         <v>51.25</v>
@@ -6182,13 +6182,13 @@
         <v>51.25</v>
       </c>
       <c r="E166" t="n">
-        <v>51.25</v>
+        <v>51.24</v>
       </c>
       <c r="F166" t="n">
-        <v>3168.5789</v>
+        <v>5098.9208</v>
       </c>
       <c r="G166" t="n">
-        <v>51.03650000000002</v>
+        <v>51.03733333333335</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6211,25 +6211,25 @@
         <v>51.25</v>
       </c>
       <c r="C167" t="n">
-        <v>51.26</v>
+        <v>51.25</v>
       </c>
       <c r="D167" t="n">
-        <v>51.26</v>
+        <v>51.25</v>
       </c>
       <c r="E167" t="n">
         <v>51.25</v>
       </c>
       <c r="F167" t="n">
-        <v>7454.6167</v>
+        <v>3168.5789</v>
       </c>
       <c r="G167" t="n">
-        <v>51.03583333333335</v>
+        <v>51.03650000000002</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
@@ -6246,25 +6246,25 @@
         <v>51.25</v>
       </c>
       <c r="C168" t="n">
-        <v>51.25</v>
+        <v>51.26</v>
       </c>
       <c r="D168" t="n">
-        <v>51.25</v>
+        <v>51.26</v>
       </c>
       <c r="E168" t="n">
         <v>51.25</v>
       </c>
       <c r="F168" t="n">
-        <v>200</v>
+        <v>7454.6167</v>
       </c>
       <c r="G168" t="n">
-        <v>51.03833333333335</v>
+        <v>51.03583333333335</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -6290,16 +6290,16 @@
         <v>51.25</v>
       </c>
       <c r="F169" t="n">
-        <v>924.7895</v>
+        <v>200</v>
       </c>
       <c r="G169" t="n">
-        <v>51.04583333333335</v>
+        <v>51.03833333333335</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
@@ -6313,28 +6313,28 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>51.21</v>
+        <v>51.25</v>
       </c>
       <c r="C170" t="n">
-        <v>51.21</v>
+        <v>51.25</v>
       </c>
       <c r="D170" t="n">
-        <v>51.21</v>
+        <v>51.25</v>
       </c>
       <c r="E170" t="n">
-        <v>51.21</v>
+        <v>51.25</v>
       </c>
       <c r="F170" t="n">
-        <v>925.6521</v>
+        <v>924.7895</v>
       </c>
       <c r="G170" t="n">
-        <v>51.05250000000002</v>
+        <v>51.04583333333335</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
@@ -6348,28 +6348,28 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>51.04</v>
+        <v>51.21</v>
       </c>
       <c r="C171" t="n">
-        <v>51.04</v>
+        <v>51.21</v>
       </c>
       <c r="D171" t="n">
-        <v>51.04</v>
+        <v>51.21</v>
       </c>
       <c r="E171" t="n">
-        <v>51.04</v>
+        <v>51.21</v>
       </c>
       <c r="F171" t="n">
-        <v>20483.0894</v>
+        <v>925.6521</v>
       </c>
       <c r="G171" t="n">
-        <v>51.05216666666669</v>
+        <v>51.05250000000002</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
@@ -6383,28 +6383,28 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>51.15</v>
+        <v>51.04</v>
       </c>
       <c r="C172" t="n">
-        <v>51.15</v>
+        <v>51.04</v>
       </c>
       <c r="D172" t="n">
-        <v>51.15</v>
+        <v>51.04</v>
       </c>
       <c r="E172" t="n">
-        <v>51.15</v>
+        <v>51.04</v>
       </c>
       <c r="F172" t="n">
-        <v>1092.4864</v>
+        <v>20483.0894</v>
       </c>
       <c r="G172" t="n">
-        <v>51.05316666666668</v>
+        <v>51.05216666666669</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
@@ -6430,10 +6430,10 @@
         <v>51.15</v>
       </c>
       <c r="F173" t="n">
-        <v>8749.1811</v>
+        <v>1092.4864</v>
       </c>
       <c r="G173" t="n">
-        <v>51.05416666666668</v>
+        <v>51.05316666666668</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6465,7 +6465,7 @@
         <v>51.15</v>
       </c>
       <c r="F174" t="n">
-        <v>29358.3325</v>
+        <v>8749.1811</v>
       </c>
       <c r="G174" t="n">
         <v>51.05416666666668</v>
@@ -6488,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>51</v>
+        <v>51.15</v>
       </c>
       <c r="C175" t="n">
-        <v>50.95</v>
+        <v>51.15</v>
       </c>
       <c r="D175" t="n">
-        <v>51</v>
+        <v>51.15</v>
       </c>
       <c r="E175" t="n">
-        <v>50.95</v>
+        <v>51.15</v>
       </c>
       <c r="F175" t="n">
-        <v>44561.4572</v>
+        <v>29358.3325</v>
       </c>
       <c r="G175" t="n">
-        <v>51.05083333333334</v>
+        <v>51.05416666666668</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>50.94</v>
+        <v>51</v>
       </c>
       <c r="C176" t="n">
-        <v>50.84</v>
+        <v>50.95</v>
       </c>
       <c r="D176" t="n">
-        <v>50.94</v>
+        <v>51</v>
       </c>
       <c r="E176" t="n">
-        <v>50.84</v>
+        <v>50.95</v>
       </c>
       <c r="F176" t="n">
-        <v>50000</v>
+        <v>44561.4572</v>
       </c>
       <c r="G176" t="n">
-        <v>51.04800000000001</v>
+        <v>51.05083333333334</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>50.85</v>
+        <v>50.94</v>
       </c>
       <c r="C177" t="n">
-        <v>50.87</v>
+        <v>50.84</v>
       </c>
       <c r="D177" t="n">
-        <v>50.87</v>
+        <v>50.94</v>
       </c>
       <c r="E177" t="n">
-        <v>50.85</v>
+        <v>50.84</v>
       </c>
       <c r="F177" t="n">
-        <v>22126.385</v>
+        <v>50000</v>
       </c>
       <c r="G177" t="n">
-        <v>51.04583333333334</v>
+        <v>51.04800000000001</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>51.1</v>
+        <v>50.85</v>
       </c>
       <c r="C178" t="n">
-        <v>51.1</v>
+        <v>50.87</v>
       </c>
       <c r="D178" t="n">
-        <v>51.1</v>
+        <v>50.87</v>
       </c>
       <c r="E178" t="n">
-        <v>51.1</v>
+        <v>50.85</v>
       </c>
       <c r="F178" t="n">
-        <v>10</v>
+        <v>22126.385</v>
       </c>
       <c r="G178" t="n">
-        <v>51.04750000000001</v>
+        <v>51.04583333333334</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>50.88</v>
+        <v>51.1</v>
       </c>
       <c r="C179" t="n">
-        <v>50.85</v>
+        <v>51.1</v>
       </c>
       <c r="D179" t="n">
-        <v>50.88</v>
+        <v>51.1</v>
       </c>
       <c r="E179" t="n">
-        <v>50.85</v>
+        <v>51.1</v>
       </c>
       <c r="F179" t="n">
-        <v>19907.6365</v>
+        <v>10</v>
       </c>
       <c r="G179" t="n">
-        <v>51.045</v>
+        <v>51.04750000000001</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>50.8</v>
+        <v>50.88</v>
       </c>
       <c r="C180" t="n">
-        <v>50.8</v>
+        <v>50.85</v>
       </c>
       <c r="D180" t="n">
-        <v>50.8</v>
+        <v>50.88</v>
       </c>
       <c r="E180" t="n">
-        <v>50.8</v>
+        <v>50.85</v>
       </c>
       <c r="F180" t="n">
-        <v>154.6163</v>
+        <v>19907.6365</v>
       </c>
       <c r="G180" t="n">
-        <v>51.04166666666667</v>
+        <v>51.045</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6710,10 +6710,10 @@
         <v>50.8</v>
       </c>
       <c r="F181" t="n">
-        <v>25.8709</v>
+        <v>154.6163</v>
       </c>
       <c r="G181" t="n">
-        <v>51.03833333333334</v>
+        <v>51.04166666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6745,10 +6745,10 @@
         <v>50.8</v>
       </c>
       <c r="F182" t="n">
-        <v>26781.1888</v>
+        <v>25.8709</v>
       </c>
       <c r="G182" t="n">
-        <v>51.03733333333334</v>
+        <v>51.03833333333334</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6780,10 +6780,10 @@
         <v>50.8</v>
       </c>
       <c r="F183" t="n">
-        <v>97076.795</v>
+        <v>26781.1888</v>
       </c>
       <c r="G183" t="n">
-        <v>51.03416666666669</v>
+        <v>51.03733333333334</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>50.86</v>
+        <v>50.8</v>
       </c>
       <c r="C184" t="n">
-        <v>50.86</v>
+        <v>50.8</v>
       </c>
       <c r="D184" t="n">
-        <v>50.86</v>
+        <v>50.8</v>
       </c>
       <c r="E184" t="n">
-        <v>50.86</v>
+        <v>50.8</v>
       </c>
       <c r="F184" t="n">
-        <v>500</v>
+        <v>97076.795</v>
       </c>
       <c r="G184" t="n">
-        <v>51.03200000000002</v>
+        <v>51.03416666666669</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>50.87</v>
+        <v>50.86</v>
       </c>
       <c r="C185" t="n">
-        <v>50.87</v>
+        <v>50.86</v>
       </c>
       <c r="D185" t="n">
-        <v>50.87</v>
+        <v>50.86</v>
       </c>
       <c r="E185" t="n">
-        <v>50.87</v>
+        <v>50.86</v>
       </c>
       <c r="F185" t="n">
-        <v>4625.8432</v>
+        <v>500</v>
       </c>
       <c r="G185" t="n">
-        <v>51.03183333333335</v>
+        <v>51.03200000000002</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>50.88</v>
+        <v>50.87</v>
       </c>
       <c r="C186" t="n">
-        <v>50.88</v>
+        <v>50.87</v>
       </c>
       <c r="D186" t="n">
-        <v>50.88</v>
+        <v>50.87</v>
       </c>
       <c r="E186" t="n">
-        <v>50.88</v>
+        <v>50.87</v>
       </c>
       <c r="F186" t="n">
-        <v>639.0928</v>
+        <v>4625.8432</v>
       </c>
       <c r="G186" t="n">
-        <v>51.03000000000002</v>
+        <v>51.03183333333335</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6911,19 +6911,19 @@
         <v>50.88</v>
       </c>
       <c r="C187" t="n">
-        <v>50.8</v>
+        <v>50.88</v>
       </c>
       <c r="D187" t="n">
         <v>50.88</v>
       </c>
       <c r="E187" t="n">
-        <v>50.8</v>
+        <v>50.88</v>
       </c>
       <c r="F187" t="n">
-        <v>13183.2531</v>
+        <v>639.0928</v>
       </c>
       <c r="G187" t="n">
-        <v>51.02933333333336</v>
+        <v>51.03000000000002</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>50.79</v>
+        <v>50.88</v>
       </c>
       <c r="C188" t="n">
-        <v>50.79</v>
+        <v>50.8</v>
       </c>
       <c r="D188" t="n">
-        <v>50.79</v>
+        <v>50.88</v>
       </c>
       <c r="E188" t="n">
-        <v>50.79</v>
+        <v>50.8</v>
       </c>
       <c r="F188" t="n">
-        <v>36083.8881</v>
+        <v>13183.2531</v>
       </c>
       <c r="G188" t="n">
-        <v>51.02583333333336</v>
+        <v>51.02933333333336</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +6978,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>50.81</v>
+        <v>50.79</v>
       </c>
       <c r="C189" t="n">
-        <v>50.81</v>
+        <v>50.79</v>
       </c>
       <c r="D189" t="n">
-        <v>50.81</v>
+        <v>50.79</v>
       </c>
       <c r="E189" t="n">
-        <v>50.81</v>
+        <v>50.79</v>
       </c>
       <c r="F189" t="n">
-        <v>5000</v>
+        <v>36083.8881</v>
       </c>
       <c r="G189" t="n">
-        <v>51.01966666666669</v>
+        <v>51.02583333333336</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7013,22 +7013,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>50.8</v>
+        <v>50.81</v>
       </c>
       <c r="C190" t="n">
-        <v>50.71</v>
+        <v>50.81</v>
       </c>
       <c r="D190" t="n">
-        <v>50.8</v>
+        <v>50.81</v>
       </c>
       <c r="E190" t="n">
-        <v>50.71</v>
+        <v>50.81</v>
       </c>
       <c r="F190" t="n">
-        <v>215053.714</v>
+        <v>5000</v>
       </c>
       <c r="G190" t="n">
-        <v>51.01100000000003</v>
+        <v>51.01966666666669</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>50.61</v>
+        <v>50.8</v>
       </c>
       <c r="C191" t="n">
-        <v>50.56</v>
+        <v>50.71</v>
       </c>
       <c r="D191" t="n">
-        <v>50.61</v>
+        <v>50.8</v>
       </c>
       <c r="E191" t="n">
-        <v>50.43</v>
+        <v>50.71</v>
       </c>
       <c r="F191" t="n">
-        <v>104922.46835443</v>
+        <v>215053.714</v>
       </c>
       <c r="G191" t="n">
-        <v>51.00316666666669</v>
+        <v>51.01100000000003</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>50.68</v>
+        <v>50.61</v>
       </c>
       <c r="C192" t="n">
-        <v>50.69</v>
+        <v>50.56</v>
       </c>
       <c r="D192" t="n">
-        <v>50.69</v>
+        <v>50.61</v>
       </c>
       <c r="E192" t="n">
-        <v>50.68</v>
+        <v>50.43</v>
       </c>
       <c r="F192" t="n">
-        <v>534.8576</v>
+        <v>104922.46835443</v>
       </c>
       <c r="G192" t="n">
-        <v>50.99400000000003</v>
+        <v>51.00316666666669</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7118,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>50.74</v>
+        <v>50.68</v>
       </c>
       <c r="C193" t="n">
-        <v>50.74</v>
+        <v>50.69</v>
       </c>
       <c r="D193" t="n">
-        <v>50.74</v>
+        <v>50.69</v>
       </c>
       <c r="E193" t="n">
-        <v>50.74</v>
+        <v>50.68</v>
       </c>
       <c r="F193" t="n">
-        <v>172.8825</v>
+        <v>534.8576</v>
       </c>
       <c r="G193" t="n">
-        <v>50.98816666666669</v>
+        <v>50.99400000000003</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7153,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>50.72</v>
+        <v>50.74</v>
       </c>
       <c r="C194" t="n">
-        <v>50.62</v>
+        <v>50.74</v>
       </c>
       <c r="D194" t="n">
-        <v>50.72</v>
+        <v>50.74</v>
       </c>
       <c r="E194" t="n">
-        <v>50.62</v>
+        <v>50.74</v>
       </c>
       <c r="F194" t="n">
-        <v>2607.1235</v>
+        <v>172.8825</v>
       </c>
       <c r="G194" t="n">
-        <v>50.97816666666669</v>
+        <v>50.98816666666669</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7200,10 +7200,10 @@
         <v>50.62</v>
       </c>
       <c r="F195" t="n">
-        <v>1076.2331</v>
+        <v>2607.1235</v>
       </c>
       <c r="G195" t="n">
-        <v>50.97033333333335</v>
+        <v>50.97816666666669</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7223,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>50.49</v>
+        <v>50.72</v>
       </c>
       <c r="C196" t="n">
-        <v>50.43</v>
+        <v>50.62</v>
       </c>
       <c r="D196" t="n">
-        <v>50.49</v>
+        <v>50.72</v>
       </c>
       <c r="E196" t="n">
-        <v>50.43</v>
+        <v>50.62</v>
       </c>
       <c r="F196" t="n">
-        <v>211853.116</v>
+        <v>1076.2331</v>
       </c>
       <c r="G196" t="n">
-        <v>50.95933333333335</v>
+        <v>50.97033333333335</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,22 +7258,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>50.72</v>
+        <v>50.49</v>
       </c>
       <c r="C197" t="n">
-        <v>50.72</v>
+        <v>50.43</v>
       </c>
       <c r="D197" t="n">
-        <v>50.72</v>
+        <v>50.49</v>
       </c>
       <c r="E197" t="n">
-        <v>50.72</v>
+        <v>50.43</v>
       </c>
       <c r="F197" t="n">
-        <v>5403.232</v>
+        <v>211853.116</v>
       </c>
       <c r="G197" t="n">
-        <v>50.95416666666667</v>
+        <v>50.95933333333335</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7305,10 +7305,10 @@
         <v>50.72</v>
       </c>
       <c r="F198" t="n">
-        <v>11017.6381</v>
+        <v>5403.232</v>
       </c>
       <c r="G198" t="n">
-        <v>50.949</v>
+        <v>50.95416666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,7 +7328,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>50.71</v>
+        <v>50.72</v>
       </c>
       <c r="C199" t="n">
         <v>50.72</v>
@@ -7337,19 +7337,19 @@
         <v>50.72</v>
       </c>
       <c r="E199" t="n">
-        <v>50.71</v>
+        <v>50.72</v>
       </c>
       <c r="F199" t="n">
-        <v>2373.2318</v>
+        <v>11017.6381</v>
       </c>
       <c r="G199" t="n">
-        <v>50.94666666666667</v>
+        <v>50.949</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
@@ -7363,7 +7363,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>50.72</v>
+        <v>50.71</v>
       </c>
       <c r="C200" t="n">
         <v>50.72</v>
@@ -7372,19 +7372,19 @@
         <v>50.72</v>
       </c>
       <c r="E200" t="n">
-        <v>50.72</v>
+        <v>50.71</v>
       </c>
       <c r="F200" t="n">
-        <v>81918.56630000001</v>
+        <v>2373.2318</v>
       </c>
       <c r="G200" t="n">
-        <v>50.94366666666666</v>
+        <v>50.94666666666667</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
@@ -7410,16 +7410,16 @@
         <v>50.72</v>
       </c>
       <c r="F201" t="n">
-        <v>10113.2398</v>
+        <v>81918.56630000001</v>
       </c>
       <c r="G201" t="n">
-        <v>50.93949999999999</v>
+        <v>50.94366666666666</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
@@ -7445,10 +7445,10 @@
         <v>50.72</v>
       </c>
       <c r="F202" t="n">
-        <v>7620.585</v>
+        <v>10113.2398</v>
       </c>
       <c r="G202" t="n">
-        <v>50.93483333333332</v>
+        <v>50.93949999999999</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7480,10 +7480,10 @@
         <v>50.72</v>
       </c>
       <c r="F203" t="n">
-        <v>2097.6131</v>
+        <v>7620.585</v>
       </c>
       <c r="G203" t="n">
-        <v>50.93016666666665</v>
+        <v>50.93483333333332</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7515,10 +7515,10 @@
         <v>50.72</v>
       </c>
       <c r="F204" t="n">
-        <v>323.5</v>
+        <v>2097.6131</v>
       </c>
       <c r="G204" t="n">
-        <v>50.92549999999998</v>
+        <v>50.93016666666665</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7538,35 +7538,31 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>50.71</v>
+        <v>50.72</v>
       </c>
       <c r="C205" t="n">
-        <v>50.71</v>
+        <v>50.72</v>
       </c>
       <c r="D205" t="n">
-        <v>50.71</v>
+        <v>50.72</v>
       </c>
       <c r="E205" t="n">
-        <v>50.71</v>
+        <v>50.72</v>
       </c>
       <c r="F205" t="n">
-        <v>590.1127</v>
+        <v>323.5</v>
       </c>
       <c r="G205" t="n">
-        <v>50.92066666666665</v>
+        <v>50.92549999999998</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="K205" t="n">
-        <v>50.72</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
@@ -7577,22 +7573,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>50.34</v>
+        <v>50.71</v>
       </c>
       <c r="C206" t="n">
-        <v>50.34</v>
+        <v>50.71</v>
       </c>
       <c r="D206" t="n">
-        <v>50.34</v>
+        <v>50.71</v>
       </c>
       <c r="E206" t="n">
-        <v>50.34</v>
+        <v>50.71</v>
       </c>
       <c r="F206" t="n">
-        <v>15.383</v>
+        <v>590.1127</v>
       </c>
       <c r="G206" t="n">
-        <v>50.90966666666665</v>
+        <v>50.92066666666665</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7601,14 +7597,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7618,79 +7608,79 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
+        <v>50.34</v>
+      </c>
+      <c r="C207" t="n">
+        <v>50.34</v>
+      </c>
+      <c r="D207" t="n">
+        <v>50.34</v>
+      </c>
+      <c r="E207" t="n">
+        <v>50.34</v>
+      </c>
+      <c r="F207" t="n">
+        <v>15.383</v>
+      </c>
+      <c r="G207" t="n">
+        <v>50.90966666666665</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="K207" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
         <v>50.61</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C208" t="n">
         <v>50.46</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D208" t="n">
         <v>50.61</v>
       </c>
-      <c r="E207" t="n">
+      <c r="E208" t="n">
         <v>50.46</v>
       </c>
-      <c r="F207" t="n">
+      <c r="F208" t="n">
         <v>322.2025</v>
       </c>
-      <c r="G207" t="n">
+      <c r="G208" t="n">
         <v>50.90066666666665</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="L207" t="inlineStr">
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>50.34</v>
+      </c>
+      <c r="K208" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="L208" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="C208" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="D208" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="E208" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="F208" t="n">
-        <v>24989.3907</v>
-      </c>
-      <c r="G208" t="n">
-        <v>50.89166666666665</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7700,34 +7690,32 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="C209" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="D209" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="E209" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="F209" t="n">
+        <v>24989.3907</v>
+      </c>
+      <c r="G209" t="n">
+        <v>50.89166666666665</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
         <v>50.71</v>
-      </c>
-      <c r="C209" t="n">
-        <v>50.76</v>
-      </c>
-      <c r="D209" t="n">
-        <v>50.76</v>
-      </c>
-      <c r="E209" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="F209" t="n">
-        <v>32410</v>
-      </c>
-      <c r="G209" t="n">
-        <v>50.88766666666665</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="K209" t="n">
-        <v>50.72</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -7743,22 +7731,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>50.88</v>
+        <v>50.71</v>
       </c>
       <c r="C210" t="n">
-        <v>50.9</v>
+        <v>50.76</v>
       </c>
       <c r="D210" t="n">
-        <v>50.9</v>
+        <v>50.76</v>
       </c>
       <c r="E210" t="n">
-        <v>50.88</v>
+        <v>50.71</v>
       </c>
       <c r="F210" t="n">
-        <v>20</v>
+        <v>32410</v>
       </c>
       <c r="G210" t="n">
-        <v>50.88599999999999</v>
+        <v>50.88766666666665</v>
       </c>
       <c r="H210" t="n">
         <v>1</v>
@@ -7767,10 +7755,10 @@
         <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>50.76</v>
+        <v>50.46</v>
       </c>
       <c r="K210" t="n">
-        <v>50.72</v>
+        <v>50.71</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -7786,22 +7774,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>50.5</v>
+        <v>50.88</v>
       </c>
       <c r="C211" t="n">
-        <v>50.5</v>
+        <v>50.9</v>
       </c>
       <c r="D211" t="n">
-        <v>50.5</v>
+        <v>50.9</v>
       </c>
       <c r="E211" t="n">
-        <v>50.5</v>
+        <v>50.88</v>
       </c>
       <c r="F211" t="n">
-        <v>15.7971</v>
+        <v>20</v>
       </c>
       <c r="G211" t="n">
-        <v>50.87766666666666</v>
+        <v>50.88599999999999</v>
       </c>
       <c r="H211" t="n">
         <v>1</v>
@@ -7810,10 +7798,10 @@
         <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>50.9</v>
+        <v>50.76</v>
       </c>
       <c r="K211" t="n">
-        <v>50.72</v>
+        <v>50.71</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -7829,34 +7817,32 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>50.51</v>
+        <v>50.5</v>
       </c>
       <c r="C212" t="n">
-        <v>50.39</v>
+        <v>50.5</v>
       </c>
       <c r="D212" t="n">
-        <v>50.51</v>
+        <v>50.5</v>
       </c>
       <c r="E212" t="n">
-        <v>50.39</v>
+        <v>50.5</v>
       </c>
       <c r="F212" t="n">
-        <v>50000</v>
+        <v>15.7971</v>
       </c>
       <c r="G212" t="n">
-        <v>50.86749999999999</v>
+        <v>50.87766666666666</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>50.5</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>50.72</v>
+        <v>50.71</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -7872,22 +7858,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>50.41</v>
+        <v>50.51</v>
       </c>
       <c r="C213" t="n">
-        <v>50.41</v>
+        <v>50.39</v>
       </c>
       <c r="D213" t="n">
-        <v>50.41</v>
+        <v>50.51</v>
       </c>
       <c r="E213" t="n">
-        <v>50.41</v>
+        <v>50.39</v>
       </c>
       <c r="F213" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="G213" t="n">
-        <v>50.85766666666665</v>
+        <v>50.86749999999999</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7897,7 +7883,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>50.72</v>
+        <v>50.71</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -7908,6 +7894,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="C214" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="D214" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="E214" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="F214" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G214" t="n">
+        <v>50.85766666666665</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-26 BackTest ADA.xlsx
+++ b/BackTest/2020-01-26 BackTest ADA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M214"/>
+  <dimension ref="A1:N224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>19278.3754</v>
       </c>
       <c r="G2" t="n">
+        <v>51.86466666666664</v>
+      </c>
+      <c r="H2" t="n">
         <v>52.00933333333337</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>9858.401</v>
       </c>
       <c r="G3" t="n">
+        <v>51.85066666666664</v>
+      </c>
+      <c r="H3" t="n">
         <v>51.99683333333336</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>8782.7845</v>
       </c>
       <c r="G4" t="n">
+        <v>51.82466666666664</v>
+      </c>
+      <c r="H4" t="n">
         <v>51.98200000000003</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>25.3199</v>
       </c>
       <c r="G5" t="n">
+        <v>51.79066666666665</v>
+      </c>
+      <c r="H5" t="n">
         <v>51.96950000000003</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>28250</v>
       </c>
       <c r="G6" t="n">
+        <v>51.74533333333331</v>
+      </c>
+      <c r="H6" t="n">
         <v>51.95500000000003</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>500</v>
       </c>
       <c r="G7" t="n">
+        <v>51.70066666666663</v>
+      </c>
+      <c r="H7" t="n">
         <v>51.93750000000003</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>4264.6446</v>
       </c>
       <c r="G8" t="n">
+        <v>51.66399999999997</v>
+      </c>
+      <c r="H8" t="n">
         <v>51.92450000000003</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>6191.8085</v>
       </c>
       <c r="G9" t="n">
+        <v>51.62466666666664</v>
+      </c>
+      <c r="H9" t="n">
         <v>51.91416666666669</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>12782.219</v>
       </c>
       <c r="G10" t="n">
+        <v>51.59599999999998</v>
+      </c>
+      <c r="H10" t="n">
         <v>51.90566666666669</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>10</v>
       </c>
       <c r="G11" t="n">
+        <v>51.59266666666664</v>
+      </c>
+      <c r="H11" t="n">
         <v>51.89583333333336</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>59</v>
       </c>
       <c r="G12" t="n">
+        <v>51.59066666666664</v>
+      </c>
+      <c r="H12" t="n">
         <v>51.88733333333335</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>16973.8482</v>
       </c>
       <c r="G13" t="n">
+        <v>51.59866666666664</v>
+      </c>
+      <c r="H13" t="n">
         <v>51.87866666666669</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>241.333</v>
       </c>
       <c r="G14" t="n">
+        <v>51.60599999999997</v>
+      </c>
+      <c r="H14" t="n">
         <v>51.86716666666669</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>22712.163</v>
       </c>
       <c r="G15" t="n">
+        <v>51.62799999999997</v>
+      </c>
+      <c r="H15" t="n">
         <v>51.86266666666669</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>9939.158299999999</v>
       </c>
       <c r="G16" t="n">
+        <v>51.64999999999998</v>
+      </c>
+      <c r="H16" t="n">
         <v>51.85266666666669</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>38766.5166</v>
       </c>
       <c r="G17" t="n">
+        <v>51.67666666666664</v>
+      </c>
+      <c r="H17" t="n">
         <v>51.84833333333336</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>364800.1907</v>
       </c>
       <c r="G18" t="n">
+        <v>51.70399999999997</v>
+      </c>
+      <c r="H18" t="n">
         <v>51.84400000000002</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>20492.6753</v>
       </c>
       <c r="G19" t="n">
+        <v>51.73066666666664</v>
+      </c>
+      <c r="H19" t="n">
         <v>51.83783333333336</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1957.1837</v>
       </c>
       <c r="G20" t="n">
+        <v>51.74799999999997</v>
+      </c>
+      <c r="H20" t="n">
         <v>51.83233333333336</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>82088.26420000001</v>
       </c>
       <c r="G21" t="n">
+        <v>51.78733333333331</v>
+      </c>
+      <c r="H21" t="n">
         <v>51.82850000000003</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>43953.1973</v>
       </c>
       <c r="G22" t="n">
+        <v>51.82599999999998</v>
+      </c>
+      <c r="H22" t="n">
         <v>51.83116666666669</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>27787.5999</v>
       </c>
       <c r="G23" t="n">
+        <v>51.85999999999998</v>
+      </c>
+      <c r="H23" t="n">
         <v>51.83300000000002</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>4713.2999</v>
       </c>
       <c r="G24" t="n">
+        <v>51.89599999999997</v>
+      </c>
+      <c r="H24" t="n">
         <v>51.83766666666669</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>16000</v>
       </c>
       <c r="G25" t="n">
+        <v>51.94799999999997</v>
+      </c>
+      <c r="H25" t="n">
         <v>51.84883333333336</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>6341.8913</v>
       </c>
       <c r="G26" t="n">
+        <v>51.97999999999998</v>
+      </c>
+      <c r="H26" t="n">
         <v>51.86000000000003</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>12906.5693</v>
       </c>
       <c r="G27" t="n">
+        <v>52.02666666666664</v>
+      </c>
+      <c r="H27" t="n">
         <v>51.87650000000003</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>22402.8574</v>
       </c>
       <c r="G28" t="n">
+        <v>52.06666666666664</v>
+      </c>
+      <c r="H28" t="n">
         <v>51.89133333333336</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>28230</v>
       </c>
       <c r="G29" t="n">
+        <v>52.09333333333331</v>
+      </c>
+      <c r="H29" t="n">
         <v>51.90233333333335</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>485.43261868</v>
       </c>
       <c r="G30" t="n">
+        <v>52.10933333333331</v>
+      </c>
+      <c r="H30" t="n">
         <v>51.91133333333335</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>10000</v>
       </c>
       <c r="G31" t="n">
+        <v>52.12533333333331</v>
+      </c>
+      <c r="H31" t="n">
         <v>51.91050000000002</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>100</v>
       </c>
       <c r="G32" t="n">
+        <v>52.12733333333331</v>
+      </c>
+      <c r="H32" t="n">
         <v>51.90733333333336</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>20287.7366</v>
       </c>
       <c r="G33" t="n">
+        <v>52.13533333333331</v>
+      </c>
+      <c r="H33" t="n">
         <v>51.90800000000002</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>5107.0601</v>
       </c>
       <c r="G34" t="n">
+        <v>52.15799999999998</v>
+      </c>
+      <c r="H34" t="n">
         <v>51.91233333333335</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>208757.737</v>
       </c>
       <c r="G35" t="n">
+        <v>52.18199999999998</v>
+      </c>
+      <c r="H35" t="n">
         <v>51.9171666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>33.00191204</v>
       </c>
       <c r="G36" t="n">
+        <v>52.20199999999998</v>
+      </c>
+      <c r="H36" t="n">
         <v>51.92550000000003</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>18292.1382</v>
       </c>
       <c r="G37" t="n">
+        <v>52.21533333333331</v>
+      </c>
+      <c r="H37" t="n">
         <v>51.93166666666669</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>131337.6773</v>
       </c>
       <c r="G38" t="n">
+        <v>52.22199999999998</v>
+      </c>
+      <c r="H38" t="n">
         <v>51.93950000000002</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>1939.5804</v>
       </c>
       <c r="G39" t="n">
+        <v>52.23533333333332</v>
+      </c>
+      <c r="H39" t="n">
         <v>51.94416666666668</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>26249.7848</v>
       </c>
       <c r="G40" t="n">
+        <v>52.23066666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>51.94850000000001</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>15963.8404</v>
       </c>
       <c r="G41" t="n">
+        <v>52.24199999999999</v>
+      </c>
+      <c r="H41" t="n">
         <v>51.95583333333335</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>3532.4922</v>
       </c>
       <c r="G42" t="n">
+        <v>52.24199999999999</v>
+      </c>
+      <c r="H42" t="n">
         <v>51.96150000000001</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>1093.351</v>
       </c>
       <c r="G43" t="n">
+        <v>52.24866666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>51.97066666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>4770.533</v>
       </c>
       <c r="G44" t="n">
+        <v>52.24933333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>51.97483333333334</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>48556.9808</v>
       </c>
       <c r="G45" t="n">
+        <v>52.23533333333332</v>
+      </c>
+      <c r="H45" t="n">
         <v>51.97483333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>122433.7707</v>
       </c>
       <c r="G46" t="n">
+        <v>52.23266666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>51.97766666666666</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>141838.144</v>
       </c>
       <c r="G47" t="n">
+        <v>52.21399999999999</v>
+      </c>
+      <c r="H47" t="n">
         <v>51.97066666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>45762.7485</v>
       </c>
       <c r="G48" t="n">
+        <v>52.182</v>
+      </c>
+      <c r="H48" t="n">
         <v>51.96799999999999</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>150288.5839</v>
       </c>
       <c r="G49" t="n">
+        <v>52.13999999999999</v>
+      </c>
+      <c r="H49" t="n">
         <v>51.96333333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>4199.9999</v>
       </c>
       <c r="G50" t="n">
+        <v>52.10666666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>51.95683333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>21745.8889</v>
       </c>
       <c r="G51" t="n">
+        <v>52.07533333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>51.95249999999999</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>60089.9624</v>
       </c>
       <c r="G52" t="n">
+        <v>52.02399999999999</v>
+      </c>
+      <c r="H52" t="n">
         <v>51.94149999999999</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>18.29</v>
       </c>
       <c r="G53" t="n">
+        <v>51.99599999999999</v>
+      </c>
+      <c r="H53" t="n">
         <v>51.93549999999998</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>100000</v>
       </c>
       <c r="G54" t="n">
+        <v>51.95599999999999</v>
+      </c>
+      <c r="H54" t="n">
         <v>51.92799999999998</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>41000</v>
       </c>
       <c r="G55" t="n">
+        <v>51.91266666666665</v>
+      </c>
+      <c r="H55" t="n">
         <v>51.92183333333332</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>26409.2587</v>
       </c>
       <c r="G56" t="n">
+        <v>51.84399999999997</v>
+      </c>
+      <c r="H56" t="n">
         <v>51.91466666666665</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>6833.4257</v>
       </c>
       <c r="G57" t="n">
+        <v>51.76266666666664</v>
+      </c>
+      <c r="H57" t="n">
         <v>51.90549999999998</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>44455.9446</v>
       </c>
       <c r="G58" t="n">
+        <v>51.68133333333331</v>
+      </c>
+      <c r="H58" t="n">
         <v>51.89883333333331</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>9553.5226</v>
       </c>
       <c r="G59" t="n">
+        <v>51.60666666666665</v>
+      </c>
+      <c r="H59" t="n">
         <v>51.88883333333331</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>50000</v>
       </c>
       <c r="G60" t="n">
+        <v>51.55866666666665</v>
+      </c>
+      <c r="H60" t="n">
         <v>51.88283333333331</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>131805.7015</v>
       </c>
       <c r="G61" t="n">
+        <v>51.4813333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>51.87233333333331</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>88438.5148</v>
       </c>
       <c r="G62" t="n">
+        <v>51.43733333333331</v>
+      </c>
+      <c r="H62" t="n">
         <v>51.86383333333331</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>50000</v>
       </c>
       <c r="G63" t="n">
+        <v>51.41466666666664</v>
+      </c>
+      <c r="H63" t="n">
         <v>51.85899999999997</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>6001.1487</v>
       </c>
       <c r="G64" t="n">
+        <v>51.39199999999997</v>
+      </c>
+      <c r="H64" t="n">
         <v>51.85516666666664</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>334.5094</v>
       </c>
       <c r="G65" t="n">
+        <v>51.34066666666664</v>
+      </c>
+      <c r="H65" t="n">
         <v>51.84433333333331</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>40000</v>
       </c>
       <c r="G66" t="n">
+        <v>51.28399999999997</v>
+      </c>
+      <c r="H66" t="n">
         <v>51.83716666666665</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>16347.6794</v>
       </c>
       <c r="G67" t="n">
+        <v>51.25066666666664</v>
+      </c>
+      <c r="H67" t="n">
         <v>51.82899999999997</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>15259.6504</v>
       </c>
       <c r="G68" t="n">
+        <v>51.2033333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>51.82033333333331</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>4974.3005</v>
       </c>
       <c r="G69" t="n">
+        <v>51.1793333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>51.81666666666663</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>22997.6185</v>
       </c>
       <c r="G70" t="n">
+        <v>51.16466666666665</v>
+      </c>
+      <c r="H70" t="n">
         <v>51.81399999999997</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>42.7933</v>
       </c>
       <c r="G71" t="n">
+        <v>51.16399999999998</v>
+      </c>
+      <c r="H71" t="n">
         <v>51.80749999999998</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>234113.943</v>
       </c>
       <c r="G72" t="n">
+        <v>51.16599999999998</v>
+      </c>
+      <c r="H72" t="n">
         <v>51.79933333333331</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>1420</v>
       </c>
       <c r="G73" t="n">
+        <v>51.16999999999998</v>
+      </c>
+      <c r="H73" t="n">
         <v>51.79166666666664</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>184.682</v>
       </c>
       <c r="G74" t="n">
+        <v>51.18599999999997</v>
+      </c>
+      <c r="H74" t="n">
         <v>51.78383333333331</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>7745.818</v>
       </c>
       <c r="G75" t="n">
+        <v>51.18599999999999</v>
+      </c>
+      <c r="H75" t="n">
         <v>51.77233333333331</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>7822.5265</v>
       </c>
       <c r="G76" t="n">
+        <v>51.20399999999998</v>
+      </c>
+      <c r="H76" t="n">
         <v>51.7608333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>4186.8863</v>
       </c>
       <c r="G77" t="n">
+        <v>51.21866666666664</v>
+      </c>
+      <c r="H77" t="n">
         <v>51.7493333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>17083.171</v>
       </c>
       <c r="G78" t="n">
+        <v>51.22466666666664</v>
+      </c>
+      <c r="H78" t="n">
         <v>51.73916666666663</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>79800</v>
       </c>
       <c r="G79" t="n">
+        <v>51.21999999999998</v>
+      </c>
+      <c r="H79" t="n">
         <v>51.72749999999996</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>300</v>
       </c>
       <c r="G80" t="n">
+        <v>51.23533333333332</v>
+      </c>
+      <c r="H80" t="n">
         <v>51.71616666666662</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>213094.5171</v>
       </c>
       <c r="G81" t="n">
+        <v>51.23599999999998</v>
+      </c>
+      <c r="H81" t="n">
         <v>51.69933333333329</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>3620.5019</v>
       </c>
       <c r="G82" t="n">
+        <v>51.25066666666665</v>
+      </c>
+      <c r="H82" t="n">
         <v>51.68516666666662</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>24060.61791161</v>
       </c>
       <c r="G83" t="n">
+        <v>51.24199999999998</v>
+      </c>
+      <c r="H83" t="n">
         <v>51.66583333333329</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>40000</v>
       </c>
       <c r="G84" t="n">
+        <v>51.20466666666665</v>
+      </c>
+      <c r="H84" t="n">
         <v>51.64383333333329</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>24123.8056</v>
       </c>
       <c r="G85" t="n">
+        <v>51.17933333333331</v>
+      </c>
+      <c r="H85" t="n">
         <v>51.62183333333329</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>35423.5654</v>
       </c>
       <c r="G86" t="n">
+        <v>51.14933333333332</v>
+      </c>
+      <c r="H86" t="n">
         <v>51.59983333333329</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>908.7651</v>
       </c>
       <c r="G87" t="n">
+        <v>51.14133333333332</v>
+      </c>
+      <c r="H87" t="n">
         <v>51.57799999999995</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>1741.0158</v>
       </c>
       <c r="G88" t="n">
+        <v>51.13133333333331</v>
+      </c>
+      <c r="H88" t="n">
         <v>51.55783333333328</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>4249.8317</v>
       </c>
       <c r="G89" t="n">
+        <v>51.11266666666664</v>
+      </c>
+      <c r="H89" t="n">
         <v>51.53866666666662</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>277.2444</v>
       </c>
       <c r="G90" t="n">
+        <v>51.09399999999997</v>
+      </c>
+      <c r="H90" t="n">
         <v>51.51849999999997</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>6153.1428</v>
       </c>
       <c r="G91" t="n">
+        <v>51.07533333333331</v>
+      </c>
+      <c r="H91" t="n">
         <v>51.49833333333331</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>1099.5554</v>
       </c>
       <c r="G92" t="n">
+        <v>51.05666666666664</v>
+      </c>
+      <c r="H92" t="n">
         <v>51.48166666666664</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>60.6179</v>
       </c>
       <c r="G93" t="n">
+        <v>51.03266666666664</v>
+      </c>
+      <c r="H93" t="n">
         <v>51.46349999999997</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>30000</v>
       </c>
       <c r="G94" t="n">
+        <v>51.02133333333331</v>
+      </c>
+      <c r="H94" t="n">
         <v>51.44333333333331</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>14.283</v>
       </c>
       <c r="G95" t="n">
+        <v>51.01399999999997</v>
+      </c>
+      <c r="H95" t="n">
         <v>51.42416666666665</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>731.9299999999999</v>
       </c>
       <c r="G96" t="n">
+        <v>51.02199999999997</v>
+      </c>
+      <c r="H96" t="n">
         <v>51.40433333333331</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>64327.6797</v>
       </c>
       <c r="G97" t="n">
+        <v>51.00866666666664</v>
+      </c>
+      <c r="H97" t="n">
         <v>51.38349999999998</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>220.8019</v>
       </c>
       <c r="G98" t="n">
+        <v>51.01933333333331</v>
+      </c>
+      <c r="H98" t="n">
         <v>51.36516666666665</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>209.7618</v>
       </c>
       <c r="G99" t="n">
+        <v>51.04066666666665</v>
+      </c>
+      <c r="H99" t="n">
         <v>51.34516666666665</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>57992.7802</v>
       </c>
       <c r="G100" t="n">
+        <v>51.04399999999998</v>
+      </c>
+      <c r="H100" t="n">
         <v>51.32516666666665</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>100.24793634</v>
       </c>
       <c r="G101" t="n">
+        <v>51.06133333333331</v>
+      </c>
+      <c r="H101" t="n">
         <v>51.30466666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>1000</v>
       </c>
       <c r="G102" t="n">
+        <v>51.07799999999997</v>
+      </c>
+      <c r="H102" t="n">
         <v>51.28699999999999</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>8400</v>
       </c>
       <c r="G103" t="n">
+        <v>51.08266666666665</v>
+      </c>
+      <c r="H103" t="n">
         <v>51.26633333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>400</v>
       </c>
       <c r="G104" t="n">
+        <v>51.10133333333332</v>
+      </c>
+      <c r="H104" t="n">
         <v>51.25166666666666</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>40</v>
       </c>
       <c r="G105" t="n">
+        <v>51.11733333333332</v>
+      </c>
+      <c r="H105" t="n">
         <v>51.23899999999999</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>22308.1535</v>
       </c>
       <c r="G106" t="n">
+        <v>51.15266666666665</v>
+      </c>
+      <c r="H106" t="n">
         <v>51.22833333333332</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>2436.0786</v>
       </c>
       <c r="G107" t="n">
+        <v>51.17066666666665</v>
+      </c>
+      <c r="H107" t="n">
         <v>51.22083333333332</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>20.2076</v>
       </c>
       <c r="G108" t="n">
+        <v>51.18866666666665</v>
+      </c>
+      <c r="H108" t="n">
         <v>51.21516666666666</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>24856.4109</v>
       </c>
       <c r="G109" t="n">
+        <v>51.19333333333331</v>
+      </c>
+      <c r="H109" t="n">
         <v>51.20666666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>50000</v>
       </c>
       <c r="G110" t="n">
+        <v>51.17266666666664</v>
+      </c>
+      <c r="H110" t="n">
         <v>51.19066666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>50000</v>
       </c>
       <c r="G111" t="n">
+        <v>51.15266666666664</v>
+      </c>
+      <c r="H111" t="n">
         <v>51.17366666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>8987.5</v>
       </c>
       <c r="G112" t="n">
+        <v>51.15999999999998</v>
+      </c>
+      <c r="H112" t="n">
         <v>51.1675</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,25 @@
         <v>91060.4719</v>
       </c>
       <c r="G113" t="n">
+        <v>51.16599999999998</v>
+      </c>
+      <c r="H113" t="n">
         <v>51.15766666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>51.06</v>
+      </c>
+      <c r="L113" t="n">
+        <v>51.06</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4713,27 @@
         <v>50000</v>
       </c>
       <c r="G114" t="n">
+        <v>51.17199999999998</v>
+      </c>
+      <c r="H114" t="n">
         <v>51.14916666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>51.06</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4757,27 @@
         <v>9409.7276</v>
       </c>
       <c r="G115" t="n">
+        <v>51.18199999999998</v>
+      </c>
+      <c r="H115" t="n">
         <v>51.14250000000001</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>51.06</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4801,21 @@
         <v>1326.9</v>
       </c>
       <c r="G116" t="n">
+        <v>51.17799999999998</v>
+      </c>
+      <c r="H116" t="n">
         <v>51.13816666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4839,21 @@
         <v>22699.7134</v>
       </c>
       <c r="G117" t="n">
+        <v>51.14999999999998</v>
+      </c>
+      <c r="H117" t="n">
         <v>51.13383333333334</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4877,21 @@
         <v>24000</v>
       </c>
       <c r="G118" t="n">
+        <v>51.13333333333331</v>
+      </c>
+      <c r="H118" t="n">
         <v>51.12933333333334</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4915,21 @@
         <v>409.4</v>
       </c>
       <c r="G119" t="n">
+        <v>51.11266666666664</v>
+      </c>
+      <c r="H119" t="n">
         <v>51.12816666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4953,21 @@
         <v>18853.6861</v>
       </c>
       <c r="G120" t="n">
+        <v>51.09466666666664</v>
+      </c>
+      <c r="H120" t="n">
         <v>51.12300000000001</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4991,21 @@
         <v>57749.7744</v>
       </c>
       <c r="G121" t="n">
+        <v>51.05733333333331</v>
+      </c>
+      <c r="H121" t="n">
         <v>51.12233333333334</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5029,21 @@
         <v>43770.475</v>
       </c>
       <c r="G122" t="n">
+        <v>51.03733333333332</v>
+      </c>
+      <c r="H122" t="n">
         <v>51.12083333333334</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5067,21 @@
         <v>97766.5325</v>
       </c>
       <c r="G123" t="n">
+        <v>51.00799999999999</v>
+      </c>
+      <c r="H123" t="n">
         <v>51.11350000000001</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5105,21 @@
         <v>18066.2975</v>
       </c>
       <c r="G124" t="n">
+        <v>51.00066666666665</v>
+      </c>
+      <c r="H124" t="n">
         <v>51.10883333333334</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5143,21 @@
         <v>4695.5191</v>
       </c>
       <c r="G125" t="n">
+        <v>51.01333333333332</v>
+      </c>
+      <c r="H125" t="n">
         <v>51.10883333333334</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5181,21 @@
         <v>10760.5415</v>
       </c>
       <c r="G126" t="n">
+        <v>51.01799999999999</v>
+      </c>
+      <c r="H126" t="n">
         <v>51.10716666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5219,21 @@
         <v>30437.706</v>
       </c>
       <c r="G127" t="n">
+        <v>51.01333333333332</v>
+      </c>
+      <c r="H127" t="n">
         <v>51.10816666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5257,21 @@
         <v>1240.7988</v>
       </c>
       <c r="G128" t="n">
+        <v>50.99666666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>51.10600000000001</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5295,21 @@
         <v>17008.0096</v>
       </c>
       <c r="G129" t="n">
+        <v>50.99066666666666</v>
+      </c>
+      <c r="H129" t="n">
         <v>51.10200000000001</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5333,21 @@
         <v>28395.151</v>
       </c>
       <c r="G130" t="n">
+        <v>50.99266666666665</v>
+      </c>
+      <c r="H130" t="n">
         <v>51.09950000000001</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5371,21 @@
         <v>50000</v>
       </c>
       <c r="G131" t="n">
+        <v>50.99799999999998</v>
+      </c>
+      <c r="H131" t="n">
         <v>51.09666666666668</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5409,21 @@
         <v>104.5952</v>
       </c>
       <c r="G132" t="n">
+        <v>50.99933333333332</v>
+      </c>
+      <c r="H132" t="n">
         <v>51.09216666666668</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5447,21 @@
         <v>8590.4954</v>
       </c>
       <c r="G133" t="n">
+        <v>51.01533333333332</v>
+      </c>
+      <c r="H133" t="n">
         <v>51.09066666666668</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5485,21 @@
         <v>51400</v>
       </c>
       <c r="G134" t="n">
+        <v>51.02133333333332</v>
+      </c>
+      <c r="H134" t="n">
         <v>51.08700000000001</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5523,21 @@
         <v>1437.1304</v>
       </c>
       <c r="G135" t="n">
+        <v>51.03599999999999</v>
+      </c>
+      <c r="H135" t="n">
         <v>51.08550000000001</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5561,21 @@
         <v>7256.6317</v>
       </c>
       <c r="G136" t="n">
+        <v>51.04199999999999</v>
+      </c>
+      <c r="H136" t="n">
         <v>51.08183333333334</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5599,21 @@
         <v>1138.9287</v>
       </c>
       <c r="G137" t="n">
+        <v>51.04799999999999</v>
+      </c>
+      <c r="H137" t="n">
         <v>51.07816666666668</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5637,21 @@
         <v>49857.0256</v>
       </c>
       <c r="G138" t="n">
+        <v>51.05933333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>51.07216666666669</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5675,21 @@
         <v>20000</v>
       </c>
       <c r="G139" t="n">
+        <v>51.06199999999999</v>
+      </c>
+      <c r="H139" t="n">
         <v>51.06933333333336</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5713,21 @@
         <v>5876.4122</v>
       </c>
       <c r="G140" t="n">
+        <v>51.05333333333332</v>
+      </c>
+      <c r="H140" t="n">
         <v>51.06333333333337</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5751,21 @@
         <v>30000</v>
       </c>
       <c r="G141" t="n">
+        <v>51.05466666666666</v>
+      </c>
+      <c r="H141" t="n">
         <v>51.06183333333338</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5789,25 @@
         <v>200</v>
       </c>
       <c r="G142" t="n">
+        <v>51.05333333333332</v>
+      </c>
+      <c r="H142" t="n">
         <v>51.05883333333337</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="L142" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5831,29 @@
         <v>67047.4387</v>
       </c>
       <c r="G143" t="n">
+        <v>51.06399999999999</v>
+      </c>
+      <c r="H143" t="n">
         <v>51.06150000000003</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>50.97</v>
+      </c>
+      <c r="L143" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5877,29 @@
         <v>28174.9156</v>
       </c>
       <c r="G144" t="n">
+        <v>51.06399999999999</v>
+      </c>
+      <c r="H144" t="n">
         <v>51.06683333333337</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>51</v>
+      </c>
+      <c r="L144" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5923,25 @@
         <v>56734.9978</v>
       </c>
       <c r="G145" t="n">
+        <v>51.05199999999999</v>
+      </c>
+      <c r="H145" t="n">
         <v>51.0676666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>51</v>
+      </c>
+      <c r="L145" t="n">
+        <v>51</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5965,29 @@
         <v>10980.4941</v>
       </c>
       <c r="G146" t="n">
+        <v>51.03666666666665</v>
+      </c>
+      <c r="H146" t="n">
         <v>51.06850000000004</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>51</v>
+      </c>
+      <c r="L146" t="n">
+        <v>51</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +6011,27 @@
         <v>10100</v>
       </c>
       <c r="G147" t="n">
+        <v>51.03466666666666</v>
+      </c>
+      <c r="H147" t="n">
         <v>51.06550000000004</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>51</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6055,21 @@
         <v>2754.838</v>
       </c>
       <c r="G148" t="n">
+        <v>51.01866666666665</v>
+      </c>
+      <c r="H148" t="n">
         <v>51.06250000000004</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6093,21 @@
         <v>2193.3769</v>
       </c>
       <c r="G149" t="n">
+        <v>51.01266666666665</v>
+      </c>
+      <c r="H149" t="n">
         <v>51.06200000000004</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6131,21 @@
         <v>2430.8336</v>
       </c>
       <c r="G150" t="n">
+        <v>50.99799999999998</v>
+      </c>
+      <c r="H150" t="n">
         <v>51.06150000000004</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6169,21 @@
         <v>6843.8585</v>
       </c>
       <c r="G151" t="n">
+        <v>50.99199999999998</v>
+      </c>
+      <c r="H151" t="n">
         <v>51.06100000000004</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6207,21 @@
         <v>5446.1859</v>
       </c>
       <c r="G152" t="n">
+        <v>50.98599999999998</v>
+      </c>
+      <c r="H152" t="n">
         <v>51.06050000000003</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6245,21 @@
         <v>10227.2959</v>
       </c>
       <c r="G153" t="n">
+        <v>50.98399999999999</v>
+      </c>
+      <c r="H153" t="n">
         <v>51.06000000000003</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6283,21 @@
         <v>17000</v>
       </c>
       <c r="G154" t="n">
+        <v>50.98199999999999</v>
+      </c>
+      <c r="H154" t="n">
         <v>51.05950000000003</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6321,21 @@
         <v>10000</v>
       </c>
       <c r="G155" t="n">
+        <v>50.99133333333332</v>
+      </c>
+      <c r="H155" t="n">
         <v>51.05766666666669</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6359,21 @@
         <v>10</v>
       </c>
       <c r="G156" t="n">
+        <v>50.99666666666666</v>
+      </c>
+      <c r="H156" t="n">
         <v>51.05550000000002</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6397,21 @@
         <v>17250.216</v>
       </c>
       <c r="G157" t="n">
+        <v>50.98399999999999</v>
+      </c>
+      <c r="H157" t="n">
         <v>51.0526666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6435,21 @@
         <v>11899.722</v>
       </c>
       <c r="G158" t="n">
+        <v>50.98399999999999</v>
+      </c>
+      <c r="H158" t="n">
         <v>51.0526666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6473,21 @@
         <v>39703.4264</v>
       </c>
       <c r="G159" t="n">
+        <v>50.98399999999999</v>
+      </c>
+      <c r="H159" t="n">
         <v>51.0526666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6511,21 @@
         <v>53777.8185</v>
       </c>
       <c r="G160" t="n">
+        <v>50.98399999999999</v>
+      </c>
+      <c r="H160" t="n">
         <v>51.0526666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6549,21 @@
         <v>5297.5878</v>
       </c>
       <c r="G161" t="n">
+        <v>50.99333333333332</v>
+      </c>
+      <c r="H161" t="n">
         <v>51.05150000000003</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6587,21 @@
         <v>32615.7836</v>
       </c>
       <c r="G162" t="n">
+        <v>51.00666666666665</v>
+      </c>
+      <c r="H162" t="n">
         <v>51.04766666666669</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6625,21 @@
         <v>8535.8339</v>
       </c>
       <c r="G163" t="n">
+        <v>51.01999999999999</v>
+      </c>
+      <c r="H163" t="n">
         <v>51.04683333333335</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6663,21 @@
         <v>143.2745</v>
       </c>
       <c r="G164" t="n">
+        <v>51.03333333333332</v>
+      </c>
+      <c r="H164" t="n">
         <v>51.04500000000002</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6701,21 @@
         <v>3078.3309</v>
       </c>
       <c r="G165" t="n">
+        <v>51.04133333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>51.04250000000002</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6739,21 @@
         <v>5098.9208</v>
       </c>
       <c r="G166" t="n">
+        <v>51.05799999999999</v>
+      </c>
+      <c r="H166" t="n">
         <v>51.03733333333335</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6777,21 @@
         <v>3168.5789</v>
       </c>
       <c r="G167" t="n">
+        <v>51.07466666666666</v>
+      </c>
+      <c r="H167" t="n">
         <v>51.03650000000002</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6815,21 @@
         <v>7454.6167</v>
       </c>
       <c r="G168" t="n">
+        <v>51.09199999999999</v>
+      </c>
+      <c r="H168" t="n">
         <v>51.03583333333335</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +6853,21 @@
         <v>200</v>
       </c>
       <c r="G169" t="n">
+        <v>51.10866666666666</v>
+      </c>
+      <c r="H169" t="n">
         <v>51.03833333333335</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6891,21 @@
         <v>924.7895</v>
       </c>
       <c r="G170" t="n">
+        <v>51.12533333333332</v>
+      </c>
+      <c r="H170" t="n">
         <v>51.04583333333335</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +6929,21 @@
         <v>925.6521</v>
       </c>
       <c r="G171" t="n">
+        <v>51.14066666666666</v>
+      </c>
+      <c r="H171" t="n">
         <v>51.05250000000002</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +6967,21 @@
         <v>20483.0894</v>
       </c>
       <c r="G172" t="n">
+        <v>51.15799999999999</v>
+      </c>
+      <c r="H172" t="n">
         <v>51.05216666666669</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +7005,25 @@
         <v>1092.4864</v>
       </c>
       <c r="G173" t="n">
+        <v>51.16799999999999</v>
+      </c>
+      <c r="H173" t="n">
         <v>51.05316666666668</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="L173" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +7047,29 @@
         <v>8749.1811</v>
       </c>
       <c r="G174" t="n">
+        <v>51.17799999999999</v>
+      </c>
+      <c r="H174" t="n">
         <v>51.05416666666668</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="L174" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7093,29 @@
         <v>29358.3325</v>
       </c>
       <c r="G175" t="n">
+        <v>51.18799999999999</v>
+      </c>
+      <c r="H175" t="n">
         <v>51.05416666666668</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="L175" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7139,29 @@
         <v>44561.4572</v>
       </c>
       <c r="G176" t="n">
+        <v>51.17533333333333</v>
+      </c>
+      <c r="H176" t="n">
         <v>51.05083333333334</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="L176" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7185,29 @@
         <v>50000</v>
       </c>
       <c r="G177" t="n">
+        <v>51.15133333333333</v>
+      </c>
+      <c r="H177" t="n">
         <v>51.04800000000001</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>50.95</v>
+      </c>
+      <c r="L177" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7231,29 @@
         <v>22126.385</v>
       </c>
       <c r="G178" t="n">
+        <v>51.12933333333332</v>
+      </c>
+      <c r="H178" t="n">
         <v>51.04583333333334</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>50.84</v>
+      </c>
+      <c r="L178" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7277,29 @@
         <v>10</v>
       </c>
       <c r="G179" t="n">
+        <v>51.12266666666665</v>
+      </c>
+      <c r="H179" t="n">
         <v>51.04750000000001</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="L179" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7323,29 @@
         <v>19907.6365</v>
       </c>
       <c r="G180" t="n">
+        <v>51.10466666666665</v>
+      </c>
+      <c r="H180" t="n">
         <v>51.045</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7369,29 @@
         <v>154.6163</v>
       </c>
       <c r="G181" t="n">
+        <v>51.07466666666665</v>
+      </c>
+      <c r="H181" t="n">
         <v>51.04166666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>50.85</v>
+      </c>
+      <c r="L181" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7415,29 @@
         <v>25.8709</v>
       </c>
       <c r="G182" t="n">
+        <v>51.04466666666665</v>
+      </c>
+      <c r="H182" t="n">
         <v>51.03833333333334</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="L182" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7461,29 @@
         <v>26781.1888</v>
       </c>
       <c r="G183" t="n">
+        <v>51.01399999999998</v>
+      </c>
+      <c r="H183" t="n">
         <v>51.03733333333334</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="L183" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7507,29 @@
         <v>97076.795</v>
       </c>
       <c r="G184" t="n">
+        <v>50.98399999999997</v>
+      </c>
+      <c r="H184" t="n">
         <v>51.03416666666669</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="L184" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7553,29 @@
         <v>500</v>
       </c>
       <c r="G185" t="n">
+        <v>50.95799999999998</v>
+      </c>
+      <c r="H185" t="n">
         <v>51.03200000000002</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="L185" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7599,29 @@
         <v>4625.8432</v>
       </c>
       <c r="G186" t="n">
+        <v>50.93533333333331</v>
+      </c>
+      <c r="H186" t="n">
         <v>51.03183333333335</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>50.86</v>
+      </c>
+      <c r="L186" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7645,29 @@
         <v>639.0928</v>
       </c>
       <c r="G187" t="n">
+        <v>50.92466666666665</v>
+      </c>
+      <c r="H187" t="n">
         <v>51.03000000000002</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="L187" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7691,29 @@
         <v>13183.2531</v>
       </c>
       <c r="G188" t="n">
+        <v>50.90133333333331</v>
+      </c>
+      <c r="H188" t="n">
         <v>51.02933333333336</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="L188" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +7737,29 @@
         <v>36083.8881</v>
       </c>
       <c r="G189" t="n">
+        <v>50.87733333333331</v>
+      </c>
+      <c r="H189" t="n">
         <v>51.02583333333336</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="L189" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +7783,29 @@
         <v>5000</v>
       </c>
       <c r="G190" t="n">
+        <v>50.85466666666664</v>
+      </c>
+      <c r="H190" t="n">
         <v>51.01966666666669</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>50.79</v>
+      </c>
+      <c r="L190" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +7829,29 @@
         <v>215053.714</v>
       </c>
       <c r="G191" t="n">
+        <v>50.83866666666664</v>
+      </c>
+      <c r="H191" t="n">
         <v>51.01100000000003</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>50.81</v>
+      </c>
+      <c r="L191" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +7875,27 @@
         <v>104922.46835443</v>
       </c>
       <c r="G192" t="n">
+        <v>50.81999999999997</v>
+      </c>
+      <c r="H192" t="n">
         <v>51.00316666666669</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +7919,27 @@
         <v>534.8576</v>
       </c>
       <c r="G193" t="n">
+        <v>50.80799999999997</v>
+      </c>
+      <c r="H193" t="n">
         <v>50.99400000000003</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +7963,29 @@
         <v>172.8825</v>
       </c>
       <c r="G194" t="n">
+        <v>50.78399999999997</v>
+      </c>
+      <c r="H194" t="n">
         <v>50.98816666666669</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>50.69</v>
+      </c>
+      <c r="L194" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +8009,29 @@
         <v>2607.1235</v>
       </c>
       <c r="G195" t="n">
+        <v>50.76866666666663</v>
+      </c>
+      <c r="H195" t="n">
         <v>50.97816666666669</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>50.74</v>
+      </c>
+      <c r="L195" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +8055,29 @@
         <v>1076.2331</v>
       </c>
       <c r="G196" t="n">
+        <v>50.75666666666664</v>
+      </c>
+      <c r="H196" t="n">
         <v>50.97033333333335</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="L196" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +8101,29 @@
         <v>211853.116</v>
       </c>
       <c r="G197" t="n">
+        <v>50.73199999999997</v>
+      </c>
+      <c r="H197" t="n">
         <v>50.95933333333335</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="L197" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +8147,27 @@
         <v>5403.232</v>
       </c>
       <c r="G198" t="n">
+        <v>50.72666666666665</v>
+      </c>
+      <c r="H198" t="n">
         <v>50.95416666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="L198" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +8191,27 @@
         <v>11017.6381</v>
       </c>
       <c r="G199" t="n">
+        <v>50.72133333333331</v>
+      </c>
+      <c r="H199" t="n">
         <v>50.949</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="L199" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +8235,27 @@
         <v>2373.2318</v>
       </c>
       <c r="G200" t="n">
+        <v>50.71199999999998</v>
+      </c>
+      <c r="H200" t="n">
         <v>50.94666666666667</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="L200" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8279,27 @@
         <v>81918.56630000001</v>
       </c>
       <c r="G201" t="n">
+        <v>50.70199999999998</v>
+      </c>
+      <c r="H201" t="n">
         <v>50.94366666666666</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8323,27 @@
         <v>10113.2398</v>
       </c>
       <c r="G202" t="n">
+        <v>50.69133333333332</v>
+      </c>
+      <c r="H202" t="n">
         <v>50.93949999999999</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8367,27 @@
         <v>7620.585</v>
       </c>
       <c r="G203" t="n">
+        <v>50.68599999999999</v>
+      </c>
+      <c r="H203" t="n">
         <v>50.93483333333332</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8411,27 @@
         <v>2097.6131</v>
       </c>
       <c r="G204" t="n">
+        <v>50.68133333333333</v>
+      </c>
+      <c r="H204" t="n">
         <v>50.93016666666665</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8455,27 @@
         <v>323.5</v>
       </c>
       <c r="G205" t="n">
+        <v>50.67533333333333</v>
+      </c>
+      <c r="H205" t="n">
         <v>50.92549999999998</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="L205" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,18 +8499,27 @@
         <v>590.1127</v>
       </c>
       <c r="G206" t="n">
+        <v>50.67533333333333</v>
+      </c>
+      <c r="H206" t="n">
         <v>50.92066666666665</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="L206" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,22 +8543,29 @@
         <v>15.383</v>
       </c>
       <c r="G207" t="n">
+        <v>50.66066666666666</v>
+      </c>
+      <c r="H207" t="n">
         <v>50.90966666666665</v>
       </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="n">
-        <v>50.71</v>
+        <v>0</v>
       </c>
       <c r="K207" t="n">
         <v>50.71</v>
       </c>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="L207" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7662,26 +8589,27 @@
         <v>322.2025</v>
       </c>
       <c r="G208" t="n">
+        <v>50.64533333333332</v>
+      </c>
+      <c r="H208" t="n">
         <v>50.90066666666665</v>
       </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>50.34</v>
-      </c>
-      <c r="K208" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L208" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M208" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7705,24 +8633,29 @@
         <v>24989.3907</v>
       </c>
       <c r="G209" t="n">
+        <v>50.62666666666666</v>
+      </c>
+      <c r="H209" t="n">
         <v>50.89166666666665</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L209" t="inlineStr">
+        <v>50.46</v>
+      </c>
+      <c r="L209" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7746,26 +8679,29 @@
         <v>32410</v>
       </c>
       <c r="G210" t="n">
+        <v>50.63599999999999</v>
+      </c>
+      <c r="H210" t="n">
         <v>50.88766666666665</v>
       </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
         <v>50.46</v>
       </c>
-      <c r="K210" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="L210" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7789,26 +8725,29 @@
         <v>20</v>
       </c>
       <c r="G211" t="n">
+        <v>50.65466666666666</v>
+      </c>
+      <c r="H211" t="n">
         <v>50.88599999999999</v>
       </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
         <v>50.76</v>
       </c>
-      <c r="K211" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="L211" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7832,24 +8771,27 @@
         <v>15.7971</v>
       </c>
       <c r="G212" t="n">
+        <v>50.65933333333332</v>
+      </c>
+      <c r="H212" t="n">
         <v>50.87766666666666</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L212" t="inlineStr">
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7873,24 +8815,29 @@
         <v>50000</v>
       </c>
       <c r="G213" t="n">
+        <v>50.63733333333332</v>
+      </c>
+      <c r="H213" t="n">
         <v>50.86749999999999</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L213" t="inlineStr">
+        <v>50.5</v>
+      </c>
+      <c r="L213" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7914,24 +8861,485 @@
         <v>40000</v>
       </c>
       <c r="G214" t="n">
+        <v>50.61666666666665</v>
+      </c>
+      <c r="H214" t="n">
         <v>50.85766666666665</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="C215" t="n">
+        <v>50.64</v>
+      </c>
+      <c r="D215" t="n">
+        <v>50.64</v>
+      </c>
+      <c r="E215" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="F215" t="n">
+        <v>40053.7638</v>
+      </c>
+      <c r="G215" t="n">
+        <v>50.61133333333331</v>
+      </c>
+      <c r="H215" t="n">
+        <v>50.85166666666665</v>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="L215" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="C216" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="D216" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="E216" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="F216" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G216" t="n">
+        <v>50.58933333333331</v>
+      </c>
+      <c r="H216" t="n">
+        <v>50.84183333333331</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>50.64</v>
+      </c>
+      <c r="L216" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="C217" t="n">
+        <v>50.65</v>
+      </c>
+      <c r="D217" t="n">
+        <v>50.65</v>
+      </c>
+      <c r="E217" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="F217" t="n">
+        <v>9700</v>
+      </c>
+      <c r="G217" t="n">
+        <v>50.58466666666664</v>
+      </c>
+      <c r="H217" t="n">
+        <v>50.83966666666664</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="L217" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>50.54</v>
+      </c>
+      <c r="C218" t="n">
+        <v>50.54</v>
+      </c>
+      <c r="D218" t="n">
+        <v>50.54</v>
+      </c>
+      <c r="E218" t="n">
+        <v>50.54</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G218" t="n">
+        <v>50.57266666666664</v>
+      </c>
+      <c r="H218" t="n">
+        <v>50.83199999999998</v>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>50.65</v>
+      </c>
+      <c r="L218" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="C219" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="D219" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="E219" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2470.5967</v>
+      </c>
+      <c r="G219" t="n">
+        <v>50.56599999999997</v>
+      </c>
+      <c r="H219" t="n">
+        <v>50.82566666666664</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>50.54</v>
+      </c>
+      <c r="L219" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="C220" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="D220" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="E220" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="F220" t="n">
+        <v>6851.6462</v>
+      </c>
+      <c r="G220" t="n">
+        <v>50.5553333333333</v>
+      </c>
+      <c r="H220" t="n">
+        <v>50.81833333333331</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="L220" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="C221" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="D221" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="E221" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="F221" t="n">
+        <v>27211.4828</v>
+      </c>
+      <c r="G221" t="n">
+        <v>50.5393333333333</v>
+      </c>
+      <c r="H221" t="n">
+        <v>50.80716666666664</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="C222" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="D222" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="E222" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1977.9127</v>
+      </c>
+      <c r="G222" t="n">
+        <v>50.54799999999997</v>
+      </c>
+      <c r="H222" t="n">
+        <v>50.79499999999997</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="L222" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>50.22</v>
+      </c>
+      <c r="C223" t="n">
+        <v>50.21</v>
+      </c>
+      <c r="D223" t="n">
+        <v>50.22</v>
+      </c>
+      <c r="E223" t="n">
+        <v>50.21</v>
+      </c>
+      <c r="F223" t="n">
+        <v>72612.0021</v>
+      </c>
+      <c r="G223" t="n">
+        <v>50.5313333333333</v>
+      </c>
+      <c r="H223" t="n">
+        <v>50.77849999999998</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="L223" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="C224" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="D224" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="E224" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="F224" t="n">
+        <v>475.6342</v>
+      </c>
+      <c r="G224" t="n">
+        <v>50.5273333333333</v>
+      </c>
+      <c r="H224" t="n">
+        <v>50.76516666666665</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>50.21</v>
+      </c>
+      <c r="L224" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-26 BackTest ADA.xlsx
+++ b/BackTest/2020-01-26 BackTest ADA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M253"/>
+  <dimension ref="A1:N211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>52.28</v>
+        <v>51.78</v>
       </c>
       <c r="C2" t="n">
-        <v>52.08</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>52.28</v>
+        <v>52</v>
       </c>
       <c r="E2" t="n">
-        <v>52.08</v>
+        <v>51.78</v>
       </c>
       <c r="F2" t="n">
-        <v>68840.02710000001</v>
+        <v>22712.163</v>
       </c>
       <c r="G2" t="n">
-        <v>9088.702707940087</v>
+        <v>-307502.4570920599</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>51.98</v>
+        <v>52</v>
       </c>
       <c r="C3" t="n">
-        <v>51.98</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
-        <v>51.98</v>
+        <v>52</v>
       </c>
       <c r="E3" t="n">
-        <v>51.98</v>
+        <v>52</v>
       </c>
       <c r="F3" t="n">
-        <v>2177.2084</v>
+        <v>9939.158299999999</v>
       </c>
       <c r="G3" t="n">
-        <v>6911.494307940087</v>
+        <v>-307502.4570920599</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>51.97</v>
+        <v>52</v>
       </c>
       <c r="C4" t="n">
-        <v>51.97</v>
+        <v>52</v>
       </c>
       <c r="D4" t="n">
-        <v>51.97</v>
+        <v>52</v>
       </c>
       <c r="E4" t="n">
-        <v>51.97</v>
+        <v>52</v>
       </c>
       <c r="F4" t="n">
-        <v>5953.7557</v>
+        <v>38766.5166</v>
       </c>
       <c r="G4" t="n">
-        <v>957.7386079400876</v>
+        <v>-307502.4570920599</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51.86</v>
+        <v>52</v>
       </c>
       <c r="C5" t="n">
-        <v>51.8</v>
+        <v>52</v>
       </c>
       <c r="D5" t="n">
-        <v>51.86</v>
+        <v>52</v>
       </c>
       <c r="E5" t="n">
-        <v>51.8</v>
+        <v>52</v>
       </c>
       <c r="F5" t="n">
-        <v>1927.7638</v>
+        <v>364800.1907</v>
       </c>
       <c r="G5" t="n">
-        <v>-970.0251920599123</v>
+        <v>-307502.4570920599</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51.83</v>
+        <v>52</v>
       </c>
       <c r="C6" t="n">
-        <v>51.83</v>
+        <v>51.9</v>
       </c>
       <c r="D6" t="n">
-        <v>51.83</v>
+        <v>52</v>
       </c>
       <c r="E6" t="n">
-        <v>51.83</v>
+        <v>51.9</v>
       </c>
       <c r="F6" t="n">
-        <v>1248.7804</v>
+        <v>20492.6753</v>
       </c>
       <c r="G6" t="n">
-        <v>278.7552079400878</v>
+        <v>-327995.1323920599</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51.8</v>
+        <v>51.9</v>
       </c>
       <c r="C7" t="n">
-        <v>51.63</v>
+        <v>51.9</v>
       </c>
       <c r="D7" t="n">
-        <v>51.94</v>
+        <v>51.9</v>
       </c>
       <c r="E7" t="n">
-        <v>51.63</v>
+        <v>51.9</v>
       </c>
       <c r="F7" t="n">
-        <v>96864.2089</v>
+        <v>1957.1837</v>
       </c>
       <c r="G7" t="n">
-        <v>-96585.45369205991</v>
+        <v>-327995.1323920599</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>51.91</v>
+        <v>51.9</v>
       </c>
       <c r="C8" t="n">
-        <v>51.92</v>
+        <v>52</v>
       </c>
       <c r="D8" t="n">
-        <v>51.92</v>
+        <v>52</v>
       </c>
       <c r="E8" t="n">
-        <v>51.91</v>
+        <v>51.9</v>
       </c>
       <c r="F8" t="n">
-        <v>39950</v>
+        <v>82088.26420000001</v>
       </c>
       <c r="G8" t="n">
-        <v>-56635.45369205991</v>
+        <v>-245906.8681920599</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>51.94</v>
+        <v>52</v>
       </c>
       <c r="C9" t="n">
-        <v>51.94</v>
+        <v>52</v>
       </c>
       <c r="D9" t="n">
-        <v>51.94</v>
+        <v>52</v>
       </c>
       <c r="E9" t="n">
-        <v>51.94</v>
+        <v>52</v>
       </c>
       <c r="F9" t="n">
-        <v>14.6323</v>
+        <v>43953.1973</v>
       </c>
       <c r="G9" t="n">
-        <v>-56620.82139205991</v>
+        <v>-245906.8681920599</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>51.94</v>
+        <v>52</v>
       </c>
       <c r="C10" t="n">
         <v>52</v>
       </c>
       <c r="D10" t="n">
-        <v>52.16</v>
+        <v>52</v>
       </c>
       <c r="E10" t="n">
-        <v>51.94</v>
+        <v>52</v>
       </c>
       <c r="F10" t="n">
-        <v>10072.2032</v>
+        <v>27787.5999</v>
       </c>
       <c r="G10" t="n">
-        <v>-46548.6181920599</v>
+        <v>-245906.8681920599</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>52.15</v>
+        <v>52</v>
       </c>
       <c r="C11" t="n">
-        <v>52.15</v>
+        <v>52</v>
       </c>
       <c r="D11" t="n">
-        <v>52.15</v>
+        <v>52</v>
       </c>
       <c r="E11" t="n">
-        <v>52.15</v>
+        <v>52</v>
       </c>
       <c r="F11" t="n">
-        <v>15.0308</v>
+        <v>4713.2999</v>
       </c>
       <c r="G11" t="n">
-        <v>-46533.5873920599</v>
+        <v>-245906.8681920599</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>51.94</v>
+        <v>52.16</v>
       </c>
       <c r="C12" t="n">
-        <v>51.94</v>
+        <v>52.27</v>
       </c>
       <c r="D12" t="n">
-        <v>51.94</v>
+        <v>52.27</v>
       </c>
       <c r="E12" t="n">
-        <v>51.94</v>
+        <v>52.16</v>
       </c>
       <c r="F12" t="n">
-        <v>5002.4031</v>
+        <v>16000</v>
       </c>
       <c r="G12" t="n">
-        <v>-51535.99049205991</v>
+        <v>-229906.8681920599</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>51.94</v>
+        <v>52.27</v>
       </c>
       <c r="C13" t="n">
-        <v>51.94</v>
+        <v>52.27</v>
       </c>
       <c r="D13" t="n">
-        <v>51.94</v>
+        <v>52.27</v>
       </c>
       <c r="E13" t="n">
-        <v>51.94</v>
+        <v>52.27</v>
       </c>
       <c r="F13" t="n">
-        <v>7264.9038</v>
+        <v>6341.8913</v>
       </c>
       <c r="G13" t="n">
-        <v>-51535.99049205991</v>
+        <v>-229906.8681920599</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>52.03</v>
+        <v>52.29</v>
       </c>
       <c r="C14" t="n">
-        <v>52.03</v>
+        <v>52.49</v>
       </c>
       <c r="D14" t="n">
-        <v>52.03</v>
+        <v>52.49</v>
       </c>
       <c r="E14" t="n">
-        <v>52.03</v>
+        <v>52.29</v>
       </c>
       <c r="F14" t="n">
-        <v>13.5594</v>
+        <v>12906.5693</v>
       </c>
       <c r="G14" t="n">
-        <v>-51522.43109205991</v>
+        <v>-217000.2988920599</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>52.04</v>
+        <v>52.32</v>
       </c>
       <c r="C15" t="n">
-        <v>52.03</v>
+        <v>52.39</v>
       </c>
       <c r="D15" t="n">
-        <v>52.04</v>
+        <v>52.39</v>
       </c>
       <c r="E15" t="n">
-        <v>52.03</v>
+        <v>52.31</v>
       </c>
       <c r="F15" t="n">
-        <v>53.5684</v>
+        <v>22402.8574</v>
       </c>
       <c r="G15" t="n">
-        <v>-51522.43109205991</v>
+        <v>-239403.1562920599</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,34 +935,35 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>52.17</v>
+        <v>52.31</v>
       </c>
       <c r="C16" t="n">
-        <v>52.17</v>
+        <v>52.18</v>
       </c>
       <c r="D16" t="n">
-        <v>52.17</v>
+        <v>52.31</v>
       </c>
       <c r="E16" t="n">
-        <v>52.17</v>
+        <v>52.18</v>
       </c>
       <c r="F16" t="n">
-        <v>34.3454</v>
+        <v>28230</v>
       </c>
       <c r="G16" t="n">
-        <v>-51488.08569205991</v>
+        <v>-267633.1562920599</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>51.9</v>
+        <v>52.24</v>
       </c>
       <c r="C17" t="n">
-        <v>51.8</v>
+        <v>52.24</v>
       </c>
       <c r="D17" t="n">
-        <v>51.9</v>
+        <v>52.24</v>
       </c>
       <c r="E17" t="n">
-        <v>51.8</v>
+        <v>52.24</v>
       </c>
       <c r="F17" t="n">
-        <v>171031.8589</v>
+        <v>485.43261868</v>
       </c>
       <c r="G17" t="n">
-        <v>-222519.9445920599</v>
+        <v>-267147.7236733799</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>51.89</v>
+        <v>52.24</v>
       </c>
       <c r="C18" t="n">
-        <v>51.89</v>
+        <v>52.24</v>
       </c>
       <c r="D18" t="n">
-        <v>51.89</v>
+        <v>52.24</v>
       </c>
       <c r="E18" t="n">
-        <v>51.89</v>
+        <v>52.24</v>
       </c>
       <c r="F18" t="n">
-        <v>2666.6667</v>
+        <v>10000</v>
       </c>
       <c r="G18" t="n">
-        <v>-219853.2778920599</v>
+        <v>-267147.7236733799</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,34 +1043,35 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>52.15</v>
+        <v>52.03</v>
       </c>
       <c r="C19" t="n">
-        <v>52.15</v>
+        <v>52.03</v>
       </c>
       <c r="D19" t="n">
-        <v>52.15</v>
+        <v>52.03</v>
       </c>
       <c r="E19" t="n">
-        <v>51.91</v>
+        <v>52.03</v>
       </c>
       <c r="F19" t="n">
-        <v>645.2773</v>
+        <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>-219208.0005920599</v>
+        <v>-267247.7236733799</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,34 +1079,35 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>52.09</v>
+        <v>52.12</v>
       </c>
       <c r="C20" t="n">
-        <v>52.09</v>
+        <v>52.12</v>
       </c>
       <c r="D20" t="n">
-        <v>52.09</v>
+        <v>52.12</v>
       </c>
       <c r="E20" t="n">
-        <v>52.09</v>
+        <v>52.12</v>
       </c>
       <c r="F20" t="n">
-        <v>54.8032</v>
+        <v>20287.7366</v>
       </c>
       <c r="G20" t="n">
-        <v>-219262.8037920599</v>
+        <v>-246959.9870733799</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>52.08</v>
+        <v>52.24</v>
       </c>
       <c r="C21" t="n">
-        <v>52.09</v>
+        <v>52.24</v>
       </c>
       <c r="D21" t="n">
-        <v>52.09</v>
+        <v>52.24</v>
       </c>
       <c r="E21" t="n">
-        <v>52.08</v>
+        <v>52.24</v>
       </c>
       <c r="F21" t="n">
-        <v>93.73439999999999</v>
+        <v>5107.0601</v>
       </c>
       <c r="G21" t="n">
-        <v>-219262.8037920599</v>
+        <v>-241852.9269733799</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>52.01</v>
+        <v>52.27</v>
       </c>
       <c r="C22" t="n">
-        <v>52.04</v>
+        <v>52.26</v>
       </c>
       <c r="D22" t="n">
-        <v>52.04</v>
+        <v>52.28</v>
       </c>
       <c r="E22" t="n">
-        <v>52.01</v>
+        <v>52.18</v>
       </c>
       <c r="F22" t="n">
-        <v>75.95950000000001</v>
+        <v>208757.737</v>
       </c>
       <c r="G22" t="n">
-        <v>-219338.7632920599</v>
+        <v>-33095.18997337992</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>52.03</v>
+        <v>52.3</v>
       </c>
       <c r="C23" t="n">
-        <v>52.05</v>
+        <v>52.3</v>
       </c>
       <c r="D23" t="n">
-        <v>52.05</v>
+        <v>52.3</v>
       </c>
       <c r="E23" t="n">
-        <v>52.03</v>
+        <v>52.3</v>
       </c>
       <c r="F23" t="n">
-        <v>61.5658</v>
+        <v>33.00191204</v>
       </c>
       <c r="G23" t="n">
-        <v>-219277.1974920599</v>
+        <v>-33062.18806133992</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>52.03</v>
+        <v>52.2</v>
       </c>
       <c r="C24" t="n">
-        <v>51.92</v>
+        <v>52.2</v>
       </c>
       <c r="D24" t="n">
-        <v>52.03</v>
+        <v>52.2</v>
       </c>
       <c r="E24" t="n">
-        <v>51.92</v>
+        <v>52.2</v>
       </c>
       <c r="F24" t="n">
-        <v>40035.858</v>
+        <v>18292.1382</v>
       </c>
       <c r="G24" t="n">
-        <v>-259313.0554920599</v>
+        <v>-51354.32626133992</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>51.86</v>
+        <v>52.2</v>
       </c>
       <c r="C25" t="n">
-        <v>51.84</v>
+        <v>52.1</v>
       </c>
       <c r="D25" t="n">
-        <v>51.86</v>
+        <v>52.2</v>
       </c>
       <c r="E25" t="n">
-        <v>51.84</v>
+        <v>52.1</v>
       </c>
       <c r="F25" t="n">
-        <v>45.042</v>
+        <v>131337.6773</v>
       </c>
       <c r="G25" t="n">
-        <v>-259358.0974920599</v>
+        <v>-182692.0035613399</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>51.79</v>
+        <v>52.12</v>
       </c>
       <c r="C26" t="n">
-        <v>51.82</v>
+        <v>52.2</v>
       </c>
       <c r="D26" t="n">
-        <v>51.83</v>
+        <v>52.2</v>
       </c>
       <c r="E26" t="n">
-        <v>51.79</v>
+        <v>52.12</v>
       </c>
       <c r="F26" t="n">
-        <v>94.87730000000001</v>
+        <v>1939.5804</v>
       </c>
       <c r="G26" t="n">
-        <v>-259452.9747920599</v>
+        <v>-180752.4231613399</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>51.67</v>
+        <v>52.2</v>
       </c>
       <c r="C27" t="n">
-        <v>51.67</v>
+        <v>52.2</v>
       </c>
       <c r="D27" t="n">
-        <v>51.67</v>
+        <v>52.2</v>
       </c>
       <c r="E27" t="n">
-        <v>51.67</v>
+        <v>52.2</v>
       </c>
       <c r="F27" t="n">
-        <v>15741.1264</v>
+        <v>26249.7848</v>
       </c>
       <c r="G27" t="n">
-        <v>-275194.1011920599</v>
+        <v>-180752.4231613399</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>51.67</v>
+        <v>52.2</v>
       </c>
       <c r="C28" t="n">
-        <v>51.67</v>
+        <v>52.44</v>
       </c>
       <c r="D28" t="n">
-        <v>51.67</v>
+        <v>52.44</v>
       </c>
       <c r="E28" t="n">
-        <v>51.67</v>
+        <v>52.2</v>
       </c>
       <c r="F28" t="n">
-        <v>33345.2097</v>
+        <v>15963.8404</v>
       </c>
       <c r="G28" t="n">
-        <v>-275194.1011920599</v>
+        <v>-164788.5827613399</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,34 +1403,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>51.67</v>
+        <v>52.49</v>
       </c>
       <c r="C29" t="n">
-        <v>51.67</v>
+        <v>52.49</v>
       </c>
       <c r="D29" t="n">
-        <v>51.67</v>
+        <v>52.49</v>
       </c>
       <c r="E29" t="n">
-        <v>51.67</v>
+        <v>52.49</v>
       </c>
       <c r="F29" t="n">
-        <v>32000</v>
+        <v>3532.4922</v>
       </c>
       <c r="G29" t="n">
-        <v>-275194.1011920599</v>
+        <v>-161256.0905613399</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,34 +1439,35 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>51.67</v>
+        <v>52.49</v>
       </c>
       <c r="C30" t="n">
-        <v>51.67</v>
+        <v>52.49</v>
       </c>
       <c r="D30" t="n">
-        <v>51.67</v>
+        <v>52.49</v>
       </c>
       <c r="E30" t="n">
-        <v>51.67</v>
+        <v>52.49</v>
       </c>
       <c r="F30" t="n">
-        <v>159.5984</v>
+        <v>1093.351</v>
       </c>
       <c r="G30" t="n">
-        <v>-275194.1011920599</v>
+        <v>-161256.0905613399</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>51.6</v>
+        <v>52.33</v>
       </c>
       <c r="C31" t="n">
-        <v>51.6</v>
+        <v>52.19</v>
       </c>
       <c r="D31" t="n">
-        <v>51.6</v>
+        <v>52.33</v>
       </c>
       <c r="E31" t="n">
-        <v>51.6</v>
+        <v>52.19</v>
       </c>
       <c r="F31" t="n">
-        <v>19278.3754</v>
+        <v>4770.533</v>
       </c>
       <c r="G31" t="n">
-        <v>-294472.4765920599</v>
+        <v>-166026.6235613399</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,34 +1511,35 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>51.59</v>
+        <v>52.03</v>
       </c>
       <c r="C32" t="n">
-        <v>51.59</v>
+        <v>52.03</v>
       </c>
       <c r="D32" t="n">
-        <v>51.59</v>
+        <v>52.03</v>
       </c>
       <c r="E32" t="n">
-        <v>51.59</v>
+        <v>52.03</v>
       </c>
       <c r="F32" t="n">
-        <v>9858.401</v>
+        <v>48556.9808</v>
       </c>
       <c r="G32" t="n">
-        <v>-304330.8775920599</v>
+        <v>-214583.6043613399</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,34 +1547,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>51.6</v>
+        <v>52.09</v>
       </c>
       <c r="C33" t="n">
-        <v>51.5</v>
+        <v>52.2</v>
       </c>
       <c r="D33" t="n">
-        <v>51.6</v>
+        <v>52.2</v>
       </c>
       <c r="E33" t="n">
-        <v>51.5</v>
+        <v>52.09</v>
       </c>
       <c r="F33" t="n">
-        <v>8782.7845</v>
+        <v>122433.7707</v>
       </c>
       <c r="G33" t="n">
-        <v>-313113.6620920599</v>
+        <v>-92149.83366133992</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,34 +1583,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>51.64</v>
+        <v>51.99</v>
       </c>
       <c r="C34" t="n">
-        <v>51.64</v>
+        <v>51.75</v>
       </c>
       <c r="D34" t="n">
-        <v>51.64</v>
+        <v>51.99</v>
       </c>
       <c r="E34" t="n">
-        <v>51.64</v>
+        <v>51.75</v>
       </c>
       <c r="F34" t="n">
-        <v>25.3199</v>
+        <v>141838.144</v>
       </c>
       <c r="G34" t="n">
-        <v>-313088.3421920599</v>
+        <v>-233987.9776613399</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,34 +1619,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>51.5</v>
+        <v>51.65</v>
       </c>
       <c r="C35" t="n">
-        <v>51.41</v>
+        <v>51.64</v>
       </c>
       <c r="D35" t="n">
-        <v>51.5</v>
+        <v>51.65</v>
       </c>
       <c r="E35" t="n">
-        <v>51.41</v>
+        <v>51.64</v>
       </c>
       <c r="F35" t="n">
-        <v>28250</v>
+        <v>45762.7485</v>
       </c>
       <c r="G35" t="n">
-        <v>-341338.3421920599</v>
+        <v>-279750.7261613399</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>51.42</v>
+        <v>51.61</v>
       </c>
       <c r="C36" t="n">
-        <v>51.42</v>
+        <v>51.61</v>
       </c>
       <c r="D36" t="n">
-        <v>51.42</v>
+        <v>51.61</v>
       </c>
       <c r="E36" t="n">
-        <v>51.42</v>
+        <v>51.61</v>
       </c>
       <c r="F36" t="n">
-        <v>500</v>
+        <v>150288.5839</v>
       </c>
       <c r="G36" t="n">
-        <v>-340838.3421920599</v>
+        <v>-430039.3100613399</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>51.48</v>
+        <v>51.76</v>
       </c>
       <c r="C37" t="n">
-        <v>51.49</v>
+        <v>51.76</v>
       </c>
       <c r="D37" t="n">
-        <v>51.49</v>
+        <v>51.76</v>
       </c>
       <c r="E37" t="n">
-        <v>51.48</v>
+        <v>51.76</v>
       </c>
       <c r="F37" t="n">
-        <v>4264.6446</v>
+        <v>4199.9999</v>
       </c>
       <c r="G37" t="n">
-        <v>-336573.6975920599</v>
+        <v>-425839.3101613399</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>51.46</v>
+        <v>51.75</v>
       </c>
       <c r="C38" t="n">
-        <v>51.46</v>
+        <v>51.83</v>
       </c>
       <c r="D38" t="n">
-        <v>51.46</v>
+        <v>51.83</v>
       </c>
       <c r="E38" t="n">
-        <v>51.46</v>
+        <v>51.74</v>
       </c>
       <c r="F38" t="n">
-        <v>6191.8085</v>
+        <v>21745.8889</v>
       </c>
       <c r="G38" t="n">
-        <v>-342765.5060920599</v>
+        <v>-404093.4212613399</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,34 +1763,35 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>51.46</v>
+        <v>51.79</v>
       </c>
       <c r="C39" t="n">
-        <v>51.49</v>
+        <v>51.43</v>
       </c>
       <c r="D39" t="n">
-        <v>51.49</v>
+        <v>51.79</v>
       </c>
       <c r="E39" t="n">
-        <v>51.46</v>
+        <v>51.43</v>
       </c>
       <c r="F39" t="n">
-        <v>12782.219</v>
+        <v>60089.9624</v>
       </c>
       <c r="G39" t="n">
-        <v>-329983.2870920599</v>
+        <v>-464183.3836613399</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>51.79</v>
+        <v>51.68</v>
       </c>
       <c r="C40" t="n">
-        <v>51.79</v>
+        <v>51.68</v>
       </c>
       <c r="D40" t="n">
-        <v>51.79</v>
+        <v>51.68</v>
       </c>
       <c r="E40" t="n">
-        <v>51.79</v>
+        <v>51.68</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>18.29</v>
       </c>
       <c r="G40" t="n">
-        <v>-329973.2870920599</v>
+        <v>-464165.0936613399</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>51.79</v>
+        <v>51.59</v>
       </c>
       <c r="C41" t="n">
-        <v>51.79</v>
+        <v>51.6</v>
       </c>
       <c r="D41" t="n">
-        <v>51.79</v>
+        <v>51.6</v>
       </c>
       <c r="E41" t="n">
-        <v>51.79</v>
+        <v>51.59</v>
       </c>
       <c r="F41" t="n">
-        <v>59</v>
+        <v>100000</v>
       </c>
       <c r="G41" t="n">
-        <v>-329973.2870920599</v>
+        <v>-564165.09366134</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>51.76</v>
+        <v>51.55</v>
       </c>
       <c r="C42" t="n">
-        <v>51.79</v>
+        <v>51.55</v>
       </c>
       <c r="D42" t="n">
-        <v>51.79</v>
+        <v>51.55</v>
       </c>
       <c r="E42" t="n">
-        <v>51.76</v>
+        <v>51.55</v>
       </c>
       <c r="F42" t="n">
-        <v>16973.8482</v>
+        <v>41000</v>
       </c>
       <c r="G42" t="n">
-        <v>-329973.2870920599</v>
+        <v>-605165.09366134</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>51.78</v>
+        <v>51.42</v>
       </c>
       <c r="C43" t="n">
-        <v>51.78</v>
+        <v>51.41</v>
       </c>
       <c r="D43" t="n">
-        <v>51.78</v>
+        <v>51.42</v>
       </c>
       <c r="E43" t="n">
-        <v>51.78</v>
+        <v>51.41</v>
       </c>
       <c r="F43" t="n">
-        <v>241.333</v>
+        <v>26409.2587</v>
       </c>
       <c r="G43" t="n">
-        <v>-330214.6200920599</v>
+        <v>-631574.35236134</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>51.78</v>
+        <v>51.27</v>
       </c>
       <c r="C44" t="n">
-        <v>52</v>
+        <v>51.27</v>
       </c>
       <c r="D44" t="n">
-        <v>52</v>
+        <v>51.27</v>
       </c>
       <c r="E44" t="n">
-        <v>51.78</v>
+        <v>51.27</v>
       </c>
       <c r="F44" t="n">
-        <v>22712.163</v>
+        <v>6833.4257</v>
       </c>
       <c r="G44" t="n">
-        <v>-307502.4570920599</v>
+        <v>-638407.77806134</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>52</v>
+        <v>51.27</v>
       </c>
       <c r="C45" t="n">
-        <v>52</v>
+        <v>51.27</v>
       </c>
       <c r="D45" t="n">
-        <v>52</v>
+        <v>51.27</v>
       </c>
       <c r="E45" t="n">
-        <v>52</v>
+        <v>51.27</v>
       </c>
       <c r="F45" t="n">
-        <v>9939.158299999999</v>
+        <v>44455.9446</v>
       </c>
       <c r="G45" t="n">
-        <v>-307502.4570920599</v>
+        <v>-638407.77806134</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>52</v>
+        <v>51.27</v>
       </c>
       <c r="C46" t="n">
-        <v>52</v>
+        <v>51.07</v>
       </c>
       <c r="D46" t="n">
-        <v>52</v>
+        <v>51.27</v>
       </c>
       <c r="E46" t="n">
-        <v>52</v>
+        <v>51.07</v>
       </c>
       <c r="F46" t="n">
-        <v>38766.5166</v>
+        <v>9553.5226</v>
       </c>
       <c r="G46" t="n">
-        <v>-307502.4570920599</v>
+        <v>-647961.30066134</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>52</v>
+        <v>51.31</v>
       </c>
       <c r="C47" t="n">
-        <v>52</v>
+        <v>51.31</v>
       </c>
       <c r="D47" t="n">
-        <v>52</v>
+        <v>51.31</v>
       </c>
       <c r="E47" t="n">
-        <v>52</v>
+        <v>51.31</v>
       </c>
       <c r="F47" t="n">
-        <v>364800.1907</v>
+        <v>50000</v>
       </c>
       <c r="G47" t="n">
-        <v>-307502.4570920599</v>
+        <v>-597961.30066134</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>52</v>
+        <v>51.15</v>
       </c>
       <c r="C48" t="n">
-        <v>51.9</v>
+        <v>51.04</v>
       </c>
       <c r="D48" t="n">
-        <v>52</v>
+        <v>51.15</v>
       </c>
       <c r="E48" t="n">
-        <v>51.9</v>
+        <v>50.91</v>
       </c>
       <c r="F48" t="n">
-        <v>20492.6753</v>
+        <v>131805.7015</v>
       </c>
       <c r="G48" t="n">
-        <v>-327995.1323920599</v>
+        <v>-729767.00216134</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>51.9</v>
+        <v>50.93</v>
       </c>
       <c r="C49" t="n">
-        <v>51.9</v>
+        <v>51.09</v>
       </c>
       <c r="D49" t="n">
-        <v>51.9</v>
+        <v>51.09</v>
       </c>
       <c r="E49" t="n">
-        <v>51.9</v>
+        <v>50.93</v>
       </c>
       <c r="F49" t="n">
-        <v>1957.1837</v>
+        <v>88438.5148</v>
       </c>
       <c r="G49" t="n">
-        <v>-327995.1323920599</v>
+        <v>-641328.48736134</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>51.9</v>
+        <v>51.2</v>
       </c>
       <c r="C50" t="n">
-        <v>52</v>
+        <v>51.3</v>
       </c>
       <c r="D50" t="n">
-        <v>52</v>
+        <v>51.3</v>
       </c>
       <c r="E50" t="n">
-        <v>51.9</v>
+        <v>51.2</v>
       </c>
       <c r="F50" t="n">
-        <v>82088.26420000001</v>
+        <v>50000</v>
       </c>
       <c r="G50" t="n">
-        <v>-245906.8681920599</v>
+        <v>-591328.48736134</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>52</v>
+        <v>51.08</v>
       </c>
       <c r="C51" t="n">
-        <v>52</v>
+        <v>51.27</v>
       </c>
       <c r="D51" t="n">
-        <v>52</v>
+        <v>51.27</v>
       </c>
       <c r="E51" t="n">
-        <v>52</v>
+        <v>51.07</v>
       </c>
       <c r="F51" t="n">
-        <v>43953.1973</v>
+        <v>6001.1487</v>
       </c>
       <c r="G51" t="n">
-        <v>-245906.8681920599</v>
+        <v>-597329.63606134</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>52</v>
+        <v>50.99</v>
       </c>
       <c r="C52" t="n">
-        <v>52</v>
+        <v>50.99</v>
       </c>
       <c r="D52" t="n">
-        <v>52</v>
+        <v>50.99</v>
       </c>
       <c r="E52" t="n">
-        <v>52</v>
+        <v>50.99</v>
       </c>
       <c r="F52" t="n">
-        <v>27787.5999</v>
+        <v>334.5094</v>
       </c>
       <c r="G52" t="n">
-        <v>-245906.8681920599</v>
+        <v>-597664.14546134</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>52</v>
+        <v>50.98</v>
       </c>
       <c r="C53" t="n">
-        <v>52</v>
+        <v>50.98</v>
       </c>
       <c r="D53" t="n">
-        <v>52</v>
+        <v>50.98</v>
       </c>
       <c r="E53" t="n">
-        <v>52</v>
+        <v>50.98</v>
       </c>
       <c r="F53" t="n">
-        <v>4713.2999</v>
+        <v>40000</v>
       </c>
       <c r="G53" t="n">
-        <v>-245906.8681920599</v>
+        <v>-637664.14546134</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>52.16</v>
+        <v>50.93</v>
       </c>
       <c r="C54" t="n">
-        <v>52.27</v>
+        <v>50.93</v>
       </c>
       <c r="D54" t="n">
-        <v>52.27</v>
+        <v>50.93</v>
       </c>
       <c r="E54" t="n">
-        <v>52.16</v>
+        <v>50.93</v>
       </c>
       <c r="F54" t="n">
-        <v>16000</v>
+        <v>16347.6794</v>
       </c>
       <c r="G54" t="n">
-        <v>-229906.8681920599</v>
+        <v>-654011.82486134</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>52.27</v>
+        <v>50.99</v>
       </c>
       <c r="C55" t="n">
-        <v>52.27</v>
+        <v>50.97</v>
       </c>
       <c r="D55" t="n">
-        <v>52.27</v>
+        <v>51</v>
       </c>
       <c r="E55" t="n">
-        <v>52.27</v>
+        <v>50.97</v>
       </c>
       <c r="F55" t="n">
-        <v>6341.8913</v>
+        <v>15259.6504</v>
       </c>
       <c r="G55" t="n">
-        <v>-229906.8681920599</v>
+        <v>-638752.1744613399</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>52.29</v>
+        <v>51.24</v>
       </c>
       <c r="C56" t="n">
-        <v>52.49</v>
+        <v>51.24</v>
       </c>
       <c r="D56" t="n">
-        <v>52.49</v>
+        <v>51.24</v>
       </c>
       <c r="E56" t="n">
-        <v>52.29</v>
+        <v>51.24</v>
       </c>
       <c r="F56" t="n">
-        <v>12906.5693</v>
+        <v>4974.3005</v>
       </c>
       <c r="G56" t="n">
-        <v>-217000.2988920599</v>
+        <v>-633777.8739613399</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,34 +2411,35 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>52.32</v>
+        <v>51.25</v>
       </c>
       <c r="C57" t="n">
-        <v>52.39</v>
+        <v>51.33</v>
       </c>
       <c r="D57" t="n">
-        <v>52.39</v>
+        <v>51.33</v>
       </c>
       <c r="E57" t="n">
-        <v>52.31</v>
+        <v>51.25</v>
       </c>
       <c r="F57" t="n">
-        <v>22402.8574</v>
+        <v>22997.6185</v>
       </c>
       <c r="G57" t="n">
-        <v>-239403.1562920599</v>
+        <v>-610780.25546134</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2387,34 +2447,35 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>52.31</v>
+        <v>51.4</v>
       </c>
       <c r="C58" t="n">
-        <v>52.18</v>
+        <v>51.4</v>
       </c>
       <c r="D58" t="n">
-        <v>52.31</v>
+        <v>51.4</v>
       </c>
       <c r="E58" t="n">
-        <v>52.18</v>
+        <v>51.4</v>
       </c>
       <c r="F58" t="n">
-        <v>28230</v>
+        <v>42.7933</v>
       </c>
       <c r="G58" t="n">
-        <v>-267633.1562920599</v>
+        <v>-610737.4621613399</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>52.24</v>
+        <v>51.19</v>
       </c>
       <c r="C59" t="n">
-        <v>52.24</v>
+        <v>51.3</v>
       </c>
       <c r="D59" t="n">
-        <v>52.24</v>
+        <v>51.3</v>
       </c>
       <c r="E59" t="n">
-        <v>52.24</v>
+        <v>51.18</v>
       </c>
       <c r="F59" t="n">
-        <v>485.43261868</v>
+        <v>234113.943</v>
       </c>
       <c r="G59" t="n">
-        <v>-267147.7236733799</v>
+        <v>-844851.4051613399</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>52.24</v>
+        <v>51.33</v>
       </c>
       <c r="C60" t="n">
-        <v>52.24</v>
+        <v>51.33</v>
       </c>
       <c r="D60" t="n">
-        <v>52.24</v>
+        <v>51.33</v>
       </c>
       <c r="E60" t="n">
-        <v>52.24</v>
+        <v>51.33</v>
       </c>
       <c r="F60" t="n">
-        <v>10000</v>
+        <v>1420</v>
       </c>
       <c r="G60" t="n">
-        <v>-267147.7236733799</v>
+        <v>-843431.4051613399</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>52.03</v>
+        <v>51.31</v>
       </c>
       <c r="C61" t="n">
-        <v>52.03</v>
+        <v>51.31</v>
       </c>
       <c r="D61" t="n">
-        <v>52.03</v>
+        <v>51.31</v>
       </c>
       <c r="E61" t="n">
-        <v>52.03</v>
+        <v>51.31</v>
       </c>
       <c r="F61" t="n">
-        <v>100</v>
+        <v>184.682</v>
       </c>
       <c r="G61" t="n">
-        <v>-267247.7236733799</v>
+        <v>-843616.0871613399</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>52.12</v>
+        <v>51.31</v>
       </c>
       <c r="C62" t="n">
-        <v>52.12</v>
+        <v>51.31</v>
       </c>
       <c r="D62" t="n">
-        <v>52.12</v>
+        <v>51.31</v>
       </c>
       <c r="E62" t="n">
-        <v>52.12</v>
+        <v>51.31</v>
       </c>
       <c r="F62" t="n">
-        <v>20287.7366</v>
+        <v>7745.818</v>
       </c>
       <c r="G62" t="n">
-        <v>-246959.9870733799</v>
+        <v>-843616.0871613399</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>52.24</v>
+        <v>51.31</v>
       </c>
       <c r="C63" t="n">
-        <v>52.24</v>
+        <v>51.31</v>
       </c>
       <c r="D63" t="n">
-        <v>52.24</v>
+        <v>51.31</v>
       </c>
       <c r="E63" t="n">
-        <v>52.24</v>
+        <v>51.31</v>
       </c>
       <c r="F63" t="n">
-        <v>5107.0601</v>
+        <v>7822.5265</v>
       </c>
       <c r="G63" t="n">
-        <v>-241852.9269733799</v>
+        <v>-843616.0871613399</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>52.27</v>
+        <v>51.31</v>
       </c>
       <c r="C64" t="n">
-        <v>52.26</v>
+        <v>51.31</v>
       </c>
       <c r="D64" t="n">
-        <v>52.28</v>
+        <v>51.31</v>
       </c>
       <c r="E64" t="n">
-        <v>52.18</v>
+        <v>51.31</v>
       </c>
       <c r="F64" t="n">
-        <v>208757.737</v>
+        <v>4186.8863</v>
       </c>
       <c r="G64" t="n">
-        <v>-33095.18997337992</v>
+        <v>-843616.0871613399</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,34 +2699,35 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>52.3</v>
+        <v>51.31</v>
       </c>
       <c r="C65" t="n">
-        <v>52.3</v>
+        <v>51.39</v>
       </c>
       <c r="D65" t="n">
-        <v>52.3</v>
+        <v>51.39</v>
       </c>
       <c r="E65" t="n">
-        <v>52.3</v>
+        <v>51.31</v>
       </c>
       <c r="F65" t="n">
-        <v>33.00191204</v>
+        <v>17083.171</v>
       </c>
       <c r="G65" t="n">
-        <v>-33062.18806133992</v>
+        <v>-826532.91616134</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2667,34 +2735,35 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>52.2</v>
+        <v>51.35</v>
       </c>
       <c r="C66" t="n">
-        <v>52.2</v>
+        <v>51.2</v>
       </c>
       <c r="D66" t="n">
-        <v>52.2</v>
+        <v>51.35</v>
       </c>
       <c r="E66" t="n">
-        <v>52.2</v>
+        <v>51.2</v>
       </c>
       <c r="F66" t="n">
-        <v>18292.1382</v>
+        <v>79800</v>
       </c>
       <c r="G66" t="n">
-        <v>-51354.32626133992</v>
+        <v>-906332.91616134</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2702,34 +2771,35 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>52.2</v>
+        <v>51.22</v>
       </c>
       <c r="C67" t="n">
-        <v>52.1</v>
+        <v>51.22</v>
       </c>
       <c r="D67" t="n">
-        <v>52.2</v>
+        <v>51.22</v>
       </c>
       <c r="E67" t="n">
-        <v>52.1</v>
+        <v>51.22</v>
       </c>
       <c r="F67" t="n">
-        <v>131337.6773</v>
+        <v>300</v>
       </c>
       <c r="G67" t="n">
-        <v>-182692.0035613399</v>
+        <v>-906032.91616134</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>52.12</v>
+        <v>51.28</v>
       </c>
       <c r="C68" t="n">
-        <v>52.2</v>
+        <v>50.99</v>
       </c>
       <c r="D68" t="n">
-        <v>52.2</v>
+        <v>51.28</v>
       </c>
       <c r="E68" t="n">
-        <v>52.12</v>
+        <v>50.81</v>
       </c>
       <c r="F68" t="n">
-        <v>1939.5804</v>
+        <v>213094.5171</v>
       </c>
       <c r="G68" t="n">
-        <v>-180752.4231613399</v>
+        <v>-1119127.43326134</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>52.2</v>
+        <v>50.98</v>
       </c>
       <c r="C69" t="n">
-        <v>52.2</v>
+        <v>51.15</v>
       </c>
       <c r="D69" t="n">
-        <v>52.2</v>
+        <v>51.15</v>
       </c>
       <c r="E69" t="n">
-        <v>52.2</v>
+        <v>50.97</v>
       </c>
       <c r="F69" t="n">
-        <v>26249.7848</v>
+        <v>3620.5019</v>
       </c>
       <c r="G69" t="n">
-        <v>-180752.4231613399</v>
+        <v>-1115506.93136134</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>52.2</v>
+        <v>51.14</v>
       </c>
       <c r="C70" t="n">
-        <v>52.44</v>
+        <v>50.84</v>
       </c>
       <c r="D70" t="n">
-        <v>52.44</v>
+        <v>51.14</v>
       </c>
       <c r="E70" t="n">
-        <v>52.2</v>
+        <v>50.84</v>
       </c>
       <c r="F70" t="n">
-        <v>15963.8404</v>
+        <v>24060.61791161</v>
       </c>
       <c r="G70" t="n">
-        <v>-164788.5827613399</v>
+        <v>-1139567.54927295</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,34 +2915,35 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>52.49</v>
+        <v>50.79</v>
       </c>
       <c r="C71" t="n">
-        <v>52.49</v>
+        <v>50.68</v>
       </c>
       <c r="D71" t="n">
-        <v>52.49</v>
+        <v>50.79</v>
       </c>
       <c r="E71" t="n">
-        <v>52.49</v>
+        <v>50.68</v>
       </c>
       <c r="F71" t="n">
-        <v>3532.4922</v>
+        <v>40000</v>
       </c>
       <c r="G71" t="n">
-        <v>-161256.0905613399</v>
+        <v>-1179567.54927295</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2877,34 +2951,35 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>52.49</v>
+        <v>50.95</v>
       </c>
       <c r="C72" t="n">
-        <v>52.49</v>
+        <v>50.95</v>
       </c>
       <c r="D72" t="n">
-        <v>52.49</v>
+        <v>50.95</v>
       </c>
       <c r="E72" t="n">
-        <v>52.49</v>
+        <v>50.95</v>
       </c>
       <c r="F72" t="n">
-        <v>1093.351</v>
+        <v>24123.8056</v>
       </c>
       <c r="G72" t="n">
-        <v>-161256.0905613399</v>
+        <v>-1155443.74367295</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2912,34 +2987,35 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>52.33</v>
+        <v>50.95</v>
       </c>
       <c r="C73" t="n">
-        <v>52.19</v>
+        <v>50.95</v>
       </c>
       <c r="D73" t="n">
-        <v>52.33</v>
+        <v>50.95</v>
       </c>
       <c r="E73" t="n">
-        <v>52.19</v>
+        <v>50.95</v>
       </c>
       <c r="F73" t="n">
-        <v>4770.533</v>
+        <v>35423.5654</v>
       </c>
       <c r="G73" t="n">
-        <v>-166026.6235613399</v>
+        <v>-1155443.74367295</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -2947,34 +3023,35 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>52.03</v>
+        <v>50.95</v>
       </c>
       <c r="C74" t="n">
-        <v>52.03</v>
+        <v>51.18</v>
       </c>
       <c r="D74" t="n">
-        <v>52.03</v>
+        <v>51.18</v>
       </c>
       <c r="E74" t="n">
-        <v>52.03</v>
+        <v>50.95</v>
       </c>
       <c r="F74" t="n">
-        <v>48556.9808</v>
+        <v>908.7651</v>
       </c>
       <c r="G74" t="n">
-        <v>-214583.6043613399</v>
+        <v>-1154534.97857295</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>52.09</v>
+        <v>51.18</v>
       </c>
       <c r="C75" t="n">
-        <v>52.2</v>
+        <v>51.18</v>
       </c>
       <c r="D75" t="n">
-        <v>52.2</v>
+        <v>51.18</v>
       </c>
       <c r="E75" t="n">
-        <v>52.09</v>
+        <v>51.18</v>
       </c>
       <c r="F75" t="n">
-        <v>122433.7707</v>
+        <v>1741.0158</v>
       </c>
       <c r="G75" t="n">
-        <v>-92149.83366133992</v>
+        <v>-1154534.97857295</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>51.99</v>
+        <v>51.03</v>
       </c>
       <c r="C76" t="n">
-        <v>51.75</v>
+        <v>51.03</v>
       </c>
       <c r="D76" t="n">
-        <v>51.99</v>
+        <v>51.03</v>
       </c>
       <c r="E76" t="n">
-        <v>51.75</v>
+        <v>51.03</v>
       </c>
       <c r="F76" t="n">
-        <v>141838.144</v>
+        <v>4249.8317</v>
       </c>
       <c r="G76" t="n">
-        <v>-233987.9776613399</v>
+        <v>-1158784.81027295</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>51.65</v>
+        <v>51.03</v>
       </c>
       <c r="C77" t="n">
-        <v>51.64</v>
+        <v>51.03</v>
       </c>
       <c r="D77" t="n">
-        <v>51.65</v>
+        <v>51.03</v>
       </c>
       <c r="E77" t="n">
-        <v>51.64</v>
+        <v>51.03</v>
       </c>
       <c r="F77" t="n">
-        <v>45762.7485</v>
+        <v>277.2444</v>
       </c>
       <c r="G77" t="n">
-        <v>-279750.7261613399</v>
+        <v>-1158784.81027295</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>51.61</v>
+        <v>51.03</v>
       </c>
       <c r="C78" t="n">
-        <v>51.61</v>
+        <v>51.03</v>
       </c>
       <c r="D78" t="n">
-        <v>51.61</v>
+        <v>51.03</v>
       </c>
       <c r="E78" t="n">
-        <v>51.61</v>
+        <v>51.03</v>
       </c>
       <c r="F78" t="n">
-        <v>150288.5839</v>
+        <v>6153.1428</v>
       </c>
       <c r="G78" t="n">
-        <v>-430039.3100613399</v>
+        <v>-1158784.81027295</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>51.76</v>
+        <v>51.03</v>
       </c>
       <c r="C79" t="n">
-        <v>51.76</v>
+        <v>51.03</v>
       </c>
       <c r="D79" t="n">
-        <v>51.76</v>
+        <v>51.03</v>
       </c>
       <c r="E79" t="n">
-        <v>51.76</v>
+        <v>51.03</v>
       </c>
       <c r="F79" t="n">
-        <v>4199.9999</v>
+        <v>1099.5554</v>
       </c>
       <c r="G79" t="n">
-        <v>-425839.3101613399</v>
+        <v>-1158784.81027295</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>51.75</v>
+        <v>51.03</v>
       </c>
       <c r="C80" t="n">
-        <v>51.83</v>
+        <v>51.03</v>
       </c>
       <c r="D80" t="n">
-        <v>51.83</v>
+        <v>51.03</v>
       </c>
       <c r="E80" t="n">
-        <v>51.74</v>
+        <v>51.03</v>
       </c>
       <c r="F80" t="n">
-        <v>21745.8889</v>
+        <v>60.6179</v>
       </c>
       <c r="G80" t="n">
-        <v>-404093.4212613399</v>
+        <v>-1158784.81027295</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>51.79</v>
+        <v>51.03</v>
       </c>
       <c r="C81" t="n">
-        <v>51.43</v>
+        <v>51.03</v>
       </c>
       <c r="D81" t="n">
-        <v>51.79</v>
+        <v>51.03</v>
       </c>
       <c r="E81" t="n">
-        <v>51.43</v>
+        <v>51.03</v>
       </c>
       <c r="F81" t="n">
-        <v>60089.9624</v>
+        <v>30000</v>
       </c>
       <c r="G81" t="n">
-        <v>-464183.3836613399</v>
+        <v>-1158784.81027295</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>51.68</v>
+        <v>51.11</v>
       </c>
       <c r="C82" t="n">
-        <v>51.68</v>
+        <v>51.11</v>
       </c>
       <c r="D82" t="n">
-        <v>51.68</v>
+        <v>51.11</v>
       </c>
       <c r="E82" t="n">
-        <v>51.68</v>
+        <v>51.11</v>
       </c>
       <c r="F82" t="n">
-        <v>18.29</v>
+        <v>14.283</v>
       </c>
       <c r="G82" t="n">
-        <v>-464165.0936613399</v>
+        <v>-1158770.52727295</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>51.59</v>
+        <v>51.11</v>
       </c>
       <c r="C83" t="n">
-        <v>51.6</v>
+        <v>51.11</v>
       </c>
       <c r="D83" t="n">
-        <v>51.6</v>
+        <v>51.11</v>
       </c>
       <c r="E83" t="n">
-        <v>51.59</v>
+        <v>51.11</v>
       </c>
       <c r="F83" t="n">
-        <v>100000</v>
+        <v>731.9299999999999</v>
       </c>
       <c r="G83" t="n">
-        <v>-564165.09366134</v>
+        <v>-1158770.52727295</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>51.55</v>
+        <v>50.79</v>
       </c>
       <c r="C84" t="n">
-        <v>51.55</v>
+        <v>50.95</v>
       </c>
       <c r="D84" t="n">
-        <v>51.55</v>
+        <v>50.95</v>
       </c>
       <c r="E84" t="n">
-        <v>51.55</v>
+        <v>50.79</v>
       </c>
       <c r="F84" t="n">
-        <v>41000</v>
+        <v>64327.6797</v>
       </c>
       <c r="G84" t="n">
-        <v>-605165.09366134</v>
+        <v>-1223098.20697295</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>51.42</v>
+        <v>51</v>
       </c>
       <c r="C85" t="n">
-        <v>51.41</v>
+        <v>51</v>
       </c>
       <c r="D85" t="n">
-        <v>51.42</v>
+        <v>51</v>
       </c>
       <c r="E85" t="n">
-        <v>51.41</v>
+        <v>51</v>
       </c>
       <c r="F85" t="n">
-        <v>26409.2587</v>
+        <v>220.8019</v>
       </c>
       <c r="G85" t="n">
-        <v>-631574.35236134</v>
+        <v>-1222877.40507295</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>51.27</v>
+        <v>51</v>
       </c>
       <c r="C86" t="n">
-        <v>51.27</v>
+        <v>51</v>
       </c>
       <c r="D86" t="n">
-        <v>51.27</v>
+        <v>51</v>
       </c>
       <c r="E86" t="n">
-        <v>51.27</v>
+        <v>51</v>
       </c>
       <c r="F86" t="n">
-        <v>6833.4257</v>
+        <v>209.7618</v>
       </c>
       <c r="G86" t="n">
-        <v>-638407.77806134</v>
+        <v>-1222877.40507295</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>51.27</v>
+        <v>50.87</v>
       </c>
       <c r="C87" t="n">
-        <v>51.27</v>
+        <v>51</v>
       </c>
       <c r="D87" t="n">
-        <v>51.27</v>
+        <v>51</v>
       </c>
       <c r="E87" t="n">
-        <v>51.27</v>
+        <v>50.86</v>
       </c>
       <c r="F87" t="n">
-        <v>44455.9446</v>
+        <v>57992.7802</v>
       </c>
       <c r="G87" t="n">
-        <v>-638407.77806134</v>
+        <v>-1222877.40507295</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>51.27</v>
+        <v>51.21</v>
       </c>
       <c r="C88" t="n">
-        <v>51.07</v>
+        <v>51.21</v>
       </c>
       <c r="D88" t="n">
-        <v>51.27</v>
+        <v>51.21</v>
       </c>
       <c r="E88" t="n">
-        <v>51.07</v>
+        <v>51.21</v>
       </c>
       <c r="F88" t="n">
-        <v>9553.5226</v>
+        <v>100.24793634</v>
       </c>
       <c r="G88" t="n">
-        <v>-647961.30066134</v>
+        <v>-1222777.15713661</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>51.31</v>
+        <v>51.43</v>
       </c>
       <c r="C89" t="n">
-        <v>51.31</v>
+        <v>51.43</v>
       </c>
       <c r="D89" t="n">
-        <v>51.31</v>
+        <v>51.43</v>
       </c>
       <c r="E89" t="n">
-        <v>51.31</v>
+        <v>51.43</v>
       </c>
       <c r="F89" t="n">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="G89" t="n">
-        <v>-597961.30066134</v>
+        <v>-1221777.15713661</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>51.15</v>
+        <v>51.25</v>
       </c>
       <c r="C90" t="n">
-        <v>51.04</v>
+        <v>51.25</v>
       </c>
       <c r="D90" t="n">
-        <v>51.15</v>
+        <v>51.25</v>
       </c>
       <c r="E90" t="n">
-        <v>50.91</v>
+        <v>51.25</v>
       </c>
       <c r="F90" t="n">
-        <v>131805.7015</v>
+        <v>8400</v>
       </c>
       <c r="G90" t="n">
-        <v>-729767.00216134</v>
+        <v>-1230177.15713661</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>50.93</v>
+        <v>51.31</v>
       </c>
       <c r="C91" t="n">
-        <v>51.09</v>
+        <v>51.31</v>
       </c>
       <c r="D91" t="n">
-        <v>51.09</v>
+        <v>51.31</v>
       </c>
       <c r="E91" t="n">
-        <v>50.93</v>
+        <v>51.31</v>
       </c>
       <c r="F91" t="n">
-        <v>88438.5148</v>
+        <v>400</v>
       </c>
       <c r="G91" t="n">
-        <v>-641328.48736134</v>
+        <v>-1229777.15713661</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>51.2</v>
+        <v>51.27</v>
       </c>
       <c r="C92" t="n">
-        <v>51.3</v>
+        <v>51.27</v>
       </c>
       <c r="D92" t="n">
-        <v>51.3</v>
+        <v>51.27</v>
       </c>
       <c r="E92" t="n">
-        <v>51.2</v>
+        <v>51.27</v>
       </c>
       <c r="F92" t="n">
-        <v>50000</v>
+        <v>40</v>
       </c>
       <c r="G92" t="n">
-        <v>-591328.48736134</v>
+        <v>-1229817.15713661</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>51.08</v>
+        <v>51.43</v>
       </c>
       <c r="C93" t="n">
-        <v>51.27</v>
+        <v>51.56</v>
       </c>
       <c r="D93" t="n">
-        <v>51.27</v>
+        <v>51.56</v>
       </c>
       <c r="E93" t="n">
-        <v>51.07</v>
+        <v>51.43</v>
       </c>
       <c r="F93" t="n">
-        <v>6001.1487</v>
+        <v>22308.1535</v>
       </c>
       <c r="G93" t="n">
-        <v>-597329.63606134</v>
+        <v>-1207509.00363661</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>50.99</v>
+        <v>51.32</v>
       </c>
       <c r="C94" t="n">
-        <v>50.99</v>
+        <v>51.3</v>
       </c>
       <c r="D94" t="n">
-        <v>50.99</v>
+        <v>51.32</v>
       </c>
       <c r="E94" t="n">
-        <v>50.99</v>
+        <v>51.3</v>
       </c>
       <c r="F94" t="n">
-        <v>334.5094</v>
+        <v>2436.0786</v>
       </c>
       <c r="G94" t="n">
-        <v>-597664.14546134</v>
+        <v>-1209945.08223661</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>50.98</v>
+        <v>51.3</v>
       </c>
       <c r="C95" t="n">
-        <v>50.98</v>
+        <v>51.3</v>
       </c>
       <c r="D95" t="n">
-        <v>50.98</v>
+        <v>51.3</v>
       </c>
       <c r="E95" t="n">
-        <v>50.98</v>
+        <v>51.3</v>
       </c>
       <c r="F95" t="n">
-        <v>40000</v>
+        <v>20.2076</v>
       </c>
       <c r="G95" t="n">
-        <v>-637664.14546134</v>
+        <v>-1209945.08223661</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>50.93</v>
+        <v>51.1</v>
       </c>
       <c r="C96" t="n">
-        <v>50.93</v>
+        <v>51.1</v>
       </c>
       <c r="D96" t="n">
-        <v>50.93</v>
+        <v>51.1</v>
       </c>
       <c r="E96" t="n">
-        <v>50.93</v>
+        <v>51.1</v>
       </c>
       <c r="F96" t="n">
-        <v>16347.6794</v>
+        <v>24856.4109</v>
       </c>
       <c r="G96" t="n">
-        <v>-654011.82486134</v>
+        <v>-1234801.49313661</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>50.99</v>
+        <v>51.1</v>
       </c>
       <c r="C97" t="n">
-        <v>50.97</v>
+        <v>50.8</v>
       </c>
       <c r="D97" t="n">
-        <v>51</v>
+        <v>51.1</v>
       </c>
       <c r="E97" t="n">
-        <v>50.97</v>
+        <v>50.8</v>
       </c>
       <c r="F97" t="n">
-        <v>15259.6504</v>
+        <v>50000</v>
       </c>
       <c r="G97" t="n">
-        <v>-638752.1744613399</v>
+        <v>-1284801.49313661</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>51.24</v>
+        <v>50.82</v>
       </c>
       <c r="C98" t="n">
-        <v>51.24</v>
+        <v>50.81</v>
       </c>
       <c r="D98" t="n">
-        <v>51.24</v>
+        <v>50.82</v>
       </c>
       <c r="E98" t="n">
-        <v>51.24</v>
+        <v>50.81</v>
       </c>
       <c r="F98" t="n">
-        <v>4974.3005</v>
+        <v>50000</v>
       </c>
       <c r="G98" t="n">
-        <v>-633777.8739613399</v>
+        <v>-1234801.49313661</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>51.25</v>
+        <v>51.06</v>
       </c>
       <c r="C99" t="n">
-        <v>51.33</v>
+        <v>51.06</v>
       </c>
       <c r="D99" t="n">
-        <v>51.33</v>
+        <v>51.06</v>
       </c>
       <c r="E99" t="n">
-        <v>51.25</v>
+        <v>51.06</v>
       </c>
       <c r="F99" t="n">
-        <v>22997.6185</v>
+        <v>8987.5</v>
       </c>
       <c r="G99" t="n">
-        <v>-610780.25546134</v>
+        <v>-1225813.99313661</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>51.4</v>
+        <v>51.09</v>
       </c>
       <c r="C100" t="n">
-        <v>51.4</v>
+        <v>51.09</v>
       </c>
       <c r="D100" t="n">
-        <v>51.4</v>
+        <v>51.09</v>
       </c>
       <c r="E100" t="n">
-        <v>51.4</v>
+        <v>51.09</v>
       </c>
       <c r="F100" t="n">
-        <v>42.7933</v>
+        <v>91060.4719</v>
       </c>
       <c r="G100" t="n">
-        <v>-610737.4621613399</v>
+        <v>-1134753.52123661</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>51.19</v>
+        <v>51.09</v>
       </c>
       <c r="C101" t="n">
-        <v>51.3</v>
+        <v>51.09</v>
       </c>
       <c r="D101" t="n">
-        <v>51.3</v>
+        <v>51.09</v>
       </c>
       <c r="E101" t="n">
-        <v>51.18</v>
+        <v>51.09</v>
       </c>
       <c r="F101" t="n">
-        <v>234113.943</v>
+        <v>50000</v>
       </c>
       <c r="G101" t="n">
-        <v>-844851.4051613399</v>
+        <v>-1134753.52123661</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>51.33</v>
+        <v>51.09</v>
       </c>
       <c r="C102" t="n">
-        <v>51.33</v>
+        <v>51.15</v>
       </c>
       <c r="D102" t="n">
-        <v>51.33</v>
+        <v>51.15</v>
       </c>
       <c r="E102" t="n">
-        <v>51.33</v>
+        <v>51.09</v>
       </c>
       <c r="F102" t="n">
-        <v>1420</v>
+        <v>9409.7276</v>
       </c>
       <c r="G102" t="n">
-        <v>-843431.4051613399</v>
+        <v>-1125343.79363661</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>51.31</v>
+        <v>51.15</v>
       </c>
       <c r="C103" t="n">
-        <v>51.31</v>
+        <v>51.15</v>
       </c>
       <c r="D103" t="n">
-        <v>51.31</v>
+        <v>51.15</v>
       </c>
       <c r="E103" t="n">
-        <v>51.31</v>
+        <v>51.15</v>
       </c>
       <c r="F103" t="n">
-        <v>184.682</v>
+        <v>1326.9</v>
       </c>
       <c r="G103" t="n">
-        <v>-843616.0871613399</v>
+        <v>-1125343.79363661</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>51.31</v>
+        <v>51.15</v>
       </c>
       <c r="C104" t="n">
-        <v>51.31</v>
+        <v>51.01</v>
       </c>
       <c r="D104" t="n">
-        <v>51.31</v>
+        <v>51.18</v>
       </c>
       <c r="E104" t="n">
-        <v>51.31</v>
+        <v>51.01</v>
       </c>
       <c r="F104" t="n">
-        <v>7745.818</v>
+        <v>22699.7134</v>
       </c>
       <c r="G104" t="n">
-        <v>-843616.0871613399</v>
+        <v>-1148043.50703661</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>51.31</v>
+        <v>51</v>
       </c>
       <c r="C105" t="n">
-        <v>51.31</v>
+        <v>51</v>
       </c>
       <c r="D105" t="n">
-        <v>51.31</v>
+        <v>51</v>
       </c>
       <c r="E105" t="n">
-        <v>51.31</v>
+        <v>51</v>
       </c>
       <c r="F105" t="n">
-        <v>7822.5265</v>
+        <v>24000</v>
       </c>
       <c r="G105" t="n">
-        <v>-843616.0871613399</v>
+        <v>-1172043.50703661</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>51.31</v>
+        <v>51</v>
       </c>
       <c r="C106" t="n">
-        <v>51.31</v>
+        <v>51</v>
       </c>
       <c r="D106" t="n">
-        <v>51.31</v>
+        <v>51</v>
       </c>
       <c r="E106" t="n">
-        <v>51.31</v>
+        <v>51</v>
       </c>
       <c r="F106" t="n">
-        <v>4186.8863</v>
+        <v>409.4</v>
       </c>
       <c r="G106" t="n">
-        <v>-843616.0871613399</v>
+        <v>-1172043.50703661</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>51.31</v>
+        <v>51</v>
       </c>
       <c r="C107" t="n">
-        <v>51.39</v>
+        <v>51</v>
       </c>
       <c r="D107" t="n">
-        <v>51.39</v>
+        <v>51</v>
       </c>
       <c r="E107" t="n">
-        <v>51.31</v>
+        <v>51</v>
       </c>
       <c r="F107" t="n">
-        <v>17083.171</v>
+        <v>18853.6861</v>
       </c>
       <c r="G107" t="n">
-        <v>-826532.91616134</v>
+        <v>-1172043.50703661</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>51.35</v>
+        <v>51</v>
       </c>
       <c r="C108" t="n">
-        <v>51.2</v>
+        <v>51</v>
       </c>
       <c r="D108" t="n">
-        <v>51.35</v>
+        <v>51</v>
       </c>
       <c r="E108" t="n">
-        <v>51.2</v>
+        <v>51</v>
       </c>
       <c r="F108" t="n">
-        <v>79800</v>
+        <v>57749.7744</v>
       </c>
       <c r="G108" t="n">
-        <v>-906332.91616134</v>
+        <v>-1172043.50703661</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>51.22</v>
+        <v>51</v>
       </c>
       <c r="C109" t="n">
-        <v>51.22</v>
+        <v>51</v>
       </c>
       <c r="D109" t="n">
-        <v>51.22</v>
+        <v>51</v>
       </c>
       <c r="E109" t="n">
-        <v>51.22</v>
+        <v>51</v>
       </c>
       <c r="F109" t="n">
-        <v>300</v>
+        <v>43770.475</v>
       </c>
       <c r="G109" t="n">
-        <v>-906032.91616134</v>
+        <v>-1172043.50703661</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>51.28</v>
+        <v>51</v>
       </c>
       <c r="C110" t="n">
-        <v>50.99</v>
+        <v>50.86</v>
       </c>
       <c r="D110" t="n">
-        <v>51.28</v>
+        <v>51.06</v>
       </c>
       <c r="E110" t="n">
-        <v>50.81</v>
+        <v>50.86</v>
       </c>
       <c r="F110" t="n">
-        <v>213094.5171</v>
+        <v>97766.5325</v>
       </c>
       <c r="G110" t="n">
-        <v>-1119127.43326134</v>
+        <v>-1269810.03953661</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4355,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>50.98</v>
+        <v>50.89</v>
       </c>
       <c r="C111" t="n">
-        <v>51.15</v>
+        <v>50.99</v>
       </c>
       <c r="D111" t="n">
-        <v>51.15</v>
+        <v>50.99</v>
       </c>
       <c r="E111" t="n">
-        <v>50.97</v>
+        <v>50.89</v>
       </c>
       <c r="F111" t="n">
-        <v>3620.5019</v>
+        <v>18066.2975</v>
       </c>
       <c r="G111" t="n">
-        <v>-1115506.93136134</v>
+        <v>-1251743.742036609</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>51.14</v>
+        <v>50.99</v>
       </c>
       <c r="C112" t="n">
-        <v>50.84</v>
+        <v>50.99</v>
       </c>
       <c r="D112" t="n">
-        <v>51.14</v>
+        <v>50.99</v>
       </c>
       <c r="E112" t="n">
-        <v>50.84</v>
+        <v>50.99</v>
       </c>
       <c r="F112" t="n">
-        <v>24060.61791161</v>
+        <v>4695.5191</v>
       </c>
       <c r="G112" t="n">
-        <v>-1139567.54927295</v>
+        <v>-1251743.742036609</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4427,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>50.79</v>
+        <v>50.89</v>
       </c>
       <c r="C113" t="n">
-        <v>50.68</v>
+        <v>50.88</v>
       </c>
       <c r="D113" t="n">
-        <v>50.79</v>
+        <v>50.89</v>
       </c>
       <c r="E113" t="n">
-        <v>50.68</v>
+        <v>50.88</v>
       </c>
       <c r="F113" t="n">
-        <v>40000</v>
+        <v>10760.5415</v>
       </c>
       <c r="G113" t="n">
-        <v>-1179567.54927295</v>
+        <v>-1262504.283536609</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4463,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>50.95</v>
+        <v>50.99</v>
       </c>
       <c r="C114" t="n">
-        <v>50.95</v>
+        <v>50.99</v>
       </c>
       <c r="D114" t="n">
-        <v>50.95</v>
+        <v>50.99</v>
       </c>
       <c r="E114" t="n">
-        <v>50.95</v>
+        <v>50.99</v>
       </c>
       <c r="F114" t="n">
-        <v>24123.8056</v>
+        <v>30437.706</v>
       </c>
       <c r="G114" t="n">
-        <v>-1155443.74367295</v>
+        <v>-1232066.577536609</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4499,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>50.95</v>
+        <v>50.84</v>
       </c>
       <c r="C115" t="n">
-        <v>50.95</v>
+        <v>50.84</v>
       </c>
       <c r="D115" t="n">
-        <v>50.95</v>
+        <v>50.84</v>
       </c>
       <c r="E115" t="n">
-        <v>50.95</v>
+        <v>50.84</v>
       </c>
       <c r="F115" t="n">
-        <v>35423.5654</v>
+        <v>1240.7988</v>
       </c>
       <c r="G115" t="n">
-        <v>-1155443.74367295</v>
+        <v>-1233307.376336609</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>50.95</v>
+        <v>51</v>
       </c>
       <c r="C116" t="n">
-        <v>51.18</v>
+        <v>51</v>
       </c>
       <c r="D116" t="n">
-        <v>51.18</v>
+        <v>51</v>
       </c>
       <c r="E116" t="n">
-        <v>50.95</v>
+        <v>51</v>
       </c>
       <c r="F116" t="n">
-        <v>908.7651</v>
+        <v>17008.0096</v>
       </c>
       <c r="G116" t="n">
-        <v>-1154534.97857295</v>
+        <v>-1216299.366736609</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,13 +4571,14 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>51.18</v>
+        <v>51.12</v>
       </c>
       <c r="C117" t="n">
         <v>51.18</v>
@@ -4467,13 +4587,13 @@
         <v>51.18</v>
       </c>
       <c r="E117" t="n">
-        <v>51.18</v>
+        <v>51.12</v>
       </c>
       <c r="F117" t="n">
-        <v>1741.0158</v>
+        <v>28395.151</v>
       </c>
       <c r="G117" t="n">
-        <v>-1154534.97857295</v>
+        <v>-1187904.215736609</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4607,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>51.03</v>
+        <v>51.18</v>
       </c>
       <c r="C118" t="n">
-        <v>51.03</v>
+        <v>51.23</v>
       </c>
       <c r="D118" t="n">
-        <v>51.03</v>
+        <v>51.23</v>
       </c>
       <c r="E118" t="n">
-        <v>51.03</v>
+        <v>51.18</v>
       </c>
       <c r="F118" t="n">
-        <v>4249.8317</v>
+        <v>50000</v>
       </c>
       <c r="G118" t="n">
-        <v>-1158784.81027295</v>
+        <v>-1137904.215736609</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,6 +4643,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4540,10 +4662,10 @@
         <v>51.03</v>
       </c>
       <c r="F119" t="n">
-        <v>277.2444</v>
+        <v>104.5952</v>
       </c>
       <c r="G119" t="n">
-        <v>-1158784.81027295</v>
+        <v>-1138008.81093661</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,28 +4679,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>51.03</v>
+        <v>51.17</v>
       </c>
       <c r="C120" t="n">
-        <v>51.03</v>
+        <v>51.24</v>
       </c>
       <c r="D120" t="n">
-        <v>51.03</v>
+        <v>51.24</v>
       </c>
       <c r="E120" t="n">
-        <v>51.03</v>
+        <v>51.17</v>
       </c>
       <c r="F120" t="n">
-        <v>6153.1428</v>
+        <v>8590.4954</v>
       </c>
       <c r="G120" t="n">
-        <v>-1158784.81027295</v>
+        <v>-1129418.31553661</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,28 +4715,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>51.03</v>
+        <v>51.1</v>
       </c>
       <c r="C121" t="n">
-        <v>51.03</v>
+        <v>51.09</v>
       </c>
       <c r="D121" t="n">
-        <v>51.03</v>
+        <v>51.1</v>
       </c>
       <c r="E121" t="n">
-        <v>51.03</v>
+        <v>51.09</v>
       </c>
       <c r="F121" t="n">
-        <v>1099.5554</v>
+        <v>51400</v>
       </c>
       <c r="G121" t="n">
-        <v>-1158784.81027295</v>
+        <v>-1180818.31553661</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +4751,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>51.03</v>
+        <v>51.22</v>
       </c>
       <c r="C122" t="n">
-        <v>51.03</v>
+        <v>51.22</v>
       </c>
       <c r="D122" t="n">
-        <v>51.03</v>
+        <v>51.22</v>
       </c>
       <c r="E122" t="n">
-        <v>51.03</v>
+        <v>51.22</v>
       </c>
       <c r="F122" t="n">
-        <v>60.6179</v>
+        <v>1437.1304</v>
       </c>
       <c r="G122" t="n">
-        <v>-1158784.81027295</v>
+        <v>-1179381.18513661</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4787,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>51.03</v>
+        <v>51.09</v>
       </c>
       <c r="C123" t="n">
-        <v>51.03</v>
+        <v>51.09</v>
       </c>
       <c r="D123" t="n">
-        <v>51.03</v>
+        <v>51.09</v>
       </c>
       <c r="E123" t="n">
-        <v>51.03</v>
+        <v>51.09</v>
       </c>
       <c r="F123" t="n">
-        <v>30000</v>
+        <v>7256.6317</v>
       </c>
       <c r="G123" t="n">
-        <v>-1158784.81027295</v>
+        <v>-1186637.81683661</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,28 +4823,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>51.11</v>
+        <v>51.09</v>
       </c>
       <c r="C124" t="n">
-        <v>51.11</v>
+        <v>51.09</v>
       </c>
       <c r="D124" t="n">
-        <v>51.11</v>
+        <v>51.09</v>
       </c>
       <c r="E124" t="n">
-        <v>51.11</v>
+        <v>51.09</v>
       </c>
       <c r="F124" t="n">
-        <v>14.283</v>
+        <v>1138.9287</v>
       </c>
       <c r="G124" t="n">
-        <v>-1158770.52727295</v>
+        <v>-1186637.81683661</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,28 +4859,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>51.11</v>
+        <v>51.09</v>
       </c>
       <c r="C125" t="n">
-        <v>51.11</v>
+        <v>51.03</v>
       </c>
       <c r="D125" t="n">
-        <v>51.11</v>
+        <v>51.09</v>
       </c>
       <c r="E125" t="n">
-        <v>51.11</v>
+        <v>51.03</v>
       </c>
       <c r="F125" t="n">
-        <v>731.9299999999999</v>
+        <v>49857.0256</v>
       </c>
       <c r="G125" t="n">
-        <v>-1158770.52727295</v>
+        <v>-1236494.84243661</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,28 +4895,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>50.79</v>
+        <v>51.03</v>
       </c>
       <c r="C126" t="n">
-        <v>50.95</v>
+        <v>51.03</v>
       </c>
       <c r="D126" t="n">
-        <v>50.95</v>
+        <v>51.03</v>
       </c>
       <c r="E126" t="n">
-        <v>50.79</v>
+        <v>51.03</v>
       </c>
       <c r="F126" t="n">
-        <v>64327.6797</v>
+        <v>20000</v>
       </c>
       <c r="G126" t="n">
-        <v>-1223098.20697295</v>
+        <v>-1236494.84243661</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4802,28 +4931,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>51</v>
+        <v>51.03</v>
       </c>
       <c r="C127" t="n">
-        <v>51</v>
+        <v>50.86</v>
       </c>
       <c r="D127" t="n">
-        <v>51</v>
+        <v>51.03</v>
       </c>
       <c r="E127" t="n">
-        <v>51</v>
+        <v>50.86</v>
       </c>
       <c r="F127" t="n">
-        <v>220.8019</v>
+        <v>5876.4122</v>
       </c>
       <c r="G127" t="n">
-        <v>-1222877.40507295</v>
+        <v>-1242371.25463661</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4837,28 +4967,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>51</v>
+        <v>50.9</v>
       </c>
       <c r="C128" t="n">
-        <v>51</v>
+        <v>50.9</v>
       </c>
       <c r="D128" t="n">
-        <v>51</v>
+        <v>50.9</v>
       </c>
       <c r="E128" t="n">
-        <v>51</v>
+        <v>50.9</v>
       </c>
       <c r="F128" t="n">
-        <v>209.7618</v>
+        <v>30000</v>
       </c>
       <c r="G128" t="n">
-        <v>-1222877.40507295</v>
+        <v>-1212371.25463661</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4872,28 +5003,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>50.87</v>
+        <v>50.97</v>
       </c>
       <c r="C129" t="n">
-        <v>51</v>
+        <v>50.97</v>
       </c>
       <c r="D129" t="n">
-        <v>51</v>
+        <v>50.97</v>
       </c>
       <c r="E129" t="n">
-        <v>50.86</v>
+        <v>50.97</v>
       </c>
       <c r="F129" t="n">
-        <v>57992.7802</v>
+        <v>200</v>
       </c>
       <c r="G129" t="n">
-        <v>-1222877.40507295</v>
+        <v>-1212171.25463661</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4907,28 +5039,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>51.21</v>
+        <v>51</v>
       </c>
       <c r="C130" t="n">
-        <v>51.21</v>
+        <v>51</v>
       </c>
       <c r="D130" t="n">
-        <v>51.21</v>
+        <v>51</v>
       </c>
       <c r="E130" t="n">
-        <v>51.21</v>
+        <v>51</v>
       </c>
       <c r="F130" t="n">
-        <v>100.24793634</v>
+        <v>67047.4387</v>
       </c>
       <c r="G130" t="n">
-        <v>-1222777.15713661</v>
+        <v>-1145123.81593661</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4942,28 +5075,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>51.43</v>
+        <v>51</v>
       </c>
       <c r="C131" t="n">
-        <v>51.43</v>
+        <v>51</v>
       </c>
       <c r="D131" t="n">
-        <v>51.43</v>
+        <v>51</v>
       </c>
       <c r="E131" t="n">
-        <v>51.43</v>
+        <v>51</v>
       </c>
       <c r="F131" t="n">
-        <v>1000</v>
+        <v>28174.9156</v>
       </c>
       <c r="G131" t="n">
-        <v>-1221777.15713661</v>
+        <v>-1145123.81593661</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4977,28 +5111,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>51.25</v>
+        <v>51</v>
       </c>
       <c r="C132" t="n">
-        <v>51.25</v>
+        <v>51</v>
       </c>
       <c r="D132" t="n">
-        <v>51.25</v>
+        <v>51</v>
       </c>
       <c r="E132" t="n">
-        <v>51.25</v>
+        <v>51</v>
       </c>
       <c r="F132" t="n">
-        <v>8400</v>
+        <v>56734.9978</v>
       </c>
       <c r="G132" t="n">
-        <v>-1230177.15713661</v>
+        <v>-1145123.81593661</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5012,28 +5147,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>51.31</v>
+        <v>51</v>
       </c>
       <c r="C133" t="n">
-        <v>51.31</v>
+        <v>51</v>
       </c>
       <c r="D133" t="n">
-        <v>51.31</v>
+        <v>51</v>
       </c>
       <c r="E133" t="n">
-        <v>51.31</v>
+        <v>51</v>
       </c>
       <c r="F133" t="n">
-        <v>400</v>
+        <v>10980.4941</v>
       </c>
       <c r="G133" t="n">
-        <v>-1229777.15713661</v>
+        <v>-1145123.81593661</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5047,28 +5183,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>51.27</v>
+        <v>51</v>
       </c>
       <c r="C134" t="n">
-        <v>51.27</v>
+        <v>51</v>
       </c>
       <c r="D134" t="n">
-        <v>51.27</v>
+        <v>51</v>
       </c>
       <c r="E134" t="n">
-        <v>51.27</v>
+        <v>51</v>
       </c>
       <c r="F134" t="n">
-        <v>40</v>
+        <v>10100</v>
       </c>
       <c r="G134" t="n">
-        <v>-1229817.15713661</v>
+        <v>-1145123.81593661</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5082,28 +5219,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>51.43</v>
+        <v>51</v>
       </c>
       <c r="C135" t="n">
-        <v>51.56</v>
+        <v>51</v>
       </c>
       <c r="D135" t="n">
-        <v>51.56</v>
+        <v>51</v>
       </c>
       <c r="E135" t="n">
-        <v>51.43</v>
+        <v>51</v>
       </c>
       <c r="F135" t="n">
-        <v>22308.1535</v>
+        <v>2754.838</v>
       </c>
       <c r="G135" t="n">
-        <v>-1207509.00363661</v>
+        <v>-1145123.81593661</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5117,28 +5255,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>51.32</v>
+        <v>51</v>
       </c>
       <c r="C136" t="n">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="D136" t="n">
-        <v>51.32</v>
+        <v>51</v>
       </c>
       <c r="E136" t="n">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="F136" t="n">
-        <v>2436.0786</v>
+        <v>2193.3769</v>
       </c>
       <c r="G136" t="n">
-        <v>-1209945.08223661</v>
+        <v>-1145123.81593661</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5152,28 +5291,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="C137" t="n">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="D137" t="n">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="E137" t="n">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="F137" t="n">
-        <v>20.2076</v>
+        <v>2430.8336</v>
       </c>
       <c r="G137" t="n">
-        <v>-1209945.08223661</v>
+        <v>-1145123.81593661</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5187,28 +5327,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>51.1</v>
+        <v>51</v>
       </c>
       <c r="C138" t="n">
-        <v>51.1</v>
+        <v>51</v>
       </c>
       <c r="D138" t="n">
-        <v>51.1</v>
+        <v>51</v>
       </c>
       <c r="E138" t="n">
-        <v>51.1</v>
+        <v>51</v>
       </c>
       <c r="F138" t="n">
-        <v>24856.4109</v>
+        <v>6843.8585</v>
       </c>
       <c r="G138" t="n">
-        <v>-1234801.49313661</v>
+        <v>-1145123.81593661</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5222,28 +5363,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>51.1</v>
+        <v>51</v>
       </c>
       <c r="C139" t="n">
-        <v>50.8</v>
+        <v>51</v>
       </c>
       <c r="D139" t="n">
-        <v>51.1</v>
+        <v>51</v>
       </c>
       <c r="E139" t="n">
-        <v>50.8</v>
+        <v>51</v>
       </c>
       <c r="F139" t="n">
-        <v>50000</v>
+        <v>5446.1859</v>
       </c>
       <c r="G139" t="n">
-        <v>-1284801.49313661</v>
+        <v>-1145123.81593661</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5257,28 +5399,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>50.82</v>
+        <v>51</v>
       </c>
       <c r="C140" t="n">
-        <v>50.81</v>
+        <v>51</v>
       </c>
       <c r="D140" t="n">
-        <v>50.82</v>
+        <v>51</v>
       </c>
       <c r="E140" t="n">
-        <v>50.81</v>
+        <v>51</v>
       </c>
       <c r="F140" t="n">
-        <v>50000</v>
+        <v>10227.2959</v>
       </c>
       <c r="G140" t="n">
-        <v>-1234801.49313661</v>
+        <v>-1145123.81593661</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5292,28 +5435,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>51.06</v>
+        <v>51</v>
       </c>
       <c r="C141" t="n">
-        <v>51.06</v>
+        <v>51</v>
       </c>
       <c r="D141" t="n">
-        <v>51.06</v>
+        <v>51</v>
       </c>
       <c r="E141" t="n">
-        <v>51.06</v>
+        <v>51</v>
       </c>
       <c r="F141" t="n">
-        <v>8987.5</v>
+        <v>17000</v>
       </c>
       <c r="G141" t="n">
-        <v>-1225813.99313661</v>
+        <v>-1145123.81593661</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5327,28 +5471,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>51.09</v>
+        <v>51</v>
       </c>
       <c r="C142" t="n">
-        <v>51.09</v>
+        <v>51</v>
       </c>
       <c r="D142" t="n">
-        <v>51.09</v>
+        <v>51</v>
       </c>
       <c r="E142" t="n">
-        <v>51.09</v>
+        <v>51</v>
       </c>
       <c r="F142" t="n">
-        <v>91060.4719</v>
+        <v>10000</v>
       </c>
       <c r="G142" t="n">
-        <v>-1134753.52123661</v>
+        <v>-1145123.81593661</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5362,28 +5507,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>51.09</v>
+        <v>50.98</v>
       </c>
       <c r="C143" t="n">
-        <v>51.09</v>
+        <v>50.98</v>
       </c>
       <c r="D143" t="n">
-        <v>51.09</v>
+        <v>50.98</v>
       </c>
       <c r="E143" t="n">
-        <v>51.09</v>
+        <v>50.98</v>
       </c>
       <c r="F143" t="n">
-        <v>50000</v>
+        <v>10</v>
       </c>
       <c r="G143" t="n">
-        <v>-1134753.52123661</v>
+        <v>-1145133.81593661</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5397,28 +5543,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>51.09</v>
+        <v>50.78</v>
       </c>
       <c r="C144" t="n">
-        <v>51.15</v>
+        <v>50.78</v>
       </c>
       <c r="D144" t="n">
-        <v>51.15</v>
+        <v>50.78</v>
       </c>
       <c r="E144" t="n">
-        <v>51.09</v>
+        <v>50.78</v>
       </c>
       <c r="F144" t="n">
-        <v>9409.7276</v>
+        <v>17250.216</v>
       </c>
       <c r="G144" t="n">
-        <v>-1125343.79363661</v>
+        <v>-1162384.03193661</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5432,28 +5579,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>51.15</v>
+        <v>51</v>
       </c>
       <c r="C145" t="n">
-        <v>51.15</v>
+        <v>51</v>
       </c>
       <c r="D145" t="n">
-        <v>51.15</v>
+        <v>51</v>
       </c>
       <c r="E145" t="n">
-        <v>51.15</v>
+        <v>51</v>
       </c>
       <c r="F145" t="n">
-        <v>1326.9</v>
+        <v>11899.722</v>
       </c>
       <c r="G145" t="n">
-        <v>-1125343.79363661</v>
+        <v>-1150484.30993661</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5467,28 +5615,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>51.15</v>
+        <v>51</v>
       </c>
       <c r="C146" t="n">
-        <v>51.01</v>
+        <v>51</v>
       </c>
       <c r="D146" t="n">
-        <v>51.18</v>
+        <v>51</v>
       </c>
       <c r="E146" t="n">
-        <v>51.01</v>
+        <v>51</v>
       </c>
       <c r="F146" t="n">
-        <v>22699.7134</v>
+        <v>39703.4264</v>
       </c>
       <c r="G146" t="n">
-        <v>-1148043.50703661</v>
+        <v>-1150484.30993661</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5502,6 +5651,7 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5520,10 +5670,10 @@
         <v>51</v>
       </c>
       <c r="F147" t="n">
-        <v>24000</v>
+        <v>53777.8185</v>
       </c>
       <c r="G147" t="n">
-        <v>-1172043.50703661</v>
+        <v>-1150484.30993661</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5537,28 +5687,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>51</v>
+        <v>51.14</v>
       </c>
       <c r="C148" t="n">
-        <v>51</v>
+        <v>51.14</v>
       </c>
       <c r="D148" t="n">
-        <v>51</v>
+        <v>51.14</v>
       </c>
       <c r="E148" t="n">
-        <v>51</v>
+        <v>51.14</v>
       </c>
       <c r="F148" t="n">
-        <v>409.4</v>
+        <v>5297.5878</v>
       </c>
       <c r="G148" t="n">
-        <v>-1172043.50703661</v>
+        <v>-1145186.722136609</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5572,28 +5723,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>51</v>
+        <v>51.14</v>
       </c>
       <c r="C149" t="n">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="D149" t="n">
-        <v>51</v>
+        <v>51.23</v>
       </c>
       <c r="E149" t="n">
-        <v>51</v>
+        <v>51.14</v>
       </c>
       <c r="F149" t="n">
-        <v>18853.6861</v>
+        <v>32615.7836</v>
       </c>
       <c r="G149" t="n">
-        <v>-1172043.50703661</v>
+        <v>-1112570.93853661</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5607,28 +5759,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="C150" t="n">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="D150" t="n">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="E150" t="n">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="F150" t="n">
-        <v>57749.7744</v>
+        <v>8535.8339</v>
       </c>
       <c r="G150" t="n">
-        <v>-1172043.50703661</v>
+        <v>-1112570.93853661</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5642,28 +5795,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="C151" t="n">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="D151" t="n">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="E151" t="n">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="F151" t="n">
-        <v>43770.475</v>
+        <v>143.2745</v>
       </c>
       <c r="G151" t="n">
-        <v>-1172043.50703661</v>
+        <v>-1112570.93853661</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5677,28 +5831,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="C152" t="n">
-        <v>50.86</v>
+        <v>51.12</v>
       </c>
       <c r="D152" t="n">
-        <v>51.06</v>
+        <v>51.2</v>
       </c>
       <c r="E152" t="n">
-        <v>50.86</v>
+        <v>51.12</v>
       </c>
       <c r="F152" t="n">
-        <v>97766.5325</v>
+        <v>3078.3309</v>
       </c>
       <c r="G152" t="n">
-        <v>-1269810.03953661</v>
+        <v>-1115649.269436609</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5712,28 +5867,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>50.89</v>
+        <v>51.24</v>
       </c>
       <c r="C153" t="n">
-        <v>50.99</v>
+        <v>51.25</v>
       </c>
       <c r="D153" t="n">
-        <v>50.99</v>
+        <v>51.25</v>
       </c>
       <c r="E153" t="n">
-        <v>50.89</v>
+        <v>51.24</v>
       </c>
       <c r="F153" t="n">
-        <v>18066.2975</v>
+        <v>5098.9208</v>
       </c>
       <c r="G153" t="n">
-        <v>-1251743.742036609</v>
+        <v>-1110550.34863661</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5747,28 +5903,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>50.99</v>
+        <v>51.25</v>
       </c>
       <c r="C154" t="n">
-        <v>50.99</v>
+        <v>51.25</v>
       </c>
       <c r="D154" t="n">
-        <v>50.99</v>
+        <v>51.25</v>
       </c>
       <c r="E154" t="n">
-        <v>50.99</v>
+        <v>51.25</v>
       </c>
       <c r="F154" t="n">
-        <v>4695.5191</v>
+        <v>3168.5789</v>
       </c>
       <c r="G154" t="n">
-        <v>-1251743.742036609</v>
+        <v>-1110550.34863661</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5782,28 +5939,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>50.89</v>
+        <v>51.25</v>
       </c>
       <c r="C155" t="n">
-        <v>50.88</v>
+        <v>51.26</v>
       </c>
       <c r="D155" t="n">
-        <v>50.89</v>
+        <v>51.26</v>
       </c>
       <c r="E155" t="n">
-        <v>50.88</v>
+        <v>51.25</v>
       </c>
       <c r="F155" t="n">
-        <v>10760.5415</v>
+        <v>7454.6167</v>
       </c>
       <c r="G155" t="n">
-        <v>-1262504.283536609</v>
+        <v>-1103095.73193661</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5817,28 +5975,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>50.99</v>
+        <v>51.25</v>
       </c>
       <c r="C156" t="n">
-        <v>50.99</v>
+        <v>51.25</v>
       </c>
       <c r="D156" t="n">
-        <v>50.99</v>
+        <v>51.25</v>
       </c>
       <c r="E156" t="n">
-        <v>50.99</v>
+        <v>51.25</v>
       </c>
       <c r="F156" t="n">
-        <v>30437.706</v>
+        <v>200</v>
       </c>
       <c r="G156" t="n">
-        <v>-1232066.577536609</v>
+        <v>-1103295.73193661</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5852,67 +6011,65 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>50.84</v>
+        <v>51.25</v>
       </c>
       <c r="C157" t="n">
-        <v>50.84</v>
+        <v>51.25</v>
       </c>
       <c r="D157" t="n">
-        <v>50.84</v>
+        <v>51.25</v>
       </c>
       <c r="E157" t="n">
-        <v>50.84</v>
+        <v>51.25</v>
       </c>
       <c r="F157" t="n">
-        <v>1240.7988</v>
+        <v>924.7895</v>
       </c>
       <c r="G157" t="n">
-        <v>-1233307.376336609</v>
+        <v>-1103295.73193661</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>50.99</v>
-      </c>
-      <c r="K157" t="n">
-        <v>50.99</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>51</v>
+        <v>51.21</v>
       </c>
       <c r="C158" t="n">
-        <v>51</v>
+        <v>51.21</v>
       </c>
       <c r="D158" t="n">
-        <v>51</v>
+        <v>51.21</v>
       </c>
       <c r="E158" t="n">
-        <v>51</v>
+        <v>51.21</v>
       </c>
       <c r="F158" t="n">
-        <v>17008.0096</v>
+        <v>925.6521</v>
       </c>
       <c r="G158" t="n">
-        <v>-1216299.366736609</v>
+        <v>-1104221.38403661</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5921,82 +6078,70 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>50.99</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>51.12</v>
+        <v>51.04</v>
       </c>
       <c r="C159" t="n">
-        <v>51.18</v>
+        <v>51.04</v>
       </c>
       <c r="D159" t="n">
-        <v>51.18</v>
+        <v>51.04</v>
       </c>
       <c r="E159" t="n">
-        <v>51.12</v>
+        <v>51.04</v>
       </c>
       <c r="F159" t="n">
-        <v>28395.151</v>
+        <v>20483.0894</v>
       </c>
       <c r="G159" t="n">
-        <v>-1187904.215736609</v>
+        <v>-1124704.47343661</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>51</v>
-      </c>
-      <c r="K159" t="n">
-        <v>50.99</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>51.18</v>
+        <v>51.15</v>
       </c>
       <c r="C160" t="n">
-        <v>51.23</v>
+        <v>51.15</v>
       </c>
       <c r="D160" t="n">
-        <v>51.23</v>
+        <v>51.15</v>
       </c>
       <c r="E160" t="n">
-        <v>51.18</v>
+        <v>51.15</v>
       </c>
       <c r="F160" t="n">
-        <v>50000</v>
+        <v>1092.4864</v>
       </c>
       <c r="G160" t="n">
-        <v>-1137904.215736609</v>
+        <v>-1123611.98703661</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6010,28 +6155,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>51.03</v>
+        <v>51.15</v>
       </c>
       <c r="C161" t="n">
-        <v>51.03</v>
+        <v>51.15</v>
       </c>
       <c r="D161" t="n">
-        <v>51.03</v>
+        <v>51.15</v>
       </c>
       <c r="E161" t="n">
-        <v>51.03</v>
+        <v>51.15</v>
       </c>
       <c r="F161" t="n">
-        <v>104.5952</v>
+        <v>8749.1811</v>
       </c>
       <c r="G161" t="n">
-        <v>-1138008.81093661</v>
+        <v>-1123611.98703661</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6045,28 +6191,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>51.17</v>
+        <v>51.15</v>
       </c>
       <c r="C162" t="n">
-        <v>51.24</v>
+        <v>51.15</v>
       </c>
       <c r="D162" t="n">
-        <v>51.24</v>
+        <v>51.15</v>
       </c>
       <c r="E162" t="n">
-        <v>51.17</v>
+        <v>51.15</v>
       </c>
       <c r="F162" t="n">
-        <v>8590.4954</v>
+        <v>29358.3325</v>
       </c>
       <c r="G162" t="n">
-        <v>-1129418.31553661</v>
+        <v>-1123611.98703661</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6080,28 +6227,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>51.1</v>
+        <v>51</v>
       </c>
       <c r="C163" t="n">
-        <v>51.09</v>
+        <v>50.95</v>
       </c>
       <c r="D163" t="n">
-        <v>51.1</v>
+        <v>51</v>
       </c>
       <c r="E163" t="n">
-        <v>51.09</v>
+        <v>50.95</v>
       </c>
       <c r="F163" t="n">
-        <v>51400</v>
+        <v>44561.4572</v>
       </c>
       <c r="G163" t="n">
-        <v>-1180818.31553661</v>
+        <v>-1168173.44423661</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6115,28 +6263,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>51.22</v>
+        <v>50.94</v>
       </c>
       <c r="C164" t="n">
-        <v>51.22</v>
+        <v>50.84</v>
       </c>
       <c r="D164" t="n">
-        <v>51.22</v>
+        <v>50.94</v>
       </c>
       <c r="E164" t="n">
-        <v>51.22</v>
+        <v>50.84</v>
       </c>
       <c r="F164" t="n">
-        <v>1437.1304</v>
+        <v>50000</v>
       </c>
       <c r="G164" t="n">
-        <v>-1179381.18513661</v>
+        <v>-1218173.44423661</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6150,28 +6299,29 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>51.09</v>
+        <v>50.85</v>
       </c>
       <c r="C165" t="n">
-        <v>51.09</v>
+        <v>50.87</v>
       </c>
       <c r="D165" t="n">
-        <v>51.09</v>
+        <v>50.87</v>
       </c>
       <c r="E165" t="n">
-        <v>51.09</v>
+        <v>50.85</v>
       </c>
       <c r="F165" t="n">
-        <v>7256.6317</v>
+        <v>22126.385</v>
       </c>
       <c r="G165" t="n">
-        <v>-1186637.81683661</v>
+        <v>-1196047.05923661</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6185,28 +6335,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>51.09</v>
+        <v>51.1</v>
       </c>
       <c r="C166" t="n">
-        <v>51.09</v>
+        <v>51.1</v>
       </c>
       <c r="D166" t="n">
-        <v>51.09</v>
+        <v>51.1</v>
       </c>
       <c r="E166" t="n">
-        <v>51.09</v>
+        <v>51.1</v>
       </c>
       <c r="F166" t="n">
-        <v>1138.9287</v>
+        <v>10</v>
       </c>
       <c r="G166" t="n">
-        <v>-1186637.81683661</v>
+        <v>-1196037.05923661</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6220,28 +6371,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>51.09</v>
+        <v>50.88</v>
       </c>
       <c r="C167" t="n">
-        <v>51.03</v>
+        <v>50.85</v>
       </c>
       <c r="D167" t="n">
-        <v>51.09</v>
+        <v>50.88</v>
       </c>
       <c r="E167" t="n">
-        <v>51.03</v>
+        <v>50.85</v>
       </c>
       <c r="F167" t="n">
-        <v>49857.0256</v>
+        <v>19907.6365</v>
       </c>
       <c r="G167" t="n">
-        <v>-1236494.84243661</v>
+        <v>-1215944.69573661</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6255,28 +6407,29 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>51.03</v>
+        <v>50.8</v>
       </c>
       <c r="C168" t="n">
-        <v>51.03</v>
+        <v>50.8</v>
       </c>
       <c r="D168" t="n">
-        <v>51.03</v>
+        <v>50.8</v>
       </c>
       <c r="E168" t="n">
-        <v>51.03</v>
+        <v>50.8</v>
       </c>
       <c r="F168" t="n">
-        <v>20000</v>
+        <v>154.6163</v>
       </c>
       <c r="G168" t="n">
-        <v>-1236494.84243661</v>
+        <v>-1216099.31203661</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6290,28 +6443,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>51.03</v>
+        <v>50.8</v>
       </c>
       <c r="C169" t="n">
-        <v>50.86</v>
+        <v>50.8</v>
       </c>
       <c r="D169" t="n">
-        <v>51.03</v>
+        <v>50.8</v>
       </c>
       <c r="E169" t="n">
-        <v>50.86</v>
+        <v>50.8</v>
       </c>
       <c r="F169" t="n">
-        <v>5876.4122</v>
+        <v>25.8709</v>
       </c>
       <c r="G169" t="n">
-        <v>-1242371.25463661</v>
+        <v>-1216099.31203661</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6325,28 +6479,29 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="C170" t="n">
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="D170" t="n">
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="E170" t="n">
-        <v>50.9</v>
+        <v>50.8</v>
       </c>
       <c r="F170" t="n">
-        <v>30000</v>
+        <v>26781.1888</v>
       </c>
       <c r="G170" t="n">
-        <v>-1212371.25463661</v>
+        <v>-1216099.31203661</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6360,28 +6515,29 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>50.97</v>
+        <v>50.8</v>
       </c>
       <c r="C171" t="n">
-        <v>50.97</v>
+        <v>50.8</v>
       </c>
       <c r="D171" t="n">
-        <v>50.97</v>
+        <v>50.8</v>
       </c>
       <c r="E171" t="n">
-        <v>50.97</v>
+        <v>50.8</v>
       </c>
       <c r="F171" t="n">
-        <v>200</v>
+        <v>97076.795</v>
       </c>
       <c r="G171" t="n">
-        <v>-1212171.25463661</v>
+        <v>-1216099.31203661</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6395,28 +6551,29 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>51</v>
+        <v>50.86</v>
       </c>
       <c r="C172" t="n">
-        <v>51</v>
+        <v>50.86</v>
       </c>
       <c r="D172" t="n">
-        <v>51</v>
+        <v>50.86</v>
       </c>
       <c r="E172" t="n">
-        <v>51</v>
+        <v>50.86</v>
       </c>
       <c r="F172" t="n">
-        <v>67047.4387</v>
+        <v>500</v>
       </c>
       <c r="G172" t="n">
-        <v>-1145123.81593661</v>
+        <v>-1215599.31203661</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6430,28 +6587,29 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>51</v>
+        <v>50.87</v>
       </c>
       <c r="C173" t="n">
-        <v>51</v>
+        <v>50.87</v>
       </c>
       <c r="D173" t="n">
-        <v>51</v>
+        <v>50.87</v>
       </c>
       <c r="E173" t="n">
-        <v>51</v>
+        <v>50.87</v>
       </c>
       <c r="F173" t="n">
-        <v>28174.9156</v>
+        <v>4625.8432</v>
       </c>
       <c r="G173" t="n">
-        <v>-1145123.81593661</v>
+        <v>-1210973.46883661</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6465,28 +6623,29 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>51</v>
+        <v>50.88</v>
       </c>
       <c r="C174" t="n">
-        <v>51</v>
+        <v>50.88</v>
       </c>
       <c r="D174" t="n">
-        <v>51</v>
+        <v>50.88</v>
       </c>
       <c r="E174" t="n">
-        <v>51</v>
+        <v>50.88</v>
       </c>
       <c r="F174" t="n">
-        <v>56734.9978</v>
+        <v>639.0928</v>
       </c>
       <c r="G174" t="n">
-        <v>-1145123.81593661</v>
+        <v>-1210334.37603661</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6500,28 +6659,29 @@
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>51</v>
+        <v>50.88</v>
       </c>
       <c r="C175" t="n">
-        <v>51</v>
+        <v>50.8</v>
       </c>
       <c r="D175" t="n">
-        <v>51</v>
+        <v>50.88</v>
       </c>
       <c r="E175" t="n">
-        <v>51</v>
+        <v>50.8</v>
       </c>
       <c r="F175" t="n">
-        <v>10980.4941</v>
+        <v>13183.2531</v>
       </c>
       <c r="G175" t="n">
-        <v>-1145123.81593661</v>
+        <v>-1223517.62913661</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6535,28 +6695,29 @@
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>51</v>
+        <v>50.79</v>
       </c>
       <c r="C176" t="n">
-        <v>51</v>
+        <v>50.79</v>
       </c>
       <c r="D176" t="n">
-        <v>51</v>
+        <v>50.79</v>
       </c>
       <c r="E176" t="n">
-        <v>51</v>
+        <v>50.79</v>
       </c>
       <c r="F176" t="n">
-        <v>10100</v>
+        <v>36083.8881</v>
       </c>
       <c r="G176" t="n">
-        <v>-1145123.81593661</v>
+        <v>-1259601.51723661</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6570,28 +6731,29 @@
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>51</v>
+        <v>50.81</v>
       </c>
       <c r="C177" t="n">
-        <v>51</v>
+        <v>50.81</v>
       </c>
       <c r="D177" t="n">
-        <v>51</v>
+        <v>50.81</v>
       </c>
       <c r="E177" t="n">
-        <v>51</v>
+        <v>50.81</v>
       </c>
       <c r="F177" t="n">
-        <v>2754.838</v>
+        <v>5000</v>
       </c>
       <c r="G177" t="n">
-        <v>-1145123.81593661</v>
+        <v>-1254601.51723661</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6605,28 +6767,29 @@
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>51</v>
+        <v>50.8</v>
       </c>
       <c r="C178" t="n">
-        <v>51</v>
+        <v>50.71</v>
       </c>
       <c r="D178" t="n">
-        <v>51</v>
+        <v>50.8</v>
       </c>
       <c r="E178" t="n">
-        <v>51</v>
+        <v>50.71</v>
       </c>
       <c r="F178" t="n">
-        <v>2193.3769</v>
+        <v>215053.714</v>
       </c>
       <c r="G178" t="n">
-        <v>-1145123.81593661</v>
+        <v>-1469655.23123661</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6640,28 +6803,29 @@
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>51</v>
+        <v>50.61</v>
       </c>
       <c r="C179" t="n">
-        <v>51</v>
+        <v>50.56</v>
       </c>
       <c r="D179" t="n">
-        <v>51</v>
+        <v>50.61</v>
       </c>
       <c r="E179" t="n">
-        <v>51</v>
+        <v>50.43</v>
       </c>
       <c r="F179" t="n">
-        <v>2430.8336</v>
+        <v>104922.46835443</v>
       </c>
       <c r="G179" t="n">
-        <v>-1145123.81593661</v>
+        <v>-1574577.69959104</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6675,28 +6839,29 @@
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>51</v>
+        <v>50.68</v>
       </c>
       <c r="C180" t="n">
-        <v>51</v>
+        <v>50.69</v>
       </c>
       <c r="D180" t="n">
-        <v>51</v>
+        <v>50.69</v>
       </c>
       <c r="E180" t="n">
-        <v>51</v>
+        <v>50.68</v>
       </c>
       <c r="F180" t="n">
-        <v>6843.8585</v>
+        <v>534.8576</v>
       </c>
       <c r="G180" t="n">
-        <v>-1145123.81593661</v>
+        <v>-1574042.84199104</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6710,28 +6875,29 @@
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>51</v>
+        <v>50.74</v>
       </c>
       <c r="C181" t="n">
-        <v>51</v>
+        <v>50.74</v>
       </c>
       <c r="D181" t="n">
-        <v>51</v>
+        <v>50.74</v>
       </c>
       <c r="E181" t="n">
-        <v>51</v>
+        <v>50.74</v>
       </c>
       <c r="F181" t="n">
-        <v>5446.1859</v>
+        <v>172.8825</v>
       </c>
       <c r="G181" t="n">
-        <v>-1145123.81593661</v>
+        <v>-1573869.95949104</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6745,28 +6911,29 @@
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>51</v>
+        <v>50.72</v>
       </c>
       <c r="C182" t="n">
-        <v>51</v>
+        <v>50.62</v>
       </c>
       <c r="D182" t="n">
-        <v>51</v>
+        <v>50.72</v>
       </c>
       <c r="E182" t="n">
-        <v>51</v>
+        <v>50.62</v>
       </c>
       <c r="F182" t="n">
-        <v>10227.2959</v>
+        <v>2607.1235</v>
       </c>
       <c r="G182" t="n">
-        <v>-1145123.81593661</v>
+        <v>-1576477.08299104</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6780,28 +6947,29 @@
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>51</v>
+        <v>50.72</v>
       </c>
       <c r="C183" t="n">
-        <v>51</v>
+        <v>50.62</v>
       </c>
       <c r="D183" t="n">
-        <v>51</v>
+        <v>50.72</v>
       </c>
       <c r="E183" t="n">
-        <v>51</v>
+        <v>50.62</v>
       </c>
       <c r="F183" t="n">
-        <v>17000</v>
+        <v>1076.2331</v>
       </c>
       <c r="G183" t="n">
-        <v>-1145123.81593661</v>
+        <v>-1576477.08299104</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6815,28 +6983,29 @@
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>51</v>
+        <v>50.49</v>
       </c>
       <c r="C184" t="n">
-        <v>51</v>
+        <v>50.43</v>
       </c>
       <c r="D184" t="n">
-        <v>51</v>
+        <v>50.49</v>
       </c>
       <c r="E184" t="n">
-        <v>51</v>
+        <v>50.43</v>
       </c>
       <c r="F184" t="n">
-        <v>10000</v>
+        <v>211853.116</v>
       </c>
       <c r="G184" t="n">
-        <v>-1145123.81593661</v>
+        <v>-1788330.19899104</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6850,28 +7019,29 @@
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>50.98</v>
+        <v>50.72</v>
       </c>
       <c r="C185" t="n">
-        <v>50.98</v>
+        <v>50.72</v>
       </c>
       <c r="D185" t="n">
-        <v>50.98</v>
+        <v>50.72</v>
       </c>
       <c r="E185" t="n">
-        <v>50.98</v>
+        <v>50.72</v>
       </c>
       <c r="F185" t="n">
-        <v>10</v>
+        <v>5403.232</v>
       </c>
       <c r="G185" t="n">
-        <v>-1145133.81593661</v>
+        <v>-1782926.96699104</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6885,28 +7055,29 @@
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>50.78</v>
+        <v>50.72</v>
       </c>
       <c r="C186" t="n">
-        <v>50.78</v>
+        <v>50.72</v>
       </c>
       <c r="D186" t="n">
-        <v>50.78</v>
+        <v>50.72</v>
       </c>
       <c r="E186" t="n">
-        <v>50.78</v>
+        <v>50.72</v>
       </c>
       <c r="F186" t="n">
-        <v>17250.216</v>
+        <v>11017.6381</v>
       </c>
       <c r="G186" t="n">
-        <v>-1162384.03193661</v>
+        <v>-1782926.96699104</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6920,28 +7091,29 @@
       <c r="M186" t="n">
         <v>1</v>
       </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>51</v>
+        <v>50.71</v>
       </c>
       <c r="C187" t="n">
-        <v>51</v>
+        <v>50.72</v>
       </c>
       <c r="D187" t="n">
-        <v>51</v>
+        <v>50.72</v>
       </c>
       <c r="E187" t="n">
-        <v>51</v>
+        <v>50.71</v>
       </c>
       <c r="F187" t="n">
-        <v>11899.722</v>
+        <v>2373.2318</v>
       </c>
       <c r="G187" t="n">
-        <v>-1150484.30993661</v>
+        <v>-1782926.96699104</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6955,28 +7127,29 @@
       <c r="M187" t="n">
         <v>1</v>
       </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>51</v>
+        <v>50.72</v>
       </c>
       <c r="C188" t="n">
-        <v>51</v>
+        <v>50.72</v>
       </c>
       <c r="D188" t="n">
-        <v>51</v>
+        <v>50.72</v>
       </c>
       <c r="E188" t="n">
-        <v>51</v>
+        <v>50.72</v>
       </c>
       <c r="F188" t="n">
-        <v>39703.4264</v>
+        <v>81918.56630000001</v>
       </c>
       <c r="G188" t="n">
-        <v>-1150484.30993661</v>
+        <v>-1782926.96699104</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6990,28 +7163,29 @@
       <c r="M188" t="n">
         <v>1</v>
       </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>51</v>
+        <v>50.72</v>
       </c>
       <c r="C189" t="n">
-        <v>51</v>
+        <v>50.72</v>
       </c>
       <c r="D189" t="n">
-        <v>51</v>
+        <v>50.72</v>
       </c>
       <c r="E189" t="n">
-        <v>51</v>
+        <v>50.72</v>
       </c>
       <c r="F189" t="n">
-        <v>53777.8185</v>
+        <v>10113.2398</v>
       </c>
       <c r="G189" t="n">
-        <v>-1150484.30993661</v>
+        <v>-1782926.96699104</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7025,28 +7199,29 @@
       <c r="M189" t="n">
         <v>1</v>
       </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>51.14</v>
+        <v>50.72</v>
       </c>
       <c r="C190" t="n">
-        <v>51.14</v>
+        <v>50.72</v>
       </c>
       <c r="D190" t="n">
-        <v>51.14</v>
+        <v>50.72</v>
       </c>
       <c r="E190" t="n">
-        <v>51.14</v>
+        <v>50.72</v>
       </c>
       <c r="F190" t="n">
-        <v>5297.5878</v>
+        <v>7620.585</v>
       </c>
       <c r="G190" t="n">
-        <v>-1145186.722136609</v>
+        <v>-1782926.96699104</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7060,28 +7235,29 @@
       <c r="M190" t="n">
         <v>1</v>
       </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>51.14</v>
+        <v>50.72</v>
       </c>
       <c r="C191" t="n">
-        <v>51.2</v>
+        <v>50.72</v>
       </c>
       <c r="D191" t="n">
-        <v>51.23</v>
+        <v>50.72</v>
       </c>
       <c r="E191" t="n">
-        <v>51.14</v>
+        <v>50.72</v>
       </c>
       <c r="F191" t="n">
-        <v>32615.7836</v>
+        <v>2097.6131</v>
       </c>
       <c r="G191" t="n">
-        <v>-1112570.93853661</v>
+        <v>-1782926.96699104</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7095,28 +7271,29 @@
       <c r="M191" t="n">
         <v>1</v>
       </c>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>51.2</v>
+        <v>50.72</v>
       </c>
       <c r="C192" t="n">
-        <v>51.2</v>
+        <v>50.72</v>
       </c>
       <c r="D192" t="n">
-        <v>51.2</v>
+        <v>50.72</v>
       </c>
       <c r="E192" t="n">
-        <v>51.2</v>
+        <v>50.72</v>
       </c>
       <c r="F192" t="n">
-        <v>8535.8339</v>
+        <v>323.5</v>
       </c>
       <c r="G192" t="n">
-        <v>-1112570.93853661</v>
+        <v>-1782926.96699104</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7130,28 +7307,29 @@
       <c r="M192" t="n">
         <v>1</v>
       </c>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>51.2</v>
+        <v>50.71</v>
       </c>
       <c r="C193" t="n">
-        <v>51.2</v>
+        <v>50.71</v>
       </c>
       <c r="D193" t="n">
-        <v>51.2</v>
+        <v>50.71</v>
       </c>
       <c r="E193" t="n">
-        <v>51.2</v>
+        <v>50.71</v>
       </c>
       <c r="F193" t="n">
-        <v>143.2745</v>
+        <v>590.1127</v>
       </c>
       <c r="G193" t="n">
-        <v>-1112570.93853661</v>
+        <v>-1783517.07969104</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7165,28 +7343,29 @@
       <c r="M193" t="n">
         <v>1</v>
       </c>
+      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>51.2</v>
+        <v>50.34</v>
       </c>
       <c r="C194" t="n">
-        <v>51.12</v>
+        <v>50.34</v>
       </c>
       <c r="D194" t="n">
-        <v>51.2</v>
+        <v>50.34</v>
       </c>
       <c r="E194" t="n">
-        <v>51.12</v>
+        <v>50.34</v>
       </c>
       <c r="F194" t="n">
-        <v>3078.3309</v>
+        <v>15.383</v>
       </c>
       <c r="G194" t="n">
-        <v>-1115649.269436609</v>
+        <v>-1783532.46269104</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7200,28 +7379,29 @@
       <c r="M194" t="n">
         <v>1</v>
       </c>
+      <c r="N194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>51.24</v>
+        <v>50.61</v>
       </c>
       <c r="C195" t="n">
-        <v>51.25</v>
+        <v>50.46</v>
       </c>
       <c r="D195" t="n">
-        <v>51.25</v>
+        <v>50.61</v>
       </c>
       <c r="E195" t="n">
-        <v>51.24</v>
+        <v>50.46</v>
       </c>
       <c r="F195" t="n">
-        <v>5098.9208</v>
+        <v>322.2025</v>
       </c>
       <c r="G195" t="n">
-        <v>-1110550.34863661</v>
+        <v>-1783210.26019104</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7235,98 +7415,113 @@
       <c r="M195" t="n">
         <v>1</v>
       </c>
+      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>51.25</v>
+        <v>50.46</v>
       </c>
       <c r="C196" t="n">
-        <v>51.25</v>
+        <v>50.46</v>
       </c>
       <c r="D196" t="n">
-        <v>51.25</v>
+        <v>50.46</v>
       </c>
       <c r="E196" t="n">
-        <v>51.25</v>
+        <v>50.46</v>
       </c>
       <c r="F196" t="n">
-        <v>3168.5789</v>
+        <v>24989.3907</v>
       </c>
       <c r="G196" t="n">
-        <v>-1110550.34863661</v>
+        <v>-1783210.26019104</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="K196" t="n">
+        <v>50.46</v>
+      </c>
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
+      <c r="N196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>51.25</v>
+        <v>50.71</v>
       </c>
       <c r="C197" t="n">
-        <v>51.26</v>
+        <v>50.76</v>
       </c>
       <c r="D197" t="n">
-        <v>51.26</v>
+        <v>50.76</v>
       </c>
       <c r="E197" t="n">
-        <v>51.25</v>
+        <v>50.71</v>
       </c>
       <c r="F197" t="n">
-        <v>7454.6167</v>
+        <v>32410</v>
       </c>
       <c r="G197" t="n">
-        <v>-1103095.73193661</v>
+        <v>-1750800.26019104</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="K197" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
+      <c r="N197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>51.25</v>
+        <v>50.88</v>
       </c>
       <c r="C198" t="n">
-        <v>51.25</v>
+        <v>50.9</v>
       </c>
       <c r="D198" t="n">
-        <v>51.25</v>
+        <v>50.9</v>
       </c>
       <c r="E198" t="n">
-        <v>51.25</v>
+        <v>50.88</v>
       </c>
       <c r="F198" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G198" t="n">
-        <v>-1103295.73193661</v>
+        <v>-1750780.26019104</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7335,33 +7530,40 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
+      <c r="N198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>51.25</v>
+        <v>50.5</v>
       </c>
       <c r="C199" t="n">
-        <v>51.25</v>
+        <v>50.5</v>
       </c>
       <c r="D199" t="n">
-        <v>51.25</v>
+        <v>50.5</v>
       </c>
       <c r="E199" t="n">
-        <v>51.25</v>
+        <v>50.5</v>
       </c>
       <c r="F199" t="n">
-        <v>924.7895</v>
+        <v>15.7971</v>
       </c>
       <c r="G199" t="n">
-        <v>-1103295.73193661</v>
+        <v>-1750796.05729104</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7375,28 +7577,29 @@
       <c r="M199" t="n">
         <v>1</v>
       </c>
+      <c r="N199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>51.21</v>
+        <v>50.51</v>
       </c>
       <c r="C200" t="n">
-        <v>51.21</v>
+        <v>50.39</v>
       </c>
       <c r="D200" t="n">
-        <v>51.21</v>
+        <v>50.51</v>
       </c>
       <c r="E200" t="n">
-        <v>51.21</v>
+        <v>50.39</v>
       </c>
       <c r="F200" t="n">
-        <v>925.6521</v>
+        <v>50000</v>
       </c>
       <c r="G200" t="n">
-        <v>-1104221.38403661</v>
+        <v>-1800796.05729104</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7410,28 +7613,29 @@
       <c r="M200" t="n">
         <v>1</v>
       </c>
+      <c r="N200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>51.04</v>
+        <v>50.41</v>
       </c>
       <c r="C201" t="n">
-        <v>51.04</v>
+        <v>50.41</v>
       </c>
       <c r="D201" t="n">
-        <v>51.04</v>
+        <v>50.41</v>
       </c>
       <c r="E201" t="n">
-        <v>51.04</v>
+        <v>50.41</v>
       </c>
       <c r="F201" t="n">
-        <v>20483.0894</v>
+        <v>40000</v>
       </c>
       <c r="G201" t="n">
-        <v>-1124704.47343661</v>
+        <v>-1760796.05729104</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7445,1962 +7649,427 @@
       <c r="M201" t="n">
         <v>1</v>
       </c>
+      <c r="N201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>51.15</v>
+        <v>50.5</v>
       </c>
       <c r="C202" t="n">
-        <v>51.15</v>
+        <v>50.64</v>
       </c>
       <c r="D202" t="n">
-        <v>51.15</v>
+        <v>50.64</v>
       </c>
       <c r="E202" t="n">
-        <v>51.15</v>
+        <v>50.4</v>
       </c>
       <c r="F202" t="n">
-        <v>1092.4864</v>
+        <v>40053.7638</v>
       </c>
       <c r="G202" t="n">
-        <v>-1123611.98703661</v>
+        <v>-1720742.29349104</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>50.41</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
+      <c r="N202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>51.15</v>
+        <v>50.4</v>
       </c>
       <c r="C203" t="n">
-        <v>51.15</v>
+        <v>50.39</v>
       </c>
       <c r="D203" t="n">
-        <v>51.15</v>
+        <v>50.4</v>
       </c>
       <c r="E203" t="n">
-        <v>51.15</v>
+        <v>50.39</v>
       </c>
       <c r="F203" t="n">
-        <v>8749.1811</v>
+        <v>30000</v>
       </c>
       <c r="G203" t="n">
-        <v>-1123611.98703661</v>
+        <v>-1750742.29349104</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>50.64</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
+      <c r="N203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>51.15</v>
+        <v>50.4</v>
       </c>
       <c r="C204" t="n">
-        <v>51.15</v>
+        <v>50.65</v>
       </c>
       <c r="D204" t="n">
-        <v>51.15</v>
+        <v>50.65</v>
       </c>
       <c r="E204" t="n">
-        <v>51.15</v>
+        <v>50.4</v>
       </c>
       <c r="F204" t="n">
-        <v>29358.3325</v>
+        <v>9700</v>
       </c>
       <c r="G204" t="n">
-        <v>-1123611.98703661</v>
+        <v>-1741042.29349104</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>50.39</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
+      <c r="N204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>51</v>
+        <v>50.54</v>
       </c>
       <c r="C205" t="n">
-        <v>50.95</v>
+        <v>50.54</v>
       </c>
       <c r="D205" t="n">
-        <v>51</v>
+        <v>50.54</v>
       </c>
       <c r="E205" t="n">
-        <v>50.95</v>
+        <v>50.54</v>
       </c>
       <c r="F205" t="n">
-        <v>44561.4572</v>
+        <v>1100</v>
       </c>
       <c r="G205" t="n">
-        <v>-1168173.44423661</v>
+        <v>-1742142.29349104</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>50.65</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
+      <c r="N205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>50.94</v>
+        <v>50.62</v>
       </c>
       <c r="C206" t="n">
-        <v>50.84</v>
+        <v>50.62</v>
       </c>
       <c r="D206" t="n">
-        <v>50.94</v>
+        <v>50.62</v>
       </c>
       <c r="E206" t="n">
-        <v>50.84</v>
+        <v>50.62</v>
       </c>
       <c r="F206" t="n">
-        <v>50000</v>
+        <v>2470.5967</v>
       </c>
       <c r="G206" t="n">
-        <v>-1218173.44423661</v>
+        <v>-1739671.69679104</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>50.54</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
+      <c r="N206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>50.85</v>
+        <v>50.56</v>
       </c>
       <c r="C207" t="n">
-        <v>50.87</v>
+        <v>50.56</v>
       </c>
       <c r="D207" t="n">
-        <v>50.87</v>
+        <v>50.56</v>
       </c>
       <c r="E207" t="n">
-        <v>50.85</v>
+        <v>50.56</v>
       </c>
       <c r="F207" t="n">
-        <v>22126.385</v>
+        <v>6851.6462</v>
       </c>
       <c r="G207" t="n">
-        <v>-1196047.05923661</v>
+        <v>-1746523.34299104</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>50.62</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
+      <c r="N207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>51.1</v>
+        <v>50.47</v>
       </c>
       <c r="C208" t="n">
-        <v>51.1</v>
+        <v>50.47</v>
       </c>
       <c r="D208" t="n">
-        <v>51.1</v>
+        <v>50.47</v>
       </c>
       <c r="E208" t="n">
-        <v>51.1</v>
+        <v>50.47</v>
       </c>
       <c r="F208" t="n">
-        <v>10</v>
+        <v>27211.4828</v>
       </c>
       <c r="G208" t="n">
-        <v>-1196037.05923661</v>
+        <v>-1773734.82579104</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
+      <c r="N208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>50.88</v>
+        <v>50.47</v>
       </c>
       <c r="C209" t="n">
-        <v>50.85</v>
+        <v>50.47</v>
       </c>
       <c r="D209" t="n">
-        <v>50.88</v>
+        <v>50.47</v>
       </c>
       <c r="E209" t="n">
-        <v>50.85</v>
+        <v>50.47</v>
       </c>
       <c r="F209" t="n">
-        <v>19907.6365</v>
+        <v>1977.9127</v>
       </c>
       <c r="G209" t="n">
-        <v>-1215944.69573661</v>
+        <v>-1773734.82579104</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>50.47</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
+      <c r="N209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>50.8</v>
+        <v>50.22</v>
       </c>
       <c r="C210" t="n">
-        <v>50.8</v>
+        <v>50.21</v>
       </c>
       <c r="D210" t="n">
-        <v>50.8</v>
+        <v>50.22</v>
       </c>
       <c r="E210" t="n">
-        <v>50.8</v>
+        <v>50.21</v>
       </c>
       <c r="F210" t="n">
-        <v>154.6163</v>
+        <v>72612.0021</v>
       </c>
       <c r="G210" t="n">
-        <v>-1216099.31203661</v>
+        <v>-1846346.82789104</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>50.47</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
+      <c r="N210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>50.8</v>
+        <v>50.4</v>
       </c>
       <c r="C211" t="n">
-        <v>50.8</v>
+        <v>50.4</v>
       </c>
       <c r="D211" t="n">
-        <v>50.8</v>
+        <v>50.4</v>
       </c>
       <c r="E211" t="n">
-        <v>50.8</v>
+        <v>50.4</v>
       </c>
       <c r="F211" t="n">
-        <v>25.8709</v>
+        <v>475.6342</v>
       </c>
       <c r="G211" t="n">
-        <v>-1216099.31203661</v>
+        <v>-1845871.19369104</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>50.21</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="C212" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="D212" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="E212" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="F212" t="n">
-        <v>26781.1888</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-1216099.31203661</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="C213" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="D213" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="E213" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="F213" t="n">
-        <v>97076.795</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-1216099.31203661</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>50.86</v>
-      </c>
-      <c r="C214" t="n">
-        <v>50.86</v>
-      </c>
-      <c r="D214" t="n">
-        <v>50.86</v>
-      </c>
-      <c r="E214" t="n">
-        <v>50.86</v>
-      </c>
-      <c r="F214" t="n">
-        <v>500</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-1215599.31203661</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="C215" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="D215" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="E215" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="F215" t="n">
-        <v>4625.8432</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-1210973.46883661</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="C216" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="D216" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="E216" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="F216" t="n">
-        <v>639.0928</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-1210334.37603661</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="C217" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="D217" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="E217" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="F217" t="n">
-        <v>13183.2531</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-1223517.62913661</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>50.79</v>
-      </c>
-      <c r="C218" t="n">
-        <v>50.79</v>
-      </c>
-      <c r="D218" t="n">
-        <v>50.79</v>
-      </c>
-      <c r="E218" t="n">
-        <v>50.79</v>
-      </c>
-      <c r="F218" t="n">
-        <v>36083.8881</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-1259601.51723661</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>50.81</v>
-      </c>
-      <c r="C219" t="n">
-        <v>50.81</v>
-      </c>
-      <c r="D219" t="n">
-        <v>50.81</v>
-      </c>
-      <c r="E219" t="n">
-        <v>50.81</v>
-      </c>
-      <c r="F219" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-1254601.51723661</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="C220" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="D220" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="E220" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="F220" t="n">
-        <v>215053.714</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-1469655.23123661</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>50.61</v>
-      </c>
-      <c r="C221" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="D221" t="n">
-        <v>50.61</v>
-      </c>
-      <c r="E221" t="n">
-        <v>50.43</v>
-      </c>
-      <c r="F221" t="n">
-        <v>104922.46835443</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-1574577.69959104</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>50.68</v>
-      </c>
-      <c r="C222" t="n">
-        <v>50.69</v>
-      </c>
-      <c r="D222" t="n">
-        <v>50.69</v>
-      </c>
-      <c r="E222" t="n">
-        <v>50.68</v>
-      </c>
-      <c r="F222" t="n">
-        <v>534.8576</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-1574042.84199104</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K222" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>50.74</v>
-      </c>
-      <c r="C223" t="n">
-        <v>50.74</v>
-      </c>
-      <c r="D223" t="n">
-        <v>50.74</v>
-      </c>
-      <c r="E223" t="n">
-        <v>50.74</v>
-      </c>
-      <c r="F223" t="n">
-        <v>172.8825</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-1573869.95949104</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="n">
-        <v>50.69</v>
-      </c>
-      <c r="K223" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="C224" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="D224" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="E224" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="F224" t="n">
-        <v>2607.1235</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-1576477.08299104</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="C225" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="D225" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="E225" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="F225" t="n">
-        <v>1076.2331</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-1576477.08299104</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>50.49</v>
-      </c>
-      <c r="C226" t="n">
-        <v>50.43</v>
-      </c>
-      <c r="D226" t="n">
-        <v>50.49</v>
-      </c>
-      <c r="E226" t="n">
-        <v>50.43</v>
-      </c>
-      <c r="F226" t="n">
-        <v>211853.116</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-1788330.19899104</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="C227" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="D227" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="E227" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="F227" t="n">
-        <v>5403.232</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
+      <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="C228" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="D228" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="E228" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="F228" t="n">
-        <v>11017.6381</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="C229" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="D229" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="E229" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="F229" t="n">
-        <v>2373.2318</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="C230" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="D230" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="E230" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="F230" t="n">
-        <v>81918.56630000001</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="C231" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="D231" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="E231" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="F231" t="n">
-        <v>10113.2398</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="C232" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="D232" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="E232" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="F232" t="n">
-        <v>7620.585</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="C233" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="D233" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="E233" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="F233" t="n">
-        <v>2097.6131</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="C234" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="D234" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="E234" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="F234" t="n">
-        <v>323.5</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="C235" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="D235" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="E235" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="F235" t="n">
-        <v>590.1127</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-1783517.07969104</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>50.34</v>
-      </c>
-      <c r="C236" t="n">
-        <v>50.34</v>
-      </c>
-      <c r="D236" t="n">
-        <v>50.34</v>
-      </c>
-      <c r="E236" t="n">
-        <v>50.34</v>
-      </c>
-      <c r="F236" t="n">
-        <v>15.383</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-1783532.46269104</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>50.61</v>
-      </c>
-      <c r="C237" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="D237" t="n">
-        <v>50.61</v>
-      </c>
-      <c r="E237" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="F237" t="n">
-        <v>322.2025</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-1783210.26019104</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="C238" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="D238" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="E238" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="F238" t="n">
-        <v>24989.3907</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-1783210.26019104</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="C239" t="n">
-        <v>50.76</v>
-      </c>
-      <c r="D239" t="n">
-        <v>50.76</v>
-      </c>
-      <c r="E239" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="F239" t="n">
-        <v>32410</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-1750800.26019104</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="C240" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="D240" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="E240" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="F240" t="n">
-        <v>20</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-1750780.26019104</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="C241" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="D241" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="E241" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="F241" t="n">
-        <v>15.7971</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-1750796.05729104</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>50.51</v>
-      </c>
-      <c r="C242" t="n">
-        <v>50.39</v>
-      </c>
-      <c r="D242" t="n">
-        <v>50.51</v>
-      </c>
-      <c r="E242" t="n">
-        <v>50.39</v>
-      </c>
-      <c r="F242" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-1800796.05729104</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>50.41</v>
-      </c>
-      <c r="C243" t="n">
-        <v>50.41</v>
-      </c>
-      <c r="D243" t="n">
-        <v>50.41</v>
-      </c>
-      <c r="E243" t="n">
-        <v>50.41</v>
-      </c>
-      <c r="F243" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-1760796.05729104</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="C244" t="n">
-        <v>50.64</v>
-      </c>
-      <c r="D244" t="n">
-        <v>50.64</v>
-      </c>
-      <c r="E244" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="F244" t="n">
-        <v>40053.7638</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-1720742.29349104</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="C245" t="n">
-        <v>50.39</v>
-      </c>
-      <c r="D245" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="E245" t="n">
-        <v>50.39</v>
-      </c>
-      <c r="F245" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-1750742.29349104</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="C246" t="n">
-        <v>50.65</v>
-      </c>
-      <c r="D246" t="n">
-        <v>50.65</v>
-      </c>
-      <c r="E246" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="F246" t="n">
-        <v>9700</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-1741042.29349104</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>50.54</v>
-      </c>
-      <c r="C247" t="n">
-        <v>50.54</v>
-      </c>
-      <c r="D247" t="n">
-        <v>50.54</v>
-      </c>
-      <c r="E247" t="n">
-        <v>50.54</v>
-      </c>
-      <c r="F247" t="n">
-        <v>1100</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-1742142.29349104</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="C248" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="D248" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="E248" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="F248" t="n">
-        <v>2470.5967</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-1739671.69679104</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="C249" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="D249" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="E249" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="F249" t="n">
-        <v>6851.6462</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-1746523.34299104</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="C250" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="D250" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="E250" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="F250" t="n">
-        <v>27211.4828</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-1773734.82579104</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="C251" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="D251" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="E251" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="F251" t="n">
-        <v>1977.9127</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-1773734.82579104</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>50.22</v>
-      </c>
-      <c r="C252" t="n">
-        <v>50.21</v>
-      </c>
-      <c r="D252" t="n">
-        <v>50.22</v>
-      </c>
-      <c r="E252" t="n">
-        <v>50.21</v>
-      </c>
-      <c r="F252" t="n">
-        <v>72612.0021</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-1846346.82789104</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="C253" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="D253" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="E253" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="F253" t="n">
-        <v>475.6342</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-1845871.19369104</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-26 BackTest ADA.xlsx
+++ b/BackTest/2020-01-26 BackTest ADA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N211"/>
+  <dimension ref="A1:N282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>51.78</v>
+        <v>52.37</v>
       </c>
       <c r="C2" t="n">
-        <v>52</v>
+        <v>52.39</v>
       </c>
       <c r="D2" t="n">
-        <v>52</v>
+        <v>52.39</v>
       </c>
       <c r="E2" t="n">
-        <v>51.78</v>
+        <v>52.37</v>
       </c>
       <c r="F2" t="n">
-        <v>22712.163</v>
+        <v>2800</v>
       </c>
       <c r="G2" t="n">
-        <v>-307502.4570920599</v>
+        <v>36479.4135079401</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>52</v>
+        <v>52.39</v>
       </c>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>52.39</v>
       </c>
       <c r="D3" t="n">
-        <v>52</v>
+        <v>52.39</v>
       </c>
       <c r="E3" t="n">
-        <v>52</v>
+        <v>52.39</v>
       </c>
       <c r="F3" t="n">
-        <v>9939.158299999999</v>
+        <v>4886.8994</v>
       </c>
       <c r="G3" t="n">
-        <v>-307502.4570920599</v>
+        <v>36479.4135079401</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>52</v>
+        <v>52.39</v>
       </c>
       <c r="C4" t="n">
-        <v>52</v>
+        <v>52.28</v>
       </c>
       <c r="D4" t="n">
-        <v>52</v>
+        <v>52.39</v>
       </c>
       <c r="E4" t="n">
-        <v>52</v>
+        <v>52.28</v>
       </c>
       <c r="F4" t="n">
-        <v>38766.5166</v>
+        <v>895.7776</v>
       </c>
       <c r="G4" t="n">
-        <v>-307502.4570920599</v>
+        <v>35583.6359079401</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52</v>
+        <v>52.4</v>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>52.47</v>
       </c>
       <c r="D5" t="n">
-        <v>52</v>
+        <v>52.47</v>
       </c>
       <c r="E5" t="n">
-        <v>52</v>
+        <v>52.4</v>
       </c>
       <c r="F5" t="n">
-        <v>364800.1907</v>
+        <v>31650</v>
       </c>
       <c r="G5" t="n">
-        <v>-307502.4570920599</v>
+        <v>67233.6359079401</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52</v>
+        <v>52.27</v>
       </c>
       <c r="C6" t="n">
-        <v>51.9</v>
+        <v>52.27</v>
       </c>
       <c r="D6" t="n">
-        <v>52</v>
+        <v>52.27</v>
       </c>
       <c r="E6" t="n">
-        <v>51.9</v>
+        <v>52.27</v>
       </c>
       <c r="F6" t="n">
-        <v>20492.6753</v>
+        <v>709.9112</v>
       </c>
       <c r="G6" t="n">
-        <v>-327995.1323920599</v>
+        <v>66523.7247079401</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51.9</v>
+        <v>52.1</v>
       </c>
       <c r="C7" t="n">
-        <v>51.9</v>
+        <v>52.08</v>
       </c>
       <c r="D7" t="n">
-        <v>51.9</v>
+        <v>52.1</v>
       </c>
       <c r="E7" t="n">
-        <v>51.9</v>
+        <v>52.08</v>
       </c>
       <c r="F7" t="n">
-        <v>1957.1837</v>
+        <v>4600</v>
       </c>
       <c r="G7" t="n">
-        <v>-327995.1323920599</v>
+        <v>61923.7247079401</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,7 +654,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="C8" t="n">
         <v>52</v>
@@ -663,19 +663,19 @@
         <v>52</v>
       </c>
       <c r="E8" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="F8" t="n">
-        <v>82088.26420000001</v>
+        <v>153193.233</v>
       </c>
       <c r="G8" t="n">
-        <v>-245906.8681920599</v>
+        <v>-91269.50829205991</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>52</v>
+        <v>52.38</v>
       </c>
       <c r="C9" t="n">
-        <v>52</v>
+        <v>52.38</v>
       </c>
       <c r="D9" t="n">
-        <v>52</v>
+        <v>52.38</v>
       </c>
       <c r="E9" t="n">
-        <v>52</v>
+        <v>52.38</v>
       </c>
       <c r="F9" t="n">
-        <v>43953.1973</v>
+        <v>40000</v>
       </c>
       <c r="G9" t="n">
-        <v>-245906.8681920599</v>
+        <v>-51269.50829205991</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>52</v>
+        <v>52.3</v>
       </c>
       <c r="C10" t="n">
-        <v>52</v>
+        <v>52.3</v>
       </c>
       <c r="D10" t="n">
-        <v>52</v>
+        <v>52.3</v>
       </c>
       <c r="E10" t="n">
-        <v>52</v>
+        <v>52.3</v>
       </c>
       <c r="F10" t="n">
-        <v>27787.5999</v>
+        <v>602.6358</v>
       </c>
       <c r="G10" t="n">
-        <v>-245906.8681920599</v>
+        <v>-51872.14409205991</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>52</v>
+        <v>52.31</v>
       </c>
       <c r="C11" t="n">
-        <v>52</v>
+        <v>52.31</v>
       </c>
       <c r="D11" t="n">
-        <v>52</v>
+        <v>52.31</v>
       </c>
       <c r="E11" t="n">
-        <v>52</v>
+        <v>52.31</v>
       </c>
       <c r="F11" t="n">
-        <v>4713.2999</v>
+        <v>2177.2084</v>
       </c>
       <c r="G11" t="n">
-        <v>-245906.8681920599</v>
+        <v>-49694.93569205991</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>52.16</v>
+        <v>52.47</v>
       </c>
       <c r="C12" t="n">
-        <v>52.27</v>
+        <v>52.47</v>
       </c>
       <c r="D12" t="n">
-        <v>52.27</v>
+        <v>52.47</v>
       </c>
       <c r="E12" t="n">
-        <v>52.16</v>
+        <v>52.47</v>
       </c>
       <c r="F12" t="n">
-        <v>16000</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>-229906.8681920599</v>
+        <v>-49684.93569205991</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -846,16 +846,16 @@
         <v>52.27</v>
       </c>
       <c r="F13" t="n">
-        <v>6341.8913</v>
+        <v>51.6549</v>
       </c>
       <c r="G13" t="n">
-        <v>-229906.8681920599</v>
+        <v>-49736.59059205991</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>52.29</v>
+        <v>52.47</v>
       </c>
       <c r="C14" t="n">
-        <v>52.49</v>
+        <v>52.6</v>
       </c>
       <c r="D14" t="n">
-        <v>52.49</v>
+        <v>52.6</v>
       </c>
       <c r="E14" t="n">
-        <v>52.29</v>
+        <v>52.47</v>
       </c>
       <c r="F14" t="n">
-        <v>12906.5693</v>
+        <v>95250</v>
       </c>
       <c r="G14" t="n">
-        <v>-217000.2988920599</v>
+        <v>45513.40940794009</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>52.32</v>
+        <v>52.3</v>
       </c>
       <c r="C15" t="n">
-        <v>52.39</v>
+        <v>52.26</v>
       </c>
       <c r="D15" t="n">
-        <v>52.39</v>
+        <v>52.3</v>
       </c>
       <c r="E15" t="n">
-        <v>52.31</v>
+        <v>52.26</v>
       </c>
       <c r="F15" t="n">
-        <v>22402.8574</v>
+        <v>7075.7887</v>
       </c>
       <c r="G15" t="n">
-        <v>-239403.1562920599</v>
+        <v>38437.62070794009</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>52.31</v>
+        <v>52.1</v>
       </c>
       <c r="C16" t="n">
-        <v>52.18</v>
+        <v>52.26</v>
       </c>
       <c r="D16" t="n">
-        <v>52.31</v>
+        <v>52.26</v>
       </c>
       <c r="E16" t="n">
-        <v>52.18</v>
+        <v>52.04</v>
       </c>
       <c r="F16" t="n">
-        <v>28230</v>
+        <v>5075.7726</v>
       </c>
       <c r="G16" t="n">
-        <v>-267633.1562920599</v>
+        <v>38437.62070794009</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>52.24</v>
+        <v>52.26</v>
       </c>
       <c r="C17" t="n">
-        <v>52.24</v>
+        <v>52.27</v>
       </c>
       <c r="D17" t="n">
-        <v>52.24</v>
+        <v>52.27</v>
       </c>
       <c r="E17" t="n">
-        <v>52.24</v>
+        <v>52.26</v>
       </c>
       <c r="F17" t="n">
-        <v>485.43261868</v>
+        <v>2400</v>
       </c>
       <c r="G17" t="n">
-        <v>-267147.7236733799</v>
+        <v>40837.62070794009</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>52.24</v>
+        <v>52.23</v>
       </c>
       <c r="C18" t="n">
-        <v>52.24</v>
+        <v>52.23</v>
       </c>
       <c r="D18" t="n">
-        <v>52.24</v>
+        <v>52.23</v>
       </c>
       <c r="E18" t="n">
-        <v>52.24</v>
+        <v>52.23</v>
       </c>
       <c r="F18" t="n">
-        <v>10000</v>
+        <v>5163.938</v>
       </c>
       <c r="G18" t="n">
-        <v>-267147.7236733799</v>
+        <v>35673.68270794009</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>52.03</v>
+        <v>52.23</v>
       </c>
       <c r="C19" t="n">
-        <v>52.03</v>
+        <v>52.23</v>
       </c>
       <c r="D19" t="n">
-        <v>52.03</v>
+        <v>52.23</v>
       </c>
       <c r="E19" t="n">
-        <v>52.03</v>
+        <v>52.23</v>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>315.0093</v>
       </c>
       <c r="G19" t="n">
-        <v>-267247.7236733799</v>
+        <v>35673.68270794009</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>52.12</v>
+        <v>51.84</v>
       </c>
       <c r="C20" t="n">
-        <v>52.12</v>
+        <v>51.84</v>
       </c>
       <c r="D20" t="n">
-        <v>52.12</v>
+        <v>51.84</v>
       </c>
       <c r="E20" t="n">
-        <v>52.12</v>
+        <v>51.84</v>
       </c>
       <c r="F20" t="n">
-        <v>20287.7366</v>
+        <v>297.6896</v>
       </c>
       <c r="G20" t="n">
-        <v>-246959.9870733799</v>
+        <v>35375.99310794009</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>52.24</v>
+        <v>51.89</v>
       </c>
       <c r="C21" t="n">
-        <v>52.24</v>
+        <v>51.89</v>
       </c>
       <c r="D21" t="n">
-        <v>52.24</v>
+        <v>51.89</v>
       </c>
       <c r="E21" t="n">
-        <v>52.24</v>
+        <v>51.89</v>
       </c>
       <c r="F21" t="n">
-        <v>5107.0601</v>
+        <v>8000</v>
       </c>
       <c r="G21" t="n">
-        <v>-241852.9269733799</v>
+        <v>43375.99310794009</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>52.27</v>
+        <v>51.8</v>
       </c>
       <c r="C22" t="n">
-        <v>52.26</v>
+        <v>51.72</v>
       </c>
       <c r="D22" t="n">
-        <v>52.28</v>
+        <v>51.8</v>
       </c>
       <c r="E22" t="n">
-        <v>52.18</v>
+        <v>51.72</v>
       </c>
       <c r="F22" t="n">
-        <v>208757.737</v>
+        <v>1721.4487</v>
       </c>
       <c r="G22" t="n">
-        <v>-33095.18997337992</v>
+        <v>41654.54440794009</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>52.3</v>
+        <v>51.62</v>
       </c>
       <c r="C23" t="n">
-        <v>52.3</v>
+        <v>51.6</v>
       </c>
       <c r="D23" t="n">
-        <v>52.3</v>
+        <v>51.62</v>
       </c>
       <c r="E23" t="n">
-        <v>52.3</v>
+        <v>51.6</v>
       </c>
       <c r="F23" t="n">
-        <v>33.00191204</v>
+        <v>1724.7577</v>
       </c>
       <c r="G23" t="n">
-        <v>-33062.18806133992</v>
+        <v>39929.78670794009</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>52.2</v>
+        <v>51.6</v>
       </c>
       <c r="C24" t="n">
-        <v>52.2</v>
+        <v>51.6</v>
       </c>
       <c r="D24" t="n">
-        <v>52.2</v>
+        <v>51.6</v>
       </c>
       <c r="E24" t="n">
-        <v>52.2</v>
+        <v>51.6</v>
       </c>
       <c r="F24" t="n">
-        <v>18292.1382</v>
+        <v>301.3284</v>
       </c>
       <c r="G24" t="n">
-        <v>-51354.32626133992</v>
+        <v>39929.78670794009</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>52.2</v>
+        <v>51.5</v>
       </c>
       <c r="C25" t="n">
-        <v>52.1</v>
+        <v>51.5</v>
       </c>
       <c r="D25" t="n">
-        <v>52.2</v>
+        <v>51.5</v>
       </c>
       <c r="E25" t="n">
-        <v>52.1</v>
+        <v>51.5</v>
       </c>
       <c r="F25" t="n">
-        <v>131337.6773</v>
+        <v>74701.1603</v>
       </c>
       <c r="G25" t="n">
-        <v>-182692.0035613399</v>
+        <v>-34771.37359205991</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>52.12</v>
+        <v>51.5</v>
       </c>
       <c r="C26" t="n">
-        <v>52.2</v>
+        <v>51.5</v>
       </c>
       <c r="D26" t="n">
-        <v>52.2</v>
+        <v>51.5</v>
       </c>
       <c r="E26" t="n">
-        <v>52.12</v>
+        <v>51.5</v>
       </c>
       <c r="F26" t="n">
-        <v>1939.5804</v>
+        <v>42521.227</v>
       </c>
       <c r="G26" t="n">
-        <v>-180752.4231613399</v>
+        <v>-34771.37359205991</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>52.2</v>
+        <v>51.52</v>
       </c>
       <c r="C27" t="n">
-        <v>52.2</v>
+        <v>51.52</v>
       </c>
       <c r="D27" t="n">
-        <v>52.2</v>
+        <v>51.52</v>
       </c>
       <c r="E27" t="n">
-        <v>52.2</v>
+        <v>51.52</v>
       </c>
       <c r="F27" t="n">
-        <v>26249.7848</v>
+        <v>103551.0549</v>
       </c>
       <c r="G27" t="n">
-        <v>-180752.4231613399</v>
+        <v>68779.68130794009</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>52.2</v>
+        <v>51.7</v>
       </c>
       <c r="C28" t="n">
-        <v>52.44</v>
+        <v>51.7</v>
       </c>
       <c r="D28" t="n">
-        <v>52.44</v>
+        <v>51.7</v>
       </c>
       <c r="E28" t="n">
-        <v>52.2</v>
+        <v>51.7</v>
       </c>
       <c r="F28" t="n">
-        <v>15963.8404</v>
+        <v>157.6976</v>
       </c>
       <c r="G28" t="n">
-        <v>-164788.5827613399</v>
+        <v>68937.37890794009</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>52.49</v>
+        <v>51.9</v>
       </c>
       <c r="C29" t="n">
-        <v>52.49</v>
+        <v>52.29</v>
       </c>
       <c r="D29" t="n">
-        <v>52.49</v>
+        <v>52.29</v>
       </c>
       <c r="E29" t="n">
-        <v>52.49</v>
+        <v>51.9</v>
       </c>
       <c r="F29" t="n">
-        <v>3532.4922</v>
+        <v>28568.6967</v>
       </c>
       <c r="G29" t="n">
-        <v>-161256.0905613399</v>
+        <v>97506.07560794009</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>52.49</v>
+        <v>52.22</v>
       </c>
       <c r="C30" t="n">
-        <v>52.49</v>
+        <v>52.22</v>
       </c>
       <c r="D30" t="n">
-        <v>52.49</v>
+        <v>52.22</v>
       </c>
       <c r="E30" t="n">
-        <v>52.49</v>
+        <v>52.22</v>
       </c>
       <c r="F30" t="n">
-        <v>1093.351</v>
+        <v>19577.3458</v>
       </c>
       <c r="G30" t="n">
-        <v>-161256.0905613399</v>
+        <v>77928.72980794009</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>52.33</v>
+        <v>52.28</v>
       </c>
       <c r="C31" t="n">
-        <v>52.19</v>
+        <v>52.08</v>
       </c>
       <c r="D31" t="n">
-        <v>52.33</v>
+        <v>52.28</v>
       </c>
       <c r="E31" t="n">
-        <v>52.19</v>
+        <v>52.08</v>
       </c>
       <c r="F31" t="n">
-        <v>4770.533</v>
+        <v>68840.02710000001</v>
       </c>
       <c r="G31" t="n">
-        <v>-166026.6235613399</v>
+        <v>9088.702707940087</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>52.03</v>
+        <v>51.98</v>
       </c>
       <c r="C32" t="n">
-        <v>52.03</v>
+        <v>51.98</v>
       </c>
       <c r="D32" t="n">
-        <v>52.03</v>
+        <v>51.98</v>
       </c>
       <c r="E32" t="n">
-        <v>52.03</v>
+        <v>51.98</v>
       </c>
       <c r="F32" t="n">
-        <v>48556.9808</v>
+        <v>2177.2084</v>
       </c>
       <c r="G32" t="n">
-        <v>-214583.6043613399</v>
+        <v>6911.494307940087</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>52.09</v>
+        <v>51.97</v>
       </c>
       <c r="C33" t="n">
-        <v>52.2</v>
+        <v>51.97</v>
       </c>
       <c r="D33" t="n">
-        <v>52.2</v>
+        <v>51.97</v>
       </c>
       <c r="E33" t="n">
-        <v>52.09</v>
+        <v>51.97</v>
       </c>
       <c r="F33" t="n">
-        <v>122433.7707</v>
+        <v>5953.7557</v>
       </c>
       <c r="G33" t="n">
-        <v>-92149.83366133992</v>
+        <v>957.7386079400876</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>51.99</v>
+        <v>51.86</v>
       </c>
       <c r="C34" t="n">
-        <v>51.75</v>
+        <v>51.8</v>
       </c>
       <c r="D34" t="n">
-        <v>51.99</v>
+        <v>51.86</v>
       </c>
       <c r="E34" t="n">
-        <v>51.75</v>
+        <v>51.8</v>
       </c>
       <c r="F34" t="n">
-        <v>141838.144</v>
+        <v>1927.7638</v>
       </c>
       <c r="G34" t="n">
-        <v>-233987.9776613399</v>
+        <v>-970.0251920599123</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>51.65</v>
+        <v>51.83</v>
       </c>
       <c r="C35" t="n">
-        <v>51.64</v>
+        <v>51.83</v>
       </c>
       <c r="D35" t="n">
-        <v>51.65</v>
+        <v>51.83</v>
       </c>
       <c r="E35" t="n">
-        <v>51.64</v>
+        <v>51.83</v>
       </c>
       <c r="F35" t="n">
-        <v>45762.7485</v>
+        <v>1248.7804</v>
       </c>
       <c r="G35" t="n">
-        <v>-279750.7261613399</v>
+        <v>278.7552079400878</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,28 +1662,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>51.61</v>
+        <v>51.8</v>
       </c>
       <c r="C36" t="n">
-        <v>51.61</v>
+        <v>51.63</v>
       </c>
       <c r="D36" t="n">
-        <v>51.61</v>
+        <v>51.94</v>
       </c>
       <c r="E36" t="n">
-        <v>51.61</v>
+        <v>51.63</v>
       </c>
       <c r="F36" t="n">
-        <v>150288.5839</v>
+        <v>96864.2089</v>
       </c>
       <c r="G36" t="n">
-        <v>-430039.3100613399</v>
+        <v>-96585.45369205991</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,28 +1698,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>51.76</v>
+        <v>51.91</v>
       </c>
       <c r="C37" t="n">
-        <v>51.76</v>
+        <v>51.92</v>
       </c>
       <c r="D37" t="n">
-        <v>51.76</v>
+        <v>51.92</v>
       </c>
       <c r="E37" t="n">
-        <v>51.76</v>
+        <v>51.91</v>
       </c>
       <c r="F37" t="n">
-        <v>4199.9999</v>
+        <v>39950</v>
       </c>
       <c r="G37" t="n">
-        <v>-425839.3101613399</v>
+        <v>-56635.45369205991</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,28 +1734,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>51.75</v>
+        <v>51.94</v>
       </c>
       <c r="C38" t="n">
-        <v>51.83</v>
+        <v>51.94</v>
       </c>
       <c r="D38" t="n">
-        <v>51.83</v>
+        <v>51.94</v>
       </c>
       <c r="E38" t="n">
-        <v>51.74</v>
+        <v>51.94</v>
       </c>
       <c r="F38" t="n">
-        <v>21745.8889</v>
+        <v>14.6323</v>
       </c>
       <c r="G38" t="n">
-        <v>-404093.4212613399</v>
+        <v>-56620.82139205991</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>51.79</v>
+        <v>51.94</v>
       </c>
       <c r="C39" t="n">
-        <v>51.43</v>
+        <v>52</v>
       </c>
       <c r="D39" t="n">
-        <v>51.79</v>
+        <v>52.16</v>
       </c>
       <c r="E39" t="n">
-        <v>51.43</v>
+        <v>51.94</v>
       </c>
       <c r="F39" t="n">
-        <v>60089.9624</v>
+        <v>10072.2032</v>
       </c>
       <c r="G39" t="n">
-        <v>-464183.3836613399</v>
+        <v>-46548.6181920599</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,28 +1806,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>51.68</v>
+        <v>52.15</v>
       </c>
       <c r="C40" t="n">
-        <v>51.68</v>
+        <v>52.15</v>
       </c>
       <c r="D40" t="n">
-        <v>51.68</v>
+        <v>52.15</v>
       </c>
       <c r="E40" t="n">
-        <v>51.68</v>
+        <v>52.15</v>
       </c>
       <c r="F40" t="n">
-        <v>18.29</v>
+        <v>15.0308</v>
       </c>
       <c r="G40" t="n">
-        <v>-464165.0936613399</v>
+        <v>-46533.5873920599</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1842,28 +1842,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>51.59</v>
+        <v>51.94</v>
       </c>
       <c r="C41" t="n">
-        <v>51.6</v>
+        <v>51.94</v>
       </c>
       <c r="D41" t="n">
-        <v>51.6</v>
+        <v>51.94</v>
       </c>
       <c r="E41" t="n">
-        <v>51.59</v>
+        <v>51.94</v>
       </c>
       <c r="F41" t="n">
-        <v>100000</v>
+        <v>5002.4031</v>
       </c>
       <c r="G41" t="n">
-        <v>-564165.09366134</v>
+        <v>-51535.99049205991</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1878,28 +1878,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>51.55</v>
+        <v>51.94</v>
       </c>
       <c r="C42" t="n">
-        <v>51.55</v>
+        <v>51.94</v>
       </c>
       <c r="D42" t="n">
-        <v>51.55</v>
+        <v>51.94</v>
       </c>
       <c r="E42" t="n">
-        <v>51.55</v>
+        <v>51.94</v>
       </c>
       <c r="F42" t="n">
-        <v>41000</v>
+        <v>7264.9038</v>
       </c>
       <c r="G42" t="n">
-        <v>-605165.09366134</v>
+        <v>-51535.99049205991</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1914,28 +1914,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>51.42</v>
+        <v>52.03</v>
       </c>
       <c r="C43" t="n">
-        <v>51.41</v>
+        <v>52.03</v>
       </c>
       <c r="D43" t="n">
-        <v>51.42</v>
+        <v>52.03</v>
       </c>
       <c r="E43" t="n">
-        <v>51.41</v>
+        <v>52.03</v>
       </c>
       <c r="F43" t="n">
-        <v>26409.2587</v>
+        <v>13.5594</v>
       </c>
       <c r="G43" t="n">
-        <v>-631574.35236134</v>
+        <v>-51522.43109205991</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>51.27</v>
+        <v>52.04</v>
       </c>
       <c r="C44" t="n">
-        <v>51.27</v>
+        <v>52.03</v>
       </c>
       <c r="D44" t="n">
-        <v>51.27</v>
+        <v>52.04</v>
       </c>
       <c r="E44" t="n">
-        <v>51.27</v>
+        <v>52.03</v>
       </c>
       <c r="F44" t="n">
-        <v>6833.4257</v>
+        <v>53.5684</v>
       </c>
       <c r="G44" t="n">
-        <v>-638407.77806134</v>
+        <v>-51522.43109205991</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,28 +1986,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>51.27</v>
+        <v>52.17</v>
       </c>
       <c r="C45" t="n">
-        <v>51.27</v>
+        <v>52.17</v>
       </c>
       <c r="D45" t="n">
-        <v>51.27</v>
+        <v>52.17</v>
       </c>
       <c r="E45" t="n">
-        <v>51.27</v>
+        <v>52.17</v>
       </c>
       <c r="F45" t="n">
-        <v>44455.9446</v>
+        <v>34.3454</v>
       </c>
       <c r="G45" t="n">
-        <v>-638407.77806134</v>
+        <v>-51488.08569205991</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>51.27</v>
+        <v>51.9</v>
       </c>
       <c r="C46" t="n">
-        <v>51.07</v>
+        <v>51.8</v>
       </c>
       <c r="D46" t="n">
-        <v>51.27</v>
+        <v>51.9</v>
       </c>
       <c r="E46" t="n">
-        <v>51.07</v>
+        <v>51.8</v>
       </c>
       <c r="F46" t="n">
-        <v>9553.5226</v>
+        <v>171031.8589</v>
       </c>
       <c r="G46" t="n">
-        <v>-647961.30066134</v>
+        <v>-222519.9445920599</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>51.31</v>
+        <v>51.89</v>
       </c>
       <c r="C47" t="n">
-        <v>51.31</v>
+        <v>51.89</v>
       </c>
       <c r="D47" t="n">
-        <v>51.31</v>
+        <v>51.89</v>
       </c>
       <c r="E47" t="n">
-        <v>51.31</v>
+        <v>51.89</v>
       </c>
       <c r="F47" t="n">
-        <v>50000</v>
+        <v>2666.6667</v>
       </c>
       <c r="G47" t="n">
-        <v>-597961.30066134</v>
+        <v>-219853.2778920599</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>51.15</v>
+        <v>52.15</v>
       </c>
       <c r="C48" t="n">
-        <v>51.04</v>
+        <v>52.15</v>
       </c>
       <c r="D48" t="n">
-        <v>51.15</v>
+        <v>52.15</v>
       </c>
       <c r="E48" t="n">
-        <v>50.91</v>
+        <v>51.91</v>
       </c>
       <c r="F48" t="n">
-        <v>131805.7015</v>
+        <v>645.2773</v>
       </c>
       <c r="G48" t="n">
-        <v>-729767.00216134</v>
+        <v>-219208.0005920599</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>50.93</v>
+        <v>52.09</v>
       </c>
       <c r="C49" t="n">
-        <v>51.09</v>
+        <v>52.09</v>
       </c>
       <c r="D49" t="n">
-        <v>51.09</v>
+        <v>52.09</v>
       </c>
       <c r="E49" t="n">
-        <v>50.93</v>
+        <v>52.09</v>
       </c>
       <c r="F49" t="n">
-        <v>88438.5148</v>
+        <v>54.8032</v>
       </c>
       <c r="G49" t="n">
-        <v>-641328.48736134</v>
+        <v>-219262.8037920599</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>51.2</v>
+        <v>52.08</v>
       </c>
       <c r="C50" t="n">
-        <v>51.3</v>
+        <v>52.09</v>
       </c>
       <c r="D50" t="n">
-        <v>51.3</v>
+        <v>52.09</v>
       </c>
       <c r="E50" t="n">
-        <v>51.2</v>
+        <v>52.08</v>
       </c>
       <c r="F50" t="n">
-        <v>50000</v>
+        <v>93.73439999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>-591328.48736134</v>
+        <v>-219262.8037920599</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>51.08</v>
+        <v>52.01</v>
       </c>
       <c r="C51" t="n">
-        <v>51.27</v>
+        <v>52.04</v>
       </c>
       <c r="D51" t="n">
-        <v>51.27</v>
+        <v>52.04</v>
       </c>
       <c r="E51" t="n">
-        <v>51.07</v>
+        <v>52.01</v>
       </c>
       <c r="F51" t="n">
-        <v>6001.1487</v>
+        <v>75.95950000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>-597329.63606134</v>
+        <v>-219338.7632920599</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>50.99</v>
+        <v>52.03</v>
       </c>
       <c r="C52" t="n">
-        <v>50.99</v>
+        <v>52.05</v>
       </c>
       <c r="D52" t="n">
-        <v>50.99</v>
+        <v>52.05</v>
       </c>
       <c r="E52" t="n">
-        <v>50.99</v>
+        <v>52.03</v>
       </c>
       <c r="F52" t="n">
-        <v>334.5094</v>
+        <v>61.5658</v>
       </c>
       <c r="G52" t="n">
-        <v>-597664.14546134</v>
+        <v>-219277.1974920599</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>50.98</v>
+        <v>52.03</v>
       </c>
       <c r="C53" t="n">
-        <v>50.98</v>
+        <v>51.92</v>
       </c>
       <c r="D53" t="n">
-        <v>50.98</v>
+        <v>52.03</v>
       </c>
       <c r="E53" t="n">
-        <v>50.98</v>
+        <v>51.92</v>
       </c>
       <c r="F53" t="n">
-        <v>40000</v>
+        <v>40035.858</v>
       </c>
       <c r="G53" t="n">
-        <v>-637664.14546134</v>
+        <v>-259313.0554920599</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>50.93</v>
+        <v>51.86</v>
       </c>
       <c r="C54" t="n">
-        <v>50.93</v>
+        <v>51.84</v>
       </c>
       <c r="D54" t="n">
-        <v>50.93</v>
+        <v>51.86</v>
       </c>
       <c r="E54" t="n">
-        <v>50.93</v>
+        <v>51.84</v>
       </c>
       <c r="F54" t="n">
-        <v>16347.6794</v>
+        <v>45.042</v>
       </c>
       <c r="G54" t="n">
-        <v>-654011.82486134</v>
+        <v>-259358.0974920599</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>50.99</v>
+        <v>51.79</v>
       </c>
       <c r="C55" t="n">
-        <v>50.97</v>
+        <v>51.82</v>
       </c>
       <c r="D55" t="n">
-        <v>51</v>
+        <v>51.83</v>
       </c>
       <c r="E55" t="n">
-        <v>50.97</v>
+        <v>51.79</v>
       </c>
       <c r="F55" t="n">
-        <v>15259.6504</v>
+        <v>94.87730000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>-638752.1744613399</v>
+        <v>-259452.9747920599</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>51.24</v>
+        <v>51.67</v>
       </c>
       <c r="C56" t="n">
-        <v>51.24</v>
+        <v>51.67</v>
       </c>
       <c r="D56" t="n">
-        <v>51.24</v>
+        <v>51.67</v>
       </c>
       <c r="E56" t="n">
-        <v>51.24</v>
+        <v>51.67</v>
       </c>
       <c r="F56" t="n">
-        <v>4974.3005</v>
+        <v>15741.1264</v>
       </c>
       <c r="G56" t="n">
-        <v>-633777.8739613399</v>
+        <v>-275194.1011920599</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>51.25</v>
+        <v>51.67</v>
       </c>
       <c r="C57" t="n">
-        <v>51.33</v>
+        <v>51.67</v>
       </c>
       <c r="D57" t="n">
-        <v>51.33</v>
+        <v>51.67</v>
       </c>
       <c r="E57" t="n">
-        <v>51.25</v>
+        <v>51.67</v>
       </c>
       <c r="F57" t="n">
-        <v>22997.6185</v>
+        <v>33345.2097</v>
       </c>
       <c r="G57" t="n">
-        <v>-610780.25546134</v>
+        <v>-275194.1011920599</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>51.4</v>
+        <v>51.67</v>
       </c>
       <c r="C58" t="n">
-        <v>51.4</v>
+        <v>51.67</v>
       </c>
       <c r="D58" t="n">
-        <v>51.4</v>
+        <v>51.67</v>
       </c>
       <c r="E58" t="n">
-        <v>51.4</v>
+        <v>51.67</v>
       </c>
       <c r="F58" t="n">
-        <v>42.7933</v>
+        <v>32000</v>
       </c>
       <c r="G58" t="n">
-        <v>-610737.4621613399</v>
+        <v>-275194.1011920599</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>51.19</v>
+        <v>51.67</v>
       </c>
       <c r="C59" t="n">
-        <v>51.3</v>
+        <v>51.67</v>
       </c>
       <c r="D59" t="n">
-        <v>51.3</v>
+        <v>51.67</v>
       </c>
       <c r="E59" t="n">
-        <v>51.18</v>
+        <v>51.67</v>
       </c>
       <c r="F59" t="n">
-        <v>234113.943</v>
+        <v>159.5984</v>
       </c>
       <c r="G59" t="n">
-        <v>-844851.4051613399</v>
+        <v>-275194.1011920599</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>51.33</v>
+        <v>51.6</v>
       </c>
       <c r="C60" t="n">
-        <v>51.33</v>
+        <v>51.6</v>
       </c>
       <c r="D60" t="n">
-        <v>51.33</v>
+        <v>51.6</v>
       </c>
       <c r="E60" t="n">
-        <v>51.33</v>
+        <v>51.6</v>
       </c>
       <c r="F60" t="n">
-        <v>1420</v>
+        <v>19278.3754</v>
       </c>
       <c r="G60" t="n">
-        <v>-843431.4051613399</v>
+        <v>-294472.4765920599</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>51.31</v>
+        <v>51.59</v>
       </c>
       <c r="C61" t="n">
-        <v>51.31</v>
+        <v>51.59</v>
       </c>
       <c r="D61" t="n">
-        <v>51.31</v>
+        <v>51.59</v>
       </c>
       <c r="E61" t="n">
-        <v>51.31</v>
+        <v>51.59</v>
       </c>
       <c r="F61" t="n">
-        <v>184.682</v>
+        <v>9858.401</v>
       </c>
       <c r="G61" t="n">
-        <v>-843616.0871613399</v>
+        <v>-304330.8775920599</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>51.31</v>
+        <v>51.6</v>
       </c>
       <c r="C62" t="n">
-        <v>51.31</v>
+        <v>51.5</v>
       </c>
       <c r="D62" t="n">
-        <v>51.31</v>
+        <v>51.6</v>
       </c>
       <c r="E62" t="n">
-        <v>51.31</v>
+        <v>51.5</v>
       </c>
       <c r="F62" t="n">
-        <v>7745.818</v>
+        <v>8782.7845</v>
       </c>
       <c r="G62" t="n">
-        <v>-843616.0871613399</v>
+        <v>-313113.6620920599</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>51.31</v>
+        <v>51.64</v>
       </c>
       <c r="C63" t="n">
-        <v>51.31</v>
+        <v>51.64</v>
       </c>
       <c r="D63" t="n">
-        <v>51.31</v>
+        <v>51.64</v>
       </c>
       <c r="E63" t="n">
-        <v>51.31</v>
+        <v>51.64</v>
       </c>
       <c r="F63" t="n">
-        <v>7822.5265</v>
+        <v>25.3199</v>
       </c>
       <c r="G63" t="n">
-        <v>-843616.0871613399</v>
+        <v>-313088.3421920599</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>51.31</v>
+        <v>51.5</v>
       </c>
       <c r="C64" t="n">
-        <v>51.31</v>
+        <v>51.41</v>
       </c>
       <c r="D64" t="n">
-        <v>51.31</v>
+        <v>51.5</v>
       </c>
       <c r="E64" t="n">
-        <v>51.31</v>
+        <v>51.41</v>
       </c>
       <c r="F64" t="n">
-        <v>4186.8863</v>
+        <v>28250</v>
       </c>
       <c r="G64" t="n">
-        <v>-843616.0871613399</v>
+        <v>-341338.3421920599</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>51.31</v>
+        <v>51.42</v>
       </c>
       <c r="C65" t="n">
-        <v>51.39</v>
+        <v>51.42</v>
       </c>
       <c r="D65" t="n">
-        <v>51.39</v>
+        <v>51.42</v>
       </c>
       <c r="E65" t="n">
-        <v>51.31</v>
+        <v>51.42</v>
       </c>
       <c r="F65" t="n">
-        <v>17083.171</v>
+        <v>500</v>
       </c>
       <c r="G65" t="n">
-        <v>-826532.91616134</v>
+        <v>-340838.3421920599</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>51.35</v>
+        <v>51.48</v>
       </c>
       <c r="C66" t="n">
-        <v>51.2</v>
+        <v>51.49</v>
       </c>
       <c r="D66" t="n">
-        <v>51.35</v>
+        <v>51.49</v>
       </c>
       <c r="E66" t="n">
-        <v>51.2</v>
+        <v>51.48</v>
       </c>
       <c r="F66" t="n">
-        <v>79800</v>
+        <v>4264.6446</v>
       </c>
       <c r="G66" t="n">
-        <v>-906332.91616134</v>
+        <v>-336573.6975920599</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>51.22</v>
+        <v>51.46</v>
       </c>
       <c r="C67" t="n">
-        <v>51.22</v>
+        <v>51.46</v>
       </c>
       <c r="D67" t="n">
-        <v>51.22</v>
+        <v>51.46</v>
       </c>
       <c r="E67" t="n">
-        <v>51.22</v>
+        <v>51.46</v>
       </c>
       <c r="F67" t="n">
-        <v>300</v>
+        <v>6191.8085</v>
       </c>
       <c r="G67" t="n">
-        <v>-906032.91616134</v>
+        <v>-342765.5060920599</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>51.28</v>
+        <v>51.46</v>
       </c>
       <c r="C68" t="n">
-        <v>50.99</v>
+        <v>51.49</v>
       </c>
       <c r="D68" t="n">
-        <v>51.28</v>
+        <v>51.49</v>
       </c>
       <c r="E68" t="n">
-        <v>50.81</v>
+        <v>51.46</v>
       </c>
       <c r="F68" t="n">
-        <v>213094.5171</v>
+        <v>12782.219</v>
       </c>
       <c r="G68" t="n">
-        <v>-1119127.43326134</v>
+        <v>-329983.2870920599</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>50.98</v>
+        <v>51.79</v>
       </c>
       <c r="C69" t="n">
-        <v>51.15</v>
+        <v>51.79</v>
       </c>
       <c r="D69" t="n">
-        <v>51.15</v>
+        <v>51.79</v>
       </c>
       <c r="E69" t="n">
-        <v>50.97</v>
+        <v>51.79</v>
       </c>
       <c r="F69" t="n">
-        <v>3620.5019</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>-1115506.93136134</v>
+        <v>-329973.2870920599</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>51.14</v>
+        <v>51.79</v>
       </c>
       <c r="C70" t="n">
-        <v>50.84</v>
+        <v>51.79</v>
       </c>
       <c r="D70" t="n">
-        <v>51.14</v>
+        <v>51.79</v>
       </c>
       <c r="E70" t="n">
-        <v>50.84</v>
+        <v>51.79</v>
       </c>
       <c r="F70" t="n">
-        <v>24060.61791161</v>
+        <v>59</v>
       </c>
       <c r="G70" t="n">
-        <v>-1139567.54927295</v>
+        <v>-329973.2870920599</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>50.79</v>
+        <v>51.76</v>
       </c>
       <c r="C71" t="n">
-        <v>50.68</v>
+        <v>51.79</v>
       </c>
       <c r="D71" t="n">
-        <v>50.79</v>
+        <v>51.79</v>
       </c>
       <c r="E71" t="n">
-        <v>50.68</v>
+        <v>51.76</v>
       </c>
       <c r="F71" t="n">
-        <v>40000</v>
+        <v>16973.8482</v>
       </c>
       <c r="G71" t="n">
-        <v>-1179567.54927295</v>
+        <v>-329973.2870920599</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>50.95</v>
+        <v>51.78</v>
       </c>
       <c r="C72" t="n">
-        <v>50.95</v>
+        <v>51.78</v>
       </c>
       <c r="D72" t="n">
-        <v>50.95</v>
+        <v>51.78</v>
       </c>
       <c r="E72" t="n">
-        <v>50.95</v>
+        <v>51.78</v>
       </c>
       <c r="F72" t="n">
-        <v>24123.8056</v>
+        <v>241.333</v>
       </c>
       <c r="G72" t="n">
-        <v>-1155443.74367295</v>
+        <v>-330214.6200920599</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>50.95</v>
+        <v>51.78</v>
       </c>
       <c r="C73" t="n">
-        <v>50.95</v>
+        <v>52</v>
       </c>
       <c r="D73" t="n">
-        <v>50.95</v>
+        <v>52</v>
       </c>
       <c r="E73" t="n">
-        <v>50.95</v>
+        <v>51.78</v>
       </c>
       <c r="F73" t="n">
-        <v>35423.5654</v>
+        <v>22712.163</v>
       </c>
       <c r="G73" t="n">
-        <v>-1155443.74367295</v>
+        <v>-307502.4570920599</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>50.95</v>
+        <v>52</v>
       </c>
       <c r="C74" t="n">
-        <v>51.18</v>
+        <v>52</v>
       </c>
       <c r="D74" t="n">
-        <v>51.18</v>
+        <v>52</v>
       </c>
       <c r="E74" t="n">
-        <v>50.95</v>
+        <v>52</v>
       </c>
       <c r="F74" t="n">
-        <v>908.7651</v>
+        <v>9939.158299999999</v>
       </c>
       <c r="G74" t="n">
-        <v>-1154534.97857295</v>
+        <v>-307502.4570920599</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>51.18</v>
+        <v>52</v>
       </c>
       <c r="C75" t="n">
-        <v>51.18</v>
+        <v>52</v>
       </c>
       <c r="D75" t="n">
-        <v>51.18</v>
+        <v>52</v>
       </c>
       <c r="E75" t="n">
-        <v>51.18</v>
+        <v>52</v>
       </c>
       <c r="F75" t="n">
-        <v>1741.0158</v>
+        <v>38766.5166</v>
       </c>
       <c r="G75" t="n">
-        <v>-1154534.97857295</v>
+        <v>-307502.4570920599</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>51.03</v>
+        <v>52</v>
       </c>
       <c r="C76" t="n">
-        <v>51.03</v>
+        <v>52</v>
       </c>
       <c r="D76" t="n">
-        <v>51.03</v>
+        <v>52</v>
       </c>
       <c r="E76" t="n">
-        <v>51.03</v>
+        <v>52</v>
       </c>
       <c r="F76" t="n">
-        <v>4249.8317</v>
+        <v>364800.1907</v>
       </c>
       <c r="G76" t="n">
-        <v>-1158784.81027295</v>
+        <v>-307502.4570920599</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,28 +3138,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>51.03</v>
+        <v>52</v>
       </c>
       <c r="C77" t="n">
-        <v>51.03</v>
+        <v>51.9</v>
       </c>
       <c r="D77" t="n">
-        <v>51.03</v>
+        <v>52</v>
       </c>
       <c r="E77" t="n">
-        <v>51.03</v>
+        <v>51.9</v>
       </c>
       <c r="F77" t="n">
-        <v>277.2444</v>
+        <v>20492.6753</v>
       </c>
       <c r="G77" t="n">
-        <v>-1158784.81027295</v>
+        <v>-327995.1323920599</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>51.03</v>
+        <v>51.9</v>
       </c>
       <c r="C78" t="n">
-        <v>51.03</v>
+        <v>51.9</v>
       </c>
       <c r="D78" t="n">
-        <v>51.03</v>
+        <v>51.9</v>
       </c>
       <c r="E78" t="n">
-        <v>51.03</v>
+        <v>51.9</v>
       </c>
       <c r="F78" t="n">
-        <v>6153.1428</v>
+        <v>1957.1837</v>
       </c>
       <c r="G78" t="n">
-        <v>-1158784.81027295</v>
+        <v>-327995.1323920599</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>51.03</v>
+        <v>51.9</v>
       </c>
       <c r="C79" t="n">
-        <v>51.03</v>
+        <v>52</v>
       </c>
       <c r="D79" t="n">
-        <v>51.03</v>
+        <v>52</v>
       </c>
       <c r="E79" t="n">
-        <v>51.03</v>
+        <v>51.9</v>
       </c>
       <c r="F79" t="n">
-        <v>1099.5554</v>
+        <v>82088.26420000001</v>
       </c>
       <c r="G79" t="n">
-        <v>-1158784.81027295</v>
+        <v>-245906.8681920599</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>51.03</v>
+        <v>52</v>
       </c>
       <c r="C80" t="n">
-        <v>51.03</v>
+        <v>52</v>
       </c>
       <c r="D80" t="n">
-        <v>51.03</v>
+        <v>52</v>
       </c>
       <c r="E80" t="n">
-        <v>51.03</v>
+        <v>52</v>
       </c>
       <c r="F80" t="n">
-        <v>60.6179</v>
+        <v>43953.1973</v>
       </c>
       <c r="G80" t="n">
-        <v>-1158784.81027295</v>
+        <v>-245906.8681920599</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>51.03</v>
+        <v>52</v>
       </c>
       <c r="C81" t="n">
-        <v>51.03</v>
+        <v>52</v>
       </c>
       <c r="D81" t="n">
-        <v>51.03</v>
+        <v>52</v>
       </c>
       <c r="E81" t="n">
-        <v>51.03</v>
+        <v>52</v>
       </c>
       <c r="F81" t="n">
-        <v>30000</v>
+        <v>27787.5999</v>
       </c>
       <c r="G81" t="n">
-        <v>-1158784.81027295</v>
+        <v>-245906.8681920599</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>51.11</v>
+        <v>52</v>
       </c>
       <c r="C82" t="n">
-        <v>51.11</v>
+        <v>52</v>
       </c>
       <c r="D82" t="n">
-        <v>51.11</v>
+        <v>52</v>
       </c>
       <c r="E82" t="n">
-        <v>51.11</v>
+        <v>52</v>
       </c>
       <c r="F82" t="n">
-        <v>14.283</v>
+        <v>4713.2999</v>
       </c>
       <c r="G82" t="n">
-        <v>-1158770.52727295</v>
+        <v>-245906.8681920599</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>51.11</v>
+        <v>52.16</v>
       </c>
       <c r="C83" t="n">
-        <v>51.11</v>
+        <v>52.27</v>
       </c>
       <c r="D83" t="n">
-        <v>51.11</v>
+        <v>52.27</v>
       </c>
       <c r="E83" t="n">
-        <v>51.11</v>
+        <v>52.16</v>
       </c>
       <c r="F83" t="n">
-        <v>731.9299999999999</v>
+        <v>16000</v>
       </c>
       <c r="G83" t="n">
-        <v>-1158770.52727295</v>
+        <v>-229906.8681920599</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>50.79</v>
+        <v>52.27</v>
       </c>
       <c r="C84" t="n">
-        <v>50.95</v>
+        <v>52.27</v>
       </c>
       <c r="D84" t="n">
-        <v>50.95</v>
+        <v>52.27</v>
       </c>
       <c r="E84" t="n">
-        <v>50.79</v>
+        <v>52.27</v>
       </c>
       <c r="F84" t="n">
-        <v>64327.6797</v>
+        <v>6341.8913</v>
       </c>
       <c r="G84" t="n">
-        <v>-1223098.20697295</v>
+        <v>-229906.8681920599</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3426,28 +3426,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>51</v>
+        <v>52.29</v>
       </c>
       <c r="C85" t="n">
-        <v>51</v>
+        <v>52.49</v>
       </c>
       <c r="D85" t="n">
-        <v>51</v>
+        <v>52.49</v>
       </c>
       <c r="E85" t="n">
-        <v>51</v>
+        <v>52.29</v>
       </c>
       <c r="F85" t="n">
-        <v>220.8019</v>
+        <v>12906.5693</v>
       </c>
       <c r="G85" t="n">
-        <v>-1222877.40507295</v>
+        <v>-217000.2988920599</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3462,28 +3462,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>51</v>
+        <v>52.32</v>
       </c>
       <c r="C86" t="n">
-        <v>51</v>
+        <v>52.39</v>
       </c>
       <c r="D86" t="n">
-        <v>51</v>
+        <v>52.39</v>
       </c>
       <c r="E86" t="n">
-        <v>51</v>
+        <v>52.31</v>
       </c>
       <c r="F86" t="n">
-        <v>209.7618</v>
+        <v>22402.8574</v>
       </c>
       <c r="G86" t="n">
-        <v>-1222877.40507295</v>
+        <v>-239403.1562920599</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3498,28 +3498,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>50.87</v>
+        <v>52.31</v>
       </c>
       <c r="C87" t="n">
-        <v>51</v>
+        <v>52.18</v>
       </c>
       <c r="D87" t="n">
-        <v>51</v>
+        <v>52.31</v>
       </c>
       <c r="E87" t="n">
-        <v>50.86</v>
+        <v>52.18</v>
       </c>
       <c r="F87" t="n">
-        <v>57992.7802</v>
+        <v>28230</v>
       </c>
       <c r="G87" t="n">
-        <v>-1222877.40507295</v>
+        <v>-267633.1562920599</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3534,28 +3534,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>51.21</v>
+        <v>52.24</v>
       </c>
       <c r="C88" t="n">
-        <v>51.21</v>
+        <v>52.24</v>
       </c>
       <c r="D88" t="n">
-        <v>51.21</v>
+        <v>52.24</v>
       </c>
       <c r="E88" t="n">
-        <v>51.21</v>
+        <v>52.24</v>
       </c>
       <c r="F88" t="n">
-        <v>100.24793634</v>
+        <v>485.43261868</v>
       </c>
       <c r="G88" t="n">
-        <v>-1222777.15713661</v>
+        <v>-267147.7236733799</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3570,28 +3570,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>51.43</v>
+        <v>52.24</v>
       </c>
       <c r="C89" t="n">
-        <v>51.43</v>
+        <v>52.24</v>
       </c>
       <c r="D89" t="n">
-        <v>51.43</v>
+        <v>52.24</v>
       </c>
       <c r="E89" t="n">
-        <v>51.43</v>
+        <v>52.24</v>
       </c>
       <c r="F89" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="G89" t="n">
-        <v>-1221777.15713661</v>
+        <v>-267147.7236733799</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3606,28 +3606,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>51.25</v>
+        <v>52.03</v>
       </c>
       <c r="C90" t="n">
-        <v>51.25</v>
+        <v>52.03</v>
       </c>
       <c r="D90" t="n">
-        <v>51.25</v>
+        <v>52.03</v>
       </c>
       <c r="E90" t="n">
-        <v>51.25</v>
+        <v>52.03</v>
       </c>
       <c r="F90" t="n">
-        <v>8400</v>
+        <v>100</v>
       </c>
       <c r="G90" t="n">
-        <v>-1230177.15713661</v>
+        <v>-267247.7236733799</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>51.31</v>
+        <v>52.12</v>
       </c>
       <c r="C91" t="n">
-        <v>51.31</v>
+        <v>52.12</v>
       </c>
       <c r="D91" t="n">
-        <v>51.31</v>
+        <v>52.12</v>
       </c>
       <c r="E91" t="n">
-        <v>51.31</v>
+        <v>52.12</v>
       </c>
       <c r="F91" t="n">
-        <v>400</v>
+        <v>20287.7366</v>
       </c>
       <c r="G91" t="n">
-        <v>-1229777.15713661</v>
+        <v>-246959.9870733799</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,28 +3678,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>51.27</v>
+        <v>52.24</v>
       </c>
       <c r="C92" t="n">
-        <v>51.27</v>
+        <v>52.24</v>
       </c>
       <c r="D92" t="n">
-        <v>51.27</v>
+        <v>52.24</v>
       </c>
       <c r="E92" t="n">
-        <v>51.27</v>
+        <v>52.24</v>
       </c>
       <c r="F92" t="n">
-        <v>40</v>
+        <v>5107.0601</v>
       </c>
       <c r="G92" t="n">
-        <v>-1229817.15713661</v>
+        <v>-241852.9269733799</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3714,28 +3714,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>51.43</v>
+        <v>52.27</v>
       </c>
       <c r="C93" t="n">
-        <v>51.56</v>
+        <v>52.26</v>
       </c>
       <c r="D93" t="n">
-        <v>51.56</v>
+        <v>52.28</v>
       </c>
       <c r="E93" t="n">
-        <v>51.43</v>
+        <v>52.18</v>
       </c>
       <c r="F93" t="n">
-        <v>22308.1535</v>
+        <v>208757.737</v>
       </c>
       <c r="G93" t="n">
-        <v>-1207509.00363661</v>
+        <v>-33095.18997337992</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3750,28 +3750,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>51.32</v>
+        <v>52.3</v>
       </c>
       <c r="C94" t="n">
-        <v>51.3</v>
+        <v>52.3</v>
       </c>
       <c r="D94" t="n">
-        <v>51.32</v>
+        <v>52.3</v>
       </c>
       <c r="E94" t="n">
-        <v>51.3</v>
+        <v>52.3</v>
       </c>
       <c r="F94" t="n">
-        <v>2436.0786</v>
+        <v>33.00191204</v>
       </c>
       <c r="G94" t="n">
-        <v>-1209945.08223661</v>
+        <v>-33062.18806133992</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3786,28 +3786,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>51.3</v>
+        <v>52.2</v>
       </c>
       <c r="C95" t="n">
-        <v>51.3</v>
+        <v>52.2</v>
       </c>
       <c r="D95" t="n">
-        <v>51.3</v>
+        <v>52.2</v>
       </c>
       <c r="E95" t="n">
-        <v>51.3</v>
+        <v>52.2</v>
       </c>
       <c r="F95" t="n">
-        <v>20.2076</v>
+        <v>18292.1382</v>
       </c>
       <c r="G95" t="n">
-        <v>-1209945.08223661</v>
+        <v>-51354.32626133992</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3822,28 +3822,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>51.1</v>
+        <v>52.2</v>
       </c>
       <c r="C96" t="n">
-        <v>51.1</v>
+        <v>52.1</v>
       </c>
       <c r="D96" t="n">
-        <v>51.1</v>
+        <v>52.2</v>
       </c>
       <c r="E96" t="n">
-        <v>51.1</v>
+        <v>52.1</v>
       </c>
       <c r="F96" t="n">
-        <v>24856.4109</v>
+        <v>131337.6773</v>
       </c>
       <c r="G96" t="n">
-        <v>-1234801.49313661</v>
+        <v>-182692.0035613399</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3858,28 +3858,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>51.1</v>
+        <v>52.12</v>
       </c>
       <c r="C97" t="n">
-        <v>50.8</v>
+        <v>52.2</v>
       </c>
       <c r="D97" t="n">
-        <v>51.1</v>
+        <v>52.2</v>
       </c>
       <c r="E97" t="n">
-        <v>50.8</v>
+        <v>52.12</v>
       </c>
       <c r="F97" t="n">
-        <v>50000</v>
+        <v>1939.5804</v>
       </c>
       <c r="G97" t="n">
-        <v>-1284801.49313661</v>
+        <v>-180752.4231613399</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>50.82</v>
+        <v>52.2</v>
       </c>
       <c r="C98" t="n">
-        <v>50.81</v>
+        <v>52.2</v>
       </c>
       <c r="D98" t="n">
-        <v>50.82</v>
+        <v>52.2</v>
       </c>
       <c r="E98" t="n">
-        <v>50.81</v>
+        <v>52.2</v>
       </c>
       <c r="F98" t="n">
-        <v>50000</v>
+        <v>26249.7848</v>
       </c>
       <c r="G98" t="n">
-        <v>-1234801.49313661</v>
+        <v>-180752.4231613399</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,28 +3930,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>51.06</v>
+        <v>52.2</v>
       </c>
       <c r="C99" t="n">
-        <v>51.06</v>
+        <v>52.44</v>
       </c>
       <c r="D99" t="n">
-        <v>51.06</v>
+        <v>52.44</v>
       </c>
       <c r="E99" t="n">
-        <v>51.06</v>
+        <v>52.2</v>
       </c>
       <c r="F99" t="n">
-        <v>8987.5</v>
+        <v>15963.8404</v>
       </c>
       <c r="G99" t="n">
-        <v>-1225813.99313661</v>
+        <v>-164788.5827613399</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3966,28 +3966,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>51.09</v>
+        <v>52.49</v>
       </c>
       <c r="C100" t="n">
-        <v>51.09</v>
+        <v>52.49</v>
       </c>
       <c r="D100" t="n">
-        <v>51.09</v>
+        <v>52.49</v>
       </c>
       <c r="E100" t="n">
-        <v>51.09</v>
+        <v>52.49</v>
       </c>
       <c r="F100" t="n">
-        <v>91060.4719</v>
+        <v>3532.4922</v>
       </c>
       <c r="G100" t="n">
-        <v>-1134753.52123661</v>
+        <v>-161256.0905613399</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4002,28 +4002,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>51.09</v>
+        <v>52.49</v>
       </c>
       <c r="C101" t="n">
-        <v>51.09</v>
+        <v>52.49</v>
       </c>
       <c r="D101" t="n">
-        <v>51.09</v>
+        <v>52.49</v>
       </c>
       <c r="E101" t="n">
-        <v>51.09</v>
+        <v>52.49</v>
       </c>
       <c r="F101" t="n">
-        <v>50000</v>
+        <v>1093.351</v>
       </c>
       <c r="G101" t="n">
-        <v>-1134753.52123661</v>
+        <v>-161256.0905613399</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4038,28 +4038,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>51.09</v>
+        <v>52.33</v>
       </c>
       <c r="C102" t="n">
-        <v>51.15</v>
+        <v>52.19</v>
       </c>
       <c r="D102" t="n">
-        <v>51.15</v>
+        <v>52.33</v>
       </c>
       <c r="E102" t="n">
-        <v>51.09</v>
+        <v>52.19</v>
       </c>
       <c r="F102" t="n">
-        <v>9409.7276</v>
+        <v>4770.533</v>
       </c>
       <c r="G102" t="n">
-        <v>-1125343.79363661</v>
+        <v>-166026.6235613399</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4074,28 +4074,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>51.15</v>
+        <v>52.03</v>
       </c>
       <c r="C103" t="n">
-        <v>51.15</v>
+        <v>52.03</v>
       </c>
       <c r="D103" t="n">
-        <v>51.15</v>
+        <v>52.03</v>
       </c>
       <c r="E103" t="n">
-        <v>51.15</v>
+        <v>52.03</v>
       </c>
       <c r="F103" t="n">
-        <v>1326.9</v>
+        <v>48556.9808</v>
       </c>
       <c r="G103" t="n">
-        <v>-1125343.79363661</v>
+        <v>-214583.6043613399</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4110,28 +4110,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>51.15</v>
+        <v>52.09</v>
       </c>
       <c r="C104" t="n">
-        <v>51.01</v>
+        <v>52.2</v>
       </c>
       <c r="D104" t="n">
-        <v>51.18</v>
+        <v>52.2</v>
       </c>
       <c r="E104" t="n">
-        <v>51.01</v>
+        <v>52.09</v>
       </c>
       <c r="F104" t="n">
-        <v>22699.7134</v>
+        <v>122433.7707</v>
       </c>
       <c r="G104" t="n">
-        <v>-1148043.50703661</v>
+        <v>-92149.83366133992</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4146,28 +4146,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>51</v>
+        <v>51.99</v>
       </c>
       <c r="C105" t="n">
-        <v>51</v>
+        <v>51.75</v>
       </c>
       <c r="D105" t="n">
-        <v>51</v>
+        <v>51.99</v>
       </c>
       <c r="E105" t="n">
-        <v>51</v>
+        <v>51.75</v>
       </c>
       <c r="F105" t="n">
-        <v>24000</v>
+        <v>141838.144</v>
       </c>
       <c r="G105" t="n">
-        <v>-1172043.50703661</v>
+        <v>-233987.9776613399</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4182,28 +4182,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>51</v>
+        <v>51.65</v>
       </c>
       <c r="C106" t="n">
-        <v>51</v>
+        <v>51.64</v>
       </c>
       <c r="D106" t="n">
-        <v>51</v>
+        <v>51.65</v>
       </c>
       <c r="E106" t="n">
-        <v>51</v>
+        <v>51.64</v>
       </c>
       <c r="F106" t="n">
-        <v>409.4</v>
+        <v>45762.7485</v>
       </c>
       <c r="G106" t="n">
-        <v>-1172043.50703661</v>
+        <v>-279750.7261613399</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4218,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>51</v>
+        <v>51.61</v>
       </c>
       <c r="C107" t="n">
-        <v>51</v>
+        <v>51.61</v>
       </c>
       <c r="D107" t="n">
-        <v>51</v>
+        <v>51.61</v>
       </c>
       <c r="E107" t="n">
-        <v>51</v>
+        <v>51.61</v>
       </c>
       <c r="F107" t="n">
-        <v>18853.6861</v>
+        <v>150288.5839</v>
       </c>
       <c r="G107" t="n">
-        <v>-1172043.50703661</v>
+        <v>-430039.3100613399</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>51</v>
+        <v>51.76</v>
       </c>
       <c r="C108" t="n">
-        <v>51</v>
+        <v>51.76</v>
       </c>
       <c r="D108" t="n">
-        <v>51</v>
+        <v>51.76</v>
       </c>
       <c r="E108" t="n">
-        <v>51</v>
+        <v>51.76</v>
       </c>
       <c r="F108" t="n">
-        <v>57749.7744</v>
+        <v>4199.9999</v>
       </c>
       <c r="G108" t="n">
-        <v>-1172043.50703661</v>
+        <v>-425839.3101613399</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4290,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>51</v>
+        <v>51.75</v>
       </c>
       <c r="C109" t="n">
-        <v>51</v>
+        <v>51.83</v>
       </c>
       <c r="D109" t="n">
-        <v>51</v>
+        <v>51.83</v>
       </c>
       <c r="E109" t="n">
-        <v>51</v>
+        <v>51.74</v>
       </c>
       <c r="F109" t="n">
-        <v>43770.475</v>
+        <v>21745.8889</v>
       </c>
       <c r="G109" t="n">
-        <v>-1172043.50703661</v>
+        <v>-404093.4212613399</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>51</v>
+        <v>51.79</v>
       </c>
       <c r="C110" t="n">
-        <v>50.86</v>
+        <v>51.43</v>
       </c>
       <c r="D110" t="n">
-        <v>51.06</v>
+        <v>51.79</v>
       </c>
       <c r="E110" t="n">
-        <v>50.86</v>
+        <v>51.43</v>
       </c>
       <c r="F110" t="n">
-        <v>97766.5325</v>
+        <v>60089.9624</v>
       </c>
       <c r="G110" t="n">
-        <v>-1269810.03953661</v>
+        <v>-464183.3836613399</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>50.89</v>
+        <v>51.68</v>
       </c>
       <c r="C111" t="n">
-        <v>50.99</v>
+        <v>51.68</v>
       </c>
       <c r="D111" t="n">
-        <v>50.99</v>
+        <v>51.68</v>
       </c>
       <c r="E111" t="n">
-        <v>50.89</v>
+        <v>51.68</v>
       </c>
       <c r="F111" t="n">
-        <v>18066.2975</v>
+        <v>18.29</v>
       </c>
       <c r="G111" t="n">
-        <v>-1251743.742036609</v>
+        <v>-464165.0936613399</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4398,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>50.99</v>
+        <v>51.59</v>
       </c>
       <c r="C112" t="n">
-        <v>50.99</v>
+        <v>51.6</v>
       </c>
       <c r="D112" t="n">
-        <v>50.99</v>
+        <v>51.6</v>
       </c>
       <c r="E112" t="n">
-        <v>50.99</v>
+        <v>51.59</v>
       </c>
       <c r="F112" t="n">
-        <v>4695.5191</v>
+        <v>100000</v>
       </c>
       <c r="G112" t="n">
-        <v>-1251743.742036609</v>
+        <v>-564165.09366134</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4434,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>50.89</v>
+        <v>51.55</v>
       </c>
       <c r="C113" t="n">
-        <v>50.88</v>
+        <v>51.55</v>
       </c>
       <c r="D113" t="n">
-        <v>50.89</v>
+        <v>51.55</v>
       </c>
       <c r="E113" t="n">
-        <v>50.88</v>
+        <v>51.55</v>
       </c>
       <c r="F113" t="n">
-        <v>10760.5415</v>
+        <v>41000</v>
       </c>
       <c r="G113" t="n">
-        <v>-1262504.283536609</v>
+        <v>-605165.09366134</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4470,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>50.99</v>
+        <v>51.42</v>
       </c>
       <c r="C114" t="n">
-        <v>50.99</v>
+        <v>51.41</v>
       </c>
       <c r="D114" t="n">
-        <v>50.99</v>
+        <v>51.42</v>
       </c>
       <c r="E114" t="n">
-        <v>50.99</v>
+        <v>51.41</v>
       </c>
       <c r="F114" t="n">
-        <v>30437.706</v>
+        <v>26409.2587</v>
       </c>
       <c r="G114" t="n">
-        <v>-1232066.577536609</v>
+        <v>-631574.35236134</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4506,22 +4506,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>50.84</v>
+        <v>51.27</v>
       </c>
       <c r="C115" t="n">
-        <v>50.84</v>
+        <v>51.27</v>
       </c>
       <c r="D115" t="n">
-        <v>50.84</v>
+        <v>51.27</v>
       </c>
       <c r="E115" t="n">
-        <v>50.84</v>
+        <v>51.27</v>
       </c>
       <c r="F115" t="n">
-        <v>1240.7988</v>
+        <v>6833.4257</v>
       </c>
       <c r="G115" t="n">
-        <v>-1233307.376336609</v>
+        <v>-638407.77806134</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4542,22 +4542,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>51</v>
+        <v>51.27</v>
       </c>
       <c r="C116" t="n">
-        <v>51</v>
+        <v>51.27</v>
       </c>
       <c r="D116" t="n">
-        <v>51</v>
+        <v>51.27</v>
       </c>
       <c r="E116" t="n">
-        <v>51</v>
+        <v>51.27</v>
       </c>
       <c r="F116" t="n">
-        <v>17008.0096</v>
+        <v>44455.9446</v>
       </c>
       <c r="G116" t="n">
-        <v>-1216299.366736609</v>
+        <v>-638407.77806134</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4578,22 +4578,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>51.12</v>
+        <v>51.27</v>
       </c>
       <c r="C117" t="n">
-        <v>51.18</v>
+        <v>51.07</v>
       </c>
       <c r="D117" t="n">
-        <v>51.18</v>
+        <v>51.27</v>
       </c>
       <c r="E117" t="n">
-        <v>51.12</v>
+        <v>51.07</v>
       </c>
       <c r="F117" t="n">
-        <v>28395.151</v>
+        <v>9553.5226</v>
       </c>
       <c r="G117" t="n">
-        <v>-1187904.215736609</v>
+        <v>-647961.30066134</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4614,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>51.18</v>
+        <v>51.31</v>
       </c>
       <c r="C118" t="n">
-        <v>51.23</v>
+        <v>51.31</v>
       </c>
       <c r="D118" t="n">
-        <v>51.23</v>
+        <v>51.31</v>
       </c>
       <c r="E118" t="n">
-        <v>51.18</v>
+        <v>51.31</v>
       </c>
       <c r="F118" t="n">
         <v>50000</v>
       </c>
       <c r="G118" t="n">
-        <v>-1137904.215736609</v>
+        <v>-597961.30066134</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4650,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>51.03</v>
+        <v>51.15</v>
       </c>
       <c r="C119" t="n">
-        <v>51.03</v>
+        <v>51.04</v>
       </c>
       <c r="D119" t="n">
-        <v>51.03</v>
+        <v>51.15</v>
       </c>
       <c r="E119" t="n">
-        <v>51.03</v>
+        <v>50.91</v>
       </c>
       <c r="F119" t="n">
-        <v>104.5952</v>
+        <v>131805.7015</v>
       </c>
       <c r="G119" t="n">
-        <v>-1138008.81093661</v>
+        <v>-729767.00216134</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4686,22 +4686,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>51.17</v>
+        <v>50.93</v>
       </c>
       <c r="C120" t="n">
-        <v>51.24</v>
+        <v>51.09</v>
       </c>
       <c r="D120" t="n">
-        <v>51.24</v>
+        <v>51.09</v>
       </c>
       <c r="E120" t="n">
-        <v>51.17</v>
+        <v>50.93</v>
       </c>
       <c r="F120" t="n">
-        <v>8590.4954</v>
+        <v>88438.5148</v>
       </c>
       <c r="G120" t="n">
-        <v>-1129418.31553661</v>
+        <v>-641328.48736134</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4722,22 +4722,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>51.1</v>
+        <v>51.2</v>
       </c>
       <c r="C121" t="n">
-        <v>51.09</v>
+        <v>51.3</v>
       </c>
       <c r="D121" t="n">
-        <v>51.1</v>
+        <v>51.3</v>
       </c>
       <c r="E121" t="n">
-        <v>51.09</v>
+        <v>51.2</v>
       </c>
       <c r="F121" t="n">
-        <v>51400</v>
+        <v>50000</v>
       </c>
       <c r="G121" t="n">
-        <v>-1180818.31553661</v>
+        <v>-591328.48736134</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4758,22 +4758,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>51.22</v>
+        <v>51.08</v>
       </c>
       <c r="C122" t="n">
-        <v>51.22</v>
+        <v>51.27</v>
       </c>
       <c r="D122" t="n">
-        <v>51.22</v>
+        <v>51.27</v>
       </c>
       <c r="E122" t="n">
-        <v>51.22</v>
+        <v>51.07</v>
       </c>
       <c r="F122" t="n">
-        <v>1437.1304</v>
+        <v>6001.1487</v>
       </c>
       <c r="G122" t="n">
-        <v>-1179381.18513661</v>
+        <v>-597329.63606134</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4794,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>51.09</v>
+        <v>50.99</v>
       </c>
       <c r="C123" t="n">
-        <v>51.09</v>
+        <v>50.99</v>
       </c>
       <c r="D123" t="n">
-        <v>51.09</v>
+        <v>50.99</v>
       </c>
       <c r="E123" t="n">
-        <v>51.09</v>
+        <v>50.99</v>
       </c>
       <c r="F123" t="n">
-        <v>7256.6317</v>
+        <v>334.5094</v>
       </c>
       <c r="G123" t="n">
-        <v>-1186637.81683661</v>
+        <v>-597664.14546134</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4830,22 +4830,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>51.09</v>
+        <v>50.98</v>
       </c>
       <c r="C124" t="n">
-        <v>51.09</v>
+        <v>50.98</v>
       </c>
       <c r="D124" t="n">
-        <v>51.09</v>
+        <v>50.98</v>
       </c>
       <c r="E124" t="n">
-        <v>51.09</v>
+        <v>50.98</v>
       </c>
       <c r="F124" t="n">
-        <v>1138.9287</v>
+        <v>40000</v>
       </c>
       <c r="G124" t="n">
-        <v>-1186637.81683661</v>
+        <v>-637664.14546134</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4866,22 +4866,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>51.09</v>
+        <v>50.93</v>
       </c>
       <c r="C125" t="n">
-        <v>51.03</v>
+        <v>50.93</v>
       </c>
       <c r="D125" t="n">
-        <v>51.09</v>
+        <v>50.93</v>
       </c>
       <c r="E125" t="n">
-        <v>51.03</v>
+        <v>50.93</v>
       </c>
       <c r="F125" t="n">
-        <v>49857.0256</v>
+        <v>16347.6794</v>
       </c>
       <c r="G125" t="n">
-        <v>-1236494.84243661</v>
+        <v>-654011.82486134</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4902,22 +4902,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>51.03</v>
+        <v>50.99</v>
       </c>
       <c r="C126" t="n">
-        <v>51.03</v>
+        <v>50.97</v>
       </c>
       <c r="D126" t="n">
-        <v>51.03</v>
+        <v>51</v>
       </c>
       <c r="E126" t="n">
-        <v>51.03</v>
+        <v>50.97</v>
       </c>
       <c r="F126" t="n">
-        <v>20000</v>
+        <v>15259.6504</v>
       </c>
       <c r="G126" t="n">
-        <v>-1236494.84243661</v>
+        <v>-638752.1744613399</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4938,22 +4938,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>51.03</v>
+        <v>51.24</v>
       </c>
       <c r="C127" t="n">
-        <v>50.86</v>
+        <v>51.24</v>
       </c>
       <c r="D127" t="n">
-        <v>51.03</v>
+        <v>51.24</v>
       </c>
       <c r="E127" t="n">
-        <v>50.86</v>
+        <v>51.24</v>
       </c>
       <c r="F127" t="n">
-        <v>5876.4122</v>
+        <v>4974.3005</v>
       </c>
       <c r="G127" t="n">
-        <v>-1242371.25463661</v>
+        <v>-633777.8739613399</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4974,22 +4974,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>50.9</v>
+        <v>51.25</v>
       </c>
       <c r="C128" t="n">
-        <v>50.9</v>
+        <v>51.33</v>
       </c>
       <c r="D128" t="n">
-        <v>50.9</v>
+        <v>51.33</v>
       </c>
       <c r="E128" t="n">
-        <v>50.9</v>
+        <v>51.25</v>
       </c>
       <c r="F128" t="n">
-        <v>30000</v>
+        <v>22997.6185</v>
       </c>
       <c r="G128" t="n">
-        <v>-1212371.25463661</v>
+        <v>-610780.25546134</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5010,22 +5010,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>50.97</v>
+        <v>51.4</v>
       </c>
       <c r="C129" t="n">
-        <v>50.97</v>
+        <v>51.4</v>
       </c>
       <c r="D129" t="n">
-        <v>50.97</v>
+        <v>51.4</v>
       </c>
       <c r="E129" t="n">
-        <v>50.97</v>
+        <v>51.4</v>
       </c>
       <c r="F129" t="n">
-        <v>200</v>
+        <v>42.7933</v>
       </c>
       <c r="G129" t="n">
-        <v>-1212171.25463661</v>
+        <v>-610737.4621613399</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5046,22 +5046,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>51</v>
+        <v>51.19</v>
       </c>
       <c r="C130" t="n">
-        <v>51</v>
+        <v>51.3</v>
       </c>
       <c r="D130" t="n">
-        <v>51</v>
+        <v>51.3</v>
       </c>
       <c r="E130" t="n">
-        <v>51</v>
+        <v>51.18</v>
       </c>
       <c r="F130" t="n">
-        <v>67047.4387</v>
+        <v>234113.943</v>
       </c>
       <c r="G130" t="n">
-        <v>-1145123.81593661</v>
+        <v>-844851.4051613399</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5082,22 +5082,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>51</v>
+        <v>51.33</v>
       </c>
       <c r="C131" t="n">
-        <v>51</v>
+        <v>51.33</v>
       </c>
       <c r="D131" t="n">
-        <v>51</v>
+        <v>51.33</v>
       </c>
       <c r="E131" t="n">
-        <v>51</v>
+        <v>51.33</v>
       </c>
       <c r="F131" t="n">
-        <v>28174.9156</v>
+        <v>1420</v>
       </c>
       <c r="G131" t="n">
-        <v>-1145123.81593661</v>
+        <v>-843431.4051613399</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5118,22 +5118,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>51</v>
+        <v>51.31</v>
       </c>
       <c r="C132" t="n">
-        <v>51</v>
+        <v>51.31</v>
       </c>
       <c r="D132" t="n">
-        <v>51</v>
+        <v>51.31</v>
       </c>
       <c r="E132" t="n">
-        <v>51</v>
+        <v>51.31</v>
       </c>
       <c r="F132" t="n">
-        <v>56734.9978</v>
+        <v>184.682</v>
       </c>
       <c r="G132" t="n">
-        <v>-1145123.81593661</v>
+        <v>-843616.0871613399</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5154,22 +5154,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>51</v>
+        <v>51.31</v>
       </c>
       <c r="C133" t="n">
-        <v>51</v>
+        <v>51.31</v>
       </c>
       <c r="D133" t="n">
-        <v>51</v>
+        <v>51.31</v>
       </c>
       <c r="E133" t="n">
-        <v>51</v>
+        <v>51.31</v>
       </c>
       <c r="F133" t="n">
-        <v>10980.4941</v>
+        <v>7745.818</v>
       </c>
       <c r="G133" t="n">
-        <v>-1145123.81593661</v>
+        <v>-843616.0871613399</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5190,22 +5190,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>51</v>
+        <v>51.31</v>
       </c>
       <c r="C134" t="n">
-        <v>51</v>
+        <v>51.31</v>
       </c>
       <c r="D134" t="n">
-        <v>51</v>
+        <v>51.31</v>
       </c>
       <c r="E134" t="n">
-        <v>51</v>
+        <v>51.31</v>
       </c>
       <c r="F134" t="n">
-        <v>10100</v>
+        <v>7822.5265</v>
       </c>
       <c r="G134" t="n">
-        <v>-1145123.81593661</v>
+        <v>-843616.0871613399</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5226,22 +5226,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>51</v>
+        <v>51.31</v>
       </c>
       <c r="C135" t="n">
-        <v>51</v>
+        <v>51.31</v>
       </c>
       <c r="D135" t="n">
-        <v>51</v>
+        <v>51.31</v>
       </c>
       <c r="E135" t="n">
-        <v>51</v>
+        <v>51.31</v>
       </c>
       <c r="F135" t="n">
-        <v>2754.838</v>
+        <v>4186.8863</v>
       </c>
       <c r="G135" t="n">
-        <v>-1145123.81593661</v>
+        <v>-843616.0871613399</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5262,22 +5262,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>51</v>
+        <v>51.31</v>
       </c>
       <c r="C136" t="n">
-        <v>51</v>
+        <v>51.39</v>
       </c>
       <c r="D136" t="n">
-        <v>51</v>
+        <v>51.39</v>
       </c>
       <c r="E136" t="n">
-        <v>51</v>
+        <v>51.31</v>
       </c>
       <c r="F136" t="n">
-        <v>2193.3769</v>
+        <v>17083.171</v>
       </c>
       <c r="G136" t="n">
-        <v>-1145123.81593661</v>
+        <v>-826532.91616134</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>51</v>
+        <v>51.35</v>
       </c>
       <c r="C137" t="n">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="D137" t="n">
-        <v>51</v>
+        <v>51.35</v>
       </c>
       <c r="E137" t="n">
-        <v>51</v>
+        <v>51.2</v>
       </c>
       <c r="F137" t="n">
-        <v>2430.8336</v>
+        <v>79800</v>
       </c>
       <c r="G137" t="n">
-        <v>-1145123.81593661</v>
+        <v>-906332.91616134</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5334,22 +5334,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>51</v>
+        <v>51.22</v>
       </c>
       <c r="C138" t="n">
-        <v>51</v>
+        <v>51.22</v>
       </c>
       <c r="D138" t="n">
-        <v>51</v>
+        <v>51.22</v>
       </c>
       <c r="E138" t="n">
-        <v>51</v>
+        <v>51.22</v>
       </c>
       <c r="F138" t="n">
-        <v>6843.8585</v>
+        <v>300</v>
       </c>
       <c r="G138" t="n">
-        <v>-1145123.81593661</v>
+        <v>-906032.91616134</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5370,22 +5370,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>51</v>
+        <v>51.28</v>
       </c>
       <c r="C139" t="n">
-        <v>51</v>
+        <v>50.99</v>
       </c>
       <c r="D139" t="n">
-        <v>51</v>
+        <v>51.28</v>
       </c>
       <c r="E139" t="n">
-        <v>51</v>
+        <v>50.81</v>
       </c>
       <c r="F139" t="n">
-        <v>5446.1859</v>
+        <v>213094.5171</v>
       </c>
       <c r="G139" t="n">
-        <v>-1145123.81593661</v>
+        <v>-1119127.43326134</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5406,22 +5406,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>51</v>
+        <v>50.98</v>
       </c>
       <c r="C140" t="n">
-        <v>51</v>
+        <v>51.15</v>
       </c>
       <c r="D140" t="n">
-        <v>51</v>
+        <v>51.15</v>
       </c>
       <c r="E140" t="n">
-        <v>51</v>
+        <v>50.97</v>
       </c>
       <c r="F140" t="n">
-        <v>10227.2959</v>
+        <v>3620.5019</v>
       </c>
       <c r="G140" t="n">
-        <v>-1145123.81593661</v>
+        <v>-1115506.93136134</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5442,22 +5442,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>51</v>
+        <v>51.14</v>
       </c>
       <c r="C141" t="n">
-        <v>51</v>
+        <v>50.84</v>
       </c>
       <c r="D141" t="n">
-        <v>51</v>
+        <v>51.14</v>
       </c>
       <c r="E141" t="n">
-        <v>51</v>
+        <v>50.84</v>
       </c>
       <c r="F141" t="n">
-        <v>17000</v>
+        <v>24060.61791161</v>
       </c>
       <c r="G141" t="n">
-        <v>-1145123.81593661</v>
+        <v>-1139567.54927295</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5478,22 +5478,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>51</v>
+        <v>50.79</v>
       </c>
       <c r="C142" t="n">
-        <v>51</v>
+        <v>50.68</v>
       </c>
       <c r="D142" t="n">
-        <v>51</v>
+        <v>50.79</v>
       </c>
       <c r="E142" t="n">
-        <v>51</v>
+        <v>50.68</v>
       </c>
       <c r="F142" t="n">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="G142" t="n">
-        <v>-1145123.81593661</v>
+        <v>-1179567.54927295</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5514,22 +5514,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>50.98</v>
+        <v>50.95</v>
       </c>
       <c r="C143" t="n">
-        <v>50.98</v>
+        <v>50.95</v>
       </c>
       <c r="D143" t="n">
-        <v>50.98</v>
+        <v>50.95</v>
       </c>
       <c r="E143" t="n">
-        <v>50.98</v>
+        <v>50.95</v>
       </c>
       <c r="F143" t="n">
-        <v>10</v>
+        <v>24123.8056</v>
       </c>
       <c r="G143" t="n">
-        <v>-1145133.81593661</v>
+        <v>-1155443.74367295</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5550,22 +5550,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>50.78</v>
+        <v>50.95</v>
       </c>
       <c r="C144" t="n">
-        <v>50.78</v>
+        <v>50.95</v>
       </c>
       <c r="D144" t="n">
-        <v>50.78</v>
+        <v>50.95</v>
       </c>
       <c r="E144" t="n">
-        <v>50.78</v>
+        <v>50.95</v>
       </c>
       <c r="F144" t="n">
-        <v>17250.216</v>
+        <v>35423.5654</v>
       </c>
       <c r="G144" t="n">
-        <v>-1162384.03193661</v>
+        <v>-1155443.74367295</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>51</v>
+        <v>50.95</v>
       </c>
       <c r="C145" t="n">
-        <v>51</v>
+        <v>51.18</v>
       </c>
       <c r="D145" t="n">
-        <v>51</v>
+        <v>51.18</v>
       </c>
       <c r="E145" t="n">
-        <v>51</v>
+        <v>50.95</v>
       </c>
       <c r="F145" t="n">
-        <v>11899.722</v>
+        <v>908.7651</v>
       </c>
       <c r="G145" t="n">
-        <v>-1150484.30993661</v>
+        <v>-1154534.97857295</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5622,22 +5622,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>51</v>
+        <v>51.18</v>
       </c>
       <c r="C146" t="n">
-        <v>51</v>
+        <v>51.18</v>
       </c>
       <c r="D146" t="n">
-        <v>51</v>
+        <v>51.18</v>
       </c>
       <c r="E146" t="n">
-        <v>51</v>
+        <v>51.18</v>
       </c>
       <c r="F146" t="n">
-        <v>39703.4264</v>
+        <v>1741.0158</v>
       </c>
       <c r="G146" t="n">
-        <v>-1150484.30993661</v>
+        <v>-1154534.97857295</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5658,22 +5658,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>51</v>
+        <v>51.03</v>
       </c>
       <c r="C147" t="n">
-        <v>51</v>
+        <v>51.03</v>
       </c>
       <c r="D147" t="n">
-        <v>51</v>
+        <v>51.03</v>
       </c>
       <c r="E147" t="n">
-        <v>51</v>
+        <v>51.03</v>
       </c>
       <c r="F147" t="n">
-        <v>53777.8185</v>
+        <v>4249.8317</v>
       </c>
       <c r="G147" t="n">
-        <v>-1150484.30993661</v>
+        <v>-1158784.81027295</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5694,22 +5694,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>51.14</v>
+        <v>51.03</v>
       </c>
       <c r="C148" t="n">
-        <v>51.14</v>
+        <v>51.03</v>
       </c>
       <c r="D148" t="n">
-        <v>51.14</v>
+        <v>51.03</v>
       </c>
       <c r="E148" t="n">
-        <v>51.14</v>
+        <v>51.03</v>
       </c>
       <c r="F148" t="n">
-        <v>5297.5878</v>
+        <v>277.2444</v>
       </c>
       <c r="G148" t="n">
-        <v>-1145186.722136609</v>
+        <v>-1158784.81027295</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5730,22 +5730,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>51.14</v>
+        <v>51.03</v>
       </c>
       <c r="C149" t="n">
-        <v>51.2</v>
+        <v>51.03</v>
       </c>
       <c r="D149" t="n">
-        <v>51.23</v>
+        <v>51.03</v>
       </c>
       <c r="E149" t="n">
-        <v>51.14</v>
+        <v>51.03</v>
       </c>
       <c r="F149" t="n">
-        <v>32615.7836</v>
+        <v>6153.1428</v>
       </c>
       <c r="G149" t="n">
-        <v>-1112570.93853661</v>
+        <v>-1158784.81027295</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5766,22 +5766,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>51.2</v>
+        <v>51.03</v>
       </c>
       <c r="C150" t="n">
-        <v>51.2</v>
+        <v>51.03</v>
       </c>
       <c r="D150" t="n">
-        <v>51.2</v>
+        <v>51.03</v>
       </c>
       <c r="E150" t="n">
-        <v>51.2</v>
+        <v>51.03</v>
       </c>
       <c r="F150" t="n">
-        <v>8535.8339</v>
+        <v>1099.5554</v>
       </c>
       <c r="G150" t="n">
-        <v>-1112570.93853661</v>
+        <v>-1158784.81027295</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5802,22 +5802,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>51.2</v>
+        <v>51.03</v>
       </c>
       <c r="C151" t="n">
-        <v>51.2</v>
+        <v>51.03</v>
       </c>
       <c r="D151" t="n">
-        <v>51.2</v>
+        <v>51.03</v>
       </c>
       <c r="E151" t="n">
-        <v>51.2</v>
+        <v>51.03</v>
       </c>
       <c r="F151" t="n">
-        <v>143.2745</v>
+        <v>60.6179</v>
       </c>
       <c r="G151" t="n">
-        <v>-1112570.93853661</v>
+        <v>-1158784.81027295</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5838,22 +5838,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>51.2</v>
+        <v>51.03</v>
       </c>
       <c r="C152" t="n">
-        <v>51.12</v>
+        <v>51.03</v>
       </c>
       <c r="D152" t="n">
-        <v>51.2</v>
+        <v>51.03</v>
       </c>
       <c r="E152" t="n">
-        <v>51.12</v>
+        <v>51.03</v>
       </c>
       <c r="F152" t="n">
-        <v>3078.3309</v>
+        <v>30000</v>
       </c>
       <c r="G152" t="n">
-        <v>-1115649.269436609</v>
+        <v>-1158784.81027295</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5874,22 +5874,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>51.24</v>
+        <v>51.11</v>
       </c>
       <c r="C153" t="n">
-        <v>51.25</v>
+        <v>51.11</v>
       </c>
       <c r="D153" t="n">
-        <v>51.25</v>
+        <v>51.11</v>
       </c>
       <c r="E153" t="n">
-        <v>51.24</v>
+        <v>51.11</v>
       </c>
       <c r="F153" t="n">
-        <v>5098.9208</v>
+        <v>14.283</v>
       </c>
       <c r="G153" t="n">
-        <v>-1110550.34863661</v>
+        <v>-1158770.52727295</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5910,22 +5910,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>51.25</v>
+        <v>51.11</v>
       </c>
       <c r="C154" t="n">
-        <v>51.25</v>
+        <v>51.11</v>
       </c>
       <c r="D154" t="n">
-        <v>51.25</v>
+        <v>51.11</v>
       </c>
       <c r="E154" t="n">
-        <v>51.25</v>
+        <v>51.11</v>
       </c>
       <c r="F154" t="n">
-        <v>3168.5789</v>
+        <v>731.9299999999999</v>
       </c>
       <c r="G154" t="n">
-        <v>-1110550.34863661</v>
+        <v>-1158770.52727295</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5946,22 +5946,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>51.25</v>
+        <v>50.79</v>
       </c>
       <c r="C155" t="n">
-        <v>51.26</v>
+        <v>50.95</v>
       </c>
       <c r="D155" t="n">
-        <v>51.26</v>
+        <v>50.95</v>
       </c>
       <c r="E155" t="n">
-        <v>51.25</v>
+        <v>50.79</v>
       </c>
       <c r="F155" t="n">
-        <v>7454.6167</v>
+        <v>64327.6797</v>
       </c>
       <c r="G155" t="n">
-        <v>-1103095.73193661</v>
+        <v>-1223098.20697295</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5982,22 +5982,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>51.25</v>
+        <v>51</v>
       </c>
       <c r="C156" t="n">
-        <v>51.25</v>
+        <v>51</v>
       </c>
       <c r="D156" t="n">
-        <v>51.25</v>
+        <v>51</v>
       </c>
       <c r="E156" t="n">
-        <v>51.25</v>
+        <v>51</v>
       </c>
       <c r="F156" t="n">
-        <v>200</v>
+        <v>220.8019</v>
       </c>
       <c r="G156" t="n">
-        <v>-1103295.73193661</v>
+        <v>-1222877.40507295</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6018,22 +6018,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>51.25</v>
+        <v>51</v>
       </c>
       <c r="C157" t="n">
-        <v>51.25</v>
+        <v>51</v>
       </c>
       <c r="D157" t="n">
-        <v>51.25</v>
+        <v>51</v>
       </c>
       <c r="E157" t="n">
-        <v>51.25</v>
+        <v>51</v>
       </c>
       <c r="F157" t="n">
-        <v>924.7895</v>
+        <v>209.7618</v>
       </c>
       <c r="G157" t="n">
-        <v>-1103295.73193661</v>
+        <v>-1222877.40507295</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6054,22 +6054,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>51.21</v>
+        <v>50.87</v>
       </c>
       <c r="C158" t="n">
-        <v>51.21</v>
+        <v>51</v>
       </c>
       <c r="D158" t="n">
-        <v>51.21</v>
+        <v>51</v>
       </c>
       <c r="E158" t="n">
-        <v>51.21</v>
+        <v>50.86</v>
       </c>
       <c r="F158" t="n">
-        <v>925.6521</v>
+        <v>57992.7802</v>
       </c>
       <c r="G158" t="n">
-        <v>-1104221.38403661</v>
+        <v>-1222877.40507295</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6090,22 +6090,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>51.04</v>
+        <v>51.21</v>
       </c>
       <c r="C159" t="n">
-        <v>51.04</v>
+        <v>51.21</v>
       </c>
       <c r="D159" t="n">
-        <v>51.04</v>
+        <v>51.21</v>
       </c>
       <c r="E159" t="n">
-        <v>51.04</v>
+        <v>51.21</v>
       </c>
       <c r="F159" t="n">
-        <v>20483.0894</v>
+        <v>100.24793634</v>
       </c>
       <c r="G159" t="n">
-        <v>-1124704.47343661</v>
+        <v>-1222777.15713661</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6126,22 +6126,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>51.15</v>
+        <v>51.43</v>
       </c>
       <c r="C160" t="n">
-        <v>51.15</v>
+        <v>51.43</v>
       </c>
       <c r="D160" t="n">
-        <v>51.15</v>
+        <v>51.43</v>
       </c>
       <c r="E160" t="n">
-        <v>51.15</v>
+        <v>51.43</v>
       </c>
       <c r="F160" t="n">
-        <v>1092.4864</v>
+        <v>1000</v>
       </c>
       <c r="G160" t="n">
-        <v>-1123611.98703661</v>
+        <v>-1221777.15713661</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6162,22 +6162,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>51.15</v>
+        <v>51.25</v>
       </c>
       <c r="C161" t="n">
-        <v>51.15</v>
+        <v>51.25</v>
       </c>
       <c r="D161" t="n">
-        <v>51.15</v>
+        <v>51.25</v>
       </c>
       <c r="E161" t="n">
-        <v>51.15</v>
+        <v>51.25</v>
       </c>
       <c r="F161" t="n">
-        <v>8749.1811</v>
+        <v>8400</v>
       </c>
       <c r="G161" t="n">
-        <v>-1123611.98703661</v>
+        <v>-1230177.15713661</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6198,22 +6198,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>51.15</v>
+        <v>51.31</v>
       </c>
       <c r="C162" t="n">
-        <v>51.15</v>
+        <v>51.31</v>
       </c>
       <c r="D162" t="n">
-        <v>51.15</v>
+        <v>51.31</v>
       </c>
       <c r="E162" t="n">
-        <v>51.15</v>
+        <v>51.31</v>
       </c>
       <c r="F162" t="n">
-        <v>29358.3325</v>
+        <v>400</v>
       </c>
       <c r="G162" t="n">
-        <v>-1123611.98703661</v>
+        <v>-1229777.15713661</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6234,22 +6234,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>51</v>
+        <v>51.27</v>
       </c>
       <c r="C163" t="n">
-        <v>50.95</v>
+        <v>51.27</v>
       </c>
       <c r="D163" t="n">
-        <v>51</v>
+        <v>51.27</v>
       </c>
       <c r="E163" t="n">
-        <v>50.95</v>
+        <v>51.27</v>
       </c>
       <c r="F163" t="n">
-        <v>44561.4572</v>
+        <v>40</v>
       </c>
       <c r="G163" t="n">
-        <v>-1168173.44423661</v>
+        <v>-1229817.15713661</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6270,22 +6270,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>50.94</v>
+        <v>51.43</v>
       </c>
       <c r="C164" t="n">
-        <v>50.84</v>
+        <v>51.56</v>
       </c>
       <c r="D164" t="n">
-        <v>50.94</v>
+        <v>51.56</v>
       </c>
       <c r="E164" t="n">
-        <v>50.84</v>
+        <v>51.43</v>
       </c>
       <c r="F164" t="n">
-        <v>50000</v>
+        <v>22308.1535</v>
       </c>
       <c r="G164" t="n">
-        <v>-1218173.44423661</v>
+        <v>-1207509.00363661</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6306,22 +6306,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>50.85</v>
+        <v>51.32</v>
       </c>
       <c r="C165" t="n">
-        <v>50.87</v>
+        <v>51.3</v>
       </c>
       <c r="D165" t="n">
-        <v>50.87</v>
+        <v>51.32</v>
       </c>
       <c r="E165" t="n">
-        <v>50.85</v>
+        <v>51.3</v>
       </c>
       <c r="F165" t="n">
-        <v>22126.385</v>
+        <v>2436.0786</v>
       </c>
       <c r="G165" t="n">
-        <v>-1196047.05923661</v>
+        <v>-1209945.08223661</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6342,22 +6342,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>51.1</v>
+        <v>51.3</v>
       </c>
       <c r="C166" t="n">
-        <v>51.1</v>
+        <v>51.3</v>
       </c>
       <c r="D166" t="n">
-        <v>51.1</v>
+        <v>51.3</v>
       </c>
       <c r="E166" t="n">
-        <v>51.1</v>
+        <v>51.3</v>
       </c>
       <c r="F166" t="n">
-        <v>10</v>
+        <v>20.2076</v>
       </c>
       <c r="G166" t="n">
-        <v>-1196037.05923661</v>
+        <v>-1209945.08223661</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6378,22 +6378,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>50.88</v>
+        <v>51.1</v>
       </c>
       <c r="C167" t="n">
-        <v>50.85</v>
+        <v>51.1</v>
       </c>
       <c r="D167" t="n">
-        <v>50.88</v>
+        <v>51.1</v>
       </c>
       <c r="E167" t="n">
-        <v>50.85</v>
+        <v>51.1</v>
       </c>
       <c r="F167" t="n">
-        <v>19907.6365</v>
+        <v>24856.4109</v>
       </c>
       <c r="G167" t="n">
-        <v>-1215944.69573661</v>
+        <v>-1234801.49313661</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6414,22 +6414,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>50.8</v>
+        <v>51.1</v>
       </c>
       <c r="C168" t="n">
         <v>50.8</v>
       </c>
       <c r="D168" t="n">
-        <v>50.8</v>
+        <v>51.1</v>
       </c>
       <c r="E168" t="n">
         <v>50.8</v>
       </c>
       <c r="F168" t="n">
-        <v>154.6163</v>
+        <v>50000</v>
       </c>
       <c r="G168" t="n">
-        <v>-1216099.31203661</v>
+        <v>-1284801.49313661</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6450,22 +6450,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>50.8</v>
+        <v>50.82</v>
       </c>
       <c r="C169" t="n">
-        <v>50.8</v>
+        <v>50.81</v>
       </c>
       <c r="D169" t="n">
-        <v>50.8</v>
+        <v>50.82</v>
       </c>
       <c r="E169" t="n">
-        <v>50.8</v>
+        <v>50.81</v>
       </c>
       <c r="F169" t="n">
-        <v>25.8709</v>
+        <v>50000</v>
       </c>
       <c r="G169" t="n">
-        <v>-1216099.31203661</v>
+        <v>-1234801.49313661</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6486,22 +6486,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>50.8</v>
+        <v>51.06</v>
       </c>
       <c r="C170" t="n">
-        <v>50.8</v>
+        <v>51.06</v>
       </c>
       <c r="D170" t="n">
-        <v>50.8</v>
+        <v>51.06</v>
       </c>
       <c r="E170" t="n">
-        <v>50.8</v>
+        <v>51.06</v>
       </c>
       <c r="F170" t="n">
-        <v>26781.1888</v>
+        <v>8987.5</v>
       </c>
       <c r="G170" t="n">
-        <v>-1216099.31203661</v>
+        <v>-1225813.99313661</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6522,22 +6522,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>50.8</v>
+        <v>51.09</v>
       </c>
       <c r="C171" t="n">
-        <v>50.8</v>
+        <v>51.09</v>
       </c>
       <c r="D171" t="n">
-        <v>50.8</v>
+        <v>51.09</v>
       </c>
       <c r="E171" t="n">
-        <v>50.8</v>
+        <v>51.09</v>
       </c>
       <c r="F171" t="n">
-        <v>97076.795</v>
+        <v>91060.4719</v>
       </c>
       <c r="G171" t="n">
-        <v>-1216099.31203661</v>
+        <v>-1134753.52123661</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>50.86</v>
+        <v>51.09</v>
       </c>
       <c r="C172" t="n">
-        <v>50.86</v>
+        <v>51.09</v>
       </c>
       <c r="D172" t="n">
-        <v>50.86</v>
+        <v>51.09</v>
       </c>
       <c r="E172" t="n">
-        <v>50.86</v>
+        <v>51.09</v>
       </c>
       <c r="F172" t="n">
-        <v>500</v>
+        <v>50000</v>
       </c>
       <c r="G172" t="n">
-        <v>-1215599.31203661</v>
+        <v>-1134753.52123661</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6594,22 +6594,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>50.87</v>
+        <v>51.09</v>
       </c>
       <c r="C173" t="n">
-        <v>50.87</v>
+        <v>51.15</v>
       </c>
       <c r="D173" t="n">
-        <v>50.87</v>
+        <v>51.15</v>
       </c>
       <c r="E173" t="n">
-        <v>50.87</v>
+        <v>51.09</v>
       </c>
       <c r="F173" t="n">
-        <v>4625.8432</v>
+        <v>9409.7276</v>
       </c>
       <c r="G173" t="n">
-        <v>-1210973.46883661</v>
+        <v>-1125343.79363661</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6630,22 +6630,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>50.88</v>
+        <v>51.15</v>
       </c>
       <c r="C174" t="n">
-        <v>50.88</v>
+        <v>51.15</v>
       </c>
       <c r="D174" t="n">
-        <v>50.88</v>
+        <v>51.15</v>
       </c>
       <c r="E174" t="n">
-        <v>50.88</v>
+        <v>51.15</v>
       </c>
       <c r="F174" t="n">
-        <v>639.0928</v>
+        <v>1326.9</v>
       </c>
       <c r="G174" t="n">
-        <v>-1210334.37603661</v>
+        <v>-1125343.79363661</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6666,22 +6666,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>50.88</v>
+        <v>51.15</v>
       </c>
       <c r="C175" t="n">
-        <v>50.8</v>
+        <v>51.01</v>
       </c>
       <c r="D175" t="n">
-        <v>50.88</v>
+        <v>51.18</v>
       </c>
       <c r="E175" t="n">
-        <v>50.8</v>
+        <v>51.01</v>
       </c>
       <c r="F175" t="n">
-        <v>13183.2531</v>
+        <v>22699.7134</v>
       </c>
       <c r="G175" t="n">
-        <v>-1223517.62913661</v>
+        <v>-1148043.50703661</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6702,22 +6702,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>50.79</v>
+        <v>51</v>
       </c>
       <c r="C176" t="n">
-        <v>50.79</v>
+        <v>51</v>
       </c>
       <c r="D176" t="n">
-        <v>50.79</v>
+        <v>51</v>
       </c>
       <c r="E176" t="n">
-        <v>50.79</v>
+        <v>51</v>
       </c>
       <c r="F176" t="n">
-        <v>36083.8881</v>
+        <v>24000</v>
       </c>
       <c r="G176" t="n">
-        <v>-1259601.51723661</v>
+        <v>-1172043.50703661</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6738,22 +6738,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>50.81</v>
+        <v>51</v>
       </c>
       <c r="C177" t="n">
-        <v>50.81</v>
+        <v>51</v>
       </c>
       <c r="D177" t="n">
-        <v>50.81</v>
+        <v>51</v>
       </c>
       <c r="E177" t="n">
-        <v>50.81</v>
+        <v>51</v>
       </c>
       <c r="F177" t="n">
-        <v>5000</v>
+        <v>409.4</v>
       </c>
       <c r="G177" t="n">
-        <v>-1254601.51723661</v>
+        <v>-1172043.50703661</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6774,22 +6774,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>50.8</v>
+        <v>51</v>
       </c>
       <c r="C178" t="n">
-        <v>50.71</v>
+        <v>51</v>
       </c>
       <c r="D178" t="n">
-        <v>50.8</v>
+        <v>51</v>
       </c>
       <c r="E178" t="n">
-        <v>50.71</v>
+        <v>51</v>
       </c>
       <c r="F178" t="n">
-        <v>215053.714</v>
+        <v>18853.6861</v>
       </c>
       <c r="G178" t="n">
-        <v>-1469655.23123661</v>
+        <v>-1172043.50703661</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6810,22 +6810,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>50.61</v>
+        <v>51</v>
       </c>
       <c r="C179" t="n">
-        <v>50.56</v>
+        <v>51</v>
       </c>
       <c r="D179" t="n">
-        <v>50.61</v>
+        <v>51</v>
       </c>
       <c r="E179" t="n">
-        <v>50.43</v>
+        <v>51</v>
       </c>
       <c r="F179" t="n">
-        <v>104922.46835443</v>
+        <v>57749.7744</v>
       </c>
       <c r="G179" t="n">
-        <v>-1574577.69959104</v>
+        <v>-1172043.50703661</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6846,22 +6846,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>50.68</v>
+        <v>51</v>
       </c>
       <c r="C180" t="n">
-        <v>50.69</v>
+        <v>51</v>
       </c>
       <c r="D180" t="n">
-        <v>50.69</v>
+        <v>51</v>
       </c>
       <c r="E180" t="n">
-        <v>50.68</v>
+        <v>51</v>
       </c>
       <c r="F180" t="n">
-        <v>534.8576</v>
+        <v>43770.475</v>
       </c>
       <c r="G180" t="n">
-        <v>-1574042.84199104</v>
+        <v>-1172043.50703661</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6882,22 +6882,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>50.74</v>
+        <v>51</v>
       </c>
       <c r="C181" t="n">
-        <v>50.74</v>
+        <v>50.86</v>
       </c>
       <c r="D181" t="n">
-        <v>50.74</v>
+        <v>51.06</v>
       </c>
       <c r="E181" t="n">
-        <v>50.74</v>
+        <v>50.86</v>
       </c>
       <c r="F181" t="n">
-        <v>172.8825</v>
+        <v>97766.5325</v>
       </c>
       <c r="G181" t="n">
-        <v>-1573869.95949104</v>
+        <v>-1269810.03953661</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6918,22 +6918,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>50.72</v>
+        <v>50.89</v>
       </c>
       <c r="C182" t="n">
-        <v>50.62</v>
+        <v>50.99</v>
       </c>
       <c r="D182" t="n">
-        <v>50.72</v>
+        <v>50.99</v>
       </c>
       <c r="E182" t="n">
-        <v>50.62</v>
+        <v>50.89</v>
       </c>
       <c r="F182" t="n">
-        <v>2607.1235</v>
+        <v>18066.2975</v>
       </c>
       <c r="G182" t="n">
-        <v>-1576477.08299104</v>
+        <v>-1251743.742036609</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6954,22 +6954,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>50.72</v>
+        <v>50.99</v>
       </c>
       <c r="C183" t="n">
-        <v>50.62</v>
+        <v>50.99</v>
       </c>
       <c r="D183" t="n">
-        <v>50.72</v>
+        <v>50.99</v>
       </c>
       <c r="E183" t="n">
-        <v>50.62</v>
+        <v>50.99</v>
       </c>
       <c r="F183" t="n">
-        <v>1076.2331</v>
+        <v>4695.5191</v>
       </c>
       <c r="G183" t="n">
-        <v>-1576477.08299104</v>
+        <v>-1251743.742036609</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6990,22 +6990,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>50.49</v>
+        <v>50.89</v>
       </c>
       <c r="C184" t="n">
-        <v>50.43</v>
+        <v>50.88</v>
       </c>
       <c r="D184" t="n">
-        <v>50.49</v>
+        <v>50.89</v>
       </c>
       <c r="E184" t="n">
-        <v>50.43</v>
+        <v>50.88</v>
       </c>
       <c r="F184" t="n">
-        <v>211853.116</v>
+        <v>10760.5415</v>
       </c>
       <c r="G184" t="n">
-        <v>-1788330.19899104</v>
+        <v>-1262504.283536609</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7026,22 +7026,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>50.72</v>
+        <v>50.99</v>
       </c>
       <c r="C185" t="n">
-        <v>50.72</v>
+        <v>50.99</v>
       </c>
       <c r="D185" t="n">
-        <v>50.72</v>
+        <v>50.99</v>
       </c>
       <c r="E185" t="n">
-        <v>50.72</v>
+        <v>50.99</v>
       </c>
       <c r="F185" t="n">
-        <v>5403.232</v>
+        <v>30437.706</v>
       </c>
       <c r="G185" t="n">
-        <v>-1782926.96699104</v>
+        <v>-1232066.577536609</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7062,22 +7062,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>50.72</v>
+        <v>50.84</v>
       </c>
       <c r="C186" t="n">
-        <v>50.72</v>
+        <v>50.84</v>
       </c>
       <c r="D186" t="n">
-        <v>50.72</v>
+        <v>50.84</v>
       </c>
       <c r="E186" t="n">
-        <v>50.72</v>
+        <v>50.84</v>
       </c>
       <c r="F186" t="n">
-        <v>11017.6381</v>
+        <v>1240.7988</v>
       </c>
       <c r="G186" t="n">
-        <v>-1782926.96699104</v>
+        <v>-1233307.376336609</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7098,22 +7098,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>50.71</v>
+        <v>51</v>
       </c>
       <c r="C187" t="n">
-        <v>50.72</v>
+        <v>51</v>
       </c>
       <c r="D187" t="n">
-        <v>50.72</v>
+        <v>51</v>
       </c>
       <c r="E187" t="n">
-        <v>50.71</v>
+        <v>51</v>
       </c>
       <c r="F187" t="n">
-        <v>2373.2318</v>
+        <v>17008.0096</v>
       </c>
       <c r="G187" t="n">
-        <v>-1782926.96699104</v>
+        <v>-1216299.366736609</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7134,22 +7134,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>50.72</v>
+        <v>51.12</v>
       </c>
       <c r="C188" t="n">
-        <v>50.72</v>
+        <v>51.18</v>
       </c>
       <c r="D188" t="n">
-        <v>50.72</v>
+        <v>51.18</v>
       </c>
       <c r="E188" t="n">
-        <v>50.72</v>
+        <v>51.12</v>
       </c>
       <c r="F188" t="n">
-        <v>81918.56630000001</v>
+        <v>28395.151</v>
       </c>
       <c r="G188" t="n">
-        <v>-1782926.96699104</v>
+        <v>-1187904.215736609</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7170,22 +7170,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>50.72</v>
+        <v>51.18</v>
       </c>
       <c r="C189" t="n">
-        <v>50.72</v>
+        <v>51.23</v>
       </c>
       <c r="D189" t="n">
-        <v>50.72</v>
+        <v>51.23</v>
       </c>
       <c r="E189" t="n">
-        <v>50.72</v>
+        <v>51.18</v>
       </c>
       <c r="F189" t="n">
-        <v>10113.2398</v>
+        <v>50000</v>
       </c>
       <c r="G189" t="n">
-        <v>-1782926.96699104</v>
+        <v>-1137904.215736609</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7206,22 +7206,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>50.72</v>
+        <v>51.03</v>
       </c>
       <c r="C190" t="n">
-        <v>50.72</v>
+        <v>51.03</v>
       </c>
       <c r="D190" t="n">
-        <v>50.72</v>
+        <v>51.03</v>
       </c>
       <c r="E190" t="n">
-        <v>50.72</v>
+        <v>51.03</v>
       </c>
       <c r="F190" t="n">
-        <v>7620.585</v>
+        <v>104.5952</v>
       </c>
       <c r="G190" t="n">
-        <v>-1782926.96699104</v>
+        <v>-1138008.81093661</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7242,22 +7242,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>50.72</v>
+        <v>51.17</v>
       </c>
       <c r="C191" t="n">
-        <v>50.72</v>
+        <v>51.24</v>
       </c>
       <c r="D191" t="n">
-        <v>50.72</v>
+        <v>51.24</v>
       </c>
       <c r="E191" t="n">
-        <v>50.72</v>
+        <v>51.17</v>
       </c>
       <c r="F191" t="n">
-        <v>2097.6131</v>
+        <v>8590.4954</v>
       </c>
       <c r="G191" t="n">
-        <v>-1782926.96699104</v>
+        <v>-1129418.31553661</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7278,22 +7278,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>50.72</v>
+        <v>51.1</v>
       </c>
       <c r="C192" t="n">
-        <v>50.72</v>
+        <v>51.09</v>
       </c>
       <c r="D192" t="n">
-        <v>50.72</v>
+        <v>51.1</v>
       </c>
       <c r="E192" t="n">
-        <v>50.72</v>
+        <v>51.09</v>
       </c>
       <c r="F192" t="n">
-        <v>323.5</v>
+        <v>51400</v>
       </c>
       <c r="G192" t="n">
-        <v>-1782926.96699104</v>
+        <v>-1180818.31553661</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7314,22 +7314,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>50.71</v>
+        <v>51.22</v>
       </c>
       <c r="C193" t="n">
-        <v>50.71</v>
+        <v>51.22</v>
       </c>
       <c r="D193" t="n">
-        <v>50.71</v>
+        <v>51.22</v>
       </c>
       <c r="E193" t="n">
-        <v>50.71</v>
+        <v>51.22</v>
       </c>
       <c r="F193" t="n">
-        <v>590.1127</v>
+        <v>1437.1304</v>
       </c>
       <c r="G193" t="n">
-        <v>-1783517.07969104</v>
+        <v>-1179381.18513661</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7350,22 +7350,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>50.34</v>
+        <v>51.09</v>
       </c>
       <c r="C194" t="n">
-        <v>50.34</v>
+        <v>51.09</v>
       </c>
       <c r="D194" t="n">
-        <v>50.34</v>
+        <v>51.09</v>
       </c>
       <c r="E194" t="n">
-        <v>50.34</v>
+        <v>51.09</v>
       </c>
       <c r="F194" t="n">
-        <v>15.383</v>
+        <v>7256.6317</v>
       </c>
       <c r="G194" t="n">
-        <v>-1783532.46269104</v>
+        <v>-1186637.81683661</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7386,22 +7386,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>50.61</v>
+        <v>51.09</v>
       </c>
       <c r="C195" t="n">
-        <v>50.46</v>
+        <v>51.09</v>
       </c>
       <c r="D195" t="n">
-        <v>50.61</v>
+        <v>51.09</v>
       </c>
       <c r="E195" t="n">
-        <v>50.46</v>
+        <v>51.09</v>
       </c>
       <c r="F195" t="n">
-        <v>322.2025</v>
+        <v>1138.9287</v>
       </c>
       <c r="G195" t="n">
-        <v>-1783210.26019104</v>
+        <v>-1186637.81683661</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7422,35 +7422,31 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>50.46</v>
+        <v>51.09</v>
       </c>
       <c r="C196" t="n">
-        <v>50.46</v>
+        <v>51.03</v>
       </c>
       <c r="D196" t="n">
-        <v>50.46</v>
+        <v>51.09</v>
       </c>
       <c r="E196" t="n">
-        <v>50.46</v>
+        <v>51.03</v>
       </c>
       <c r="F196" t="n">
-        <v>24989.3907</v>
+        <v>49857.0256</v>
       </c>
       <c r="G196" t="n">
-        <v>-1783210.26019104</v>
+        <v>-1236494.84243661</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="K196" t="n">
-        <v>50.46</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
@@ -7462,40 +7458,32 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>50.71</v>
+        <v>51.03</v>
       </c>
       <c r="C197" t="n">
-        <v>50.76</v>
+        <v>51.03</v>
       </c>
       <c r="D197" t="n">
-        <v>50.76</v>
+        <v>51.03</v>
       </c>
       <c r="E197" t="n">
-        <v>50.71</v>
+        <v>51.03</v>
       </c>
       <c r="F197" t="n">
-        <v>32410</v>
+        <v>20000</v>
       </c>
       <c r="G197" t="n">
-        <v>-1750800.26019104</v>
+        <v>-1236494.84243661</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="K197" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7506,22 +7494,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>50.88</v>
+        <v>51.03</v>
       </c>
       <c r="C198" t="n">
-        <v>50.9</v>
+        <v>50.86</v>
       </c>
       <c r="D198" t="n">
-        <v>50.9</v>
+        <v>51.03</v>
       </c>
       <c r="E198" t="n">
-        <v>50.88</v>
+        <v>50.86</v>
       </c>
       <c r="F198" t="n">
-        <v>20</v>
+        <v>5876.4122</v>
       </c>
       <c r="G198" t="n">
-        <v>-1750780.26019104</v>
+        <v>-1242371.25463661</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7530,14 +7518,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7548,22 +7530,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>50.5</v>
+        <v>50.9</v>
       </c>
       <c r="C199" t="n">
-        <v>50.5</v>
+        <v>50.9</v>
       </c>
       <c r="D199" t="n">
-        <v>50.5</v>
+        <v>50.9</v>
       </c>
       <c r="E199" t="n">
-        <v>50.5</v>
+        <v>50.9</v>
       </c>
       <c r="F199" t="n">
-        <v>15.7971</v>
+        <v>30000</v>
       </c>
       <c r="G199" t="n">
-        <v>-1750796.05729104</v>
+        <v>-1212371.25463661</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7584,22 +7566,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>50.51</v>
+        <v>50.97</v>
       </c>
       <c r="C200" t="n">
-        <v>50.39</v>
+        <v>50.97</v>
       </c>
       <c r="D200" t="n">
-        <v>50.51</v>
+        <v>50.97</v>
       </c>
       <c r="E200" t="n">
-        <v>50.39</v>
+        <v>50.97</v>
       </c>
       <c r="F200" t="n">
-        <v>50000</v>
+        <v>200</v>
       </c>
       <c r="G200" t="n">
-        <v>-1800796.05729104</v>
+        <v>-1212171.25463661</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7620,22 +7602,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>50.41</v>
+        <v>51</v>
       </c>
       <c r="C201" t="n">
-        <v>50.41</v>
+        <v>51</v>
       </c>
       <c r="D201" t="n">
-        <v>50.41</v>
+        <v>51</v>
       </c>
       <c r="E201" t="n">
-        <v>50.41</v>
+        <v>51</v>
       </c>
       <c r="F201" t="n">
-        <v>40000</v>
+        <v>67047.4387</v>
       </c>
       <c r="G201" t="n">
-        <v>-1760796.05729104</v>
+        <v>-1145123.81593661</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7656,420 +7638,3066 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>50.5</v>
+        <v>51</v>
       </c>
       <c r="C202" t="n">
-        <v>50.64</v>
+        <v>51</v>
       </c>
       <c r="D202" t="n">
-        <v>50.64</v>
+        <v>51</v>
       </c>
       <c r="E202" t="n">
-        <v>50.4</v>
+        <v>51</v>
       </c>
       <c r="F202" t="n">
-        <v>40053.7638</v>
+        <v>28174.9156</v>
       </c>
       <c r="G202" t="n">
-        <v>-1720742.29349104</v>
+        <v>-1145123.81593661</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>50.41</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>51</v>
+      </c>
+      <c r="C203" t="n">
+        <v>51</v>
+      </c>
+      <c r="D203" t="n">
+        <v>51</v>
+      </c>
+      <c r="E203" t="n">
+        <v>51</v>
+      </c>
+      <c r="F203" t="n">
+        <v>56734.9978</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>51</v>
+      </c>
+      <c r="C204" t="n">
+        <v>51</v>
+      </c>
+      <c r="D204" t="n">
+        <v>51</v>
+      </c>
+      <c r="E204" t="n">
+        <v>51</v>
+      </c>
+      <c r="F204" t="n">
+        <v>10980.4941</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>51</v>
+      </c>
+      <c r="C205" t="n">
+        <v>51</v>
+      </c>
+      <c r="D205" t="n">
+        <v>51</v>
+      </c>
+      <c r="E205" t="n">
+        <v>51</v>
+      </c>
+      <c r="F205" t="n">
+        <v>10100</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>51</v>
+      </c>
+      <c r="C206" t="n">
+        <v>51</v>
+      </c>
+      <c r="D206" t="n">
+        <v>51</v>
+      </c>
+      <c r="E206" t="n">
+        <v>51</v>
+      </c>
+      <c r="F206" t="n">
+        <v>2754.838</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>51</v>
+      </c>
+      <c r="C207" t="n">
+        <v>51</v>
+      </c>
+      <c r="D207" t="n">
+        <v>51</v>
+      </c>
+      <c r="E207" t="n">
+        <v>51</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2193.3769</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>51</v>
+      </c>
+      <c r="C208" t="n">
+        <v>51</v>
+      </c>
+      <c r="D208" t="n">
+        <v>51</v>
+      </c>
+      <c r="E208" t="n">
+        <v>51</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2430.8336</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>51</v>
+      </c>
+      <c r="C209" t="n">
+        <v>51</v>
+      </c>
+      <c r="D209" t="n">
+        <v>51</v>
+      </c>
+      <c r="E209" t="n">
+        <v>51</v>
+      </c>
+      <c r="F209" t="n">
+        <v>6843.8585</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>51</v>
+      </c>
+      <c r="C210" t="n">
+        <v>51</v>
+      </c>
+      <c r="D210" t="n">
+        <v>51</v>
+      </c>
+      <c r="E210" t="n">
+        <v>51</v>
+      </c>
+      <c r="F210" t="n">
+        <v>5446.1859</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>51</v>
+      </c>
+      <c r="C211" t="n">
+        <v>51</v>
+      </c>
+      <c r="D211" t="n">
+        <v>51</v>
+      </c>
+      <c r="E211" t="n">
+        <v>51</v>
+      </c>
+      <c r="F211" t="n">
+        <v>10227.2959</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>51</v>
+      </c>
+      <c r="C212" t="n">
+        <v>51</v>
+      </c>
+      <c r="D212" t="n">
+        <v>51</v>
+      </c>
+      <c r="E212" t="n">
+        <v>51</v>
+      </c>
+      <c r="F212" t="n">
+        <v>17000</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>51</v>
+      </c>
+      <c r="C213" t="n">
+        <v>51</v>
+      </c>
+      <c r="D213" t="n">
+        <v>51</v>
+      </c>
+      <c r="E213" t="n">
+        <v>51</v>
+      </c>
+      <c r="F213" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>50.98</v>
+      </c>
+      <c r="C214" t="n">
+        <v>50.98</v>
+      </c>
+      <c r="D214" t="n">
+        <v>50.98</v>
+      </c>
+      <c r="E214" t="n">
+        <v>50.98</v>
+      </c>
+      <c r="F214" t="n">
+        <v>10</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-1145133.81593661</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="C215" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="D215" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="E215" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="F215" t="n">
+        <v>17250.216</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-1162384.03193661</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>51</v>
+      </c>
+      <c r="C216" t="n">
+        <v>51</v>
+      </c>
+      <c r="D216" t="n">
+        <v>51</v>
+      </c>
+      <c r="E216" t="n">
+        <v>51</v>
+      </c>
+      <c r="F216" t="n">
+        <v>11899.722</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-1150484.30993661</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>51</v>
+      </c>
+      <c r="C217" t="n">
+        <v>51</v>
+      </c>
+      <c r="D217" t="n">
+        <v>51</v>
+      </c>
+      <c r="E217" t="n">
+        <v>51</v>
+      </c>
+      <c r="F217" t="n">
+        <v>39703.4264</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-1150484.30993661</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>51</v>
+      </c>
+      <c r="C218" t="n">
+        <v>51</v>
+      </c>
+      <c r="D218" t="n">
+        <v>51</v>
+      </c>
+      <c r="E218" t="n">
+        <v>51</v>
+      </c>
+      <c r="F218" t="n">
+        <v>53777.8185</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-1150484.30993661</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>51.14</v>
+      </c>
+      <c r="C219" t="n">
+        <v>51.14</v>
+      </c>
+      <c r="D219" t="n">
+        <v>51.14</v>
+      </c>
+      <c r="E219" t="n">
+        <v>51.14</v>
+      </c>
+      <c r="F219" t="n">
+        <v>5297.5878</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-1145186.722136609</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>51.14</v>
+      </c>
+      <c r="C220" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="D220" t="n">
+        <v>51.23</v>
+      </c>
+      <c r="E220" t="n">
+        <v>51.14</v>
+      </c>
+      <c r="F220" t="n">
+        <v>32615.7836</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-1112570.93853661</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="C221" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="D221" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E221" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="F221" t="n">
+        <v>8535.8339</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-1112570.93853661</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="C222" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="D222" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E222" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="F222" t="n">
+        <v>143.2745</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-1112570.93853661</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="C223" t="n">
+        <v>51.12</v>
+      </c>
+      <c r="D223" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E223" t="n">
+        <v>51.12</v>
+      </c>
+      <c r="F223" t="n">
+        <v>3078.3309</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-1115649.269436609</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>51.24</v>
+      </c>
+      <c r="C224" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="D224" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="E224" t="n">
+        <v>51.24</v>
+      </c>
+      <c r="F224" t="n">
+        <v>5098.9208</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-1110550.34863661</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="C225" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="D225" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="E225" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="F225" t="n">
+        <v>3168.5789</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-1110550.34863661</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="C226" t="n">
+        <v>51.26</v>
+      </c>
+      <c r="D226" t="n">
+        <v>51.26</v>
+      </c>
+      <c r="E226" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="F226" t="n">
+        <v>7454.6167</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-1103095.73193661</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="C227" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="D227" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="E227" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="F227" t="n">
+        <v>200</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-1103295.73193661</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="C228" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="D228" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="E228" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="F228" t="n">
+        <v>924.7895</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-1103295.73193661</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>51.21</v>
+      </c>
+      <c r="C229" t="n">
+        <v>51.21</v>
+      </c>
+      <c r="D229" t="n">
+        <v>51.21</v>
+      </c>
+      <c r="E229" t="n">
+        <v>51.21</v>
+      </c>
+      <c r="F229" t="n">
+        <v>925.6521</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-1104221.38403661</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="C230" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="D230" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="E230" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="F230" t="n">
+        <v>20483.0894</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-1124704.47343661</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="C231" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="D231" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="E231" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1092.4864</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-1123611.98703661</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="C232" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="D232" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="E232" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="F232" t="n">
+        <v>8749.1811</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-1123611.98703661</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="C233" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="D233" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="E233" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="F233" t="n">
+        <v>29358.3325</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-1123611.98703661</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>51</v>
+      </c>
+      <c r="C234" t="n">
+        <v>50.95</v>
+      </c>
+      <c r="D234" t="n">
+        <v>51</v>
+      </c>
+      <c r="E234" t="n">
+        <v>50.95</v>
+      </c>
+      <c r="F234" t="n">
+        <v>44561.4572</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-1168173.44423661</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>50.94</v>
+      </c>
+      <c r="C235" t="n">
+        <v>50.84</v>
+      </c>
+      <c r="D235" t="n">
+        <v>50.94</v>
+      </c>
+      <c r="E235" t="n">
+        <v>50.84</v>
+      </c>
+      <c r="F235" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-1218173.44423661</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>50.85</v>
+      </c>
+      <c r="C236" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="D236" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="E236" t="n">
+        <v>50.85</v>
+      </c>
+      <c r="F236" t="n">
+        <v>22126.385</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-1196047.05923661</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="C237" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="D237" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="E237" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="F237" t="n">
+        <v>10</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-1196037.05923661</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="C238" t="n">
+        <v>50.85</v>
+      </c>
+      <c r="D238" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="E238" t="n">
+        <v>50.85</v>
+      </c>
+      <c r="F238" t="n">
+        <v>19907.6365</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-1215944.69573661</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C239" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="D239" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E239" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="F239" t="n">
+        <v>154.6163</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-1216099.31203661</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C240" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="D240" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E240" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="F240" t="n">
+        <v>25.8709</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-1216099.31203661</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C241" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="D241" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E241" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="F241" t="n">
+        <v>26781.1888</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-1216099.31203661</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C242" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="D242" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E242" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="F242" t="n">
+        <v>97076.795</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-1216099.31203661</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>50.86</v>
+      </c>
+      <c r="C243" t="n">
+        <v>50.86</v>
+      </c>
+      <c r="D243" t="n">
+        <v>50.86</v>
+      </c>
+      <c r="E243" t="n">
+        <v>50.86</v>
+      </c>
+      <c r="F243" t="n">
+        <v>500</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-1215599.31203661</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="C244" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="D244" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="E244" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="F244" t="n">
+        <v>4625.8432</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-1210973.46883661</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="C245" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="D245" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="E245" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="F245" t="n">
+        <v>639.0928</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-1210334.37603661</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="C246" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="D246" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="E246" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="F246" t="n">
+        <v>13183.2531</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-1223517.62913661</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>50.79</v>
+      </c>
+      <c r="C247" t="n">
+        <v>50.79</v>
+      </c>
+      <c r="D247" t="n">
+        <v>50.79</v>
+      </c>
+      <c r="E247" t="n">
+        <v>50.79</v>
+      </c>
+      <c r="F247" t="n">
+        <v>36083.8881</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-1259601.51723661</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>50.81</v>
+      </c>
+      <c r="C248" t="n">
+        <v>50.81</v>
+      </c>
+      <c r="D248" t="n">
+        <v>50.81</v>
+      </c>
+      <c r="E248" t="n">
+        <v>50.81</v>
+      </c>
+      <c r="F248" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-1254601.51723661</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C249" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="D249" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E249" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="F249" t="n">
+        <v>215053.714</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-1469655.23123661</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>50.61</v>
+      </c>
+      <c r="C250" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="D250" t="n">
+        <v>50.61</v>
+      </c>
+      <c r="E250" t="n">
+        <v>50.43</v>
+      </c>
+      <c r="F250" t="n">
+        <v>104922.46835443</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-1574577.69959104</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>50.68</v>
+      </c>
+      <c r="C251" t="n">
+        <v>50.69</v>
+      </c>
+      <c r="D251" t="n">
+        <v>50.69</v>
+      </c>
+      <c r="E251" t="n">
+        <v>50.68</v>
+      </c>
+      <c r="F251" t="n">
+        <v>534.8576</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-1574042.84199104</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>50.74</v>
+      </c>
+      <c r="C252" t="n">
+        <v>50.74</v>
+      </c>
+      <c r="D252" t="n">
+        <v>50.74</v>
+      </c>
+      <c r="E252" t="n">
+        <v>50.74</v>
+      </c>
+      <c r="F252" t="n">
+        <v>172.8825</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-1573869.95949104</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="C253" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="D253" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="E253" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="F253" t="n">
+        <v>2607.1235</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-1576477.08299104</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="C254" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="D254" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="E254" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1076.2331</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-1576477.08299104</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>50.49</v>
+      </c>
+      <c r="C255" t="n">
+        <v>50.43</v>
+      </c>
+      <c r="D255" t="n">
+        <v>50.49</v>
+      </c>
+      <c r="E255" t="n">
+        <v>50.43</v>
+      </c>
+      <c r="F255" t="n">
+        <v>211853.116</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-1788330.19899104</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="C256" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="D256" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="E256" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="F256" t="n">
+        <v>5403.232</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-1782926.96699104</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="C257" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="D257" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="E257" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="F257" t="n">
+        <v>11017.6381</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-1782926.96699104</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="C258" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="D258" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="E258" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="F258" t="n">
+        <v>2373.2318</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-1782926.96699104</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="C259" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="D259" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="E259" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="F259" t="n">
+        <v>81918.56630000001</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-1782926.96699104</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="K259" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="C260" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="D260" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="E260" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="F260" t="n">
+        <v>10113.2398</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-1782926.96699104</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="C261" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="D261" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="E261" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="F261" t="n">
+        <v>7620.585</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-1782926.96699104</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="N261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="C262" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="D262" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="E262" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="F262" t="n">
+        <v>2097.6131</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-1782926.96699104</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="C263" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="D263" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="E263" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="F263" t="n">
+        <v>323.5</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-1782926.96699104</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="C264" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="D264" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="E264" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="F264" t="n">
+        <v>590.1127</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-1783517.07969104</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="n">
+        <v>1</v>
+      </c>
+      <c r="N264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>50.34</v>
+      </c>
+      <c r="C265" t="n">
+        <v>50.34</v>
+      </c>
+      <c r="D265" t="n">
+        <v>50.34</v>
+      </c>
+      <c r="E265" t="n">
+        <v>50.34</v>
+      </c>
+      <c r="F265" t="n">
+        <v>15.383</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-1783532.46269104</v>
+      </c>
+      <c r="H265" t="n">
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="K265" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="n">
+        <v>1</v>
+      </c>
+      <c r="N265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>50.61</v>
+      </c>
+      <c r="C266" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="D266" t="n">
+        <v>50.61</v>
+      </c>
+      <c r="E266" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="F266" t="n">
+        <v>322.2025</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-1783210.26019104</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>50.34</v>
+      </c>
+      <c r="K266" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="L266" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="C203" t="n">
-        <v>50.39</v>
-      </c>
-      <c r="D203" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="E203" t="n">
-        <v>50.39</v>
-      </c>
-      <c r="F203" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-1750742.29349104</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="n">
-        <v>50.64</v>
-      </c>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
+      <c r="M266" t="n">
+        <v>1</v>
+      </c>
+      <c r="N266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="C267" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="D267" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="E267" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="F267" t="n">
+        <v>24989.3907</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-1783210.26019104</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="K267" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="C204" t="n">
-        <v>50.65</v>
-      </c>
-      <c r="D204" t="n">
-        <v>50.65</v>
-      </c>
-      <c r="E204" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="F204" t="n">
-        <v>9700</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-1741042.29349104</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="n">
-        <v>50.39</v>
-      </c>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
+      <c r="M267" t="n">
+        <v>1</v>
+      </c>
+      <c r="N267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="C268" t="n">
+        <v>50.76</v>
+      </c>
+      <c r="D268" t="n">
+        <v>50.76</v>
+      </c>
+      <c r="E268" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="F268" t="n">
+        <v>32410</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-1750800.26019104</v>
+      </c>
+      <c r="H268" t="n">
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="K268" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>50.54</v>
-      </c>
-      <c r="C205" t="n">
-        <v>50.54</v>
-      </c>
-      <c r="D205" t="n">
-        <v>50.54</v>
-      </c>
-      <c r="E205" t="n">
-        <v>50.54</v>
-      </c>
-      <c r="F205" t="n">
-        <v>1100</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-1742142.29349104</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="n">
-        <v>50.65</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
+      <c r="M268" t="n">
+        <v>1</v>
+      </c>
+      <c r="N268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="C269" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="D269" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="E269" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="F269" t="n">
+        <v>20</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-1750780.26019104</v>
+      </c>
+      <c r="H269" t="n">
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>50.76</v>
+      </c>
+      <c r="K269" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="C206" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="D206" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="E206" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="F206" t="n">
-        <v>2470.5967</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-1739671.69679104</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="n">
-        <v>50.54</v>
-      </c>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
+      <c r="M269" t="n">
+        <v>1</v>
+      </c>
+      <c r="N269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="C270" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="D270" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="E270" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="F270" t="n">
+        <v>15.7971</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-1750796.05729104</v>
+      </c>
+      <c r="H270" t="n">
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="K270" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="C207" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="D207" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="E207" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="F207" t="n">
-        <v>6851.6462</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-1746523.34299104</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
+      <c r="M270" t="n">
+        <v>1</v>
+      </c>
+      <c r="N270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="C271" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="D271" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="E271" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="F271" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-1800796.05729104</v>
+      </c>
+      <c r="H271" t="n">
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="K271" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="C208" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="D208" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="E208" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="F208" t="n">
-        <v>27211.4828</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-1773734.82579104</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
+      <c r="M271" t="n">
+        <v>1</v>
+      </c>
+      <c r="N271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="C272" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="D272" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="E272" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="F272" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-1760796.05729104</v>
+      </c>
+      <c r="H272" t="n">
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="K272" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="C209" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="D209" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="E209" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="F209" t="n">
-        <v>1977.9127</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-1773734.82579104</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="C273" t="n">
+        <v>50.64</v>
+      </c>
+      <c r="D273" t="n">
+        <v>50.64</v>
+      </c>
+      <c r="E273" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="F273" t="n">
+        <v>40053.7638</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-1720742.29349104</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="K273" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>50.22</v>
-      </c>
-      <c r="C210" t="n">
-        <v>50.21</v>
-      </c>
-      <c r="D210" t="n">
-        <v>50.22</v>
-      </c>
-      <c r="E210" t="n">
-        <v>50.21</v>
-      </c>
-      <c r="F210" t="n">
-        <v>72612.0021</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-1846346.82789104</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+      <c r="N273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="C274" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="D274" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="E274" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="F274" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-1750742.29349104</v>
+      </c>
+      <c r="H274" t="n">
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>50.64</v>
+      </c>
+      <c r="K274" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
+      <c r="M274" t="n">
+        <v>1</v>
+      </c>
+      <c r="N274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
         <v>50.4</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C275" t="n">
+        <v>50.65</v>
+      </c>
+      <c r="D275" t="n">
+        <v>50.65</v>
+      </c>
+      <c r="E275" t="n">
         <v>50.4</v>
       </c>
-      <c r="D211" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="E211" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="F211" t="n">
-        <v>475.6342</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-1845871.19369104</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="n">
-        <v>50.21</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
+      <c r="F275" t="n">
+        <v>9700</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-1741042.29349104</v>
+      </c>
+      <c r="H275" t="n">
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="K275" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="M275" t="n">
+        <v>1</v>
+      </c>
+      <c r="N275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>50.54</v>
+      </c>
+      <c r="C276" t="n">
+        <v>50.54</v>
+      </c>
+      <c r="D276" t="n">
+        <v>50.54</v>
+      </c>
+      <c r="E276" t="n">
+        <v>50.54</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-1742142.29349104</v>
+      </c>
+      <c r="H276" t="n">
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>50.65</v>
+      </c>
+      <c r="K276" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M276" t="n">
+        <v>1</v>
+      </c>
+      <c r="N276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="C277" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="D277" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="E277" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="F277" t="n">
+        <v>2470.5967</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-1739671.69679104</v>
+      </c>
+      <c r="H277" t="n">
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>50.54</v>
+      </c>
+      <c r="K277" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+      <c r="N277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="C278" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="D278" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="E278" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="F278" t="n">
+        <v>6851.6462</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-1746523.34299104</v>
+      </c>
+      <c r="H278" t="n">
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="K278" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+      <c r="N278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="C279" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="D279" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="E279" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="F279" t="n">
+        <v>27211.4828</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-1773734.82579104</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M279" t="n">
+        <v>1</v>
+      </c>
+      <c r="N279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="C280" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="D280" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="E280" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1977.9127</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-1773734.82579104</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M280" t="n">
+        <v>1</v>
+      </c>
+      <c r="N280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>50.22</v>
+      </c>
+      <c r="C281" t="n">
+        <v>50.21</v>
+      </c>
+      <c r="D281" t="n">
+        <v>50.22</v>
+      </c>
+      <c r="E281" t="n">
+        <v>50.21</v>
+      </c>
+      <c r="F281" t="n">
+        <v>72612.0021</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-1846346.82789104</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M281" t="n">
+        <v>1</v>
+      </c>
+      <c r="N281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="C282" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="D282" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="E282" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="F282" t="n">
+        <v>475.6342</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-1845871.19369104</v>
+      </c>
+      <c r="H282" t="n">
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>50.21</v>
+      </c>
+      <c r="K282" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M282" t="n">
+        <v>1</v>
+      </c>
+      <c r="N282" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-26 BackTest ADA.xlsx
+++ b/BackTest/2020-01-26 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N282"/>
+  <dimension ref="A1:M282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>36479.4135079401</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>67233.6359079401</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>66523.7247079401</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>61923.7247079401</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-91269.50829205991</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-49736.59059205991</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>45513.40940794009</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>38437.62070794009</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>38437.62070794009</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>40837.62070794009</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>35673.68270794009</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>6911.494307940087</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>-56635.45369205991</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>-56620.82139205991</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>-46548.6181920599</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-46533.5873920599</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>-239403.1562920599</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>-267633.1562920599</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3289,15 @@
         <v>-267147.7236733799</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3322,15 @@
         <v>-267147.7236733799</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>-267247.7236733799</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>-246959.9870733799</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3421,15 @@
         <v>-241852.9269733799</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>-33062.18806133992</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>-51354.32626133992</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>-182692.0035613399</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>-180752.4231613399</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3619,15 @@
         <v>-180752.4231613399</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +3652,15 @@
         <v>-164788.5827613399</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3685,15 @@
         <v>-161256.0905613399</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4920,18 +4543,15 @@
         <v>-638752.1744613399</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7476,18 +6886,19 @@
         <v>-1236494.84243661</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
+        <v>51.03</v>
+      </c>
+      <c r="J197" t="n">
+        <v>51.03</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7512,18 +6923,23 @@
         <v>-1242371.25463661</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+        <v>51.03</v>
+      </c>
+      <c r="J198" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7548,18 +6964,23 @@
         <v>-1212371.25463661</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+        <v>50.86</v>
+      </c>
+      <c r="J199" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +7007,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7620,18 +7044,23 @@
         <v>-1145123.81593661</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+        <v>50.97</v>
+      </c>
+      <c r="J201" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7087,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7126,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7165,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7204,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7243,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7282,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7321,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7360,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7399,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7438,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7477,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7516,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7555,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7594,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7633,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7672,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7711,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7750,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7789,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7828,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7867,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7906,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7945,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8484,18 +7982,23 @@
         <v>-1110550.34863661</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+        <v>51.25</v>
+      </c>
+      <c r="J225" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8520,18 +8023,23 @@
         <v>-1103095.73193661</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+        <v>51.25</v>
+      </c>
+      <c r="J226" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8556,18 +8064,23 @@
         <v>-1103295.73193661</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+        <v>51.26</v>
+      </c>
+      <c r="J227" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8592,18 +8105,23 @@
         <v>-1103295.73193661</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+        <v>51.25</v>
+      </c>
+      <c r="J228" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8628,18 +8146,23 @@
         <v>-1104221.38403661</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+        <v>51.25</v>
+      </c>
+      <c r="J229" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8664,18 +8187,23 @@
         <v>-1124704.47343661</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+        <v>51.21</v>
+      </c>
+      <c r="J230" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8700,18 +8228,23 @@
         <v>-1123611.98703661</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+        <v>51.04</v>
+      </c>
+      <c r="J231" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8736,18 +8269,23 @@
         <v>-1123611.98703661</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+        <v>51.15</v>
+      </c>
+      <c r="J232" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8772,18 +8310,23 @@
         <v>-1123611.98703661</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+        <v>51.15</v>
+      </c>
+      <c r="J233" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8808,18 +8351,23 @@
         <v>-1168173.44423661</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+        <v>51.15</v>
+      </c>
+      <c r="J234" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8844,18 +8392,23 @@
         <v>-1218173.44423661</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+        <v>50.95</v>
+      </c>
+      <c r="J235" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8880,18 +8433,23 @@
         <v>-1196047.05923661</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+        <v>50.84</v>
+      </c>
+      <c r="J236" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8916,18 +8474,23 @@
         <v>-1196037.05923661</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+        <v>50.87</v>
+      </c>
+      <c r="J237" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8952,18 +8515,23 @@
         <v>-1215944.69573661</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+        <v>51.1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8558,19 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9024,18 +8595,23 @@
         <v>-1216099.31203661</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+        <v>50.8</v>
+      </c>
+      <c r="J240" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8638,19 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8677,19 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9132,18 +8714,23 @@
         <v>-1215599.31203661</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+        <v>50.8</v>
+      </c>
+      <c r="J243" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9168,18 +8755,23 @@
         <v>-1210973.46883661</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+        <v>50.86</v>
+      </c>
+      <c r="J244" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9204,18 +8796,23 @@
         <v>-1210334.37603661</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+        <v>50.87</v>
+      </c>
+      <c r="J245" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9240,18 +8837,23 @@
         <v>-1223517.62913661</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+        <v>50.88</v>
+      </c>
+      <c r="J246" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9276,18 +8878,23 @@
         <v>-1259601.51723661</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+        <v>50.8</v>
+      </c>
+      <c r="J247" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9312,18 +8919,23 @@
         <v>-1254601.51723661</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+        <v>50.79</v>
+      </c>
+      <c r="J248" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9348,18 +8960,23 @@
         <v>-1469655.23123661</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+        <v>50.81</v>
+      </c>
+      <c r="J249" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9384,18 +9001,23 @@
         <v>-1574577.69959104</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+        <v>50.71</v>
+      </c>
+      <c r="J250" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9420,18 +9042,23 @@
         <v>-1574042.84199104</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+        <v>50.56</v>
+      </c>
+      <c r="J251" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9456,18 +9083,23 @@
         <v>-1573869.95949104</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+        <v>50.69</v>
+      </c>
+      <c r="J252" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9492,18 +9124,23 @@
         <v>-1576477.08299104</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+        <v>50.74</v>
+      </c>
+      <c r="J253" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9528,18 +9165,23 @@
         <v>-1576477.08299104</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+        <v>50.62</v>
+      </c>
+      <c r="J254" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9564,18 +9206,23 @@
         <v>-1788330.19899104</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+        <v>50.62</v>
+      </c>
+      <c r="J255" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9600,18 +9247,23 @@
         <v>-1782926.96699104</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+        <v>50.43</v>
+      </c>
+      <c r="J256" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9636,18 +9288,23 @@
         <v>-1782926.96699104</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+        <v>50.72</v>
+      </c>
+      <c r="J257" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9672,18 +9329,23 @@
         <v>-1782926.96699104</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+        <v>50.72</v>
+      </c>
+      <c r="J258" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9708,22 +9370,23 @@
         <v>-1782926.96699104</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
+        <v>50.72</v>
       </c>
       <c r="J259" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="K259" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+        <v>51.03</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9748,24 +9411,23 @@
         <v>-1782926.96699104</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
         <v>50.72</v>
       </c>
-      <c r="L260" t="inlineStr">
+      <c r="J260" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K260" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9790,24 +9452,23 @@
         <v>-1782926.96699104</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
         <v>50.72</v>
       </c>
-      <c r="L261" t="inlineStr">
+      <c r="J261" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K261" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9832,18 +9493,23 @@
         <v>-1782926.96699104</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+        <v>50.72</v>
+      </c>
+      <c r="J262" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9868,18 +9534,23 @@
         <v>-1782926.96699104</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+        <v>50.72</v>
+      </c>
+      <c r="J263" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9904,18 +9575,23 @@
         <v>-1783517.07969104</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+        <v>50.72</v>
+      </c>
+      <c r="J264" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9940,22 +9616,23 @@
         <v>-1783532.46269104</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
+        <v>50.71</v>
       </c>
       <c r="J265" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="K265" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+        <v>51.03</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9980,26 +9657,23 @@
         <v>-1783210.26019104</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" t="n">
-        <v>0</v>
+        <v>50.34</v>
       </c>
       <c r="J266" t="n">
-        <v>50.34</v>
-      </c>
-      <c r="K266" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L266" t="inlineStr">
+        <v>51.03</v>
+      </c>
+      <c r="K266" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10024,26 +9698,23 @@
         <v>-1783210.26019104</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267" t="n">
-        <v>0</v>
+        <v>50.46</v>
       </c>
       <c r="J267" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="K267" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L267" t="inlineStr">
+        <v>51.03</v>
+      </c>
+      <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10068,26 +9739,23 @@
         <v>-1750800.26019104</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I268" t="n">
-        <v>0</v>
+        <v>50.46</v>
       </c>
       <c r="J268" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="K268" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L268" t="inlineStr">
+        <v>51.03</v>
+      </c>
+      <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10112,26 +9780,23 @@
         <v>-1750780.26019104</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I269" t="n">
-        <v>0</v>
+        <v>50.76</v>
       </c>
       <c r="J269" t="n">
-        <v>50.76</v>
-      </c>
-      <c r="K269" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L269" t="inlineStr">
+        <v>51.03</v>
+      </c>
+      <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10156,26 +9821,23 @@
         <v>-1750796.05729104</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I270" t="n">
-        <v>0</v>
+        <v>50.9</v>
       </c>
       <c r="J270" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="K270" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L270" t="inlineStr">
+        <v>51.03</v>
+      </c>
+      <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10200,26 +9862,21 @@
         <v>-1800796.05729104</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="K271" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L271" t="inlineStr">
+        <v>51.03</v>
+      </c>
+      <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10244,26 +9901,21 @@
         <v>-1760796.05729104</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>50.39</v>
-      </c>
-      <c r="K272" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L272" t="inlineStr">
+        <v>51.03</v>
+      </c>
+      <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10288,26 +9940,21 @@
         <v>-1720742.29349104</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>50.41</v>
-      </c>
-      <c r="K273" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L273" t="inlineStr">
+        <v>51.03</v>
+      </c>
+      <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10332,26 +9979,21 @@
         <v>-1750742.29349104</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>50.64</v>
-      </c>
-      <c r="K274" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L274" t="inlineStr">
+        <v>51.03</v>
+      </c>
+      <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10376,26 +10018,21 @@
         <v>-1741042.29349104</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>50.39</v>
-      </c>
-      <c r="K275" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L275" t="inlineStr">
+        <v>51.03</v>
+      </c>
+      <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10420,26 +10057,21 @@
         <v>-1742142.29349104</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>50.65</v>
-      </c>
-      <c r="K276" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L276" t="inlineStr">
+        <v>51.03</v>
+      </c>
+      <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10464,26 +10096,23 @@
         <v>-1739671.69679104</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277" t="n">
-        <v>0</v>
+        <v>50.54</v>
       </c>
       <c r="J277" t="n">
-        <v>50.54</v>
-      </c>
-      <c r="K277" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L277" t="inlineStr">
+        <v>51.03</v>
+      </c>
+      <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10508,26 +10137,21 @@
         <v>-1746523.34299104</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="K278" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L278" t="inlineStr">
+        <v>51.03</v>
+      </c>
+      <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10554,22 +10178,19 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L279" t="inlineStr">
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10594,24 +10215,23 @@
         <v>-1773734.82579104</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L280" t="inlineStr">
+        <v>50.47</v>
+      </c>
+      <c r="J280" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10638,22 +10258,19 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L281" t="inlineStr">
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10678,28 +10295,23 @@
         <v>-1845871.19369104</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>50.21</v>
-      </c>
-      <c r="K282" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="L282" t="inlineStr">
+        <v>51.03</v>
+      </c>
+      <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest ADA.xlsx
+++ b/BackTest/2020-01-26 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>36479.4135079401</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>67233.6359079401</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>66523.7247079401</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>61923.7247079401</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-91269.50829205991</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-49736.59059205991</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>45513.40940794009</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>38437.62070794009</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>38437.62070794009</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>40837.62070794009</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>35673.68270794009</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>35673.68270794009</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>35375.99310794009</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>43375.99310794009</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>41654.54440794009</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>39929.78670794009</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>39929.78670794009</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-34771.37359205991</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-34771.37359205991</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>68779.68130794009</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>68937.37890794009</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>6911.494307940087</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-56635.45369205991</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-56620.82139205991</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-46548.6181920599</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-46533.5873920599</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-259313.0554920599</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-259358.0974920599</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-259452.9747920599</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-275194.1011920599</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-275194.1011920599</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-275194.1011920599</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-275194.1011920599</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-294472.4765920599</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-304330.8775920599</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-313113.6620920599</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-313088.3421920599</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-341338.3421920599</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-340838.3421920599</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-336573.6975920599</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-342765.5060920599</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-329983.2870920599</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-329973.2870920599</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-329973.2870920599</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-239403.1562920599</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-267633.1562920599</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-267147.7236733799</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-267147.7236733799</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-267247.7236733799</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-246959.9870733799</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-241852.9269733799</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-33062.18806133992</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-51354.32626133992</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-182692.0035613399</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-180752.4231613399</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-180752.4231613399</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-164788.5827613399</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-161256.0905613399</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-161256.0905613399</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-166026.6235613399</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-214583.6043613399</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-92149.83366133992</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-233987.9776613399</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-279750.7261613399</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-430039.3100613399</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-425839.3101613399</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-404093.4212613399</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-464183.3836613399</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-464165.0936613399</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-564165.09366134</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-605165.09366134</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-631574.35236134</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-638407.77806134</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-638407.77806134</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-647961.30066134</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-597961.30066134</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-729767.00216134</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-641328.48736134</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-591328.48736134</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-597329.63606134</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-597664.14546134</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-637664.14546134</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-654011.82486134</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-638752.1744613399</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -6886,14 +6886,10 @@
         <v>-1236494.84243661</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="J197" t="n">
-        <v>51.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
@@ -6923,2302 +6919,1898 @@
         <v>-1242371.25463661</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="J198" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K198" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="C199" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="D199" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="E199" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="F199" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-1212371.25463661</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>50.97</v>
+      </c>
+      <c r="C200" t="n">
+        <v>50.97</v>
+      </c>
+      <c r="D200" t="n">
+        <v>50.97</v>
+      </c>
+      <c r="E200" t="n">
+        <v>50.97</v>
+      </c>
+      <c r="F200" t="n">
+        <v>200</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-1212171.25463661</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>51</v>
+      </c>
+      <c r="C201" t="n">
+        <v>51</v>
+      </c>
+      <c r="D201" t="n">
+        <v>51</v>
+      </c>
+      <c r="E201" t="n">
+        <v>51</v>
+      </c>
+      <c r="F201" t="n">
+        <v>67047.4387</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>51</v>
+      </c>
+      <c r="C202" t="n">
+        <v>51</v>
+      </c>
+      <c r="D202" t="n">
+        <v>51</v>
+      </c>
+      <c r="E202" t="n">
+        <v>51</v>
+      </c>
+      <c r="F202" t="n">
+        <v>28174.9156</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>51</v>
+      </c>
+      <c r="C203" t="n">
+        <v>51</v>
+      </c>
+      <c r="D203" t="n">
+        <v>51</v>
+      </c>
+      <c r="E203" t="n">
+        <v>51</v>
+      </c>
+      <c r="F203" t="n">
+        <v>56734.9978</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>51</v>
+      </c>
+      <c r="C204" t="n">
+        <v>51</v>
+      </c>
+      <c r="D204" t="n">
+        <v>51</v>
+      </c>
+      <c r="E204" t="n">
+        <v>51</v>
+      </c>
+      <c r="F204" t="n">
+        <v>10980.4941</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>51</v>
+      </c>
+      <c r="C205" t="n">
+        <v>51</v>
+      </c>
+      <c r="D205" t="n">
+        <v>51</v>
+      </c>
+      <c r="E205" t="n">
+        <v>51</v>
+      </c>
+      <c r="F205" t="n">
+        <v>10100</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>51</v>
+      </c>
+      <c r="C206" t="n">
+        <v>51</v>
+      </c>
+      <c r="D206" t="n">
+        <v>51</v>
+      </c>
+      <c r="E206" t="n">
+        <v>51</v>
+      </c>
+      <c r="F206" t="n">
+        <v>2754.838</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>51</v>
+      </c>
+      <c r="C207" t="n">
+        <v>51</v>
+      </c>
+      <c r="D207" t="n">
+        <v>51</v>
+      </c>
+      <c r="E207" t="n">
+        <v>51</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2193.3769</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>51</v>
+      </c>
+      <c r="C208" t="n">
+        <v>51</v>
+      </c>
+      <c r="D208" t="n">
+        <v>51</v>
+      </c>
+      <c r="E208" t="n">
+        <v>51</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2430.8336</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>51</v>
+      </c>
+      <c r="C209" t="n">
+        <v>51</v>
+      </c>
+      <c r="D209" t="n">
+        <v>51</v>
+      </c>
+      <c r="E209" t="n">
+        <v>51</v>
+      </c>
+      <c r="F209" t="n">
+        <v>6843.8585</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>51</v>
+      </c>
+      <c r="C210" t="n">
+        <v>51</v>
+      </c>
+      <c r="D210" t="n">
+        <v>51</v>
+      </c>
+      <c r="E210" t="n">
+        <v>51</v>
+      </c>
+      <c r="F210" t="n">
+        <v>5446.1859</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>51</v>
+      </c>
+      <c r="C211" t="n">
+        <v>51</v>
+      </c>
+      <c r="D211" t="n">
+        <v>51</v>
+      </c>
+      <c r="E211" t="n">
+        <v>51</v>
+      </c>
+      <c r="F211" t="n">
+        <v>10227.2959</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>51</v>
+      </c>
+      <c r="C212" t="n">
+        <v>51</v>
+      </c>
+      <c r="D212" t="n">
+        <v>51</v>
+      </c>
+      <c r="E212" t="n">
+        <v>51</v>
+      </c>
+      <c r="F212" t="n">
+        <v>17000</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>51</v>
+      </c>
+      <c r="C213" t="n">
+        <v>51</v>
+      </c>
+      <c r="D213" t="n">
+        <v>51</v>
+      </c>
+      <c r="E213" t="n">
+        <v>51</v>
+      </c>
+      <c r="F213" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-1145123.81593661</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>50.98</v>
+      </c>
+      <c r="C214" t="n">
+        <v>50.98</v>
+      </c>
+      <c r="D214" t="n">
+        <v>50.98</v>
+      </c>
+      <c r="E214" t="n">
+        <v>50.98</v>
+      </c>
+      <c r="F214" t="n">
+        <v>10</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-1145133.81593661</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="C215" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="D215" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="E215" t="n">
+        <v>50.78</v>
+      </c>
+      <c r="F215" t="n">
+        <v>17250.216</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-1162384.03193661</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>51</v>
+      </c>
+      <c r="C216" t="n">
+        <v>51</v>
+      </c>
+      <c r="D216" t="n">
+        <v>51</v>
+      </c>
+      <c r="E216" t="n">
+        <v>51</v>
+      </c>
+      <c r="F216" t="n">
+        <v>11899.722</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-1150484.30993661</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>51</v>
+      </c>
+      <c r="C217" t="n">
+        <v>51</v>
+      </c>
+      <c r="D217" t="n">
+        <v>51</v>
+      </c>
+      <c r="E217" t="n">
+        <v>51</v>
+      </c>
+      <c r="F217" t="n">
+        <v>39703.4264</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-1150484.30993661</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>51</v>
+      </c>
+      <c r="C218" t="n">
+        <v>51</v>
+      </c>
+      <c r="D218" t="n">
+        <v>51</v>
+      </c>
+      <c r="E218" t="n">
+        <v>51</v>
+      </c>
+      <c r="F218" t="n">
+        <v>53777.8185</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-1150484.30993661</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>51.14</v>
+      </c>
+      <c r="C219" t="n">
+        <v>51.14</v>
+      </c>
+      <c r="D219" t="n">
+        <v>51.14</v>
+      </c>
+      <c r="E219" t="n">
+        <v>51.14</v>
+      </c>
+      <c r="F219" t="n">
+        <v>5297.5878</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-1145186.722136609</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>51.14</v>
+      </c>
+      <c r="C220" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="D220" t="n">
+        <v>51.23</v>
+      </c>
+      <c r="E220" t="n">
+        <v>51.14</v>
+      </c>
+      <c r="F220" t="n">
+        <v>32615.7836</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-1112570.93853661</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="C221" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="D221" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E221" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="F221" t="n">
+        <v>8535.8339</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-1112570.93853661</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="C222" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="D222" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E222" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="F222" t="n">
+        <v>143.2745</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-1112570.93853661</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="C223" t="n">
+        <v>51.12</v>
+      </c>
+      <c r="D223" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E223" t="n">
+        <v>51.12</v>
+      </c>
+      <c r="F223" t="n">
+        <v>3078.3309</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-1115649.269436609</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>51.24</v>
+      </c>
+      <c r="C224" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="D224" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="E224" t="n">
+        <v>51.24</v>
+      </c>
+      <c r="F224" t="n">
+        <v>5098.9208</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-1110550.34863661</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="C225" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="D225" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="E225" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="F225" t="n">
+        <v>3168.5789</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-1110550.34863661</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="C226" t="n">
+        <v>51.26</v>
+      </c>
+      <c r="D226" t="n">
+        <v>51.26</v>
+      </c>
+      <c r="E226" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="F226" t="n">
+        <v>7454.6167</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-1103095.73193661</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="C227" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="D227" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="E227" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="F227" t="n">
+        <v>200</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-1103295.73193661</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="C228" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="D228" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="E228" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="F228" t="n">
+        <v>924.7895</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-1103295.73193661</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>51.21</v>
+      </c>
+      <c r="C229" t="n">
+        <v>51.21</v>
+      </c>
+      <c r="D229" t="n">
+        <v>51.21</v>
+      </c>
+      <c r="E229" t="n">
+        <v>51.21</v>
+      </c>
+      <c r="F229" t="n">
+        <v>925.6521</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-1104221.38403661</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="C230" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="D230" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="E230" t="n">
+        <v>51.04</v>
+      </c>
+      <c r="F230" t="n">
+        <v>20483.0894</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-1124704.47343661</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="C231" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="D231" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="E231" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1092.4864</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-1123611.98703661</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="C232" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="D232" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="E232" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="F232" t="n">
+        <v>8749.1811</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-1123611.98703661</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="C233" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="D233" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="E233" t="n">
+        <v>51.15</v>
+      </c>
+      <c r="F233" t="n">
+        <v>29358.3325</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-1123611.98703661</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>51</v>
+      </c>
+      <c r="C234" t="n">
+        <v>50.95</v>
+      </c>
+      <c r="D234" t="n">
+        <v>51</v>
+      </c>
+      <c r="E234" t="n">
+        <v>50.95</v>
+      </c>
+      <c r="F234" t="n">
+        <v>44561.4572</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-1168173.44423661</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>50.94</v>
+      </c>
+      <c r="C235" t="n">
+        <v>50.84</v>
+      </c>
+      <c r="D235" t="n">
+        <v>50.94</v>
+      </c>
+      <c r="E235" t="n">
+        <v>50.84</v>
+      </c>
+      <c r="F235" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-1218173.44423661</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>50.85</v>
+      </c>
+      <c r="C236" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="D236" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="E236" t="n">
+        <v>50.85</v>
+      </c>
+      <c r="F236" t="n">
+        <v>22126.385</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-1196047.05923661</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="C237" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="D237" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="E237" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="F237" t="n">
+        <v>10</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-1196037.05923661</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="C238" t="n">
+        <v>50.85</v>
+      </c>
+      <c r="D238" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="E238" t="n">
+        <v>50.85</v>
+      </c>
+      <c r="F238" t="n">
+        <v>19907.6365</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-1215944.69573661</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C239" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="D239" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E239" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="F239" t="n">
+        <v>154.6163</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-1216099.31203661</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C240" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="D240" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E240" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="F240" t="n">
+        <v>25.8709</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-1216099.31203661</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C241" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="D241" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E241" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="F241" t="n">
+        <v>26781.1888</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-1216099.31203661</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C242" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="D242" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E242" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="F242" t="n">
+        <v>97076.795</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-1216099.31203661</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>50.86</v>
+      </c>
+      <c r="C243" t="n">
+        <v>50.86</v>
+      </c>
+      <c r="D243" t="n">
+        <v>50.86</v>
+      </c>
+      <c r="E243" t="n">
+        <v>50.86</v>
+      </c>
+      <c r="F243" t="n">
+        <v>500</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-1215599.31203661</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="C244" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="D244" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="E244" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="F244" t="n">
+        <v>4625.8432</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-1210973.46883661</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="C245" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="D245" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="E245" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="F245" t="n">
+        <v>639.0928</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-1210334.37603661</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="C246" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="D246" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="E246" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="F246" t="n">
+        <v>13183.2531</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-1223517.62913661</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>50.79</v>
+      </c>
+      <c r="C247" t="n">
+        <v>50.79</v>
+      </c>
+      <c r="D247" t="n">
+        <v>50.79</v>
+      </c>
+      <c r="E247" t="n">
+        <v>50.79</v>
+      </c>
+      <c r="F247" t="n">
+        <v>36083.8881</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-1259601.51723661</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>50.81</v>
+      </c>
+      <c r="C248" t="n">
+        <v>50.81</v>
+      </c>
+      <c r="D248" t="n">
+        <v>50.81</v>
+      </c>
+      <c r="E248" t="n">
+        <v>50.81</v>
+      </c>
+      <c r="F248" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-1254601.51723661</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="C249" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="D249" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="E249" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="F249" t="n">
+        <v>215053.714</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-1469655.23123661</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>50.61</v>
+      </c>
+      <c r="C250" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="D250" t="n">
+        <v>50.61</v>
+      </c>
+      <c r="E250" t="n">
+        <v>50.43</v>
+      </c>
+      <c r="F250" t="n">
+        <v>104922.46835443</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-1574577.69959104</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>50.68</v>
+      </c>
+      <c r="C251" t="n">
+        <v>50.69</v>
+      </c>
+      <c r="D251" t="n">
+        <v>50.69</v>
+      </c>
+      <c r="E251" t="n">
+        <v>50.68</v>
+      </c>
+      <c r="F251" t="n">
+        <v>534.8576</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-1574042.84199104</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>50.74</v>
+      </c>
+      <c r="C252" t="n">
+        <v>50.74</v>
+      </c>
+      <c r="D252" t="n">
+        <v>50.74</v>
+      </c>
+      <c r="E252" t="n">
+        <v>50.74</v>
+      </c>
+      <c r="F252" t="n">
+        <v>172.8825</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-1573869.95949104</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="C253" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="D253" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="E253" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="F253" t="n">
+        <v>2607.1235</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-1576477.08299104</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="C254" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="D254" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="E254" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1076.2331</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-1576477.08299104</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>50.49</v>
+      </c>
+      <c r="C255" t="n">
+        <v>50.43</v>
+      </c>
+      <c r="D255" t="n">
+        <v>50.49</v>
+      </c>
+      <c r="E255" t="n">
+        <v>50.43</v>
+      </c>
+      <c r="F255" t="n">
+        <v>211853.116</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-1788330.19899104</v>
+      </c>
+      <c r="H255" t="n">
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="C199" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="D199" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="E199" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="F199" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-1212371.25463661</v>
-      </c>
-      <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>50.86</v>
-      </c>
-      <c r="J199" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>50.97</v>
-      </c>
-      <c r="C200" t="n">
-        <v>50.97</v>
-      </c>
-      <c r="D200" t="n">
-        <v>50.97</v>
-      </c>
-      <c r="E200" t="n">
-        <v>50.97</v>
-      </c>
-      <c r="F200" t="n">
-        <v>200</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-1212171.25463661</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>51</v>
-      </c>
-      <c r="C201" t="n">
-        <v>51</v>
-      </c>
-      <c r="D201" t="n">
-        <v>51</v>
-      </c>
-      <c r="E201" t="n">
-        <v>51</v>
-      </c>
-      <c r="F201" t="n">
-        <v>67047.4387</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>50.97</v>
-      </c>
-      <c r="J201" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>51</v>
-      </c>
-      <c r="C202" t="n">
-        <v>51</v>
-      </c>
-      <c r="D202" t="n">
-        <v>51</v>
-      </c>
-      <c r="E202" t="n">
-        <v>51</v>
-      </c>
-      <c r="F202" t="n">
-        <v>28174.9156</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>51</v>
-      </c>
-      <c r="C203" t="n">
-        <v>51</v>
-      </c>
-      <c r="D203" t="n">
-        <v>51</v>
-      </c>
-      <c r="E203" t="n">
-        <v>51</v>
-      </c>
-      <c r="F203" t="n">
-        <v>56734.9978</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>51</v>
-      </c>
-      <c r="C204" t="n">
-        <v>51</v>
-      </c>
-      <c r="D204" t="n">
-        <v>51</v>
-      </c>
-      <c r="E204" t="n">
-        <v>51</v>
-      </c>
-      <c r="F204" t="n">
-        <v>10980.4941</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>51</v>
-      </c>
-      <c r="C205" t="n">
-        <v>51</v>
-      </c>
-      <c r="D205" t="n">
-        <v>51</v>
-      </c>
-      <c r="E205" t="n">
-        <v>51</v>
-      </c>
-      <c r="F205" t="n">
-        <v>10100</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>51</v>
-      </c>
-      <c r="C206" t="n">
-        <v>51</v>
-      </c>
-      <c r="D206" t="n">
-        <v>51</v>
-      </c>
-      <c r="E206" t="n">
-        <v>51</v>
-      </c>
-      <c r="F206" t="n">
-        <v>2754.838</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>51</v>
-      </c>
-      <c r="C207" t="n">
-        <v>51</v>
-      </c>
-      <c r="D207" t="n">
-        <v>51</v>
-      </c>
-      <c r="E207" t="n">
-        <v>51</v>
-      </c>
-      <c r="F207" t="n">
-        <v>2193.3769</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>51</v>
-      </c>
-      <c r="C208" t="n">
-        <v>51</v>
-      </c>
-      <c r="D208" t="n">
-        <v>51</v>
-      </c>
-      <c r="E208" t="n">
-        <v>51</v>
-      </c>
-      <c r="F208" t="n">
-        <v>2430.8336</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>51</v>
-      </c>
-      <c r="C209" t="n">
-        <v>51</v>
-      </c>
-      <c r="D209" t="n">
-        <v>51</v>
-      </c>
-      <c r="E209" t="n">
-        <v>51</v>
-      </c>
-      <c r="F209" t="n">
-        <v>6843.8585</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>51</v>
-      </c>
-      <c r="C210" t="n">
-        <v>51</v>
-      </c>
-      <c r="D210" t="n">
-        <v>51</v>
-      </c>
-      <c r="E210" t="n">
-        <v>51</v>
-      </c>
-      <c r="F210" t="n">
-        <v>5446.1859</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>51</v>
-      </c>
-      <c r="C211" t="n">
-        <v>51</v>
-      </c>
-      <c r="D211" t="n">
-        <v>51</v>
-      </c>
-      <c r="E211" t="n">
-        <v>51</v>
-      </c>
-      <c r="F211" t="n">
-        <v>10227.2959</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>51</v>
-      </c>
-      <c r="C212" t="n">
-        <v>51</v>
-      </c>
-      <c r="D212" t="n">
-        <v>51</v>
-      </c>
-      <c r="E212" t="n">
-        <v>51</v>
-      </c>
-      <c r="F212" t="n">
-        <v>17000</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>51</v>
-      </c>
-      <c r="C213" t="n">
-        <v>51</v>
-      </c>
-      <c r="D213" t="n">
-        <v>51</v>
-      </c>
-      <c r="E213" t="n">
-        <v>51</v>
-      </c>
-      <c r="F213" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>50.98</v>
-      </c>
-      <c r="C214" t="n">
-        <v>50.98</v>
-      </c>
-      <c r="D214" t="n">
-        <v>50.98</v>
-      </c>
-      <c r="E214" t="n">
-        <v>50.98</v>
-      </c>
-      <c r="F214" t="n">
-        <v>10</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-1145133.81593661</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>50.78</v>
-      </c>
-      <c r="C215" t="n">
-        <v>50.78</v>
-      </c>
-      <c r="D215" t="n">
-        <v>50.78</v>
-      </c>
-      <c r="E215" t="n">
-        <v>50.78</v>
-      </c>
-      <c r="F215" t="n">
-        <v>17250.216</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-1162384.03193661</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>51</v>
-      </c>
-      <c r="C216" t="n">
-        <v>51</v>
-      </c>
-      <c r="D216" t="n">
-        <v>51</v>
-      </c>
-      <c r="E216" t="n">
-        <v>51</v>
-      </c>
-      <c r="F216" t="n">
-        <v>11899.722</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-1150484.30993661</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>51</v>
-      </c>
-      <c r="C217" t="n">
-        <v>51</v>
-      </c>
-      <c r="D217" t="n">
-        <v>51</v>
-      </c>
-      <c r="E217" t="n">
-        <v>51</v>
-      </c>
-      <c r="F217" t="n">
-        <v>39703.4264</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-1150484.30993661</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>51</v>
-      </c>
-      <c r="C218" t="n">
-        <v>51</v>
-      </c>
-      <c r="D218" t="n">
-        <v>51</v>
-      </c>
-      <c r="E218" t="n">
-        <v>51</v>
-      </c>
-      <c r="F218" t="n">
-        <v>53777.8185</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-1150484.30993661</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>51.14</v>
-      </c>
-      <c r="C219" t="n">
-        <v>51.14</v>
-      </c>
-      <c r="D219" t="n">
-        <v>51.14</v>
-      </c>
-      <c r="E219" t="n">
-        <v>51.14</v>
-      </c>
-      <c r="F219" t="n">
-        <v>5297.5878</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-1145186.722136609</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>51.14</v>
-      </c>
-      <c r="C220" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="D220" t="n">
-        <v>51.23</v>
-      </c>
-      <c r="E220" t="n">
-        <v>51.14</v>
-      </c>
-      <c r="F220" t="n">
-        <v>32615.7836</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-1112570.93853661</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="C221" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="D221" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="E221" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="F221" t="n">
-        <v>8535.8339</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-1112570.93853661</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="C222" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="D222" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="E222" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="F222" t="n">
-        <v>143.2745</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-1112570.93853661</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="C223" t="n">
-        <v>51.12</v>
-      </c>
-      <c r="D223" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="E223" t="n">
-        <v>51.12</v>
-      </c>
-      <c r="F223" t="n">
-        <v>3078.3309</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-1115649.269436609</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>51.24</v>
-      </c>
-      <c r="C224" t="n">
-        <v>51.25</v>
-      </c>
-      <c r="D224" t="n">
-        <v>51.25</v>
-      </c>
-      <c r="E224" t="n">
-        <v>51.24</v>
-      </c>
-      <c r="F224" t="n">
-        <v>5098.9208</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-1110550.34863661</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>51.25</v>
-      </c>
-      <c r="C225" t="n">
-        <v>51.25</v>
-      </c>
-      <c r="D225" t="n">
-        <v>51.25</v>
-      </c>
-      <c r="E225" t="n">
-        <v>51.25</v>
-      </c>
-      <c r="F225" t="n">
-        <v>3168.5789</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-1110550.34863661</v>
-      </c>
-      <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>51.25</v>
-      </c>
-      <c r="J225" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>51.25</v>
-      </c>
-      <c r="C226" t="n">
-        <v>51.26</v>
-      </c>
-      <c r="D226" t="n">
-        <v>51.26</v>
-      </c>
-      <c r="E226" t="n">
-        <v>51.25</v>
-      </c>
-      <c r="F226" t="n">
-        <v>7454.6167</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-1103095.73193661</v>
-      </c>
-      <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>51.25</v>
-      </c>
-      <c r="J226" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>51.25</v>
-      </c>
-      <c r="C227" t="n">
-        <v>51.25</v>
-      </c>
-      <c r="D227" t="n">
-        <v>51.25</v>
-      </c>
-      <c r="E227" t="n">
-        <v>51.25</v>
-      </c>
-      <c r="F227" t="n">
-        <v>200</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-1103295.73193661</v>
-      </c>
-      <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>51.26</v>
-      </c>
-      <c r="J227" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>51.25</v>
-      </c>
-      <c r="C228" t="n">
-        <v>51.25</v>
-      </c>
-      <c r="D228" t="n">
-        <v>51.25</v>
-      </c>
-      <c r="E228" t="n">
-        <v>51.25</v>
-      </c>
-      <c r="F228" t="n">
-        <v>924.7895</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-1103295.73193661</v>
-      </c>
-      <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>51.25</v>
-      </c>
-      <c r="J228" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>51.21</v>
-      </c>
-      <c r="C229" t="n">
-        <v>51.21</v>
-      </c>
-      <c r="D229" t="n">
-        <v>51.21</v>
-      </c>
-      <c r="E229" t="n">
-        <v>51.21</v>
-      </c>
-      <c r="F229" t="n">
-        <v>925.6521</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-1104221.38403661</v>
-      </c>
-      <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>51.25</v>
-      </c>
-      <c r="J229" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="C230" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="D230" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="E230" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="F230" t="n">
-        <v>20483.0894</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-1124704.47343661</v>
-      </c>
-      <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>51.21</v>
-      </c>
-      <c r="J230" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>51.15</v>
-      </c>
-      <c r="C231" t="n">
-        <v>51.15</v>
-      </c>
-      <c r="D231" t="n">
-        <v>51.15</v>
-      </c>
-      <c r="E231" t="n">
-        <v>51.15</v>
-      </c>
-      <c r="F231" t="n">
-        <v>1092.4864</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-1123611.98703661</v>
-      </c>
-      <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>51.04</v>
-      </c>
-      <c r="J231" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>51.15</v>
-      </c>
-      <c r="C232" t="n">
-        <v>51.15</v>
-      </c>
-      <c r="D232" t="n">
-        <v>51.15</v>
-      </c>
-      <c r="E232" t="n">
-        <v>51.15</v>
-      </c>
-      <c r="F232" t="n">
-        <v>8749.1811</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-1123611.98703661</v>
-      </c>
-      <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>51.15</v>
-      </c>
-      <c r="J232" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>51.15</v>
-      </c>
-      <c r="C233" t="n">
-        <v>51.15</v>
-      </c>
-      <c r="D233" t="n">
-        <v>51.15</v>
-      </c>
-      <c r="E233" t="n">
-        <v>51.15</v>
-      </c>
-      <c r="F233" t="n">
-        <v>29358.3325</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-1123611.98703661</v>
-      </c>
-      <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>51.15</v>
-      </c>
-      <c r="J233" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>51</v>
-      </c>
-      <c r="C234" t="n">
-        <v>50.95</v>
-      </c>
-      <c r="D234" t="n">
-        <v>51</v>
-      </c>
-      <c r="E234" t="n">
-        <v>50.95</v>
-      </c>
-      <c r="F234" t="n">
-        <v>44561.4572</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-1168173.44423661</v>
-      </c>
-      <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>51.15</v>
-      </c>
-      <c r="J234" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>50.94</v>
-      </c>
-      <c r="C235" t="n">
-        <v>50.84</v>
-      </c>
-      <c r="D235" t="n">
-        <v>50.94</v>
-      </c>
-      <c r="E235" t="n">
-        <v>50.84</v>
-      </c>
-      <c r="F235" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-1218173.44423661</v>
-      </c>
-      <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>50.95</v>
-      </c>
-      <c r="J235" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>50.85</v>
-      </c>
-      <c r="C236" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="D236" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="E236" t="n">
-        <v>50.85</v>
-      </c>
-      <c r="F236" t="n">
-        <v>22126.385</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-1196047.05923661</v>
-      </c>
-      <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>50.84</v>
-      </c>
-      <c r="J236" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="C237" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="D237" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="E237" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="F237" t="n">
-        <v>10</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-1196037.05923661</v>
-      </c>
-      <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="J237" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="C238" t="n">
-        <v>50.85</v>
-      </c>
-      <c r="D238" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="E238" t="n">
-        <v>50.85</v>
-      </c>
-      <c r="F238" t="n">
-        <v>19907.6365</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-1215944.69573661</v>
-      </c>
-      <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="J238" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="C239" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="D239" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="E239" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="F239" t="n">
-        <v>154.6163</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-1216099.31203661</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="C240" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="D240" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="E240" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="F240" t="n">
-        <v>25.8709</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-1216099.31203661</v>
-      </c>
-      <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="J240" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="C241" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="D241" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="E241" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="F241" t="n">
-        <v>26781.1888</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-1216099.31203661</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="C242" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="D242" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="E242" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="F242" t="n">
-        <v>97076.795</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-1216099.31203661</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>50.86</v>
-      </c>
-      <c r="C243" t="n">
-        <v>50.86</v>
-      </c>
-      <c r="D243" t="n">
-        <v>50.86</v>
-      </c>
-      <c r="E243" t="n">
-        <v>50.86</v>
-      </c>
-      <c r="F243" t="n">
-        <v>500</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-1215599.31203661</v>
-      </c>
-      <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="J243" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="C244" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="D244" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="E244" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="F244" t="n">
-        <v>4625.8432</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-1210973.46883661</v>
-      </c>
-      <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>50.86</v>
-      </c>
-      <c r="J244" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="C245" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="D245" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="E245" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="F245" t="n">
-        <v>639.0928</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-1210334.37603661</v>
-      </c>
-      <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>50.87</v>
-      </c>
-      <c r="J245" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="C246" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="D246" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="E246" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="F246" t="n">
-        <v>13183.2531</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-1223517.62913661</v>
-      </c>
-      <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="J246" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>50.79</v>
-      </c>
-      <c r="C247" t="n">
-        <v>50.79</v>
-      </c>
-      <c r="D247" t="n">
-        <v>50.79</v>
-      </c>
-      <c r="E247" t="n">
-        <v>50.79</v>
-      </c>
-      <c r="F247" t="n">
-        <v>36083.8881</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-1259601.51723661</v>
-      </c>
-      <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="J247" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>50.81</v>
-      </c>
-      <c r="C248" t="n">
-        <v>50.81</v>
-      </c>
-      <c r="D248" t="n">
-        <v>50.81</v>
-      </c>
-      <c r="E248" t="n">
-        <v>50.81</v>
-      </c>
-      <c r="F248" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-1254601.51723661</v>
-      </c>
-      <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>50.79</v>
-      </c>
-      <c r="J248" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="C249" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="D249" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="E249" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="F249" t="n">
-        <v>215053.714</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-1469655.23123661</v>
-      </c>
-      <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>50.81</v>
-      </c>
-      <c r="J249" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>50.61</v>
-      </c>
-      <c r="C250" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="D250" t="n">
-        <v>50.61</v>
-      </c>
-      <c r="E250" t="n">
-        <v>50.43</v>
-      </c>
-      <c r="F250" t="n">
-        <v>104922.46835443</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-1574577.69959104</v>
-      </c>
-      <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="J250" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>50.68</v>
-      </c>
-      <c r="C251" t="n">
-        <v>50.69</v>
-      </c>
-      <c r="D251" t="n">
-        <v>50.69</v>
-      </c>
-      <c r="E251" t="n">
-        <v>50.68</v>
-      </c>
-      <c r="F251" t="n">
-        <v>534.8576</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-1574042.84199104</v>
-      </c>
-      <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="J251" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>50.74</v>
-      </c>
-      <c r="C252" t="n">
-        <v>50.74</v>
-      </c>
-      <c r="D252" t="n">
-        <v>50.74</v>
-      </c>
-      <c r="E252" t="n">
-        <v>50.74</v>
-      </c>
-      <c r="F252" t="n">
-        <v>172.8825</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-1573869.95949104</v>
-      </c>
-      <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>50.69</v>
-      </c>
-      <c r="J252" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="C253" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="D253" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="E253" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="F253" t="n">
-        <v>2607.1235</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-1576477.08299104</v>
-      </c>
-      <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>50.74</v>
-      </c>
-      <c r="J253" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="C254" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="D254" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="E254" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="F254" t="n">
-        <v>1076.2331</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-1576477.08299104</v>
-      </c>
-      <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="J254" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>50.49</v>
-      </c>
-      <c r="C255" t="n">
-        <v>50.43</v>
-      </c>
-      <c r="D255" t="n">
-        <v>50.49</v>
-      </c>
-      <c r="E255" t="n">
-        <v>50.43</v>
-      </c>
-      <c r="F255" t="n">
-        <v>211853.116</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-1788330.19899104</v>
-      </c>
-      <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="J255" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9247,14 +8839,12 @@
         <v>-1782926.96699104</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>50.43</v>
       </c>
-      <c r="J256" t="n">
-        <v>51.03</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9288,14 +8878,10 @@
         <v>-1782926.96699104</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="J257" t="n">
-        <v>51.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9329,14 +8915,10 @@
         <v>-1782926.96699104</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="J258" t="n">
-        <v>51.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9370,14 +8952,10 @@
         <v>-1782926.96699104</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="J259" t="n">
-        <v>51.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9411,14 +8989,12 @@
         <v>-1782926.96699104</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>50.72</v>
       </c>
-      <c r="J260" t="n">
-        <v>51.03</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9452,14 +9028,12 @@
         <v>-1782926.96699104</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>50.72</v>
       </c>
-      <c r="J261" t="n">
-        <v>51.03</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9493,14 +9067,12 @@
         <v>-1782926.96699104</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>50.72</v>
       </c>
-      <c r="J262" t="n">
-        <v>51.03</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9534,14 +9106,12 @@
         <v>-1782926.96699104</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>50.72</v>
       </c>
-      <c r="J263" t="n">
-        <v>51.03</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9575,14 +9145,12 @@
         <v>-1783517.07969104</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>50.72</v>
       </c>
-      <c r="J264" t="n">
-        <v>51.03</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9616,14 +9184,12 @@
         <v>-1783532.46269104</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>50.71</v>
       </c>
-      <c r="J265" t="n">
-        <v>51.03</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9657,14 +9223,12 @@
         <v>-1783210.26019104</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>50.34</v>
       </c>
-      <c r="J266" t="n">
-        <v>51.03</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9698,14 +9262,12 @@
         <v>-1783210.26019104</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>50.46</v>
       </c>
-      <c r="J267" t="n">
-        <v>51.03</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9739,14 +9301,12 @@
         <v>-1750800.26019104</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>50.46</v>
       </c>
-      <c r="J268" t="n">
-        <v>51.03</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9780,14 +9340,12 @@
         <v>-1750780.26019104</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>50.76</v>
       </c>
-      <c r="J269" t="n">
-        <v>51.03</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9821,14 +9379,12 @@
         <v>-1750796.05729104</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>50.9</v>
       </c>
-      <c r="J270" t="n">
-        <v>51.03</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9862,12 +9418,12 @@
         <v>-1800796.05729104</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>51.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9901,12 +9457,12 @@
         <v>-1760796.05729104</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>51.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9940,12 +9496,12 @@
         <v>-1720742.29349104</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>51.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9979,12 +9535,12 @@
         <v>-1750742.29349104</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>51.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>50.64</v>
+      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10018,12 +9574,12 @@
         <v>-1741042.29349104</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>51.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10057,12 +9613,12 @@
         <v>-1742142.29349104</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>51.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>50.65</v>
+      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10096,14 +9652,12 @@
         <v>-1739671.69679104</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>50.54</v>
       </c>
-      <c r="J277" t="n">
-        <v>51.03</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10137,12 +9691,12 @@
         <v>-1746523.34299104</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>51.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10176,12 +9730,12 @@
         <v>-1773734.82579104</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>51.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10215,14 +9769,12 @@
         <v>-1773734.82579104</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>50.47</v>
       </c>
-      <c r="J280" t="n">
-        <v>51.03</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10256,12 +9808,12 @@
         <v>-1846346.82789104</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>51.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10295,12 +9847,12 @@
         <v>-1845871.19369104</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>51.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>50.21</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10312,6 +9864,6 @@
       <c r="M282" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest ADA.xlsx
+++ b/BackTest/2020-01-26 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -979,7 +979,7 @@
         <v>35673.68270794009</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>35673.68270794009</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>35375.99310794009</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>43375.99310794009</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>41654.54440794009</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>39929.78670794009</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>97506.07560794009</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-259313.0554920599</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-259358.0974920599</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-259452.9747920599</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-275194.1011920599</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-275194.1011920599</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-275194.1011920599</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-275194.1011920599</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-294472.4765920599</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-304330.8775920599</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-313113.6620920599</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-313088.3421920599</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-341338.3421920599</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-340838.3421920599</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-336573.6975920599</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-342765.5060920599</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-329983.2870920599</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-329973.2870920599</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-329973.2870920599</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-267147.7236733799</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-267147.7236733799</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-267247.7236733799</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-246959.9870733799</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-33062.18806133992</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-51354.32626133992</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-182692.0035613399</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-180752.4231613399</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-180752.4231613399</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-164788.5827613399</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-161256.0905613399</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-161256.0905613399</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-166026.6235613399</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-214583.6043613399</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-92149.83366133992</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-233987.9776613399</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-279750.7261613399</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-430039.3100613399</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-425839.3101613399</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-404093.4212613399</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-464183.3836613399</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-464165.0936613399</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-564165.09366134</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-605165.09366134</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-631574.35236134</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-638407.77806134</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-638407.77806134</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-647961.30066134</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-597961.30066134</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-729767.00216134</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-641328.48736134</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-591328.48736134</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-597329.63606134</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-597664.14546134</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-637664.14546134</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-654011.82486134</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-638752.1744613399</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -8668,10 +8668,14 @@
         <v>-1574042.84199104</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="J251" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
@@ -8701,11 +8705,19 @@
         <v>-1573869.95949104</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>50.69</v>
+      </c>
+      <c r="J252" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8737,8 +8749,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8767,11 +8785,19 @@
         <v>-1576477.08299104</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="J254" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8805,10 +8831,12 @@
       <c r="I255" t="n">
         <v>50.62</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L255" t="n">
@@ -8839,12 +8867,12 @@
         <v>-1782926.96699104</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>50.43</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8881,7 +8909,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8918,7 +8948,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8955,7 +8987,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8989,12 +9023,12 @@
         <v>-1782926.96699104</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9028,12 +9062,12 @@
         <v>-1782926.96699104</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9067,12 +9101,12 @@
         <v>-1782926.96699104</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9106,12 +9140,12 @@
         <v>-1782926.96699104</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9145,12 +9179,12 @@
         <v>-1783517.07969104</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9184,12 +9218,12 @@
         <v>-1783532.46269104</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9228,7 +9262,9 @@
       <c r="I266" t="n">
         <v>50.34</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9267,7 +9303,9 @@
       <c r="I267" t="n">
         <v>50.46</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9306,7 +9344,9 @@
       <c r="I268" t="n">
         <v>50.46</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9345,7 +9385,9 @@
       <c r="I269" t="n">
         <v>50.76</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9384,7 +9426,9 @@
       <c r="I270" t="n">
         <v>50.9</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9423,7 +9467,9 @@
       <c r="I271" t="n">
         <v>50.5</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9462,7 +9508,9 @@
       <c r="I272" t="n">
         <v>50.39</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9501,7 +9549,9 @@
       <c r="I273" t="n">
         <v>50.41</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9540,7 +9590,9 @@
       <c r="I274" t="n">
         <v>50.64</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9579,7 +9631,9 @@
       <c r="I275" t="n">
         <v>50.39</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9618,7 +9672,9 @@
       <c r="I276" t="n">
         <v>50.65</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9652,12 +9708,12 @@
         <v>-1739671.69679104</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>50.54</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9696,7 +9752,9 @@
       <c r="I278" t="n">
         <v>50.62</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9735,7 +9793,9 @@
       <c r="I279" t="n">
         <v>50.56</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9774,7 +9834,9 @@
       <c r="I280" t="n">
         <v>50.47</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9813,7 +9875,9 @@
       <c r="I281" t="n">
         <v>50.47</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9852,7 +9916,9 @@
       <c r="I282" t="n">
         <v>50.21</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>50.56</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9864,6 +9930,6 @@
       <c r="M282" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest ADA.xlsx
+++ b/BackTest/2020-01-26 BackTest ADA.xlsx
@@ -748,7 +748,7 @@
         <v>-49694.93569205991</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-49684.93569205991</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-49736.59059205991</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>45513.40940794009</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>38437.62070794009</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>35673.68270794009</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>35375.99310794009</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>43375.99310794009</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>41654.54440794009</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>39929.78670794009</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-34771.37359205991</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>68779.68130794009</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>68937.37890794009</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>97506.07560794009</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>77928.72980794009</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>9088.702707940087</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>6911.494307940087</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>957.7386079400876</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-970.0251920599123</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>278.7552079400878</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-96585.45369205991</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-56635.45369205991</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-56620.82139205991</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-46548.6181920599</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-51535.99049205991</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-259313.0554920599</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-217000.2988920599</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-267633.1562920599</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-267147.7236733799</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-267147.7236733799</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-267247.7236733799</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-246959.9870733799</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-33095.18997337992</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-33062.18806133992</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-51354.32626133992</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-182692.0035613399</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-180752.4231613399</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-180752.4231613399</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-164788.5827613399</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-161256.0905613399</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-161256.0905613399</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-166026.6235613399</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-214583.6043613399</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-92149.83366133992</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-233987.9776613399</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-279750.7261613399</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-430039.3100613399</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-425839.3101613399</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -8668,14 +8668,10 @@
         <v>-1574042.84199104</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="J251" t="n">
-        <v>50.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
@@ -8705,858 +8701,728 @@
         <v>-1573869.95949104</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>50.69</v>
-      </c>
-      <c r="J252" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K252" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="C253" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="D253" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="E253" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="F253" t="n">
+        <v>2607.1235</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-1576477.08299104</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="C254" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="D254" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="E254" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1076.2331</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-1576477.08299104</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>50.49</v>
+      </c>
+      <c r="C255" t="n">
+        <v>50.43</v>
+      </c>
+      <c r="D255" t="n">
+        <v>50.49</v>
+      </c>
+      <c r="E255" t="n">
+        <v>50.43</v>
+      </c>
+      <c r="F255" t="n">
+        <v>211853.116</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-1788330.19899104</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="C256" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="D256" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="E256" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="F256" t="n">
+        <v>5403.232</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-1782926.96699104</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="C257" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="D257" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="E257" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="F257" t="n">
+        <v>11017.6381</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-1782926.96699104</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="C258" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="D258" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="E258" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="F258" t="n">
+        <v>2373.2318</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-1782926.96699104</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="C259" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="D259" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="E259" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="F259" t="n">
+        <v>81918.56630000001</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-1782926.96699104</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="C260" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="D260" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="E260" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="F260" t="n">
+        <v>10113.2398</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-1782926.96699104</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="C261" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="D261" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="E261" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="F261" t="n">
+        <v>7620.585</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-1782926.96699104</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="C262" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="D262" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="E262" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="F262" t="n">
+        <v>2097.6131</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-1782926.96699104</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="C263" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="D263" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="E263" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="F263" t="n">
+        <v>323.5</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-1782926.96699104</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="C264" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="D264" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="E264" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="F264" t="n">
+        <v>590.1127</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-1783517.07969104</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>50.34</v>
+      </c>
+      <c r="C265" t="n">
+        <v>50.34</v>
+      </c>
+      <c r="D265" t="n">
+        <v>50.34</v>
+      </c>
+      <c r="E265" t="n">
+        <v>50.34</v>
+      </c>
+      <c r="F265" t="n">
+        <v>15.383</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-1783532.46269104</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>50.61</v>
+      </c>
+      <c r="C266" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="D266" t="n">
+        <v>50.61</v>
+      </c>
+      <c r="E266" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="F266" t="n">
+        <v>322.2025</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-1783210.26019104</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="C267" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="D267" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="E267" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="F267" t="n">
+        <v>24989.3907</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-1783210.26019104</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="C268" t="n">
+        <v>50.76</v>
+      </c>
+      <c r="D268" t="n">
+        <v>50.76</v>
+      </c>
+      <c r="E268" t="n">
+        <v>50.71</v>
+      </c>
+      <c r="F268" t="n">
+        <v>32410</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-1750800.26019104</v>
+      </c>
+      <c r="H268" t="n">
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="J268" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="C269" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="D269" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="E269" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="F269" t="n">
+        <v>20</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-1750780.26019104</v>
+      </c>
+      <c r="H269" t="n">
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>50.76</v>
+      </c>
+      <c r="J269" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="K269" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="C253" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="D253" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="E253" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="F253" t="n">
-        <v>2607.1235</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-1576477.08299104</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K253" t="inlineStr">
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="C270" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="D270" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="E270" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="F270" t="n">
+        <v>15.7971</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-1750796.05729104</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>50.46</v>
+      </c>
+      <c r="K270" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="C254" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="D254" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="E254" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="F254" t="n">
-        <v>1076.2331</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-1576477.08299104</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="J254" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K254" t="inlineStr">
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="C271" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="D271" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="E271" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="F271" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-1800796.05729104</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="C272" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="D272" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="E272" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="F272" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-1760796.05729104</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="C273" t="n">
+        <v>50.64</v>
+      </c>
+      <c r="D273" t="n">
+        <v>50.64</v>
+      </c>
+      <c r="E273" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="F273" t="n">
+        <v>40053.7638</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-1720742.29349104</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>50.49</v>
-      </c>
-      <c r="C255" t="n">
-        <v>50.43</v>
-      </c>
-      <c r="D255" t="n">
-        <v>50.49</v>
-      </c>
-      <c r="E255" t="n">
-        <v>50.43</v>
-      </c>
-      <c r="F255" t="n">
-        <v>211853.116</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-1788330.19899104</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="J255" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="C256" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="D256" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="E256" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="F256" t="n">
-        <v>5403.232</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="C257" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="D257" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="E257" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="F257" t="n">
-        <v>11017.6381</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="C258" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="D258" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="E258" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="F258" t="n">
-        <v>2373.2318</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="C259" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="D259" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="E259" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="F259" t="n">
-        <v>81918.56630000001</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="C260" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="D260" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="E260" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="F260" t="n">
-        <v>10113.2398</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="C261" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="D261" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="E261" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="F261" t="n">
-        <v>7620.585</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="C262" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="D262" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="E262" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="F262" t="n">
-        <v>2097.6131</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="C263" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="D263" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="E263" t="n">
-        <v>50.72</v>
-      </c>
-      <c r="F263" t="n">
-        <v>323.5</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="C264" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="D264" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="E264" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="F264" t="n">
-        <v>590.1127</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-1783517.07969104</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>50.34</v>
-      </c>
-      <c r="C265" t="n">
-        <v>50.34</v>
-      </c>
-      <c r="D265" t="n">
-        <v>50.34</v>
-      </c>
-      <c r="E265" t="n">
-        <v>50.34</v>
-      </c>
-      <c r="F265" t="n">
-        <v>15.383</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-1783532.46269104</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>50.61</v>
-      </c>
-      <c r="C266" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="D266" t="n">
-        <v>50.61</v>
-      </c>
-      <c r="E266" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="F266" t="n">
-        <v>322.2025</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-1783210.26019104</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>50.34</v>
-      </c>
-      <c r="J266" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="C267" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="D267" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="E267" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="F267" t="n">
-        <v>24989.3907</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-1783210.26019104</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="J267" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="C268" t="n">
-        <v>50.76</v>
-      </c>
-      <c r="D268" t="n">
-        <v>50.76</v>
-      </c>
-      <c r="E268" t="n">
-        <v>50.71</v>
-      </c>
-      <c r="F268" t="n">
-        <v>32410</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-1750800.26019104</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="J268" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="C269" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="D269" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="E269" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="F269" t="n">
-        <v>20</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-1750780.26019104</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>50.76</v>
-      </c>
-      <c r="J269" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="C270" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="D270" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="E270" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="F270" t="n">
-        <v>15.7971</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-1750796.05729104</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="J270" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>50.51</v>
-      </c>
-      <c r="C271" t="n">
-        <v>50.39</v>
-      </c>
-      <c r="D271" t="n">
-        <v>50.51</v>
-      </c>
-      <c r="E271" t="n">
-        <v>50.39</v>
-      </c>
-      <c r="F271" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-1800796.05729104</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="J271" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>50.41</v>
-      </c>
-      <c r="C272" t="n">
-        <v>50.41</v>
-      </c>
-      <c r="D272" t="n">
-        <v>50.41</v>
-      </c>
-      <c r="E272" t="n">
-        <v>50.41</v>
-      </c>
-      <c r="F272" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-1760796.05729104</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>50.39</v>
-      </c>
-      <c r="J272" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="C273" t="n">
-        <v>50.64</v>
-      </c>
-      <c r="D273" t="n">
-        <v>50.64</v>
-      </c>
-      <c r="E273" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="F273" t="n">
-        <v>40053.7638</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-1720742.29349104</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>50.41</v>
-      </c>
-      <c r="J273" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9590,9 +9456,7 @@
       <c r="I274" t="n">
         <v>50.64</v>
       </c>
-      <c r="J274" t="n">
-        <v>50.56</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9631,9 +9495,7 @@
       <c r="I275" t="n">
         <v>50.39</v>
       </c>
-      <c r="J275" t="n">
-        <v>50.56</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9672,9 +9534,7 @@
       <c r="I276" t="n">
         <v>50.65</v>
       </c>
-      <c r="J276" t="n">
-        <v>50.56</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9708,12 +9568,12 @@
         <v>-1739671.69679104</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>50.56</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>50.54</v>
+      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9752,9 +9612,7 @@
       <c r="I278" t="n">
         <v>50.62</v>
       </c>
-      <c r="J278" t="n">
-        <v>50.56</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9793,9 +9651,7 @@
       <c r="I279" t="n">
         <v>50.56</v>
       </c>
-      <c r="J279" t="n">
-        <v>50.56</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9834,9 +9690,7 @@
       <c r="I280" t="n">
         <v>50.47</v>
       </c>
-      <c r="J280" t="n">
-        <v>50.56</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9875,9 +9729,7 @@
       <c r="I281" t="n">
         <v>50.47</v>
       </c>
-      <c r="J281" t="n">
-        <v>50.56</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9916,9 +9768,7 @@
       <c r="I282" t="n">
         <v>50.21</v>
       </c>
-      <c r="J282" t="n">
-        <v>50.56</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-26 BackTest ADA.xlsx
+++ b/BackTest/2020-01-26 BackTest ADA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M282"/>
+  <dimension ref="A1:L282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2800</v>
       </c>
       <c r="G2" t="n">
-        <v>36479.4135079401</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>4886.8994</v>
       </c>
       <c r="G3" t="n">
-        <v>36479.4135079401</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>895.7776</v>
       </c>
       <c r="G4" t="n">
-        <v>35583.6359079401</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>31650</v>
       </c>
       <c r="G5" t="n">
-        <v>67233.6359079401</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>709.9112</v>
       </c>
       <c r="G6" t="n">
-        <v>66523.7247079401</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>4600</v>
       </c>
       <c r="G7" t="n">
-        <v>61923.7247079401</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>153193.233</v>
       </c>
       <c r="G8" t="n">
-        <v>-91269.50829205991</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>40000</v>
       </c>
       <c r="G9" t="n">
-        <v>-51269.50829205991</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>602.6358</v>
       </c>
       <c r="G10" t="n">
-        <v>-51872.14409205991</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>2177.2084</v>
       </c>
       <c r="G11" t="n">
-        <v>-49694.93569205991</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>-49684.93569205991</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>51.6549</v>
       </c>
       <c r="G13" t="n">
-        <v>-49736.59059205991</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>95250</v>
       </c>
       <c r="G14" t="n">
-        <v>45513.40940794009</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>7075.7887</v>
       </c>
       <c r="G15" t="n">
-        <v>38437.62070794009</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>5075.7726</v>
       </c>
       <c r="G16" t="n">
-        <v>38437.62070794009</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>2400</v>
       </c>
       <c r="G17" t="n">
-        <v>40837.62070794009</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>5163.938</v>
       </c>
       <c r="G18" t="n">
-        <v>35673.68270794009</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>315.0093</v>
       </c>
       <c r="G19" t="n">
-        <v>35673.68270794009</v>
-      </c>
-      <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>297.6896</v>
       </c>
       <c r="G20" t="n">
-        <v>35375.99310794009</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>8000</v>
       </c>
       <c r="G21" t="n">
-        <v>43375.99310794009</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1721.4487</v>
       </c>
       <c r="G22" t="n">
-        <v>41654.54440794009</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1724.7577</v>
       </c>
       <c r="G23" t="n">
-        <v>39929.78670794009</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>301.3284</v>
       </c>
       <c r="G24" t="n">
-        <v>39929.78670794009</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>74701.1603</v>
       </c>
       <c r="G25" t="n">
-        <v>-34771.37359205991</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>42521.227</v>
       </c>
       <c r="G26" t="n">
-        <v>-34771.37359205991</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>103551.0549</v>
       </c>
       <c r="G27" t="n">
-        <v>68779.68130794009</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>157.6976</v>
       </c>
       <c r="G28" t="n">
-        <v>68937.37890794009</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>28568.6967</v>
       </c>
       <c r="G29" t="n">
-        <v>97506.07560794009</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>19577.3458</v>
       </c>
       <c r="G30" t="n">
-        <v>77928.72980794009</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>68840.02710000001</v>
       </c>
       <c r="G31" t="n">
-        <v>9088.702707940087</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>2177.2084</v>
       </c>
       <c r="G32" t="n">
-        <v>6911.494307940087</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>5953.7557</v>
       </c>
       <c r="G33" t="n">
-        <v>957.7386079400876</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>1927.7638</v>
       </c>
       <c r="G34" t="n">
-        <v>-970.0251920599123</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1248.7804</v>
       </c>
       <c r="G35" t="n">
-        <v>278.7552079400878</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>96864.2089</v>
       </c>
       <c r="G36" t="n">
-        <v>-96585.45369205991</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>39950</v>
       </c>
       <c r="G37" t="n">
-        <v>-56635.45369205991</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>14.6323</v>
       </c>
       <c r="G38" t="n">
-        <v>-56620.82139205991</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>10072.2032</v>
       </c>
       <c r="G39" t="n">
-        <v>-46548.6181920599</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>15.0308</v>
       </c>
       <c r="G40" t="n">
-        <v>-46533.5873920599</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>5002.4031</v>
       </c>
       <c r="G41" t="n">
-        <v>-51535.99049205991</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>7264.9038</v>
       </c>
       <c r="G42" t="n">
-        <v>-51535.99049205991</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>13.5594</v>
       </c>
       <c r="G43" t="n">
-        <v>-51522.43109205991</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>53.5684</v>
       </c>
       <c r="G44" t="n">
-        <v>-51522.43109205991</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>34.3454</v>
       </c>
       <c r="G45" t="n">
-        <v>-51488.08569205991</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>171031.8589</v>
       </c>
       <c r="G46" t="n">
-        <v>-222519.9445920599</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>2666.6667</v>
       </c>
       <c r="G47" t="n">
-        <v>-219853.2778920599</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>645.2773</v>
       </c>
       <c r="G48" t="n">
-        <v>-219208.0005920599</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>54.8032</v>
       </c>
       <c r="G49" t="n">
-        <v>-219262.8037920599</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>93.73439999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>-219262.8037920599</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>75.95950000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>-219338.7632920599</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>61.5658</v>
       </c>
       <c r="G52" t="n">
-        <v>-219277.1974920599</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>40035.858</v>
       </c>
       <c r="G53" t="n">
-        <v>-259313.0554920599</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>45.042</v>
       </c>
       <c r="G54" t="n">
-        <v>-259358.0974920599</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>94.87730000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>-259452.9747920599</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>15741.1264</v>
       </c>
       <c r="G56" t="n">
-        <v>-275194.1011920599</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>33345.2097</v>
       </c>
       <c r="G57" t="n">
-        <v>-275194.1011920599</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>32000</v>
       </c>
       <c r="G58" t="n">
-        <v>-275194.1011920599</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>159.5984</v>
       </c>
       <c r="G59" t="n">
-        <v>-275194.1011920599</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>19278.3754</v>
       </c>
       <c r="G60" t="n">
-        <v>-294472.4765920599</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>9858.401</v>
       </c>
       <c r="G61" t="n">
-        <v>-304330.8775920599</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>8782.7845</v>
       </c>
       <c r="G62" t="n">
-        <v>-313113.6620920599</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>25.3199</v>
       </c>
       <c r="G63" t="n">
-        <v>-313088.3421920599</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>28250</v>
       </c>
       <c r="G64" t="n">
-        <v>-341338.3421920599</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>500</v>
       </c>
       <c r="G65" t="n">
-        <v>-340838.3421920599</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>4264.6446</v>
       </c>
       <c r="G66" t="n">
-        <v>-336573.6975920599</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>6191.8085</v>
       </c>
       <c r="G67" t="n">
-        <v>-342765.5060920599</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>12782.219</v>
       </c>
       <c r="G68" t="n">
-        <v>-329983.2870920599</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>-329973.2870920599</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>59</v>
       </c>
       <c r="G70" t="n">
-        <v>-329973.2870920599</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>16973.8482</v>
       </c>
       <c r="G71" t="n">
-        <v>-329973.2870920599</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>241.333</v>
       </c>
       <c r="G72" t="n">
-        <v>-330214.6200920599</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>22712.163</v>
       </c>
       <c r="G73" t="n">
-        <v>-307502.4570920599</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>9939.158299999999</v>
       </c>
       <c r="G74" t="n">
-        <v>-307502.4570920599</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>38766.5166</v>
       </c>
       <c r="G75" t="n">
-        <v>-307502.4570920599</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>364800.1907</v>
       </c>
       <c r="G76" t="n">
-        <v>-307502.4570920599</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>20492.6753</v>
       </c>
       <c r="G77" t="n">
-        <v>-327995.1323920599</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>1957.1837</v>
       </c>
       <c r="G78" t="n">
-        <v>-327995.1323920599</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>82088.26420000001</v>
       </c>
       <c r="G79" t="n">
-        <v>-245906.8681920599</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>43953.1973</v>
       </c>
       <c r="G80" t="n">
-        <v>-245906.8681920599</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>27787.5999</v>
       </c>
       <c r="G81" t="n">
-        <v>-245906.8681920599</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>4713.2999</v>
       </c>
       <c r="G82" t="n">
-        <v>-245906.8681920599</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>16000</v>
       </c>
       <c r="G83" t="n">
-        <v>-229906.8681920599</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>6341.8913</v>
       </c>
       <c r="G84" t="n">
-        <v>-229906.8681920599</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>12906.5693</v>
       </c>
       <c r="G85" t="n">
-        <v>-217000.2988920599</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>22402.8574</v>
       </c>
       <c r="G86" t="n">
-        <v>-239403.1562920599</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>28230</v>
       </c>
       <c r="G87" t="n">
-        <v>-267633.1562920599</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>485.43261868</v>
       </c>
       <c r="G88" t="n">
-        <v>-267147.7236733799</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>10000</v>
       </c>
       <c r="G89" t="n">
-        <v>-267147.7236733799</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>100</v>
       </c>
       <c r="G90" t="n">
-        <v>-267247.7236733799</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>20287.7366</v>
       </c>
       <c r="G91" t="n">
-        <v>-246959.9870733799</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>5107.0601</v>
       </c>
       <c r="G92" t="n">
-        <v>-241852.9269733799</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>208757.737</v>
       </c>
       <c r="G93" t="n">
-        <v>-33095.18997337992</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>33.00191204</v>
       </c>
       <c r="G94" t="n">
-        <v>-33062.18806133992</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>18292.1382</v>
       </c>
       <c r="G95" t="n">
-        <v>-51354.32626133992</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>131337.6773</v>
       </c>
       <c r="G96" t="n">
-        <v>-182692.0035613399</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>1939.5804</v>
       </c>
       <c r="G97" t="n">
-        <v>-180752.4231613399</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>26249.7848</v>
       </c>
       <c r="G98" t="n">
-        <v>-180752.4231613399</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>15963.8404</v>
       </c>
       <c r="G99" t="n">
-        <v>-164788.5827613399</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>3532.4922</v>
       </c>
       <c r="G100" t="n">
-        <v>-161256.0905613399</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>1093.351</v>
       </c>
       <c r="G101" t="n">
-        <v>-161256.0905613399</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>4770.533</v>
       </c>
       <c r="G102" t="n">
-        <v>-166026.6235613399</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>48556.9808</v>
       </c>
       <c r="G103" t="n">
-        <v>-214583.6043613399</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>122433.7707</v>
       </c>
       <c r="G104" t="n">
-        <v>-92149.83366133992</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>141838.144</v>
       </c>
       <c r="G105" t="n">
-        <v>-233987.9776613399</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>45762.7485</v>
       </c>
       <c r="G106" t="n">
-        <v>-279750.7261613399</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>150288.5839</v>
       </c>
       <c r="G107" t="n">
-        <v>-430039.3100613399</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>4199.9999</v>
       </c>
       <c r="G108" t="n">
-        <v>-425839.3101613399</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>21745.8889</v>
       </c>
       <c r="G109" t="n">
-        <v>-404093.4212613399</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>60089.9624</v>
       </c>
       <c r="G110" t="n">
-        <v>-464183.3836613399</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>18.29</v>
       </c>
       <c r="G111" t="n">
-        <v>-464165.0936613399</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>100000</v>
       </c>
       <c r="G112" t="n">
-        <v>-564165.09366134</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>41000</v>
       </c>
       <c r="G113" t="n">
-        <v>-605165.09366134</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>26409.2587</v>
       </c>
       <c r="G114" t="n">
-        <v>-631574.35236134</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>6833.4257</v>
       </c>
       <c r="G115" t="n">
-        <v>-638407.77806134</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>44455.9446</v>
       </c>
       <c r="G116" t="n">
-        <v>-638407.77806134</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>9553.5226</v>
       </c>
       <c r="G117" t="n">
-        <v>-647961.30066134</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>50000</v>
       </c>
       <c r="G118" t="n">
-        <v>-597961.30066134</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>131805.7015</v>
       </c>
       <c r="G119" t="n">
-        <v>-729767.00216134</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>88438.5148</v>
       </c>
       <c r="G120" t="n">
-        <v>-641328.48736134</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>50000</v>
       </c>
       <c r="G121" t="n">
-        <v>-591328.48736134</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>6001.1487</v>
       </c>
       <c r="G122" t="n">
-        <v>-597329.63606134</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>334.5094</v>
       </c>
       <c r="G123" t="n">
-        <v>-597664.14546134</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>40000</v>
       </c>
       <c r="G124" t="n">
-        <v>-637664.14546134</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>16347.6794</v>
       </c>
       <c r="G125" t="n">
-        <v>-654011.82486134</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>15259.6504</v>
       </c>
       <c r="G126" t="n">
-        <v>-638752.1744613399</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>4974.3005</v>
       </c>
       <c r="G127" t="n">
-        <v>-633777.8739613399</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>22997.6185</v>
       </c>
       <c r="G128" t="n">
-        <v>-610780.25546134</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>42.7933</v>
       </c>
       <c r="G129" t="n">
-        <v>-610737.4621613399</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>234113.943</v>
       </c>
       <c r="G130" t="n">
-        <v>-844851.4051613399</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>1420</v>
       </c>
       <c r="G131" t="n">
-        <v>-843431.4051613399</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>184.682</v>
       </c>
       <c r="G132" t="n">
-        <v>-843616.0871613399</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>7745.818</v>
       </c>
       <c r="G133" t="n">
-        <v>-843616.0871613399</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>7822.5265</v>
       </c>
       <c r="G134" t="n">
-        <v>-843616.0871613399</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>4186.8863</v>
       </c>
       <c r="G135" t="n">
-        <v>-843616.0871613399</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>17083.171</v>
       </c>
       <c r="G136" t="n">
-        <v>-826532.91616134</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>79800</v>
       </c>
       <c r="G137" t="n">
-        <v>-906332.91616134</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>300</v>
       </c>
       <c r="G138" t="n">
-        <v>-906032.91616134</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>213094.5171</v>
       </c>
       <c r="G139" t="n">
-        <v>-1119127.43326134</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>3620.5019</v>
       </c>
       <c r="G140" t="n">
-        <v>-1115506.93136134</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>24060.61791161</v>
       </c>
       <c r="G141" t="n">
-        <v>-1139567.54927295</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>40000</v>
       </c>
       <c r="G142" t="n">
-        <v>-1179567.54927295</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>24123.8056</v>
       </c>
       <c r="G143" t="n">
-        <v>-1155443.74367295</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>35423.5654</v>
       </c>
       <c r="G144" t="n">
-        <v>-1155443.74367295</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>908.7651</v>
       </c>
       <c r="G145" t="n">
-        <v>-1154534.97857295</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>1741.0158</v>
       </c>
       <c r="G146" t="n">
-        <v>-1154534.97857295</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>4249.8317</v>
       </c>
       <c r="G147" t="n">
-        <v>-1158784.81027295</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>277.2444</v>
       </c>
       <c r="G148" t="n">
-        <v>-1158784.81027295</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>6153.1428</v>
       </c>
       <c r="G149" t="n">
-        <v>-1158784.81027295</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>1099.5554</v>
       </c>
       <c r="G150" t="n">
-        <v>-1158784.81027295</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>60.6179</v>
       </c>
       <c r="G151" t="n">
-        <v>-1158784.81027295</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>30000</v>
       </c>
       <c r="G152" t="n">
-        <v>-1158784.81027295</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>14.283</v>
       </c>
       <c r="G153" t="n">
-        <v>-1158770.52727295</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>731.9299999999999</v>
       </c>
       <c r="G154" t="n">
-        <v>-1158770.52727295</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>64327.6797</v>
       </c>
       <c r="G155" t="n">
-        <v>-1223098.20697295</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>220.8019</v>
       </c>
       <c r="G156" t="n">
-        <v>-1222877.40507295</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>209.7618</v>
       </c>
       <c r="G157" t="n">
-        <v>-1222877.40507295</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>57992.7802</v>
       </c>
       <c r="G158" t="n">
-        <v>-1222877.40507295</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>100.24793634</v>
       </c>
       <c r="G159" t="n">
-        <v>-1222777.15713661</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>1000</v>
       </c>
       <c r="G160" t="n">
-        <v>-1221777.15713661</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>8400</v>
       </c>
       <c r="G161" t="n">
-        <v>-1230177.15713661</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>400</v>
       </c>
       <c r="G162" t="n">
-        <v>-1229777.15713661</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>40</v>
       </c>
       <c r="G163" t="n">
-        <v>-1229817.15713661</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>22308.1535</v>
       </c>
       <c r="G164" t="n">
-        <v>-1207509.00363661</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>2436.0786</v>
       </c>
       <c r="G165" t="n">
-        <v>-1209945.08223661</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>20.2076</v>
       </c>
       <c r="G166" t="n">
-        <v>-1209945.08223661</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>24856.4109</v>
       </c>
       <c r="G167" t="n">
-        <v>-1234801.49313661</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>50000</v>
       </c>
       <c r="G168" t="n">
-        <v>-1284801.49313661</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>50000</v>
       </c>
       <c r="G169" t="n">
-        <v>-1234801.49313661</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>8987.5</v>
       </c>
       <c r="G170" t="n">
-        <v>-1225813.99313661</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>91060.4719</v>
       </c>
       <c r="G171" t="n">
-        <v>-1134753.52123661</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>50000</v>
       </c>
       <c r="G172" t="n">
-        <v>-1134753.52123661</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>9409.7276</v>
       </c>
       <c r="G173" t="n">
-        <v>-1125343.79363661</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>1326.9</v>
       </c>
       <c r="G174" t="n">
-        <v>-1125343.79363661</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>22699.7134</v>
       </c>
       <c r="G175" t="n">
-        <v>-1148043.50703661</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>24000</v>
       </c>
       <c r="G176" t="n">
-        <v>-1172043.50703661</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>409.4</v>
       </c>
       <c r="G177" t="n">
-        <v>-1172043.50703661</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>18853.6861</v>
       </c>
       <c r="G178" t="n">
-        <v>-1172043.50703661</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>57749.7744</v>
       </c>
       <c r="G179" t="n">
-        <v>-1172043.50703661</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>43770.475</v>
       </c>
       <c r="G180" t="n">
-        <v>-1172043.50703661</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>97766.5325</v>
       </c>
       <c r="G181" t="n">
-        <v>-1269810.03953661</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>18066.2975</v>
       </c>
       <c r="G182" t="n">
-        <v>-1251743.742036609</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>4695.5191</v>
       </c>
       <c r="G183" t="n">
-        <v>-1251743.742036609</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>10760.5415</v>
       </c>
       <c r="G184" t="n">
-        <v>-1262504.283536609</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>30437.706</v>
       </c>
       <c r="G185" t="n">
-        <v>-1232066.577536609</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>1240.7988</v>
       </c>
       <c r="G186" t="n">
-        <v>-1233307.376336609</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>17008.0096</v>
       </c>
       <c r="G187" t="n">
-        <v>-1216299.366736609</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>28395.151</v>
       </c>
       <c r="G188" t="n">
-        <v>-1187904.215736609</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>50000</v>
       </c>
       <c r="G189" t="n">
-        <v>-1137904.215736609</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>104.5952</v>
       </c>
       <c r="G190" t="n">
-        <v>-1138008.81093661</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>8590.4954</v>
       </c>
       <c r="G191" t="n">
-        <v>-1129418.31553661</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>51400</v>
       </c>
       <c r="G192" t="n">
-        <v>-1180818.31553661</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>1437.1304</v>
       </c>
       <c r="G193" t="n">
-        <v>-1179381.18513661</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>7256.6317</v>
       </c>
       <c r="G194" t="n">
-        <v>-1186637.81683661</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>1138.9287</v>
       </c>
       <c r="G195" t="n">
-        <v>-1186637.81683661</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>49857.0256</v>
       </c>
       <c r="G196" t="n">
-        <v>-1236494.84243661</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>20000</v>
       </c>
       <c r="G197" t="n">
-        <v>-1236494.84243661</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>5876.4122</v>
       </c>
       <c r="G198" t="n">
-        <v>-1242371.25463661</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>30000</v>
       </c>
       <c r="G199" t="n">
-        <v>-1212371.25463661</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>200</v>
       </c>
       <c r="G200" t="n">
-        <v>-1212171.25463661</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>67047.4387</v>
       </c>
       <c r="G201" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>28174.9156</v>
       </c>
       <c r="G202" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>56734.9978</v>
       </c>
       <c r="G203" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>10980.4941</v>
       </c>
       <c r="G204" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>10100</v>
       </c>
       <c r="G205" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>2754.838</v>
       </c>
       <c r="G206" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>2193.3769</v>
       </c>
       <c r="G207" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>2430.8336</v>
       </c>
       <c r="G208" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>6843.8585</v>
       </c>
       <c r="G209" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>5446.1859</v>
       </c>
       <c r="G210" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>10227.2959</v>
       </c>
       <c r="G211" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>17000</v>
       </c>
       <c r="G212" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>10000</v>
       </c>
       <c r="G213" t="n">
-        <v>-1145123.81593661</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>10</v>
       </c>
       <c r="G214" t="n">
-        <v>-1145133.81593661</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>17250.216</v>
       </c>
       <c r="G215" t="n">
-        <v>-1162384.03193661</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>11899.722</v>
       </c>
       <c r="G216" t="n">
-        <v>-1150484.30993661</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>39703.4264</v>
       </c>
       <c r="G217" t="n">
-        <v>-1150484.30993661</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>53777.8185</v>
       </c>
       <c r="G218" t="n">
-        <v>-1150484.30993661</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>5297.5878</v>
       </c>
       <c r="G219" t="n">
-        <v>-1145186.722136609</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>32615.7836</v>
       </c>
       <c r="G220" t="n">
-        <v>-1112570.93853661</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>8535.8339</v>
       </c>
       <c r="G221" t="n">
-        <v>-1112570.93853661</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>143.2745</v>
       </c>
       <c r="G222" t="n">
-        <v>-1112570.93853661</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>3078.3309</v>
       </c>
       <c r="G223" t="n">
-        <v>-1115649.269436609</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>5098.9208</v>
       </c>
       <c r="G224" t="n">
-        <v>-1110550.34863661</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7133,15 @@
         <v>3168.5789</v>
       </c>
       <c r="G225" t="n">
-        <v>-1110550.34863661</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7163,15 @@
         <v>7454.6167</v>
       </c>
       <c r="G226" t="n">
-        <v>-1103095.73193661</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7193,15 @@
         <v>200</v>
       </c>
       <c r="G227" t="n">
-        <v>-1103295.73193661</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7223,15 @@
         <v>924.7895</v>
       </c>
       <c r="G228" t="n">
-        <v>-1103295.73193661</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7253,15 @@
         <v>925.6521</v>
       </c>
       <c r="G229" t="n">
-        <v>-1104221.38403661</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7283,15 @@
         <v>20483.0894</v>
       </c>
       <c r="G230" t="n">
-        <v>-1124704.47343661</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7313,15 @@
         <v>1092.4864</v>
       </c>
       <c r="G231" t="n">
-        <v>-1123611.98703661</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7343,15 @@
         <v>8749.1811</v>
       </c>
       <c r="G232" t="n">
-        <v>-1123611.98703661</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7373,15 @@
         <v>29358.3325</v>
       </c>
       <c r="G233" t="n">
-        <v>-1123611.98703661</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7403,15 @@
         <v>44561.4572</v>
       </c>
       <c r="G234" t="n">
-        <v>-1168173.44423661</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7433,15 @@
         <v>50000</v>
       </c>
       <c r="G235" t="n">
-        <v>-1218173.44423661</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7463,15 @@
         <v>22126.385</v>
       </c>
       <c r="G236" t="n">
-        <v>-1196047.05923661</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7493,15 @@
         <v>10</v>
       </c>
       <c r="G237" t="n">
-        <v>-1196037.05923661</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7523,15 @@
         <v>19907.6365</v>
       </c>
       <c r="G238" t="n">
-        <v>-1215944.69573661</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7553,15 @@
         <v>154.6163</v>
       </c>
       <c r="G239" t="n">
-        <v>-1216099.31203661</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7583,15 @@
         <v>25.8709</v>
       </c>
       <c r="G240" t="n">
-        <v>-1216099.31203661</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7613,15 @@
         <v>26781.1888</v>
       </c>
       <c r="G241" t="n">
-        <v>-1216099.31203661</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7643,15 @@
         <v>97076.795</v>
       </c>
       <c r="G242" t="n">
-        <v>-1216099.31203661</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7673,15 @@
         <v>500</v>
       </c>
       <c r="G243" t="n">
-        <v>-1215599.31203661</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7703,15 @@
         <v>4625.8432</v>
       </c>
       <c r="G244" t="n">
-        <v>-1210973.46883661</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7733,15 @@
         <v>639.0928</v>
       </c>
       <c r="G245" t="n">
-        <v>-1210334.37603661</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7763,15 @@
         <v>13183.2531</v>
       </c>
       <c r="G246" t="n">
-        <v>-1223517.62913661</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7793,15 @@
         <v>36083.8881</v>
       </c>
       <c r="G247" t="n">
-        <v>-1259601.51723661</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7823,15 @@
         <v>5000</v>
       </c>
       <c r="G248" t="n">
-        <v>-1254601.51723661</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7853,15 @@
         <v>215053.714</v>
       </c>
       <c r="G249" t="n">
-        <v>-1469655.23123661</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7883,15 @@
         <v>104922.46835443</v>
       </c>
       <c r="G250" t="n">
-        <v>-1574577.69959104</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7913,15 @@
         <v>534.8576</v>
       </c>
       <c r="G251" t="n">
-        <v>-1574042.84199104</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7943,15 @@
         <v>172.8825</v>
       </c>
       <c r="G252" t="n">
-        <v>-1573869.95949104</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +7973,15 @@
         <v>2607.1235</v>
       </c>
       <c r="G253" t="n">
-        <v>-1576477.08299104</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8003,15 @@
         <v>1076.2331</v>
       </c>
       <c r="G254" t="n">
-        <v>-1576477.08299104</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8033,15 @@
         <v>211853.116</v>
       </c>
       <c r="G255" t="n">
-        <v>-1788330.19899104</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8063,15 @@
         <v>5403.232</v>
       </c>
       <c r="G256" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8093,15 @@
         <v>11017.6381</v>
       </c>
       <c r="G257" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8123,15 @@
         <v>2373.2318</v>
       </c>
       <c r="G258" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8153,15 @@
         <v>81918.56630000001</v>
       </c>
       <c r="G259" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8183,15 @@
         <v>10113.2398</v>
       </c>
       <c r="G260" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8213,15 @@
         <v>7620.585</v>
       </c>
       <c r="G261" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8243,15 @@
         <v>2097.6131</v>
       </c>
       <c r="G262" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8273,15 @@
         <v>323.5</v>
       </c>
       <c r="G263" t="n">
-        <v>-1782926.96699104</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8303,15 @@
         <v>590.1127</v>
       </c>
       <c r="G264" t="n">
-        <v>-1783517.07969104</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8333,15 @@
         <v>15.383</v>
       </c>
       <c r="G265" t="n">
-        <v>-1783532.46269104</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +8363,15 @@
         <v>322.2025</v>
       </c>
       <c r="G266" t="n">
-        <v>-1783210.26019104</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +8393,19 @@
         <v>24989.3907</v>
       </c>
       <c r="G267" t="n">
-        <v>-1783210.26019104</v>
+        <v>1</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>50.46</v>
+      </c>
+      <c r="I267" t="n">
+        <v>50.46</v>
+      </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,22 +8427,23 @@
         <v>32410</v>
       </c>
       <c r="G268" t="n">
-        <v>-1750800.26019104</v>
+        <v>1</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>50.46</v>
       </c>
       <c r="I268" t="n">
         <v>50.46</v>
       </c>
-      <c r="J268" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9263,26 +8465,23 @@
         <v>20</v>
       </c>
       <c r="G269" t="n">
-        <v>-1750780.26019104</v>
+        <v>1</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>50.76</v>
       </c>
       <c r="I269" t="n">
-        <v>50.76</v>
-      </c>
-      <c r="J269" t="n">
         <v>50.46</v>
       </c>
-      <c r="K269" t="inlineStr">
+      <c r="J269" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9304,480 +8503,453 @@
         <v>15.7971</v>
       </c>
       <c r="G270" t="n">
-        <v>-1750796.05729104</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>50.46</v>
-      </c>
-      <c r="K270" t="inlineStr">
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="C271" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="D271" t="n">
+        <v>50.51</v>
+      </c>
+      <c r="E271" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="F271" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="C272" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="D272" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="E272" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="F272" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G272" t="n">
+        <v>1</v>
+      </c>
+      <c r="H272" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="I272" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="C273" t="n">
+        <v>50.64</v>
+      </c>
+      <c r="D273" t="n">
+        <v>50.64</v>
+      </c>
+      <c r="E273" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="F273" t="n">
+        <v>40053.7638</v>
+      </c>
+      <c r="G273" t="n">
+        <v>1</v>
+      </c>
+      <c r="H273" t="n">
+        <v>50.41</v>
+      </c>
+      <c r="I273" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="J273" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>50.51</v>
-      </c>
-      <c r="C271" t="n">
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="C274" t="n">
         <v>50.39</v>
       </c>
-      <c r="D271" t="n">
-        <v>50.51</v>
-      </c>
-      <c r="E271" t="n">
+      <c r="D274" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="E274" t="n">
         <v>50.39</v>
       </c>
-      <c r="F271" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-1800796.05729104</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>50.41</v>
-      </c>
-      <c r="C272" t="n">
-        <v>50.41</v>
-      </c>
-      <c r="D272" t="n">
-        <v>50.41</v>
-      </c>
-      <c r="E272" t="n">
-        <v>50.41</v>
-      </c>
-      <c r="F272" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-1760796.05729104</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="C273" t="n">
+      <c r="F274" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G274" t="n">
+        <v>1</v>
+      </c>
+      <c r="H274" t="n">
         <v>50.64</v>
       </c>
-      <c r="D273" t="n">
-        <v>50.64</v>
-      </c>
-      <c r="E273" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="F273" t="n">
-        <v>40053.7638</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-1720742.29349104</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>50.41</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
+      <c r="I274" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="J274" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
         <v>50.4</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C275" t="n">
+        <v>50.65</v>
+      </c>
+      <c r="D275" t="n">
+        <v>50.65</v>
+      </c>
+      <c r="E275" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="F275" t="n">
+        <v>9700</v>
+      </c>
+      <c r="G275" t="n">
+        <v>1</v>
+      </c>
+      <c r="H275" t="n">
         <v>50.39</v>
       </c>
-      <c r="D274" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="E274" t="n">
+      <c r="I275" t="n">
         <v>50.39</v>
       </c>
-      <c r="F274" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-1750742.29349104</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>50.64</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
+      <c r="J275" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="C275" t="n">
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>50.54</v>
+      </c>
+      <c r="C276" t="n">
+        <v>50.54</v>
+      </c>
+      <c r="D276" t="n">
+        <v>50.54</v>
+      </c>
+      <c r="E276" t="n">
+        <v>50.54</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G276" t="n">
+        <v>1</v>
+      </c>
+      <c r="H276" t="n">
         <v>50.65</v>
       </c>
-      <c r="D275" t="n">
-        <v>50.65</v>
-      </c>
-      <c r="E275" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="F275" t="n">
-        <v>9700</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-1741042.29349104</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
+      <c r="I276" t="n">
         <v>50.39</v>
       </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
+      <c r="J276" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="C277" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="D277" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="E277" t="n">
+        <v>50.62</v>
+      </c>
+      <c r="F277" t="n">
+        <v>2470.5967</v>
+      </c>
+      <c r="G277" t="n">
+        <v>1</v>
+      </c>
+      <c r="H277" t="n">
         <v>50.54</v>
       </c>
-      <c r="C276" t="n">
-        <v>50.54</v>
-      </c>
-      <c r="D276" t="n">
-        <v>50.54</v>
-      </c>
-      <c r="E276" t="n">
-        <v>50.54</v>
-      </c>
-      <c r="F276" t="n">
-        <v>1100</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-1742142.29349104</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>50.65</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
+      <c r="I277" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="J277" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="C277" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="D277" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="E277" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="F277" t="n">
-        <v>2470.5967</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-1739671.69679104</v>
-      </c>
-      <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>50.54</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="C278" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="D278" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="E278" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="F278" t="n">
+        <v>6851.6462</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="J278" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="C278" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="D278" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="E278" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="F278" t="n">
-        <v>6851.6462</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-1746523.34299104</v>
-      </c>
-      <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>50.62</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="C279" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="D279" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="E279" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="F279" t="n">
+        <v>27211.4828</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="J279" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
         <v>50.47</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C280" t="n">
         <v>50.47</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D280" t="n">
         <v>50.47</v>
       </c>
-      <c r="E279" t="n">
+      <c r="E280" t="n">
         <v>50.47</v>
       </c>
-      <c r="F279" t="n">
-        <v>27211.4828</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-1773734.82579104</v>
-      </c>
-      <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>50.56</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
+      <c r="F280" t="n">
+        <v>1977.9127</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="J280" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>50.22</v>
+      </c>
+      <c r="C281" t="n">
+        <v>50.21</v>
+      </c>
+      <c r="D281" t="n">
+        <v>50.22</v>
+      </c>
+      <c r="E281" t="n">
+        <v>50.21</v>
+      </c>
+      <c r="F281" t="n">
+        <v>72612.0021</v>
+      </c>
+      <c r="G281" t="n">
+        <v>1</v>
+      </c>
+      <c r="H281" t="n">
         <v>50.47</v>
       </c>
-      <c r="C280" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="D280" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="E280" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="F280" t="n">
-        <v>1977.9127</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-1773734.82579104</v>
-      </c>
-      <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
+      <c r="I281" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="J281" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>50.22</v>
-      </c>
-      <c r="C281" t="n">
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="C282" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="D282" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="E282" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="F282" t="n">
+        <v>475.6342</v>
+      </c>
+      <c r="G282" t="n">
+        <v>1</v>
+      </c>
+      <c r="H282" t="n">
         <v>50.21</v>
       </c>
-      <c r="D281" t="n">
-        <v>50.22</v>
-      </c>
-      <c r="E281" t="n">
-        <v>50.21</v>
-      </c>
-      <c r="F281" t="n">
-        <v>72612.0021</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-1846346.82789104</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>50.47</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
+      <c r="I282" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="J282" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="C282" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="D282" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="E282" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="F282" t="n">
-        <v>475.6342</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-1845871.19369104</v>
-      </c>
-      <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>50.21</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
